--- a/techniqo/candlepattern/smallcap_50.xlsx
+++ b/techniqo/candlepattern/smallcap_50.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college\Websitee\techniqo\candlepattern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college\webend\techniqo\candlepattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -674,7 +674,7 @@
   <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AW6" sqref="AW6"/>
+      <selection activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,38 +840,38 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="C2">
-        <v>544.75</v>
+        <v>544.5</v>
       </c>
       <c r="D2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E2">
-        <v>523.29999999999995</v>
+        <v>535.35</v>
       </c>
       <c r="F2">
-        <v>51.749999999999943</v>
+        <v>63.450000000000053</v>
       </c>
       <c r="G2">
-        <v>10.97444597603646</v>
+        <v>13.445645263827091</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H33" si="0">(E2-B2)/B2*100</f>
-        <v>3.4189723320158008</v>
+        <v>10.381443298969078</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I33" si="1">ABS(H2)</f>
-        <v>3.4189723320158008</v>
+        <v>10.381443298969078</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J33" si="2">IF(H2&gt;=0,(C2-E2)/E2*100,(C2-B2)/B2*100)</f>
-        <v>4.0989871966367373</v>
+        <v>1.7091622303166112</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K33" si="3">IF(H2&gt;=0,(B2-D2)/B2*100,(E2-D2)/E2*100)</f>
-        <v>3.1620553359683794</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1" t="str">
         <f t="shared" ref="L2:L33" si="4">IF(AND((K2-J2)&gt;1.5,I2&lt;0.5),"YES","NO")</f>
@@ -902,38 +902,38 @@
         <v>NO</v>
       </c>
       <c r="S2">
-        <v>485.9</v>
+        <v>473.2</v>
       </c>
       <c r="T2">
-        <v>486.85</v>
+        <v>476.75</v>
       </c>
       <c r="U2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="V2">
-        <v>471.55</v>
+        <v>471.9</v>
       </c>
       <c r="W2">
-        <v>-10.19999999999999</v>
+        <v>-1.3000000000000109</v>
       </c>
       <c r="X2">
-        <v>-2.1172807472755562</v>
+        <v>-0.27472527472527708</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ref="Y2:Y33" si="11">(V2-S2)/S2*100</f>
-        <v>-2.953282568429711</v>
+        <v>-0.27472527472527714</v>
       </c>
       <c r="Z2" s="1">
         <f t="shared" ref="Z2:Z33" si="12">ABS(Y2)</f>
-        <v>2.953282568429711</v>
+        <v>0.27472527472527714</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA33" si="13">IF(Y2&gt;=0,(T2-V2)/V2*100,(T2-S2)/S2*100)</f>
-        <v>0.19551348013995584</v>
+        <v>0.75021132713440652</v>
       </c>
       <c r="AB2" s="1">
         <f t="shared" ref="AB2:AB33" si="14">IF(Y2&gt;=0,(S2-U2)/S2*100,(V2-U2)/V2*100)</f>
-        <v>0.32870321280882436</v>
+        <v>1.0383555838101246</v>
       </c>
       <c r="AC2" s="1" t="str">
         <f t="shared" ref="AC2:AC33" si="15">IF(AND(I2&lt;Z2/2,S2&gt;E2,E2&gt;(S2+V2)/2,V2&lt;B2,B2&lt;(S2+V2)/2),"YES","NO")</f>
@@ -960,38 +960,38 @@
         <v>NO</v>
       </c>
       <c r="AI2">
-        <v>480.4</v>
+        <v>469.7</v>
       </c>
       <c r="AJ2">
-        <v>492.7</v>
+        <v>487.7</v>
       </c>
       <c r="AK2">
-        <v>478.1</v>
+        <v>467.05</v>
       </c>
       <c r="AL2">
-        <v>481.75</v>
+        <v>473.2</v>
       </c>
       <c r="AM2">
-        <v>4.3000000000000114</v>
+        <v>9.3999999999999773</v>
       </c>
       <c r="AN2">
-        <v>0.9006178657451066</v>
+        <v>2.026735661923238</v>
       </c>
       <c r="AO2" s="1">
         <f t="shared" ref="AO2:AO33" si="21">(AL2-AI2)/AI2*100</f>
-        <v>0.28101582014987986</v>
+        <v>0.7451564828614009</v>
       </c>
       <c r="AP2" s="1">
         <f t="shared" ref="AP2:AP33" si="22">ABS(AO2)</f>
-        <v>0.28101582014987986</v>
+        <v>0.7451564828614009</v>
       </c>
       <c r="AQ2" s="1">
         <f t="shared" ref="AQ2:AQ33" si="23">IF(AO2&gt;=0,(AJ2-AL2)/AL2*100,(AJ2-AI2)/AI2*100)</f>
-        <v>2.2729631551634641</v>
+        <v>3.0642434488588335</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" ref="AR2:AR33" si="24">IF(AO2&gt;=0,(AI2-AK2)/AI2*100,(AL2-AK2)/AL2*100)</f>
-        <v>0.47876769358866661</v>
+        <v>0.56418990845219874</v>
       </c>
       <c r="AS2" t="str">
         <f t="shared" ref="AS2:AS33" si="25">IF(AND(AO2&lt;0,AP2&gt;1.5,Y2&lt;0,Z2&gt;1.5,AL2&gt;S2,AL2&lt;E2,H2&gt;0,I2&gt;1.5),"YES","NO")</f>
@@ -1023,38 +1023,38 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>402.9</v>
+        <v>462.9</v>
       </c>
       <c r="C3">
-        <v>403</v>
+        <v>503.4</v>
       </c>
       <c r="D3">
-        <v>390</v>
+        <v>462.5</v>
       </c>
       <c r="E3">
-        <v>393.2</v>
+        <v>499.75</v>
       </c>
       <c r="F3">
-        <v>-9.6999999999999886</v>
+        <v>39.050000000000011</v>
       </c>
       <c r="G3">
-        <v>-2.40754529659965</v>
+        <v>8.4762318211417433</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>-2.40754529659965</v>
+        <v>7.9606826528407924</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>2.40754529659965</v>
+        <v>7.9606826528407924</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>2.4820054604125775E-2</v>
+        <v>0.73036518259129113</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="3"/>
-        <v>0.81383519837232676</v>
+        <v>8.6411751998266853E-2</v>
       </c>
       <c r="L3" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1085,38 +1085,38 @@
         <v>NO</v>
       </c>
       <c r="S3">
-        <v>409</v>
+        <v>460.05</v>
       </c>
       <c r="T3">
-        <v>410.85</v>
+        <v>468</v>
       </c>
       <c r="U3">
-        <v>402</v>
+        <v>453.1</v>
       </c>
       <c r="V3">
-        <v>402.9</v>
+        <v>460.7</v>
       </c>
       <c r="W3">
-        <v>-2.1500000000000341</v>
+        <v>2.1999999999999891</v>
       </c>
       <c r="X3">
-        <v>-0.53079866683126375</v>
+        <v>0.47982551799345441</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="11"/>
-        <v>-1.4914425427872917</v>
+        <v>0.14128899032713341</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="12"/>
-        <v>1.4914425427872917</v>
+        <v>0.14128899032713341</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="13"/>
-        <v>0.45232273838631359</v>
+        <v>1.5845452572172805</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="14"/>
-        <v>0.2233804914370755</v>
+        <v>1.5107053581132461</v>
       </c>
       <c r="AC3" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1143,38 +1143,38 @@
         <v>NO</v>
       </c>
       <c r="AI3">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="AJ3">
-        <v>412.5</v>
+        <v>471.1</v>
       </c>
       <c r="AK3">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="AL3">
-        <v>405.05</v>
+        <v>458.5</v>
       </c>
       <c r="AM3">
-        <v>-5.3000000000000114</v>
+        <v>6.8500000000000227</v>
       </c>
       <c r="AN3">
-        <v>-1.291580358230781</v>
+        <v>1.5166611314070679</v>
       </c>
       <c r="AO3" s="1">
         <f t="shared" si="21"/>
-        <v>-1.207317073170729</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="AP3" s="1">
         <f t="shared" si="22"/>
-        <v>1.207317073170729</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" si="23"/>
-        <v>0.6097560975609756</v>
+        <v>2.7480916030534401</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="24"/>
-        <v>0.75299345759783021</v>
+        <v>0.21978021978021978</v>
       </c>
       <c r="AS3" t="str">
         <f t="shared" si="25"/>
@@ -1206,38 +1206,38 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="C4">
-        <v>352.75</v>
+        <v>439.6</v>
       </c>
       <c r="D4">
-        <v>340.1</v>
+        <v>400.8</v>
       </c>
       <c r="E4">
-        <v>343.3</v>
+        <v>425.75</v>
       </c>
       <c r="F4">
-        <v>-11.099999999999969</v>
+        <v>34.300000000000011</v>
       </c>
       <c r="G4">
-        <v>-3.1320541760722258</v>
+        <v>8.7622940349980869</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>-1.914285714285711</v>
+        <v>5.9079601990049753</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>1.914285714285711</v>
+        <v>5.9079601990049753</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
-        <v>0.78571428571428581</v>
+        <v>3.2530827950675336</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="3"/>
-        <v>0.93212933294494271</v>
+        <v>0.29850746268656436</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1268,38 +1268,38 @@
         <v>NO</v>
       </c>
       <c r="S4">
-        <v>363.9</v>
+        <v>382</v>
       </c>
       <c r="T4">
-        <v>365</v>
+        <v>392.9</v>
       </c>
       <c r="U4">
-        <v>351.4</v>
+        <v>379.4</v>
       </c>
       <c r="V4">
-        <v>354.4</v>
+        <v>391.45</v>
       </c>
       <c r="W4">
-        <v>-7.1000000000000227</v>
+        <v>10.899999999999981</v>
       </c>
       <c r="X4">
-        <v>-1.964038727524211</v>
+        <v>2.864275390881613</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="11"/>
-        <v>-2.6106073097004674</v>
+        <v>2.4738219895287927</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" si="12"/>
-        <v>2.6106073097004674</v>
+        <v>2.4738219895287927</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="13"/>
-        <v>0.30228084638637615</v>
+        <v>0.37041767786434759</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="14"/>
-        <v>0.84650112866817162</v>
+        <v>0.68062827225131484</v>
       </c>
       <c r="AC4" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1326,38 +1326,38 @@
         <v>NO</v>
       </c>
       <c r="AI4">
-        <v>360.1</v>
+        <v>372.8</v>
       </c>
       <c r="AJ4">
-        <v>368.9</v>
+        <v>383</v>
       </c>
       <c r="AK4">
-        <v>356.55</v>
+        <v>372.8</v>
       </c>
       <c r="AL4">
-        <v>361.5</v>
+        <v>380.55</v>
       </c>
       <c r="AM4">
-        <v>-6.1999999999999886</v>
+        <v>8.6999999999999886</v>
       </c>
       <c r="AN4">
-        <v>-1.6861571933641519</v>
+        <v>2.3396530859217388</v>
       </c>
       <c r="AO4" s="1">
         <f t="shared" si="21"/>
-        <v>0.38878089419605033</v>
+        <v>2.078862660944206</v>
       </c>
       <c r="AP4" s="1">
         <f t="shared" si="22"/>
-        <v>0.38878089419605033</v>
+        <v>2.078862660944206</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" si="23"/>
-        <v>2.0470262793914182</v>
+        <v>0.64380501905137</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" si="24"/>
-        <v>0.9858372674257182</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="25"/>
@@ -1389,38 +1389,38 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>917.7</v>
+        <v>899</v>
       </c>
       <c r="C5">
-        <v>926.35</v>
+        <v>949.9</v>
       </c>
       <c r="D5">
-        <v>911.6</v>
+        <v>897</v>
       </c>
       <c r="E5">
-        <v>916</v>
+        <v>927.65</v>
       </c>
       <c r="F5">
-        <v>-10.350000000000019</v>
+        <v>33.699999999999932</v>
       </c>
       <c r="G5">
-        <v>-1.1172882819668619</v>
+        <v>3.7697857822025762</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.18524572300316502</v>
+        <v>3.1868743047830899</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>0.18524572300316502</v>
+        <v>3.1868743047830899</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>0.94257382586901783</v>
+        <v>2.39853392982267</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>0.48034934497816345</v>
+        <v>0.22246941045606228</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1451,38 +1451,38 @@
         <v>NO</v>
       </c>
       <c r="S5">
+        <v>909</v>
+      </c>
+      <c r="T5">
         <v>922.85</v>
       </c>
-      <c r="T5">
-        <v>935</v>
-      </c>
       <c r="U5">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="V5">
-        <v>926.35</v>
+        <v>893.95</v>
       </c>
       <c r="W5">
-        <v>8.25</v>
+        <v>-4.0499999999999554</v>
       </c>
       <c r="X5">
-        <v>0.89859492430018517</v>
+        <v>-0.45100222717148719</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="11"/>
-        <v>0.3792599013924256</v>
+        <v>-1.6556655665566509</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="12"/>
-        <v>0.3792599013924256</v>
+        <v>1.6556655665566509</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="13"/>
-        <v>0.93377233227181711</v>
+        <v>1.5236523652365261</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="14"/>
-        <v>1.3924256379693365</v>
+        <v>0.66558532356396272</v>
       </c>
       <c r="AC5" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1509,38 +1509,38 @@
         <v>NO</v>
       </c>
       <c r="AI5">
-        <v>918.6</v>
+        <v>883.9</v>
       </c>
       <c r="AJ5">
-        <v>927.25</v>
+        <v>899.9</v>
       </c>
       <c r="AK5">
-        <v>910.15</v>
+        <v>875</v>
       </c>
       <c r="AL5">
-        <v>918.1</v>
+        <v>898</v>
       </c>
       <c r="AM5">
-        <v>-8.9499999999999318</v>
+        <v>16.649999999999981</v>
       </c>
       <c r="AN5">
-        <v>-0.96542797044387385</v>
+        <v>1.8891473307993389</v>
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="21"/>
-        <v>-5.4430655345090354E-2</v>
+        <v>1.5952030772711874</v>
       </c>
       <c r="AP5" s="1">
         <f t="shared" si="22"/>
-        <v>5.4430655345090354E-2</v>
+        <v>1.5952030772711874</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="23"/>
-        <v>0.94165033747006066</v>
+        <v>0.21158129175946294</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="24"/>
-        <v>0.86591874523472889</v>
+        <v>1.0069012331711706</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="25"/>
@@ -1572,38 +1572,38 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="C6">
-        <v>120.8</v>
+        <v>186</v>
       </c>
       <c r="D6">
-        <v>115.2</v>
+        <v>164.55</v>
       </c>
       <c r="E6">
-        <v>120.1</v>
+        <v>180.7</v>
       </c>
       <c r="F6">
-        <v>-0.45000000000000279</v>
+        <v>19.649999999999981</v>
       </c>
       <c r="G6">
-        <v>-0.37328909166321272</v>
+        <v>12.201179757839171</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0.92436974789915483</v>
+        <v>8.20359281437125</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>0.92436974789915483</v>
+        <v>8.20359281437125</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>0.58284762697752113</v>
+        <v>2.9330381848367524</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>3.1932773109243673</v>
+        <v>1.4670658682634663</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="6"/>
@@ -1634,38 +1634,38 @@
         <v>NO</v>
       </c>
       <c r="S6">
-        <v>118</v>
+        <v>162.85</v>
       </c>
       <c r="T6">
-        <v>124</v>
+        <v>162.85</v>
       </c>
       <c r="U6">
-        <v>117.5</v>
+        <v>160.25</v>
       </c>
       <c r="V6">
-        <v>120.55</v>
+        <v>161.05000000000001</v>
       </c>
       <c r="W6">
-        <v>3.399999999999991</v>
+        <v>-0.94999999999998863</v>
       </c>
       <c r="X6">
-        <v>2.9022620571916269</v>
+        <v>-0.58641975308641281</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="11"/>
-        <v>2.1610169491525397</v>
+        <v>-1.1053116364752735</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="12"/>
-        <v>2.1610169491525397</v>
+        <v>1.1053116364752735</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="13"/>
-        <v>2.8618830360846146</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="14"/>
-        <v>0.42372881355932202</v>
+        <v>0.4967401428127981</v>
       </c>
       <c r="AC6" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1692,38 +1692,38 @@
         <v>NO</v>
       </c>
       <c r="AI6">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="AJ6">
-        <v>118.95</v>
+        <v>163</v>
       </c>
       <c r="AK6">
-        <v>115.2</v>
+        <v>159</v>
       </c>
       <c r="AL6">
-        <v>117.15</v>
+        <v>162</v>
       </c>
       <c r="AM6">
-        <v>-1.7999999999999969</v>
+        <v>3.8000000000000109</v>
       </c>
       <c r="AN6">
-        <v>-1.51324085750315</v>
+        <v>2.402022756005064</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="21"/>
-        <v>-0.72033898305084265</v>
+        <v>1.8867924528301887</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="22"/>
-        <v>0.72033898305084265</v>
+        <v>1.8867924528301887</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="23"/>
-        <v>0.80508474576271427</v>
+        <v>0.61728395061728392</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="24"/>
-        <v>1.6645326504481459</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="25"/>
@@ -1755,38 +1755,38 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>304.85000000000002</v>
+        <v>342</v>
       </c>
       <c r="C7">
-        <v>306.95</v>
+        <v>380.9</v>
       </c>
       <c r="D7">
-        <v>295.2</v>
+        <v>340.35</v>
       </c>
       <c r="E7">
-        <v>298.10000000000002</v>
+        <v>376</v>
       </c>
       <c r="F7">
-        <v>-9.75</v>
+        <v>37.800000000000011</v>
       </c>
       <c r="G7">
-        <v>-3.1671268474906609</v>
+        <v>11.17681845062094</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>-2.2142037067410199</v>
+        <v>9.9415204678362574</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>2.2142037067410199</v>
+        <v>9.9415204678362574</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>0.68886337543052845</v>
+        <v>1.303191489361696</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>0.97282791009729408</v>
+        <v>0.48245614035087053</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1817,38 +1817,38 @@
         <v>NO</v>
       </c>
       <c r="S7">
-        <v>311</v>
+        <v>337.5</v>
       </c>
       <c r="T7">
-        <v>314</v>
+        <v>343.4</v>
       </c>
       <c r="U7">
-        <v>303.85000000000002</v>
+        <v>334</v>
       </c>
       <c r="V7">
-        <v>307.85000000000002</v>
+        <v>338.2</v>
       </c>
       <c r="W7">
-        <v>0.40000000000003411</v>
+        <v>0.75</v>
       </c>
       <c r="X7">
-        <v>0.13010245568386211</v>
+        <v>0.2222551489109498</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="11"/>
-        <v>-1.0128617363343977</v>
+        <v>0.20740740740740402</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="12"/>
-        <v>1.0128617363343977</v>
+        <v>0.20740740740740402</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="13"/>
-        <v>0.96463022508038598</v>
+        <v>1.5375517445298608</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="14"/>
-        <v>1.2993340912782199</v>
+        <v>1.037037037037037</v>
       </c>
       <c r="AC7" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1875,38 +1875,38 @@
         <v>NO</v>
       </c>
       <c r="AI7">
-        <v>303.5</v>
+        <v>339.7</v>
       </c>
       <c r="AJ7">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="AK7">
-        <v>301.60000000000002</v>
+        <v>330.05</v>
       </c>
       <c r="AL7">
-        <v>307.45</v>
+        <v>337.45</v>
       </c>
       <c r="AM7">
-        <v>2.1499999999999768</v>
+        <v>1.149999999999977</v>
       </c>
       <c r="AN7">
-        <v>0.70422535211266857</v>
+        <v>0.34195658638120052</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="21"/>
-        <v>1.3014827018121873</v>
+        <v>-0.66234913158669417</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="22"/>
-        <v>1.3014827018121873</v>
+        <v>0.66234913158669417</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="23"/>
-        <v>1.1546592941941816</v>
+        <v>1.5602001766264384</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="24"/>
-        <v>0.62602965403623634</v>
+        <v>2.1929174692546978</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="25"/>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AV7" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW7" t="str">
         <f t="shared" si="29"/>
@@ -1938,38 +1938,38 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>145.80000000000001</v>
+        <v>145</v>
       </c>
       <c r="C8">
-        <v>147</v>
+        <v>149.35</v>
       </c>
       <c r="D8">
-        <v>141.6</v>
+        <v>145</v>
       </c>
       <c r="E8">
-        <v>143.25</v>
+        <v>148.55000000000001</v>
       </c>
       <c r="F8">
-        <v>-1.0999999999999941</v>
+        <v>5.9000000000000057</v>
       </c>
       <c r="G8">
-        <v>-0.76203671631450942</v>
+        <v>4.1359971959341078</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>-1.7489711934156456</v>
+        <v>2.4482758620689733</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>1.7489711934156456</v>
+        <v>2.4482758620689733</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>0.82304526748970397</v>
+        <v>0.53853921238639035</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>1.1518324607329882</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2000,38 +2000,38 @@
         <v>NO</v>
       </c>
       <c r="S8">
-        <v>146.69999999999999</v>
+        <v>142.5</v>
       </c>
       <c r="T8">
-        <v>148.44999999999999</v>
+        <v>144.5</v>
       </c>
       <c r="U8">
-        <v>143.69999999999999</v>
+        <v>139.9</v>
       </c>
       <c r="V8">
-        <v>144.35</v>
+        <v>142.65</v>
       </c>
       <c r="W8">
-        <v>-0.59999999999999432</v>
+        <v>1.5500000000000109</v>
       </c>
       <c r="X8">
-        <v>-0.41393583994480471</v>
+        <v>1.0985116938341679</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="11"/>
-        <v>-1.6019086571233774</v>
+        <v>0.10526315789474083</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="12"/>
-        <v>1.6019086571233774</v>
+        <v>0.10526315789474083</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="13"/>
-        <v>1.1929107021131562</v>
+        <v>1.2968804766911983</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="14"/>
-        <v>0.45029442327676183</v>
+        <v>1.8245614035087681</v>
       </c>
       <c r="AC8" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2058,38 +2058,38 @@
         <v>NO</v>
       </c>
       <c r="AI8">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AJ8">
-        <v>147</v>
+        <v>141.75</v>
       </c>
       <c r="AK8">
-        <v>142</v>
+        <v>135.25</v>
       </c>
       <c r="AL8">
-        <v>144.94999999999999</v>
+        <v>141.1</v>
       </c>
       <c r="AM8">
-        <v>1.3499999999999941</v>
+        <v>5.7999999999999829</v>
       </c>
       <c r="AN8">
-        <v>0.94011142061280939</v>
+        <v>4.286770140428664</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="21"/>
-        <v>2.0774647887323865</v>
+        <v>2.992700729927003</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="22"/>
-        <v>2.0774647887323865</v>
+        <v>2.992700729927003</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="23"/>
-        <v>1.414280786478104</v>
+        <v>0.46066619418852284</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.2773722627737227</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="25"/>
@@ -2121,38 +2121,38 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>320</v>
+        <v>332.1</v>
       </c>
       <c r="C9">
-        <v>320.95</v>
+        <v>339.7</v>
       </c>
       <c r="D9">
-        <v>304.2</v>
+        <v>332.1</v>
       </c>
       <c r="E9">
-        <v>305.3</v>
+        <v>336.05</v>
       </c>
       <c r="F9">
-        <v>-14.30000000000001</v>
+        <v>7.6000000000000227</v>
       </c>
       <c r="G9">
-        <v>-4.4743429286608292</v>
+        <v>2.3138986147054421</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>-4.5937499999999964</v>
+        <v>1.1894007828967144</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>4.5937499999999964</v>
+        <v>1.1894007828967144</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>0.29687499999999645</v>
+        <v>1.0861478946585263</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>0.36030134294137656</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2183,38 +2183,38 @@
         <v>NO</v>
       </c>
       <c r="S9">
-        <v>308.25</v>
+        <v>328.5</v>
       </c>
       <c r="T9">
-        <v>324.5</v>
+        <v>330.95</v>
       </c>
       <c r="U9">
-        <v>308.25</v>
+        <v>326.10000000000002</v>
       </c>
       <c r="V9">
-        <v>319.60000000000002</v>
+        <v>328.45</v>
       </c>
       <c r="W9">
-        <v>16.200000000000049</v>
+        <v>1.399999999999977</v>
       </c>
       <c r="X9">
-        <v>5.3394858272907211</v>
+        <v>0.42806910258369579</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="11"/>
-        <v>3.68207623682077</v>
+        <v>-1.5220700152210461E-2</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" si="12"/>
-        <v>3.68207623682077</v>
+        <v>1.5220700152210461E-2</v>
       </c>
       <c r="AA9" s="1">
         <f t="shared" si="13"/>
-        <v>1.5331664580725834</v>
+        <v>0.74581430745813959</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.71548180849443321</v>
       </c>
       <c r="AC9" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2241,38 +2241,38 @@
         <v>NO</v>
       </c>
       <c r="AI9">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="AJ9">
-        <v>314.10000000000002</v>
+        <v>331.45</v>
       </c>
       <c r="AK9">
-        <v>300.10000000000002</v>
+        <v>325.8</v>
       </c>
       <c r="AL9">
-        <v>303.39999999999998</v>
+        <v>327.05</v>
       </c>
       <c r="AM9">
-        <v>-6.2000000000000446</v>
+        <v>-2.8499999999999659</v>
       </c>
       <c r="AN9">
-        <v>-2.0025839793281799</v>
+        <v>-0.86389815095482458</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="21"/>
-        <v>-1.8122977346278391</v>
+        <v>-1.1933534743202383</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="22"/>
-        <v>1.8122977346278391</v>
+        <v>1.1933534743202383</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="23"/>
-        <v>1.6504854368932114</v>
+        <v>0.1359516616314165</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="24"/>
-        <v>1.0876730388925362</v>
+        <v>0.38220455587830604</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="25"/>
@@ -2304,38 +2304,38 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>272.10000000000002</v>
+        <v>381.15</v>
       </c>
       <c r="C10">
-        <v>276</v>
+        <v>411</v>
       </c>
       <c r="D10">
-        <v>267</v>
+        <v>381.15</v>
       </c>
       <c r="E10">
-        <v>272.7</v>
+        <v>403.7</v>
       </c>
       <c r="F10">
-        <v>-2.8000000000000109</v>
+        <v>26.199999999999989</v>
       </c>
       <c r="G10">
-        <v>-1.0163339382940151</v>
+        <v>6.9403973509933738</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>0.22050716648289811</v>
+        <v>5.9163059163059195</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>0.22050716648289811</v>
+        <v>5.9163059163059195</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>1.2101210121012145</v>
+        <v>1.8082734703988139</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>1.8743109151047492</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2366,38 +2366,38 @@
         <v>NO</v>
       </c>
       <c r="S10">
-        <v>282.5</v>
+        <v>393.5</v>
       </c>
       <c r="T10">
-        <v>286.35000000000002</v>
+        <v>393.5</v>
       </c>
       <c r="U10">
-        <v>272.2</v>
+        <v>372</v>
       </c>
       <c r="V10">
-        <v>275.5</v>
+        <v>377.5</v>
       </c>
       <c r="W10">
-        <v>-2.1499999999999768</v>
+        <v>-12.55000000000001</v>
       </c>
       <c r="X10">
-        <v>-0.77435620385376458</v>
+        <v>-3.2175362133059902</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="11"/>
-        <v>-2.4778761061946901</v>
+        <v>-4.066073697585769</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="12"/>
-        <v>2.4778761061946901</v>
+        <v>4.066073697585769</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="13"/>
-        <v>1.3628318584070878</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="14"/>
-        <v>1.1978221415608026</v>
+        <v>1.4569536423841061</v>
       </c>
       <c r="AC10" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2424,38 +2424,38 @@
         <v>NO</v>
       </c>
       <c r="AI10">
-        <v>255</v>
+        <v>385</v>
       </c>
       <c r="AJ10">
-        <v>280</v>
+        <v>394</v>
       </c>
       <c r="AK10">
-        <v>252</v>
+        <v>383.05</v>
       </c>
       <c r="AL10">
-        <v>277.64999999999998</v>
+        <v>390.05</v>
       </c>
       <c r="AM10">
-        <v>21.549999999999951</v>
+        <v>10.75</v>
       </c>
       <c r="AN10">
-        <v>8.4146817649355548</v>
+        <v>2.8341682045873982</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="21"/>
-        <v>8.8823529411764621</v>
+        <v>1.3116883116883147</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="22"/>
-        <v>8.8823529411764621</v>
+        <v>1.3116883116883147</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="23"/>
-        <v>0.84638933909599245</v>
+        <v>1.0126906806819609</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="24"/>
-        <v>1.1764705882352942</v>
+        <v>0.50649350649350355</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="25"/>
@@ -2487,38 +2487,38 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C11">
-        <v>83.7</v>
+        <v>91.75</v>
       </c>
       <c r="D11">
-        <v>78.55</v>
+        <v>87</v>
       </c>
       <c r="E11">
-        <v>78.8</v>
+        <v>90.6</v>
       </c>
       <c r="F11">
-        <v>-2.9500000000000028</v>
+        <v>5.0999999999999943</v>
       </c>
       <c r="G11">
-        <v>-3.6085626911315019</v>
+        <v>5.9649122807017481</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>-3.9024390243902474</v>
+        <v>4.1379310344827527</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>3.9024390243902474</v>
+        <v>4.1379310344827527</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>2.0731707317073207</v>
+        <v>1.2693156732891895</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>0.31725888324873097</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2549,38 +2549,38 @@
         <v>NO</v>
       </c>
       <c r="S11">
-        <v>83</v>
+        <v>86.9</v>
       </c>
       <c r="T11">
-        <v>83.8</v>
+        <v>87.8</v>
       </c>
       <c r="U11">
-        <v>81.2</v>
+        <v>84.85</v>
       </c>
       <c r="V11">
-        <v>81.75</v>
+        <v>85.5</v>
       </c>
       <c r="W11">
-        <v>9.9999999999994316E-2</v>
+        <v>-1.0499999999999969</v>
       </c>
       <c r="X11">
-        <v>0.12247397428045841</v>
+        <v>-1.2131715771230469</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="11"/>
-        <v>-1.5060240963855422</v>
+        <v>-1.6110471806674402</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="12"/>
-        <v>1.5060240963855422</v>
+        <v>1.6110471806674402</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="13"/>
-        <v>0.96385542168674365</v>
+        <v>1.0356731875719118</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="14"/>
-        <v>0.67278287461773356</v>
+        <v>0.76023391812866159</v>
       </c>
       <c r="AC11" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2607,38 +2607,38 @@
         <v>NO</v>
       </c>
       <c r="AI11">
-        <v>78.75</v>
+        <v>85.9</v>
       </c>
       <c r="AJ11">
-        <v>82.65</v>
+        <v>88.45</v>
       </c>
       <c r="AK11">
-        <v>78.099999999999994</v>
+        <v>85.9</v>
       </c>
       <c r="AL11">
-        <v>81.650000000000006</v>
+        <v>86.55</v>
       </c>
       <c r="AM11">
-        <v>1.600000000000009</v>
+        <v>1.0499999999999969</v>
       </c>
       <c r="AN11">
-        <v>1.9987507807620339</v>
+        <v>1.228070175438593</v>
       </c>
       <c r="AO11" s="1">
         <f t="shared" si="21"/>
-        <v>3.6825396825396899</v>
+        <v>0.75669383003491442</v>
       </c>
       <c r="AP11" s="1">
         <f t="shared" si="22"/>
-        <v>3.6825396825396899</v>
+        <v>0.75669383003491442</v>
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="23"/>
-        <v>1.224739742804654</v>
+        <v>2.1952628538417165</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="24"/>
-        <v>0.82539682539683257</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="25"/>
@@ -2670,38 +2670,38 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>337.85</v>
+        <v>347.45</v>
       </c>
       <c r="C12">
-        <v>338.5</v>
+        <v>361.65</v>
       </c>
       <c r="D12">
-        <v>320</v>
+        <v>347.05</v>
       </c>
       <c r="E12">
-        <v>324.10000000000002</v>
+        <v>357</v>
       </c>
       <c r="F12">
-        <v>-13.69999999999999</v>
+        <v>12.44999999999999</v>
       </c>
       <c r="G12">
-        <v>-4.0556542332741232</v>
+        <v>3.6134087940792301</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>-4.0698534852745301</v>
+        <v>2.7485969204202076</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>4.0698534852745301</v>
+        <v>2.7485969204202076</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>0.19239307384933468</v>
+        <v>1.3025210084033549</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>1.2650416538105593</v>
+        <v>0.11512447834220096</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2732,38 +2732,38 @@
         <v>NO</v>
       </c>
       <c r="S12">
-        <v>332</v>
+        <v>343.5</v>
       </c>
       <c r="T12">
-        <v>345</v>
+        <v>347.5</v>
       </c>
       <c r="U12">
-        <v>330.1</v>
+        <v>341.95</v>
       </c>
       <c r="V12">
-        <v>337.8</v>
+        <v>344.55</v>
       </c>
       <c r="W12">
-        <v>8.5</v>
+        <v>1.600000000000023</v>
       </c>
       <c r="X12">
-        <v>2.5812329183115699</v>
+        <v>0.46654031199884027</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="11"/>
-        <v>1.7469879518072322</v>
+        <v>0.30567685589519983</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="12"/>
-        <v>1.7469879518072322</v>
+        <v>0.30567685589519983</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="13"/>
-        <v>2.1314387211367638</v>
+        <v>0.85618923233202404</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="14"/>
-        <v>0.57228915662649915</v>
+        <v>0.45123726346434107</v>
       </c>
       <c r="AC12" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2790,38 +2790,38 @@
         <v>NO</v>
       </c>
       <c r="AI12">
-        <v>326.5</v>
+        <v>343.7</v>
       </c>
       <c r="AJ12">
-        <v>332.1</v>
+        <v>346.7</v>
       </c>
       <c r="AK12">
-        <v>321</v>
+        <v>337.5</v>
       </c>
       <c r="AL12">
-        <v>329.3</v>
+        <v>342.95</v>
       </c>
       <c r="AM12">
-        <v>2.3000000000000109</v>
+        <v>4.5999999999999659</v>
       </c>
       <c r="AN12">
-        <v>0.7033639143730922</v>
+        <v>1.359538938968514</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="21"/>
-        <v>0.85758039816233123</v>
+        <v>-0.21821355833575792</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="22"/>
-        <v>0.85758039816233123</v>
+        <v>0.21821355833575792</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="23"/>
-        <v>0.85028849073793233</v>
+        <v>0.87285423334303169</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="24"/>
-        <v>1.6845329249617151</v>
+        <v>1.5891529377460238</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="25"/>
@@ -2853,38 +2853,38 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>503.8</v>
+        <v>755</v>
       </c>
       <c r="C13">
-        <v>505.15</v>
+        <v>801.8</v>
       </c>
       <c r="D13">
-        <v>490.15</v>
+        <v>753.6</v>
       </c>
       <c r="E13">
-        <v>493.1</v>
+        <v>795.6</v>
       </c>
       <c r="F13">
-        <v>-11</v>
+        <v>62.450000000000053</v>
       </c>
       <c r="G13">
-        <v>-2.1821067248561792</v>
+        <v>8.5180386005592368</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>-2.1238586740770122</v>
+        <v>5.3774834437086128</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>2.1238586740770122</v>
+        <v>5.3774834437086128</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>0.26796347757045769</v>
+        <v>0.77928607340371192</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>0.59825593185967252</v>
+        <v>0.18543046357615592</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2915,38 +2915,38 @@
         <v>NO</v>
       </c>
       <c r="S13">
-        <v>507</v>
+        <v>757.85</v>
       </c>
       <c r="T13">
-        <v>509.25</v>
+        <v>769.75</v>
       </c>
       <c r="U13">
-        <v>501.2</v>
+        <v>727</v>
       </c>
       <c r="V13">
-        <v>504.1</v>
+        <v>733.15</v>
       </c>
       <c r="W13">
-        <v>0.80000000000001137</v>
+        <v>-18.450000000000049</v>
       </c>
       <c r="X13">
-        <v>0.15895092390224741</v>
+        <v>-2.4547631718999532</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="11"/>
-        <v>-0.5719921104536444</v>
+        <v>-3.2592201623012533</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="12"/>
-        <v>0.5719921104536444</v>
+        <v>3.2592201623012533</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="13"/>
-        <v>0.4437869822485207</v>
+        <v>1.5702315761694237</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="14"/>
-        <v>0.57528268200754495</v>
+        <v>0.83884607515514931</v>
       </c>
       <c r="AC13" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2973,38 +2973,38 @@
         <v>NO</v>
       </c>
       <c r="AI13">
-        <v>495</v>
+        <v>738.5</v>
       </c>
       <c r="AJ13">
-        <v>507.5</v>
+        <v>755.7</v>
       </c>
       <c r="AK13">
-        <v>490.55</v>
+        <v>736</v>
       </c>
       <c r="AL13">
-        <v>503.3</v>
+        <v>751.6</v>
       </c>
       <c r="AM13">
-        <v>3.9000000000000341</v>
+        <v>20.850000000000019</v>
       </c>
       <c r="AN13">
-        <v>0.78093712454946618</v>
+        <v>2.853232979815262</v>
       </c>
       <c r="AO13" s="1">
         <f t="shared" si="21"/>
-        <v>1.6767676767676789</v>
+        <v>1.7738659444820615</v>
       </c>
       <c r="AP13" s="1">
         <f t="shared" si="22"/>
-        <v>1.6767676767676789</v>
+        <v>1.7738659444820615</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="23"/>
-        <v>0.83449235048678494</v>
+        <v>0.54550292708888015</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="24"/>
-        <v>0.89898989898989667</v>
+        <v>0.33852403520649971</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="25"/>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AV13" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW13" t="str">
         <f t="shared" si="29"/>
@@ -3036,38 +3036,38 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>92.4</v>
+        <v>107.3</v>
       </c>
       <c r="C14">
-        <v>92.4</v>
+        <v>111.9</v>
       </c>
       <c r="D14">
-        <v>87.55</v>
+        <v>107</v>
       </c>
       <c r="E14">
-        <v>87.85</v>
+        <v>110.5</v>
       </c>
       <c r="F14">
-        <v>-4.3000000000000114</v>
+        <v>4.2000000000000028</v>
       </c>
       <c r="G14">
-        <v>-4.6663049376017476</v>
+        <v>3.9510818438381961</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>-4.9242424242424363</v>
+        <v>2.9822926374650538</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>4.9242424242424363</v>
+        <v>2.9822926374650538</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2669683257918605</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>0.34149117814456142</v>
+        <v>0.27958993476234595</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3098,38 +3098,38 @@
         <v>NO</v>
       </c>
       <c r="S14">
-        <v>95</v>
+        <v>108.35</v>
       </c>
       <c r="T14">
-        <v>95</v>
+        <v>108.7</v>
       </c>
       <c r="U14">
-        <v>91.55</v>
+        <v>105.5</v>
       </c>
       <c r="V14">
-        <v>92.15</v>
+        <v>106.3</v>
       </c>
       <c r="W14">
-        <v>-1.5499999999999969</v>
+        <v>-1.5</v>
       </c>
       <c r="X14">
-        <v>-1.65421558164354</v>
+        <v>-1.3914656771799629</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="11"/>
-        <v>-2.9999999999999938</v>
+        <v>-1.8920166128287932</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="12"/>
-        <v>2.9999999999999938</v>
+        <v>1.8920166128287932</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.32302722658053395</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="14"/>
-        <v>0.65111231687467008</v>
+        <v>0.752587017873939</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3156,38 +3156,38 @@
         <v>NO</v>
       </c>
       <c r="AI14">
-        <v>92</v>
+        <v>104.4</v>
       </c>
       <c r="AJ14">
-        <v>96</v>
+        <v>108.7</v>
       </c>
       <c r="AK14">
-        <v>90.55</v>
+        <v>104.4</v>
       </c>
       <c r="AL14">
-        <v>93.7</v>
+        <v>107.8</v>
       </c>
       <c r="AM14">
-        <v>0.79999999999999716</v>
+        <v>3.399999999999991</v>
       </c>
       <c r="AN14">
-        <v>0.86114101184068592</v>
+        <v>3.2567049808429029</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="21"/>
-        <v>1.8478260869565251</v>
+        <v>3.2567049808429034</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="22"/>
-        <v>1.8478260869565251</v>
+        <v>3.2567049808429034</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="23"/>
-        <v>2.4546424759871903</v>
+        <v>0.83487940630798307</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="24"/>
-        <v>1.5760869565217421</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="25"/>
@@ -3219,38 +3219,38 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>281</v>
+        <v>377.9</v>
       </c>
       <c r="C15">
-        <v>283.14999999999998</v>
+        <v>385</v>
       </c>
       <c r="D15">
-        <v>275</v>
+        <v>371.3</v>
       </c>
       <c r="E15">
-        <v>277</v>
+        <v>378.8</v>
       </c>
       <c r="F15">
-        <v>-6.1499999999999773</v>
+        <v>10.80000000000001</v>
       </c>
       <c r="G15">
-        <v>-2.1719936429454272</v>
+        <v>2.934782608695655</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4234875444839856</v>
+        <v>0.23815824292141682</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>1.4234875444839856</v>
+        <v>0.23815824292141682</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>0.76512455516013433</v>
+        <v>1.6367476240760266</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>0.72202166064981954</v>
+        <v>1.7464937814236481</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q15" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3281,38 +3281,38 @@
         <v>NO</v>
       </c>
       <c r="S15">
-        <v>287.7</v>
+        <v>375</v>
       </c>
       <c r="T15">
-        <v>291</v>
+        <v>375</v>
       </c>
       <c r="U15">
-        <v>281</v>
+        <v>367.05</v>
       </c>
       <c r="V15">
-        <v>283.14999999999998</v>
+        <v>368</v>
       </c>
       <c r="W15">
-        <v>-2.6500000000000341</v>
+        <v>-4.8000000000000114</v>
       </c>
       <c r="X15">
-        <v>-0.92722183344997688</v>
+        <v>-1.287553648068672</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="11"/>
-        <v>-1.5815085158150892</v>
+        <v>-1.8666666666666669</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="12"/>
-        <v>1.5815085158150892</v>
+        <v>1.8666666666666669</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="13"/>
-        <v>1.1470281543274283</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="14"/>
-        <v>0.75931485078579464</v>
+        <v>0.25815217391304041</v>
       </c>
       <c r="AC15" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3339,38 +3339,38 @@
         <v>NO</v>
       </c>
       <c r="AI15">
-        <v>282</v>
+        <v>386</v>
       </c>
       <c r="AJ15">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="AK15">
-        <v>282</v>
+        <v>365.05</v>
       </c>
       <c r="AL15">
-        <v>285.8</v>
+        <v>372.8</v>
       </c>
       <c r="AM15">
-        <v>5.0000000000011369E-2</v>
+        <v>23.699999999999989</v>
       </c>
       <c r="AN15">
-        <v>1.7497812773407301E-2</v>
+        <v>6.7888857061014001</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" si="21"/>
-        <v>1.3475177304964578</v>
+        <v>-3.4196891191709815</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="22"/>
-        <v>1.3475177304964578</v>
+        <v>3.4196891191709815</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="23"/>
-        <v>1.8194541637508708</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2.078862660944206</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="25"/>
@@ -3402,38 +3402,38 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>5588</v>
+        <v>9325</v>
       </c>
       <c r="C16">
-        <v>5640</v>
+        <v>10289.5</v>
       </c>
       <c r="D16">
-        <v>5400</v>
+        <v>9325</v>
       </c>
       <c r="E16">
-        <v>5551.2</v>
+        <v>9822.9</v>
       </c>
       <c r="F16">
-        <v>-27.400000000000549</v>
+        <v>582.89999999999964</v>
       </c>
       <c r="G16">
-        <v>-0.49116265729753961</v>
+        <v>6.3084415584415554</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>-0.65855404438081933</v>
+        <v>5.3394101876675562</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>0.65855404438081933</v>
+        <v>5.3394101876675562</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>0.93056549749463124</v>
+        <v>4.7501247085891176</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>2.7237354085603083</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="6"/>
@@ -3464,38 +3464,38 @@
         <v>NO</v>
       </c>
       <c r="S16">
-        <v>5730</v>
+        <v>9425</v>
       </c>
       <c r="T16">
-        <v>5774.95</v>
+        <v>9480</v>
       </c>
       <c r="U16">
-        <v>5546.7</v>
+        <v>9190</v>
       </c>
       <c r="V16">
-        <v>5578.6</v>
+        <v>9240</v>
       </c>
       <c r="W16">
-        <v>-115.0499999999993</v>
+        <v>-189.2000000000007</v>
       </c>
       <c r="X16">
-        <v>-2.0206721523100168</v>
+        <v>-2.00653289780682</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="11"/>
-        <v>-2.6422338568935366</v>
+        <v>-1.9628647214854114</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="12"/>
-        <v>2.6422338568935366</v>
+        <v>1.9628647214854114</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="13"/>
-        <v>0.78446771378708235</v>
+        <v>0.58355437665782495</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="14"/>
-        <v>0.57182805721866681</v>
+        <v>0.54112554112554112</v>
       </c>
       <c r="AC16" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3522,38 +3522,38 @@
         <v>NO</v>
       </c>
       <c r="AI16">
-        <v>5650</v>
+        <v>9340</v>
       </c>
       <c r="AJ16">
-        <v>5779</v>
+        <v>9485.1</v>
       </c>
       <c r="AK16">
-        <v>5532.25</v>
+        <v>9340</v>
       </c>
       <c r="AL16">
-        <v>5693.65</v>
+        <v>9429.2000000000007</v>
       </c>
       <c r="AM16">
-        <v>32.049999999999272</v>
+        <v>137.40000000000151</v>
       </c>
       <c r="AN16">
-        <v>0.56609439027835362</v>
+        <v>1.4787231752728369</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" si="21"/>
-        <v>0.77256637168140951</v>
+        <v>0.95503211991435477</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="22"/>
-        <v>0.77256637168140951</v>
+        <v>0.95503211991435477</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="23"/>
-        <v>1.4990384024307846</v>
+        <v>0.59283926526109998</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="24"/>
-        <v>2.084070796460177</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="25"/>
@@ -3585,38 +3585,38 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>997</v>
+        <v>914</v>
       </c>
       <c r="C17">
-        <v>1048.75</v>
+        <v>962</v>
       </c>
       <c r="D17">
-        <v>997</v>
+        <v>910.2</v>
       </c>
       <c r="E17">
-        <v>1031.75</v>
+        <v>940.2</v>
       </c>
       <c r="F17">
-        <v>35.200000000000053</v>
+        <v>32.300000000000068</v>
       </c>
       <c r="G17">
-        <v>3.5321860418443678</v>
+        <v>3.557660535301252</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>3.4854563691073217</v>
+        <v>2.8665207877461758</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>3.4854563691073217</v>
+        <v>2.8665207877461758</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>1.6476859704385751</v>
+        <v>2.3186556051903802</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.41575492341356179</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3647,38 +3647,38 @@
         <v>NO</v>
       </c>
       <c r="S17">
-        <v>1005</v>
+        <v>917.6</v>
       </c>
       <c r="T17">
-        <v>1013.95</v>
+        <v>918.6</v>
       </c>
       <c r="U17">
-        <v>993</v>
+        <v>905.1</v>
       </c>
       <c r="V17">
-        <v>996.55</v>
+        <v>907.9</v>
       </c>
       <c r="W17">
-        <v>-0.95000000000004547</v>
+        <v>-5.3500000000000227</v>
       </c>
       <c r="X17">
-        <v>-9.5238095238099785E-2</v>
+        <v>-0.58581987407610425</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="11"/>
-        <v>-0.84079601990050201</v>
+        <v>-1.0571054925893684</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="12"/>
-        <v>0.84079601990050201</v>
+        <v>1.0571054925893684</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" si="13"/>
-        <v>0.89054726368159653</v>
+        <v>0.1089799476896251</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="14"/>
-        <v>0.35622899001554909</v>
+        <v>0.30840400925211525</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3705,38 +3705,38 @@
         <v>NO</v>
       </c>
       <c r="AI17">
-        <v>991</v>
+        <v>917.95</v>
       </c>
       <c r="AJ17">
-        <v>1003.75</v>
+        <v>924.75</v>
       </c>
       <c r="AK17">
-        <v>980</v>
+        <v>910</v>
       </c>
       <c r="AL17">
-        <v>997.5</v>
+        <v>913.25</v>
       </c>
       <c r="AM17">
-        <v>-4.0499999999999554</v>
+        <v>2.549999999999955</v>
       </c>
       <c r="AN17">
-        <v>-0.40437322150666011</v>
+        <v>0.28000439222575541</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" si="21"/>
-        <v>0.65590312815338037</v>
+        <v>-0.51201045808595735</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="22"/>
-        <v>0.65590312815338037</v>
+        <v>0.51201045808595735</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="23"/>
-        <v>0.62656641604010022</v>
+        <v>0.74078108829456446</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="24"/>
-        <v>1.109989909182644</v>
+        <v>0.35587188612099641</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="25"/>
@@ -3768,38 +3768,38 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>205</v>
+        <v>353</v>
       </c>
       <c r="C18">
-        <v>205</v>
+        <v>375</v>
       </c>
       <c r="D18">
-        <v>194.1</v>
+        <v>351.6</v>
       </c>
       <c r="E18">
-        <v>195.05</v>
+        <v>371.4</v>
       </c>
       <c r="F18">
-        <v>-10.349999999999991</v>
+        <v>27.099999999999969</v>
       </c>
       <c r="G18">
-        <v>-5.03894839337877</v>
+        <v>7.871042695323835</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>-4.8536585365853604</v>
+        <v>5.2124645892351209</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>4.8536585365853604</v>
+        <v>5.2124645892351209</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.96930533117932771</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>0.48705460138426915</v>
+        <v>0.39660056657223147</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3830,38 +3830,38 @@
         <v>NO</v>
       </c>
       <c r="S18">
-        <v>208.5</v>
+        <v>365</v>
       </c>
       <c r="T18">
-        <v>209</v>
+        <v>372.85</v>
       </c>
       <c r="U18">
-        <v>204.55</v>
+        <v>341.35</v>
       </c>
       <c r="V18">
-        <v>205.4</v>
+        <v>344.3</v>
       </c>
       <c r="W18">
-        <v>-1.4000000000000059</v>
+        <v>-16.949999999999989</v>
       </c>
       <c r="X18">
-        <v>-0.67698259187621157</v>
+        <v>-4.6920415224913459</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="11"/>
-        <v>-1.4868105515587502</v>
+        <v>-5.6712328767123257</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" si="12"/>
-        <v>1.4868105515587502</v>
+        <v>5.6712328767123257</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" si="13"/>
-        <v>0.23980815347721821</v>
+        <v>2.1506849315068557</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" si="14"/>
-        <v>0.41382667964946168</v>
+        <v>0.85681092070868103</v>
       </c>
       <c r="AC18" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3888,38 +3888,38 @@
         <v>NO</v>
       </c>
       <c r="AI18">
-        <v>205.45</v>
+        <v>367.95</v>
       </c>
       <c r="AJ18">
-        <v>210.2</v>
+        <v>383.9</v>
       </c>
       <c r="AK18">
-        <v>204.5</v>
+        <v>358</v>
       </c>
       <c r="AL18">
-        <v>206.8</v>
+        <v>361.25</v>
       </c>
       <c r="AM18">
-        <v>0.20000000000001711</v>
+        <v>-3.6999999999999891</v>
       </c>
       <c r="AN18">
-        <v>9.6805421103590056E-2</v>
+        <v>-1.013837511987941</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" si="21"/>
-        <v>0.65709418349964599</v>
+        <v>-1.8208995787471094</v>
       </c>
       <c r="AP18" s="1">
         <f t="shared" si="22"/>
-        <v>0.65709418349964599</v>
+        <v>1.8208995787471094</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="23"/>
-        <v>1.6441005802707818</v>
+        <v>4.3348281016442423</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="24"/>
-        <v>0.46239961061084872</v>
+        <v>0.89965397923875445</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="25"/>
@@ -3954,35 +3954,35 @@
         <v>188</v>
       </c>
       <c r="C19">
-        <v>188.15</v>
+        <v>192.8</v>
       </c>
       <c r="D19">
-        <v>182</v>
+        <v>185.7</v>
       </c>
       <c r="E19">
-        <v>183.25</v>
+        <v>186.85</v>
       </c>
       <c r="F19">
-        <v>-4.8499999999999943</v>
+        <v>4.1500000000000057</v>
       </c>
       <c r="G19">
-        <v>-2.5784157363104701</v>
+        <v>2.271483305966068</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>-2.5265957446808507</v>
+        <v>-0.61170212765957754</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>2.5265957446808507</v>
+        <v>0.61170212765957754</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="2"/>
-        <v>7.9787234042556207E-2</v>
+        <v>2.553191489361708</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>0.68212824010914053</v>
+        <v>0.61546695210061853</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="O19" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="8"/>
@@ -4013,38 +4013,38 @@
         <v>NO</v>
       </c>
       <c r="S19">
-        <v>190.35</v>
+        <v>180</v>
       </c>
       <c r="T19">
-        <v>191.8</v>
+        <v>187.95</v>
       </c>
       <c r="U19">
-        <v>187.6</v>
+        <v>177.5</v>
       </c>
       <c r="V19">
-        <v>188.1</v>
+        <v>182.7</v>
       </c>
       <c r="W19">
-        <v>0.59999999999999432</v>
+        <v>3.0499999999999829</v>
       </c>
       <c r="X19">
-        <v>0.31999999999999701</v>
+        <v>1.6977456164764719</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="11"/>
-        <v>-1.1820330969267139</v>
+        <v>1.4999999999999938</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="12"/>
-        <v>1.1820330969267139</v>
+        <v>1.4999999999999938</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="13"/>
-        <v>0.76175466246389134</v>
+        <v>2.8735632183908049</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="14"/>
-        <v>0.26581605528973951</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="AC19" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4071,38 +4071,38 @@
         <v>NO</v>
       </c>
       <c r="AI19">
-        <v>188.1</v>
+        <v>177.8</v>
       </c>
       <c r="AJ19">
-        <v>191.5</v>
+        <v>181.5</v>
       </c>
       <c r="AK19">
-        <v>185.95</v>
+        <v>177</v>
       </c>
       <c r="AL19">
-        <v>187.5</v>
+        <v>179.65</v>
       </c>
       <c r="AM19">
-        <v>-4.5999999999999943</v>
+        <v>3.4500000000000171</v>
       </c>
       <c r="AN19">
-        <v>-2.3945861530452861</v>
+        <v>1.958002270147569</v>
       </c>
       <c r="AO19" s="1">
         <f t="shared" si="21"/>
-        <v>-0.31897926634768436</v>
+        <v>1.0404949381327302</v>
       </c>
       <c r="AP19" s="1">
         <f t="shared" si="22"/>
-        <v>0.31897926634768436</v>
+        <v>1.0404949381327302</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="23"/>
-        <v>1.8075491759702318</v>
+        <v>1.0297801280267154</v>
       </c>
       <c r="AR19" s="1">
         <f t="shared" si="24"/>
-        <v>0.82666666666667277</v>
+        <v>0.44994375703037759</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="25"/>
@@ -4134,38 +4134,38 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>33.1</v>
+        <v>38.25</v>
       </c>
       <c r="D20">
-        <v>31.5</v>
+        <v>36.5</v>
       </c>
       <c r="E20">
-        <v>32.1</v>
+        <v>37.15</v>
       </c>
       <c r="F20">
-        <v>-1.0499999999999969</v>
+        <v>-0.25</v>
       </c>
       <c r="G20">
-        <v>-3.167420814479629</v>
+        <v>-0.66844919786096257</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>-2.7272727272727231</v>
+        <v>-2.2368421052631615</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>2.7272727272727231</v>
+        <v>2.2368421052631615</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>0.30303030303030731</v>
+        <v>0.6578947368421052</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>1.8691588785046773</v>
+        <v>1.7496635262449494</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4196,38 +4196,38 @@
         <v>NO</v>
       </c>
       <c r="S20">
-        <v>33.5</v>
+        <v>37.9</v>
       </c>
       <c r="T20">
-        <v>33.950000000000003</v>
+        <v>38</v>
       </c>
       <c r="U20">
-        <v>32.799999999999997</v>
+        <v>37.1</v>
       </c>
       <c r="V20">
-        <v>33.15</v>
+        <v>37.4</v>
       </c>
       <c r="W20">
-        <v>-5.0000000000004263E-2</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="X20">
-        <v>-0.15060240963856711</v>
+        <v>5.9490084985835736</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" si="11"/>
-        <v>-1.0447761194029892</v>
+        <v>-1.3192612137203166</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" si="12"/>
-        <v>1.0447761194029892</v>
+        <v>1.3192612137203166</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="13"/>
-        <v>1.3432835820895608</v>
+        <v>0.2638522427440671</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" si="14"/>
-        <v>1.0558069381598838</v>
+        <v>0.80213903743314752</v>
       </c>
       <c r="AC20" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4254,38 +4254,38 @@
         <v>NO</v>
       </c>
       <c r="AI20">
-        <v>31.75</v>
+        <v>34.9</v>
       </c>
       <c r="AJ20">
-        <v>33.950000000000003</v>
+        <v>35.9</v>
       </c>
       <c r="AK20">
-        <v>31.35</v>
+        <v>34.85</v>
       </c>
       <c r="AL20">
-        <v>33.200000000000003</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="AM20">
-        <v>1.100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AN20">
-        <v>3.4267912772585709</v>
+        <v>2.1707670043415339</v>
       </c>
       <c r="AO20" s="1">
         <f t="shared" si="21"/>
-        <v>4.5669291338582765</v>
+        <v>1.1461318051575891</v>
       </c>
       <c r="AP20" s="1">
         <f t="shared" si="22"/>
-        <v>4.5669291338582765</v>
+        <v>1.1461318051575891</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="23"/>
-        <v>2.2590361445783129</v>
+        <v>1.6997167138810241</v>
       </c>
       <c r="AR20" s="1">
         <f t="shared" si="24"/>
-        <v>1.2598425196850349</v>
+        <v>0.143266475644691</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="25"/>
@@ -4317,38 +4317,38 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>19.3</v>
+        <v>28.4</v>
       </c>
       <c r="C21">
-        <v>19.5</v>
+        <v>30.05</v>
       </c>
       <c r="D21">
-        <v>18.55</v>
+        <v>28.35</v>
       </c>
       <c r="E21">
-        <v>18.850000000000001</v>
+        <v>29.65</v>
       </c>
       <c r="F21">
-        <v>-0.44999999999999929</v>
+        <v>1.4499999999999991</v>
       </c>
       <c r="G21">
-        <v>-2.331606217616577</v>
+        <v>5.1418439716312037</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>-2.3316062176165766</v>
+        <v>4.4014084507042259</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>2.3316062176165766</v>
+        <v>4.4014084507042259</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>1.0362694300518096</v>
+        <v>1.349072512647562</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>1.5915119363395265</v>
+        <v>0.17605633802815901</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4379,38 +4379,38 @@
         <v>NO</v>
       </c>
       <c r="S21">
-        <v>20.100000000000001</v>
+        <v>28.5</v>
       </c>
       <c r="T21">
-        <v>20.350000000000001</v>
+        <v>28.65</v>
       </c>
       <c r="U21">
-        <v>19.25</v>
+        <v>27.9</v>
       </c>
       <c r="V21">
-        <v>19.3</v>
+        <v>28.2</v>
       </c>
       <c r="W21">
-        <v>-0.59999999999999787</v>
+        <v>-0.10000000000000139</v>
       </c>
       <c r="X21">
-        <v>-3.0150753768844121</v>
+        <v>-0.35335689045936902</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="11"/>
-        <v>-3.9800995024875654</v>
+        <v>-1.052631578947371</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" si="12"/>
-        <v>3.9800995024875654</v>
+        <v>1.052631578947371</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="13"/>
-        <v>1.2437810945273631</v>
+        <v>0.5263157894736793</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" si="14"/>
-        <v>0.25906735751295701</v>
+        <v>1.0638297872340452</v>
       </c>
       <c r="AC21" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4437,38 +4437,38 @@
         <v>NO</v>
       </c>
       <c r="AI21">
-        <v>20</v>
+        <v>28.1</v>
       </c>
       <c r="AJ21">
-        <v>20.6</v>
+        <v>28.9</v>
       </c>
       <c r="AK21">
-        <v>19.25</v>
+        <v>27.7</v>
       </c>
       <c r="AL21">
-        <v>19.899999999999999</v>
+        <v>28.3</v>
       </c>
       <c r="AM21">
-        <v>-0.10000000000000139</v>
+        <v>0.25</v>
       </c>
       <c r="AN21">
-        <v>-0.50000000000000711</v>
+        <v>0.89126559714795017</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" si="21"/>
-        <v>-0.50000000000000711</v>
+        <v>0.71174377224199037</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="22"/>
-        <v>0.50000000000000711</v>
+        <v>0.71174377224199037</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="23"/>
-        <v>3.0000000000000071</v>
+        <v>2.1201413427561762</v>
       </c>
       <c r="AR21" s="1">
         <f t="shared" si="24"/>
-        <v>3.2663316582914508</v>
+        <v>1.4234875444839934</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="25"/>
@@ -4500,38 +4500,38 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>107.6</v>
+        <v>136.9</v>
       </c>
       <c r="C22">
-        <v>109.55</v>
+        <v>136.9</v>
       </c>
       <c r="D22">
-        <v>106.05</v>
+        <v>133.15</v>
       </c>
       <c r="E22">
-        <v>106.85</v>
+        <v>134</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G22">
-        <v>-0.92721372276309699</v>
+        <v>-2.1897810218978102</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.69702602230483279</v>
+        <v>-2.1183345507669875</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>0.69702602230483279</v>
+        <v>2.1183345507669875</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>1.8122676579925678</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>0.74871314927468147</v>
+        <v>0.63432835820895106</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4562,38 +4562,38 @@
         <v>NO</v>
       </c>
       <c r="S22">
-        <v>107.4</v>
+        <v>138.44999999999999</v>
       </c>
       <c r="T22">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="U22">
-        <v>104.1</v>
+        <v>135.05000000000001</v>
       </c>
       <c r="V22">
-        <v>107.85</v>
+        <v>137</v>
       </c>
       <c r="W22">
-        <v>1.3499999999999941</v>
+        <v>2.3000000000000109</v>
       </c>
       <c r="X22">
-        <v>1.2676056338028121</v>
+        <v>1.7074981440237651</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="11"/>
-        <v>0.41899441340781063</v>
+        <v>-1.0473094980137152</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="12"/>
-        <v>0.41899441340781063</v>
+        <v>1.0473094980137152</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="13"/>
-        <v>1.9935095039406638</v>
+        <v>1.8418201516793149</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="14"/>
-        <v>3.0726256983240328</v>
+        <v>1.4233576642335684</v>
       </c>
       <c r="AC22" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4620,38 +4620,38 @@
         <v>NO</v>
       </c>
       <c r="AI22">
-        <v>105.9</v>
+        <v>120.55</v>
       </c>
       <c r="AJ22">
-        <v>107.85</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="AK22">
-        <v>103.6</v>
+        <v>120.55</v>
       </c>
       <c r="AL22">
-        <v>106.5</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="AM22">
-        <v>3.3499999999999939</v>
+        <v>14.999999999999989</v>
       </c>
       <c r="AN22">
-        <v>3.2476975278720248</v>
+        <v>12.53132832080199</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="21"/>
-        <v>0.56657223796033451</v>
+        <v>11.737868104520938</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="22"/>
-        <v>0.56657223796033451</v>
+        <v>11.737868104520938</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="23"/>
-        <v>1.2676056338028117</v>
+        <v>1.559020044543447</v>
       </c>
       <c r="AR22" s="1">
         <f t="shared" si="24"/>
-        <v>2.171860245514647</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="25"/>
@@ -4683,38 +4683,38 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>53</v>
+        <v>61.35</v>
       </c>
       <c r="C23">
-        <v>53.9</v>
+        <v>65</v>
       </c>
       <c r="D23">
-        <v>50.6</v>
+        <v>60.15</v>
       </c>
       <c r="E23">
-        <v>50.95</v>
+        <v>61</v>
       </c>
       <c r="F23">
-        <v>-2.2999999999999972</v>
+        <v>0.35000000000000142</v>
       </c>
       <c r="G23">
-        <v>-4.3192488262910746</v>
+        <v>0.57708161582852668</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>-3.8679245283018817</v>
+        <v>-0.57049714751426472</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>3.8679245283018817</v>
+        <v>0.57049714751426472</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>1.698113207547167</v>
+        <v>5.9494702526487346</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>0.68694798822375147</v>
+        <v>1.3934426229508219</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="O23" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="8"/>
@@ -4745,38 +4745,38 @@
         <v>NO</v>
       </c>
       <c r="S23">
-        <v>55.4</v>
+        <v>58.6</v>
       </c>
       <c r="T23">
-        <v>56.45</v>
+        <v>61.7</v>
       </c>
       <c r="U23">
-        <v>53.1</v>
+        <v>58.4</v>
       </c>
       <c r="V23">
-        <v>53.25</v>
+        <v>60.65</v>
       </c>
       <c r="W23">
-        <v>-1.100000000000001</v>
+        <v>2</v>
       </c>
       <c r="X23">
-        <v>-2.0239190432382732</v>
+        <v>3.4100596760443311</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="11"/>
-        <v>-3.8808664259927772</v>
+        <v>3.4982935153583568</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" si="12"/>
-        <v>3.8808664259927772</v>
+        <v>3.4982935153583568</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="13"/>
-        <v>1.895306859205784</v>
+        <v>1.7312448474855802</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" si="14"/>
-        <v>0.28169014084506777</v>
+        <v>0.34129692832764991</v>
       </c>
       <c r="AC23" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4803,38 +4803,38 @@
         <v>NO</v>
       </c>
       <c r="AI23">
-        <v>52</v>
+        <v>59.05</v>
       </c>
       <c r="AJ23">
-        <v>54.8</v>
+        <v>61.75</v>
       </c>
       <c r="AK23">
-        <v>50.5</v>
+        <v>57.8</v>
       </c>
       <c r="AL23">
-        <v>54.35</v>
+        <v>58.65</v>
       </c>
       <c r="AM23">
-        <v>2.149999999999999</v>
+        <v>-0.10000000000000139</v>
       </c>
       <c r="AN23">
-        <v>4.1187739463601503</v>
+        <v>-0.17021276595744919</v>
       </c>
       <c r="AO23" s="1">
         <f t="shared" si="21"/>
-        <v>4.5192307692307718</v>
+        <v>-0.6773920406435201</v>
       </c>
       <c r="AP23" s="1">
         <f t="shared" si="22"/>
-        <v>4.5192307692307718</v>
+        <v>0.6773920406435201</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="23"/>
-        <v>0.82796688132473917</v>
+        <v>4.5723962743437818</v>
       </c>
       <c r="AR23" s="1">
         <f t="shared" si="24"/>
-        <v>2.8846153846153846</v>
+        <v>1.449275362318843</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="25"/>
@@ -4866,38 +4866,38 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>2393</v>
+        <v>4826</v>
       </c>
       <c r="C24">
-        <v>2398.85</v>
+        <v>5099</v>
       </c>
       <c r="D24">
-        <v>2325.35</v>
+        <v>4810.05</v>
       </c>
       <c r="E24">
-        <v>2367.75</v>
+        <v>5019.95</v>
       </c>
       <c r="F24">
-        <v>-30.050000000000178</v>
+        <v>251.94999999999979</v>
       </c>
       <c r="G24">
-        <v>-1.253232129452005</v>
+        <v>5.284186241610735</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0551608859172585</v>
+        <v>4.0188561956071238</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>1.0551608859172585</v>
+        <v>4.0188561956071238</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>0.24446301713330171</v>
+        <v>1.5747168796501996</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>1.7907295956076481</v>
+        <v>0.33050145047658142</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="6"/>
@@ -4928,38 +4928,38 @@
         <v>NO</v>
       </c>
       <c r="S24">
-        <v>2390.6</v>
+        <v>4741.8</v>
       </c>
       <c r="T24">
-        <v>2430</v>
+        <v>4875</v>
       </c>
       <c r="U24">
-        <v>2371</v>
+        <v>4695</v>
       </c>
       <c r="V24">
-        <v>2397.8000000000002</v>
+        <v>4768</v>
       </c>
       <c r="W24">
-        <v>7.2000000000002728</v>
+        <v>28.60000000000036</v>
       </c>
       <c r="X24">
-        <v>0.30117962017904598</v>
+        <v>0.60345191374436358</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="11"/>
-        <v>0.30117962017904598</v>
+        <v>0.55253279345395878</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="12"/>
-        <v>0.30117962017904598</v>
+        <v>0.55253279345395878</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="13"/>
-        <v>1.3428976561848283</v>
+        <v>2.2441275167785233</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" si="14"/>
-        <v>0.81987785493181242</v>
+        <v>0.98696697456662397</v>
       </c>
       <c r="AC24" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4986,38 +4986,38 @@
         <v>NO</v>
       </c>
       <c r="AI24">
-        <v>2320</v>
+        <v>4619.95</v>
       </c>
       <c r="AJ24">
-        <v>2415</v>
+        <v>4800</v>
       </c>
       <c r="AK24">
-        <v>2297.4499999999998</v>
+        <v>4600</v>
       </c>
       <c r="AL24">
-        <v>2390.6</v>
+        <v>4739.3999999999996</v>
       </c>
       <c r="AM24">
-        <v>32.049999999999727</v>
+        <v>211.5</v>
       </c>
       <c r="AN24">
-        <v>1.3588857560789349</v>
+        <v>4.671039554760485</v>
       </c>
       <c r="AO24" s="1">
         <f t="shared" si="21"/>
-        <v>3.0431034482758581</v>
+        <v>2.5855258173789721</v>
       </c>
       <c r="AP24" s="1">
         <f t="shared" si="22"/>
-        <v>3.0431034482758581</v>
+        <v>2.5855258173789721</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="23"/>
-        <v>1.02066426838451</v>
+        <v>1.2786428661856009</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" si="24"/>
-        <v>0.97198275862069761</v>
+        <v>0.43182285522570202</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="25"/>
@@ -5049,38 +5049,38 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>394</v>
+        <v>375.05</v>
       </c>
       <c r="C25">
-        <v>412.3</v>
+        <v>391.95</v>
       </c>
       <c r="D25">
-        <v>391.05</v>
+        <v>375.05</v>
       </c>
       <c r="E25">
-        <v>406.35</v>
+        <v>385.15</v>
       </c>
       <c r="F25">
-        <v>13.80000000000001</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="G25">
-        <v>3.5154757355750892</v>
+        <v>3.1329495247020991</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>3.1345177664974675</v>
+        <v>2.6929742700973112</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>3.1345177664974675</v>
+        <v>2.6929742700973112</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>1.4642549526270427</v>
+        <v>1.7655458912112194</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>0.74873096446700216</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5111,38 +5111,38 @@
         <v>NO</v>
       </c>
       <c r="S25">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="T25">
-        <v>405.85</v>
+        <v>376</v>
       </c>
       <c r="U25">
-        <v>388.3</v>
+        <v>359</v>
       </c>
       <c r="V25">
-        <v>392.55</v>
+        <v>373.45</v>
       </c>
       <c r="W25">
-        <v>10.25</v>
+        <v>7.6499999999999773</v>
       </c>
       <c r="X25">
-        <v>2.6811404656029292</v>
+        <v>2.0913067249863251</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="11"/>
-        <v>0.1403061224489825</v>
+        <v>3.4487534626038747</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" si="12"/>
-        <v>0.1403061224489825</v>
+        <v>3.4487534626038747</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" si="13"/>
-        <v>3.388103426315122</v>
+        <v>0.6828223323068715</v>
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="14"/>
-        <v>0.94387755102040527</v>
+        <v>0.554016620498615</v>
       </c>
       <c r="AC25" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5169,38 +5169,38 @@
         <v>NO</v>
       </c>
       <c r="AI25">
-        <v>379.95</v>
+        <v>376</v>
       </c>
       <c r="AJ25">
-        <v>389.7</v>
+        <v>376</v>
       </c>
       <c r="AK25">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="AL25">
-        <v>382.3</v>
+        <v>365.8</v>
       </c>
       <c r="AM25">
-        <v>2.4000000000000341</v>
+        <v>-1.8000000000000109</v>
       </c>
       <c r="AN25">
-        <v>0.63174519610424695</v>
+        <v>-0.48966267682263642</v>
       </c>
       <c r="AO25" s="1">
         <f t="shared" si="21"/>
-        <v>0.61850243453086529</v>
+        <v>-2.7127659574468055</v>
       </c>
       <c r="AP25" s="1">
         <f t="shared" si="22"/>
-        <v>0.61850243453086529</v>
+        <v>2.7127659574468055</v>
       </c>
       <c r="AQ25" s="1">
         <f t="shared" si="23"/>
-        <v>1.9356526288255238</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="1">
         <f t="shared" si="24"/>
-        <v>2.0923805763916272</v>
+        <v>1.3121924548933874</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="25"/>
@@ -5232,38 +5232,38 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>391</v>
+        <v>481.7</v>
       </c>
       <c r="C26">
-        <v>397.3</v>
+        <v>545</v>
       </c>
       <c r="D26">
-        <v>385.6</v>
+        <v>481</v>
       </c>
       <c r="E26">
-        <v>391.4</v>
+        <v>520.1</v>
       </c>
       <c r="F26">
-        <v>-9.75</v>
+        <v>47.050000000000011</v>
       </c>
       <c r="G26">
-        <v>-2.4305122772030412</v>
+        <v>9.9460944931825406</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>0.10230179028132411</v>
+        <v>7.9717666597467378</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>0.10230179028132411</v>
+        <v>7.9717666597467378</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>1.5074092999489102</v>
+        <v>4.7875408575273939</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>1.3810741687979482</v>
+        <v>0.14531866306829741</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5294,38 +5294,38 @@
         <v>NO</v>
       </c>
       <c r="S26">
-        <v>403.1</v>
+        <v>443.85</v>
       </c>
       <c r="T26">
-        <v>412</v>
+        <v>475.5</v>
       </c>
       <c r="U26">
-        <v>391</v>
+        <v>440.1</v>
       </c>
       <c r="V26">
-        <v>401.15</v>
+        <v>473.05</v>
       </c>
       <c r="W26">
-        <v>-0.2000000000000455</v>
+        <v>31.199999999999989</v>
       </c>
       <c r="X26">
-        <v>-4.9831817615558847E-2</v>
+        <v>7.0612198709969416</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" si="11"/>
-        <v>-0.48375093029026184</v>
+        <v>6.5787991438549032</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" si="12"/>
-        <v>0.48375093029026184</v>
+        <v>6.5787991438549032</v>
       </c>
       <c r="AA26" s="1">
         <f t="shared" si="13"/>
-        <v>2.2078888613247276</v>
+        <v>0.51791565373638915</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" si="14"/>
-        <v>2.5302256013959812</v>
+        <v>0.84488002703616072</v>
       </c>
       <c r="AC26" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5352,38 +5352,38 @@
         <v>NO</v>
       </c>
       <c r="AI26">
-        <v>389.95</v>
+        <v>432</v>
       </c>
       <c r="AJ26">
-        <v>404.05</v>
+        <v>448.6</v>
       </c>
       <c r="AK26">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="AL26">
-        <v>401.35</v>
+        <v>441.85</v>
       </c>
       <c r="AM26">
-        <v>11.350000000000019</v>
+        <v>14.400000000000031</v>
       </c>
       <c r="AN26">
-        <v>2.9102564102564159</v>
+        <v>3.368815066089609</v>
       </c>
       <c r="AO26" s="1">
         <f t="shared" si="21"/>
-        <v>2.9234517245800831</v>
+        <v>2.2800925925925979</v>
       </c>
       <c r="AP26" s="1">
         <f t="shared" si="22"/>
-        <v>2.9234517245800831</v>
+        <v>2.2800925925925979</v>
       </c>
       <c r="AQ26" s="1">
         <f t="shared" si="23"/>
-        <v>0.67272953780988876</v>
+        <v>1.5276677605522235</v>
       </c>
       <c r="AR26" s="1">
         <f t="shared" si="24"/>
-        <v>1.2693935119887136</v>
+        <v>0</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="25"/>
@@ -5415,38 +5415,38 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>36.5</v>
+        <v>37.5</v>
       </c>
       <c r="C27">
-        <v>36.5</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="D27">
-        <v>34.450000000000003</v>
+        <v>36.75</v>
       </c>
       <c r="E27">
-        <v>34.75</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="F27">
-        <v>-1.850000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G27">
-        <v>-5.0546448087431726</v>
+        <v>0.68119891008174382</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>-4.7945205479452051</v>
+        <v>-1.466666666666659</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>4.7945205479452051</v>
+        <v>1.466666666666659</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.53333333333334099</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>0.86330935251797747</v>
+        <v>0.54127198917456787</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5477,38 +5477,38 @@
         <v>NO</v>
       </c>
       <c r="S27">
-        <v>35.200000000000003</v>
+        <v>37</v>
       </c>
       <c r="T27">
-        <v>37</v>
+        <v>37.25</v>
       </c>
       <c r="U27">
-        <v>34.25</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="V27">
-        <v>36.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="W27">
-        <v>2.850000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="X27">
-        <v>8.4444444444444482</v>
+        <v>-0.67658998646820023</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="11"/>
-        <v>3.9772727272727231</v>
+        <v>-0.81081081081080308</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" si="12"/>
-        <v>3.9772727272727231</v>
+        <v>0.81081081081080308</v>
       </c>
       <c r="AA27" s="1">
         <f t="shared" si="13"/>
-        <v>1.0928961748633841</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" si="14"/>
-        <v>2.6988636363636442</v>
+        <v>1.0899182561308056</v>
       </c>
       <c r="AC27" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5535,38 +5535,38 @@
         <v>NO</v>
       </c>
       <c r="AI27">
-        <v>33</v>
+        <v>36.1</v>
       </c>
       <c r="AJ27">
-        <v>34</v>
+        <v>37.5</v>
       </c>
       <c r="AK27">
-        <v>32.5</v>
+        <v>36.1</v>
       </c>
       <c r="AL27">
-        <v>33.75</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="AM27">
-        <v>2.399999999999999</v>
+        <v>0.95000000000000284</v>
       </c>
       <c r="AN27">
-        <v>7.6555023923444931</v>
+        <v>2.6388888888888968</v>
       </c>
       <c r="AO27" s="1">
         <f t="shared" si="21"/>
-        <v>2.2727272727272729</v>
+        <v>2.3545706371191173</v>
       </c>
       <c r="AP27" s="1">
         <f t="shared" si="22"/>
-        <v>2.2727272727272729</v>
+        <v>2.3545706371191173</v>
       </c>
       <c r="AQ27" s="1">
         <f t="shared" si="23"/>
-        <v>0.74074074074074081</v>
+        <v>1.4884979702300329</v>
       </c>
       <c r="AR27" s="1">
         <f t="shared" si="24"/>
-        <v>1.5151515151515151</v>
+        <v>0</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="25"/>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="AV27" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW27" t="str">
         <f t="shared" si="29"/>
@@ -5598,38 +5598,38 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>260</v>
+        <v>325.8</v>
       </c>
       <c r="C28">
-        <v>272.75</v>
+        <v>351.5</v>
       </c>
       <c r="D28">
-        <v>254.6</v>
+        <v>325.8</v>
       </c>
       <c r="E28">
-        <v>267.3</v>
+        <v>349.5</v>
       </c>
       <c r="F28">
-        <v>5.6999999999999886</v>
+        <v>24.850000000000019</v>
       </c>
       <c r="G28">
-        <v>2.1788990825688028</v>
+        <v>7.6543970429693591</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>2.8076923076923119</v>
+        <v>7.2744014732964972</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>2.8076923076923119</v>
+        <v>7.2744014732964972</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>2.0389075944631454</v>
+        <v>0.57224606580829751</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>2.0769230769230789</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5660,38 +5660,38 @@
         <v>NO</v>
       </c>
       <c r="S28">
-        <v>260</v>
+        <v>324.3</v>
       </c>
       <c r="T28">
-        <v>265.75</v>
+        <v>328.85</v>
       </c>
       <c r="U28">
-        <v>258.05</v>
+        <v>322.14999999999998</v>
       </c>
       <c r="V28">
-        <v>261.60000000000002</v>
+        <v>324.64999999999998</v>
       </c>
       <c r="W28">
-        <v>2.6000000000000232</v>
+        <v>-0.30000000000001142</v>
       </c>
       <c r="X28">
-        <v>1.003861003861013</v>
+        <v>-9.2321895676261381E-2</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="11"/>
-        <v>0.61538461538462419</v>
+        <v>0.10792476102373291</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" si="12"/>
-        <v>0.61538461538462419</v>
+        <v>0.10792476102373291</v>
       </c>
       <c r="AA28" s="1">
         <f t="shared" si="13"/>
-        <v>1.5863914373088599</v>
+        <v>1.2937009086708906</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" si="14"/>
-        <v>0.74999999999999567</v>
+        <v>0.66296638914586314</v>
       </c>
       <c r="AC28" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5718,38 +5718,38 @@
         <v>NO</v>
       </c>
       <c r="AI28">
-        <v>256.05</v>
+        <v>324.89999999999998</v>
       </c>
       <c r="AJ28">
-        <v>263.55</v>
+        <v>327.7</v>
       </c>
       <c r="AK28">
-        <v>253.85</v>
+        <v>320.25</v>
       </c>
       <c r="AL28">
-        <v>259</v>
+        <v>324.95</v>
       </c>
       <c r="AM28">
-        <v>-0.14999999999997729</v>
+        <v>5.8000000000000114</v>
       </c>
       <c r="AN28">
-        <v>-5.7881535790074191E-2</v>
+        <v>1.8173272755757519</v>
       </c>
       <c r="AO28" s="1">
         <f t="shared" si="21"/>
-        <v>1.1521187268111652</v>
+        <v>1.5389350569409472E-2</v>
       </c>
       <c r="AP28" s="1">
         <f t="shared" si="22"/>
-        <v>1.1521187268111652</v>
+        <v>1.5389350569409472E-2</v>
       </c>
       <c r="AQ28" s="1">
         <f t="shared" si="23"/>
-        <v>1.756756756756761</v>
+        <v>0.84628404369903065</v>
       </c>
       <c r="AR28" s="1">
         <f t="shared" si="24"/>
-        <v>0.85920718609647206</v>
+        <v>1.4312096029547483</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="25"/>
@@ -5781,38 +5781,38 @@
         <v>77</v>
       </c>
       <c r="B29">
-        <v>530</v>
+        <v>1282</v>
       </c>
       <c r="C29">
-        <v>535</v>
+        <v>1353.5</v>
       </c>
       <c r="D29">
-        <v>505.1</v>
+        <v>1281</v>
       </c>
       <c r="E29">
-        <v>517.5</v>
+        <v>1330.1</v>
       </c>
       <c r="F29">
-        <v>-24.149999999999981</v>
+        <v>72.349999999999909</v>
       </c>
       <c r="G29">
-        <v>-4.458598726114646</v>
+        <v>5.7523355197773736</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>-2.358490566037736</v>
+        <v>3.7519500780031128</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>2.358490566037736</v>
+        <v>3.7519500780031128</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>0.94339622641509435</v>
+        <v>1.7592662205849252</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>2.3961352657004786</v>
+        <v>7.8003120124804995E-2</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5843,38 +5843,38 @@
         <v>NO</v>
       </c>
       <c r="S29">
-        <v>542.20000000000005</v>
+        <v>1242.5</v>
       </c>
       <c r="T29">
-        <v>549.65</v>
+        <v>1269</v>
       </c>
       <c r="U29">
-        <v>531</v>
+        <v>1238</v>
       </c>
       <c r="V29">
-        <v>541.65</v>
+        <v>1257.75</v>
       </c>
       <c r="W29">
-        <v>2.1499999999999768</v>
+        <v>21.5</v>
       </c>
       <c r="X29">
-        <v>0.3985171455050931</v>
+        <v>1.7391304347826091</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" si="11"/>
-        <v>-0.10143858354851865</v>
+        <v>1.227364185110664</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" si="12"/>
-        <v>0.10143858354851865</v>
+        <v>1.227364185110664</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" si="13"/>
-        <v>1.3740317226115697</v>
+        <v>0.89445438282647582</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" si="14"/>
-        <v>1.9662143450567671</v>
+        <v>0.3621730382293763</v>
       </c>
       <c r="AC29" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5901,38 +5901,38 @@
         <v>NO</v>
       </c>
       <c r="AI29">
-        <v>531.6</v>
+        <v>1225</v>
       </c>
       <c r="AJ29">
-        <v>550.5</v>
+        <v>1264.95</v>
       </c>
       <c r="AK29">
-        <v>531</v>
+        <v>1223.0999999999999</v>
       </c>
       <c r="AL29">
-        <v>539.5</v>
+        <v>1236.25</v>
       </c>
       <c r="AM29">
-        <v>3.25</v>
+        <v>25.900000000000091</v>
       </c>
       <c r="AN29">
-        <v>0.60606060606060608</v>
+        <v>2.1398768951129918</v>
       </c>
       <c r="AO29" s="1">
         <f t="shared" si="21"/>
-        <v>1.4860797592174524</v>
+        <v>0.91836734693877564</v>
       </c>
       <c r="AP29" s="1">
         <f t="shared" si="22"/>
-        <v>1.4860797592174524</v>
+        <v>0.91836734693877564</v>
       </c>
       <c r="AQ29" s="1">
         <f t="shared" si="23"/>
-        <v>2.0389249304911954</v>
+        <v>2.3215369059656257</v>
       </c>
       <c r="AR29" s="1">
         <f t="shared" si="24"/>
-        <v>0.11286681715576047</v>
+        <v>0.15510204081633394</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="25"/>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="AV29" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW29" t="str">
         <f t="shared" si="29"/>
@@ -5964,38 +5964,38 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>583.04999999999995</v>
+        <v>707</v>
       </c>
       <c r="C30">
-        <v>624</v>
+        <v>765.3</v>
       </c>
       <c r="D30">
-        <v>580</v>
+        <v>707</v>
       </c>
       <c r="E30">
-        <v>607.85</v>
+        <v>719.95</v>
       </c>
       <c r="F30">
-        <v>18.800000000000072</v>
+        <v>14.100000000000019</v>
       </c>
       <c r="G30">
-        <v>3.1915796621679089</v>
+        <v>1.997591556279666</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>4.2534945544979106</v>
+        <v>1.8316831683168382</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>4.2534945544979106</v>
+        <v>1.8316831683168382</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>2.6569054865509543</v>
+        <v>6.2990485450378371</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>0.52311122545235489</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="O30" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P30" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6026,38 +6026,38 @@
         <v>NO</v>
       </c>
       <c r="S30">
-        <v>597.6</v>
+        <v>708.75</v>
       </c>
       <c r="T30">
-        <v>609.9</v>
+        <v>717.3</v>
       </c>
       <c r="U30">
-        <v>586.54999999999995</v>
+        <v>701</v>
       </c>
       <c r="V30">
-        <v>589.04999999999995</v>
+        <v>705.85</v>
       </c>
       <c r="W30">
-        <v>-5.6000000000000227</v>
+        <v>-2.8999999999999768</v>
       </c>
       <c r="X30">
-        <v>-0.94173042966451248</v>
+        <v>-0.40917107583773932</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" si="11"/>
-        <v>-1.4307228915662764</v>
+        <v>-0.40917107583773932</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" si="12"/>
-        <v>1.4307228915662764</v>
+        <v>0.40917107583773932</v>
       </c>
       <c r="AA30" s="1">
         <f t="shared" si="13"/>
-        <v>2.0582329317268999</v>
+        <v>1.2063492063492001</v>
       </c>
       <c r="AB30" s="1">
         <f t="shared" si="14"/>
-        <v>0.42441218911807149</v>
+        <v>0.68711482609619934</v>
       </c>
       <c r="AC30" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="AE30" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AF30" s="1" t="str">
         <f t="shared" si="18"/>
@@ -6084,38 +6084,38 @@
         <v>NO</v>
       </c>
       <c r="AI30">
-        <v>589.95000000000005</v>
+        <v>680</v>
       </c>
       <c r="AJ30">
-        <v>605.04999999999995</v>
+        <v>729</v>
       </c>
       <c r="AK30">
-        <v>587.20000000000005</v>
+        <v>677.9</v>
       </c>
       <c r="AL30">
-        <v>594.65</v>
+        <v>708.75</v>
       </c>
       <c r="AM30">
-        <v>2.5</v>
+        <v>24.5</v>
       </c>
       <c r="AN30">
-        <v>0.42219032339778778</v>
+        <v>3.5805626598465472</v>
       </c>
       <c r="AO30" s="1">
         <f t="shared" si="21"/>
-        <v>0.79667768454952637</v>
+        <v>4.2279411764705888</v>
       </c>
       <c r="AP30" s="1">
         <f t="shared" si="22"/>
-        <v>0.79667768454952637</v>
+        <v>4.2279411764705888</v>
       </c>
       <c r="AQ30" s="1">
         <f t="shared" si="23"/>
-        <v>1.7489279408055121</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AR30" s="1">
         <f t="shared" si="24"/>
-        <v>0.46614119840664464</v>
+        <v>0.30882352941176805</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="25"/>
@@ -6147,38 +6147,38 @@
         <v>79</v>
       </c>
       <c r="B31">
-        <v>148.6</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="C31">
-        <v>148.6</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="D31">
-        <v>140.80000000000001</v>
+        <v>143.69999999999999</v>
       </c>
       <c r="E31">
-        <v>142.94999999999999</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="F31">
-        <v>-5</v>
+        <v>5.4000000000000057</v>
       </c>
       <c r="G31">
-        <v>-3.3795201081446442</v>
+        <v>3.765690376569041</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>-3.8021534320323056</v>
+        <v>2.7624309392265194</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>3.8021534320323056</v>
+        <v>2.7624309392265194</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2768817204300922</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>1.5040223854494419</v>
+        <v>0.75966850828730847</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6209,38 +6209,38 @@
         <v>NO</v>
       </c>
       <c r="S31">
-        <v>151.55000000000001</v>
+        <v>145</v>
       </c>
       <c r="T31">
-        <v>152.94999999999999</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="U31">
-        <v>147.55000000000001</v>
+        <v>143</v>
       </c>
       <c r="V31">
-        <v>147.94999999999999</v>
+        <v>143.4</v>
       </c>
       <c r="W31">
-        <v>-3.0500000000000109</v>
+        <v>-2</v>
       </c>
       <c r="X31">
-        <v>-2.019867549668882</v>
+        <v>-1.3755158184319121</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="11"/>
-        <v>-2.375453645661513</v>
+        <v>-1.103448275862065</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="12"/>
-        <v>2.375453645661513</v>
+        <v>1.103448275862065</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="13"/>
-        <v>0.92378752886834514</v>
+        <v>0.82758620689654394</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="14"/>
-        <v>0.27036160865155617</v>
+        <v>0.27894002789400674</v>
       </c>
       <c r="AC31" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6267,38 +6267,38 @@
         <v>NO</v>
       </c>
       <c r="AI31">
-        <v>147.55000000000001</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="AJ31">
-        <v>154.35</v>
+        <v>149.05000000000001</v>
       </c>
       <c r="AK31">
-        <v>146.4</v>
+        <v>143.6</v>
       </c>
       <c r="AL31">
-        <v>151</v>
+        <v>145.4</v>
       </c>
       <c r="AM31">
-        <v>1.1999999999999891</v>
+        <v>-2.1500000000000061</v>
       </c>
       <c r="AN31">
-        <v>0.80106809078770935</v>
+        <v>-1.4571331751948531</v>
       </c>
       <c r="AO31" s="1">
         <f t="shared" si="21"/>
-        <v>2.3381904439173082</v>
+        <v>-1.2228260869565102</v>
       </c>
       <c r="AP31" s="1">
         <f t="shared" si="22"/>
-        <v>2.3381904439173082</v>
+        <v>1.2228260869565102</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="23"/>
-        <v>2.2185430463576119</v>
+        <v>1.2567934782608849</v>
       </c>
       <c r="AR31" s="1">
         <f t="shared" si="24"/>
-        <v>0.77939681463910926</v>
+        <v>1.2379642365887285</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="25"/>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="AU31" t="str">
         <f t="shared" si="27"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV31" t="str">
         <f t="shared" si="28"/>
@@ -6330,38 +6330,38 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>1418.7</v>
+        <v>1795</v>
       </c>
       <c r="C32">
-        <v>1418.7</v>
+        <v>1955</v>
       </c>
       <c r="D32">
-        <v>1346</v>
+        <v>1761.3</v>
       </c>
       <c r="E32">
-        <v>1358.9</v>
+        <v>1916</v>
       </c>
       <c r="F32">
-        <v>-47.399999999999856</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="G32">
-        <v>-3.3705468250017678</v>
+        <v>9.1302614341857922</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>-4.2151265242827911</v>
+        <v>6.740947075208914</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>4.2151265242827911</v>
+        <v>6.740947075208914</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0354906054279751</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>0.94929722569726172</v>
+        <v>1.877437325905295</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6392,38 +6392,38 @@
         <v>NO</v>
       </c>
       <c r="S32">
-        <v>1430</v>
+        <v>1743.95</v>
       </c>
       <c r="T32">
-        <v>1436</v>
+        <v>1780</v>
       </c>
       <c r="U32">
-        <v>1400</v>
+        <v>1701.35</v>
       </c>
       <c r="V32">
-        <v>1406.3</v>
+        <v>1755.7</v>
       </c>
       <c r="W32">
-        <v>-18.75</v>
+        <v>11.75</v>
       </c>
       <c r="X32">
-        <v>-1.315743307252377</v>
+        <v>0.67375784856217213</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="11"/>
-        <v>-1.6573426573426604</v>
+        <v>0.67375784856217213</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="12"/>
-        <v>1.6573426573426604</v>
+        <v>0.67375784856217213</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="13"/>
-        <v>0.41958041958041958</v>
+        <v>1.3840633365609134</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="14"/>
-        <v>0.44798407167744825</v>
+        <v>2.4427305828722234</v>
       </c>
       <c r="AC32" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6450,38 +6450,38 @@
         <v>NO</v>
       </c>
       <c r="AI32">
-        <v>1411</v>
+        <v>1783</v>
       </c>
       <c r="AJ32">
-        <v>1436.35</v>
+        <v>1797.95</v>
       </c>
       <c r="AK32">
-        <v>1398.95</v>
+        <v>1730.55</v>
       </c>
       <c r="AL32">
-        <v>1425.05</v>
+        <v>1743.95</v>
       </c>
       <c r="AM32">
-        <v>22.64999999999986</v>
+        <v>-17.099999999999909</v>
       </c>
       <c r="AN32">
-        <v>1.6150884198516731</v>
+        <v>-0.97101161239033018</v>
       </c>
       <c r="AO32" s="1">
         <f t="shared" si="21"/>
-        <v>0.99574769666902585</v>
+        <v>-2.19012899607403</v>
       </c>
       <c r="AP32" s="1">
         <f t="shared" si="22"/>
-        <v>0.99574769666902585</v>
+        <v>2.19012899607403</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="23"/>
-        <v>0.79295463317076276</v>
+        <v>0.83847448121144397</v>
       </c>
       <c r="AR32" s="1">
         <f t="shared" si="24"/>
-        <v>0.85400425230332777</v>
+        <v>0.76837065282835459</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="25"/>
@@ -6513,38 +6513,38 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>1241.9000000000001</v>
+        <v>1595</v>
       </c>
       <c r="C33">
-        <v>1269.95</v>
+        <v>1859</v>
       </c>
       <c r="D33">
-        <v>1225.25</v>
+        <v>1595</v>
       </c>
       <c r="E33">
-        <v>1258.05</v>
+        <v>1749.1</v>
       </c>
       <c r="F33">
-        <v>18.299999999999951</v>
+        <v>194.25</v>
       </c>
       <c r="G33">
-        <v>1.4761040532365359</v>
+        <v>12.49316654339647</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>1.3004267654400405</v>
+        <v>9.6614420062695867</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>1.3004267654400405</v>
+        <v>9.6614420062695867</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>0.9459083502245611</v>
+        <v>6.2832313761363041</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>1.3406876560109582</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6575,38 +6575,38 @@
         <v>NO</v>
       </c>
       <c r="S33">
-        <v>1237.8</v>
+        <v>1543.7</v>
       </c>
       <c r="T33">
-        <v>1251.4000000000001</v>
+        <v>1566.3</v>
       </c>
       <c r="U33">
-        <v>1230</v>
+        <v>1535.1</v>
       </c>
       <c r="V33">
-        <v>1239.75</v>
+        <v>1554.85</v>
       </c>
       <c r="W33">
-        <v>10.75</v>
+        <v>19.049999999999951</v>
       </c>
       <c r="X33">
-        <v>0.87469487388120415</v>
+        <v>1.240395884880841</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="11"/>
-        <v>0.15753756665051263</v>
+        <v>0.72229060050527072</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" si="12"/>
-        <v>0.15753756665051263</v>
+        <v>0.72229060050527072</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="13"/>
-        <v>0.93970558580359687</v>
+        <v>0.73640544103933148</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" si="14"/>
-        <v>0.63015026660203222</v>
+        <v>0.55710306406686116</v>
       </c>
       <c r="AC33" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6633,38 +6633,38 @@
         <v>NO</v>
       </c>
       <c r="AI33">
-        <v>1217</v>
+        <v>1532</v>
       </c>
       <c r="AJ33">
-        <v>1234.25</v>
+        <v>1555</v>
       </c>
       <c r="AK33">
-        <v>1201.45</v>
+        <v>1521</v>
       </c>
       <c r="AL33">
-        <v>1229</v>
+        <v>1535.8</v>
       </c>
       <c r="AM33">
-        <v>3.549999999999955</v>
+        <v>7.8999999999998636</v>
       </c>
       <c r="AN33">
-        <v>0.28968950181565578</v>
+        <v>0.51704954512728996</v>
       </c>
       <c r="AO33" s="1">
         <f t="shared" si="21"/>
-        <v>0.98603122432210344</v>
+        <v>0.24804177545691611</v>
       </c>
       <c r="AP33" s="1">
         <f t="shared" si="22"/>
-        <v>0.98603122432210344</v>
+        <v>0.24804177545691611</v>
       </c>
       <c r="AQ33" s="1">
         <f t="shared" si="23"/>
-        <v>0.42717656631407647</v>
+        <v>1.2501627816121921</v>
       </c>
       <c r="AR33" s="1">
         <f t="shared" si="24"/>
-        <v>1.2777321281840555</v>
+        <v>0.71801566579634468</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="25"/>
@@ -6696,38 +6696,38 @@
         <v>82</v>
       </c>
       <c r="B34">
-        <v>23.8</v>
+        <v>26.5</v>
       </c>
       <c r="C34">
-        <v>23.95</v>
+        <v>27.75</v>
       </c>
       <c r="D34">
-        <v>23.15</v>
+        <v>26.45</v>
       </c>
       <c r="E34">
-        <v>23.4</v>
+        <v>27.25</v>
       </c>
       <c r="F34">
-        <v>-0.40000000000000208</v>
+        <v>1.1999999999999991</v>
       </c>
       <c r="G34">
-        <v>-1.6806722689075719</v>
+        <v>4.6065259117082507</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ref="H34:H51" si="31">(E34-B34)/B34*100</f>
-        <v>-1.6806722689075719</v>
+        <v>2.8301886792452833</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" ref="I34:I65" si="32">ABS(H34)</f>
-        <v>1.6806722689075719</v>
+        <v>2.8301886792452833</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ref="J34:J51" si="33">IF(H34&gt;=0,(C34-E34)/E34*100,(C34-B34)/B34*100)</f>
-        <v>0.63025210084033012</v>
+        <v>1.834862385321101</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ref="K34:K51" si="34">IF(H34&gt;=0,(B34-D34)/B34*100,(E34-D34)/E34*100)</f>
-        <v>1.0683760683760684</v>
+        <v>0.18867924528302155</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" ref="L34:L65" si="35">IF(AND((K34-J34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
@@ -6758,38 +6758,38 @@
         <v>NO</v>
       </c>
       <c r="S34">
-        <v>24</v>
+        <v>26.45</v>
       </c>
       <c r="T34">
-        <v>24.25</v>
+        <v>26.6</v>
       </c>
       <c r="U34">
-        <v>23.65</v>
+        <v>25.65</v>
       </c>
       <c r="V34">
-        <v>23.8</v>
+        <v>26.05</v>
       </c>
       <c r="W34">
-        <v>0.10000000000000139</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="X34">
-        <v>0.42194092827004831</v>
+        <v>-0.7619047619047592</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ref="Y34:Y51" si="42">(V34-S34)/S34*100</f>
-        <v>-0.83333333333333037</v>
+        <v>-1.5122873345935675</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" ref="Z34:Z65" si="43">ABS(Y34)</f>
-        <v>0.83333333333333037</v>
+        <v>1.5122873345935675</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" ref="AA34:AA51" si="44">IF(Y34&gt;=0,(T34-V34)/V34*100,(T34-S34)/S34*100)</f>
-        <v>1.0416666666666665</v>
+        <v>0.56710775047259787</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" ref="AB34:AB51" si="45">IF(Y34&gt;=0,(S34-U34)/S34*100,(V34-U34)/V34*100)</f>
-        <v>0.63025210084034511</v>
+        <v>1.5355086372360927</v>
       </c>
       <c r="AC34" s="1" t="str">
         <f t="shared" ref="AC34:AC51" si="46">IF(AND(I34&lt;Z34/2,S34&gt;E34,E34&gt;(S34+V34)/2,V34&lt;B34,B34&lt;(S34+V34)/2),"YES","NO")</f>
@@ -6816,38 +6816,38 @@
         <v>NO</v>
       </c>
       <c r="AI34">
-        <v>24.1</v>
+        <v>26</v>
       </c>
       <c r="AJ34">
-        <v>24.4</v>
+        <v>26.55</v>
       </c>
       <c r="AK34">
-        <v>23.55</v>
+        <v>26</v>
       </c>
       <c r="AL34">
-        <v>23.7</v>
+        <v>26.25</v>
       </c>
       <c r="AM34">
-        <v>-0.55000000000000071</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="AN34">
-        <v>-2.2680412371134051</v>
+        <v>1.156069364161852</v>
       </c>
       <c r="AO34" s="1">
         <f t="shared" ref="AO34:AO51" si="52">(AL34-AI34)/AI34*100</f>
-        <v>-1.6597510373444071</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="AP34" s="1">
         <f t="shared" ref="AP34:AP65" si="53">ABS(AO34)</f>
-        <v>1.6597510373444071</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="AQ34" s="1">
         <f t="shared" ref="AQ34:AQ51" si="54">IF(AO34&gt;=0,(AJ34-AL34)/AL34*100,(AJ34-AI34)/AI34*100)</f>
-        <v>1.2448132780082868</v>
+        <v>1.1428571428571457</v>
       </c>
       <c r="AR34" s="1">
         <f t="shared" ref="AR34:AR51" si="55">IF(AO34&gt;=0,(AI34-AK34)/AI34*100,(AL34-AK34)/AL34*100)</f>
-        <v>0.63291139240505734</v>
+        <v>0</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" ref="AS34:AS51" si="56">IF(AND(AO34&lt;0,AP34&gt;1.5,Y34&lt;0,Z34&gt;1.5,AL34&gt;S34,AL34&lt;E34,H34&gt;0,I34&gt;1.5),"YES","NO")</f>
@@ -6879,42 +6879,42 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>1591</v>
+        <v>1989</v>
       </c>
       <c r="C35">
-        <v>1599.9</v>
+        <v>2144</v>
       </c>
       <c r="D35">
-        <v>1555.4</v>
+        <v>1981.05</v>
       </c>
       <c r="E35">
-        <v>1590.3</v>
+        <v>2069.35</v>
       </c>
       <c r="F35">
-        <v>-9.1500000000000909</v>
+        <v>111.89999999999991</v>
       </c>
       <c r="G35">
-        <v>-0.5720716496295658</v>
+        <v>5.7166211142046981</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="31"/>
-        <v>-4.3997485857953836E-2</v>
+        <v>4.0397184514831528</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="32"/>
-        <v>4.3997485857953836E-2</v>
+        <v>4.0397184514831528</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="33"/>
-        <v>0.55939660590823947</v>
+        <v>3.6074129557590595</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="34"/>
-        <v>2.1945544865748516</v>
+        <v>0.39969834087481376</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="36"/>
@@ -6941,38 +6941,38 @@
         <v>NO</v>
       </c>
       <c r="S35">
-        <v>1599.95</v>
+        <v>1969</v>
       </c>
       <c r="T35">
-        <v>1610</v>
+        <v>1978.2</v>
       </c>
       <c r="U35">
-        <v>1560</v>
+        <v>1949</v>
       </c>
       <c r="V35">
-        <v>1599.45</v>
+        <v>1957.45</v>
       </c>
       <c r="W35">
-        <v>41.950000000000053</v>
+        <v>-11.89999999999986</v>
       </c>
       <c r="X35">
-        <v>2.6934189406099551</v>
+        <v>-0.60426028892781192</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="42"/>
-        <v>-3.125097659301853E-2</v>
+        <v>-0.58659217877094749</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" si="43"/>
-        <v>3.125097659301853E-2</v>
+        <v>0.58659217877094749</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="44"/>
-        <v>0.62814462951966965</v>
+        <v>0.46724225495175453</v>
       </c>
       <c r="AB35" s="1">
         <f t="shared" si="45"/>
-        <v>2.4664728500422046</v>
+        <v>0.43168407877596082</v>
       </c>
       <c r="AC35" s="1" t="str">
         <f t="shared" si="46"/>
@@ -6999,38 +6999,38 @@
         <v>NO</v>
       </c>
       <c r="AI35">
-        <v>1585</v>
+        <v>1956</v>
       </c>
       <c r="AJ35">
-        <v>1592.25</v>
+        <v>1986.1</v>
       </c>
       <c r="AK35">
-        <v>1552.05</v>
+        <v>1943.7</v>
       </c>
       <c r="AL35">
-        <v>1557.5</v>
+        <v>1969.35</v>
       </c>
       <c r="AM35">
-        <v>-30.400000000000091</v>
+        <v>45.349999999999909</v>
       </c>
       <c r="AN35">
-        <v>-1.9144782417028841</v>
+        <v>2.357068607068602</v>
       </c>
       <c r="AO35" s="1">
         <f t="shared" si="52"/>
-        <v>-1.7350157728706623</v>
+        <v>0.68251533742330828</v>
       </c>
       <c r="AP35" s="1">
         <f t="shared" si="53"/>
-        <v>1.7350157728706623</v>
+        <v>0.68251533742330828</v>
       </c>
       <c r="AQ35" s="1">
         <f t="shared" si="54"/>
-        <v>0.45741324921135651</v>
+        <v>0.8505344402975602</v>
       </c>
       <c r="AR35" s="1">
         <f t="shared" si="55"/>
-        <v>0.34991974317817304</v>
+        <v>0.62883435582821856</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="56"/>
@@ -7062,38 +7062,38 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>1015</v>
+        <v>1265</v>
       </c>
       <c r="C36">
-        <v>1036</v>
+        <v>1320</v>
       </c>
       <c r="D36">
-        <v>996.1</v>
+        <v>1261.4000000000001</v>
       </c>
       <c r="E36">
-        <v>1023.85</v>
+        <v>1309.5999999999999</v>
       </c>
       <c r="F36">
-        <v>-2.8500000000000232</v>
+        <v>54.799999999999947</v>
       </c>
       <c r="G36">
-        <v>-0.27758838998734031</v>
+        <v>4.3672298374242873</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="31"/>
-        <v>0.87192118226601212</v>
+        <v>3.5256916996047361</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="32"/>
-        <v>0.87192118226601212</v>
+        <v>3.5256916996047361</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="33"/>
-        <v>1.1866972701079237</v>
+        <v>0.79413561392792398</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="34"/>
-        <v>1.8620689655172391</v>
+        <v>0.28458498023714696</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7124,38 +7124,38 @@
         <v>NO</v>
       </c>
       <c r="S36">
-        <v>1070</v>
+        <v>1293.8499999999999</v>
       </c>
       <c r="T36">
-        <v>1081.5999999999999</v>
+        <v>1293.8499999999999</v>
       </c>
       <c r="U36">
-        <v>1014</v>
+        <v>1240.7</v>
       </c>
       <c r="V36">
-        <v>1026.7</v>
+        <v>1254.8</v>
       </c>
       <c r="W36">
-        <v>-36.149999999999856</v>
+        <v>-37.299999999999947</v>
       </c>
       <c r="X36">
-        <v>-3.401232535164874</v>
+        <v>-2.8867734695456981</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" si="42"/>
-        <v>-4.0467289719626125</v>
+        <v>-3.0181242029601543</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" si="43"/>
-        <v>4.0467289719626125</v>
+        <v>3.0181242029601543</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="44"/>
-        <v>1.0841121495327017</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="1">
         <f t="shared" si="45"/>
-        <v>1.236972825557616</v>
+        <v>1.1236850494102575</v>
       </c>
       <c r="AC36" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7182,38 +7182,38 @@
         <v>NO</v>
       </c>
       <c r="AI36">
-        <v>1030</v>
+        <v>1313.25</v>
       </c>
       <c r="AJ36">
-        <v>1070.25</v>
+        <v>1323.9</v>
       </c>
       <c r="AK36">
-        <v>1028</v>
+        <v>1273.7</v>
       </c>
       <c r="AL36">
-        <v>1062.8499999999999</v>
+        <v>1292.0999999999999</v>
       </c>
       <c r="AM36">
-        <v>6.5999999999999091</v>
+        <v>-3.6500000000000909</v>
       </c>
       <c r="AN36">
-        <v>0.62485207100590856</v>
+        <v>-0.28169014084507749</v>
       </c>
       <c r="AO36" s="1">
         <f t="shared" si="52"/>
-        <v>3.1893203883495058</v>
+        <v>-1.6105082809823028</v>
       </c>
       <c r="AP36" s="1">
         <f t="shared" si="53"/>
-        <v>3.1893203883495058</v>
+        <v>1.6105082809823028</v>
       </c>
       <c r="AQ36" s="1">
         <f t="shared" si="54"/>
-        <v>0.69624123818037265</v>
+        <v>0.81096516276414166</v>
       </c>
       <c r="AR36" s="1">
         <f t="shared" si="55"/>
-        <v>0.1941747572815534</v>
+        <v>1.4240383871217293</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="56"/>
@@ -7245,38 +7245,38 @@
         <v>85</v>
       </c>
       <c r="B37">
-        <v>634.9</v>
+        <v>1025.9000000000001</v>
       </c>
       <c r="C37">
-        <v>636.20000000000005</v>
+        <v>1187.95</v>
       </c>
       <c r="D37">
-        <v>622.5</v>
+        <v>1025.9000000000001</v>
       </c>
       <c r="E37">
-        <v>631.9</v>
+        <v>1154.0999999999999</v>
       </c>
       <c r="F37">
-        <v>4.6499999999999773</v>
+        <v>143.05000000000001</v>
       </c>
       <c r="G37">
-        <v>0.74133120765244753</v>
+        <v>14.14865733643242</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="31"/>
-        <v>-0.47251535674909434</v>
+        <v>12.496344672970055</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="32"/>
-        <v>0.47251535674909434</v>
+        <v>12.496344672970055</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="33"/>
-        <v>0.20475665459128498</v>
+        <v>2.9330214019582477</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="34"/>
-        <v>1.4875771482829525</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7307,38 +7307,38 @@
         <v>NO</v>
       </c>
       <c r="S37">
-        <v>610</v>
+        <v>993.7</v>
       </c>
       <c r="T37">
-        <v>635.5</v>
+        <v>1023.9</v>
       </c>
       <c r="U37">
-        <v>606</v>
+        <v>991.5</v>
       </c>
       <c r="V37">
-        <v>627.25</v>
+        <v>1011.05</v>
       </c>
       <c r="W37">
-        <v>17.649999999999981</v>
+        <v>22.899999999999981</v>
       </c>
       <c r="X37">
-        <v>2.8953412073490772</v>
+        <v>2.317461923796992</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="42"/>
-        <v>2.8278688524590163</v>
+        <v>1.7459997987320026</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" si="43"/>
-        <v>2.8278688524590163</v>
+        <v>1.7459997987320026</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="44"/>
-        <v>1.3152650458349939</v>
+        <v>1.2709559368972874</v>
       </c>
       <c r="AB37" s="1">
         <f t="shared" si="45"/>
-        <v>0.65573770491803274</v>
+        <v>0.22139478715910693</v>
       </c>
       <c r="AC37" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7365,38 +7365,38 @@
         <v>NO</v>
       </c>
       <c r="AI37">
-        <v>614.95000000000005</v>
+        <v>983</v>
       </c>
       <c r="AJ37">
-        <v>622.04999999999995</v>
+        <v>1003.75</v>
       </c>
       <c r="AK37">
-        <v>605</v>
+        <v>983</v>
       </c>
       <c r="AL37">
-        <v>609.6</v>
+        <v>988.15</v>
       </c>
       <c r="AM37">
-        <v>-2.5</v>
+        <v>5.4499999999999318</v>
       </c>
       <c r="AN37">
-        <v>-0.40842999509883998</v>
+        <v>0.55459448458328398</v>
       </c>
       <c r="AO37" s="1">
         <f t="shared" si="52"/>
-        <v>-0.86998943003496576</v>
+        <v>0.52390640895218488</v>
       </c>
       <c r="AP37" s="1">
         <f t="shared" si="53"/>
-        <v>0.86998943003496576</v>
+        <v>0.52390640895218488</v>
       </c>
       <c r="AQ37" s="1">
         <f t="shared" si="54"/>
-        <v>1.1545654118220845</v>
+        <v>1.5787076860800509</v>
       </c>
       <c r="AR37" s="1">
         <f t="shared" si="55"/>
-        <v>0.7545931758530221</v>
+        <v>0</v>
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="56"/>
@@ -7428,38 +7428,38 @@
         <v>86</v>
       </c>
       <c r="B38">
-        <v>4145</v>
+        <v>4881</v>
       </c>
       <c r="C38">
-        <v>4148</v>
+        <v>5470</v>
       </c>
       <c r="D38">
-        <v>4021.05</v>
+        <v>4860</v>
       </c>
       <c r="E38">
-        <v>4043.15</v>
+        <v>5250.05</v>
       </c>
       <c r="F38">
-        <v>-105.15000000000011</v>
+        <v>357.15000000000049</v>
       </c>
       <c r="G38">
-        <v>-2.5347732806209788</v>
+        <v>7.2993521224631719</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="31"/>
-        <v>-2.4571773220747866</v>
+        <v>7.5609506248719569</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="32"/>
-        <v>2.4571773220747866</v>
+        <v>7.5609506248719569</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="33"/>
-        <v>7.2376357056694818E-2</v>
+        <v>4.1894839096770466</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="34"/>
-        <v>0.546603514586397</v>
+        <v>0.43023970497848807</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7490,38 +7490,38 @@
         <v>NO</v>
       </c>
       <c r="S38">
-        <v>4249</v>
+        <v>4806.05</v>
       </c>
       <c r="T38">
-        <v>4249</v>
+        <v>4973.95</v>
       </c>
       <c r="U38">
-        <v>4135</v>
+        <v>4759.1000000000004</v>
       </c>
       <c r="V38">
-        <v>4148.3</v>
+        <v>4892.8999999999996</v>
       </c>
       <c r="W38">
-        <v>-51.199999999999818</v>
+        <v>-2.9000000000005461</v>
       </c>
       <c r="X38">
-        <v>-1.2191927610429769</v>
+        <v>-5.923444585155737E-2</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="42"/>
-        <v>-2.3699694045657758</v>
+        <v>1.8070973044391849</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" si="43"/>
-        <v>2.3699694045657758</v>
+        <v>1.8070973044391849</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1.6564818410349729</v>
       </c>
       <c r="AB38" s="1">
         <f t="shared" si="45"/>
-        <v>0.32061326326447415</v>
+        <v>0.97689370689027</v>
       </c>
       <c r="AC38" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7548,38 +7548,38 @@
         <v>NO</v>
       </c>
       <c r="AI38">
-        <v>4100</v>
+        <v>4813</v>
       </c>
       <c r="AJ38">
-        <v>4250</v>
+        <v>4950</v>
       </c>
       <c r="AK38">
-        <v>4000</v>
+        <v>4781.3</v>
       </c>
       <c r="AL38">
-        <v>4199.5</v>
+        <v>4895.8</v>
       </c>
       <c r="AM38">
-        <v>96</v>
+        <v>81.800000000000182</v>
       </c>
       <c r="AN38">
-        <v>2.3394663092482029</v>
+        <v>1.6992106356460359</v>
       </c>
       <c r="AO38" s="1">
         <f t="shared" si="52"/>
-        <v>2.4268292682926829</v>
+        <v>1.7203407438188278</v>
       </c>
       <c r="AP38" s="1">
         <f t="shared" si="53"/>
-        <v>2.4268292682926829</v>
+        <v>1.7203407438188278</v>
       </c>
       <c r="AQ38" s="1">
         <f t="shared" si="54"/>
-        <v>1.2025241100130968</v>
+        <v>1.1070713672944119</v>
       </c>
       <c r="AR38" s="1">
         <f t="shared" si="55"/>
-        <v>2.4390243902439024</v>
+        <v>0.65863286931227538</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" si="56"/>
@@ -7611,38 +7611,38 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>242</v>
+        <v>243.75</v>
       </c>
       <c r="C39">
-        <v>242</v>
+        <v>259.3</v>
       </c>
       <c r="D39">
-        <v>235.5</v>
+        <v>243.25</v>
       </c>
       <c r="E39">
-        <v>238.8</v>
+        <v>251.4</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>9.2000000000000171</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>3.7985136251032272</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="31"/>
-        <v>-1.3223140495867722</v>
+        <v>3.1384615384615406</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="32"/>
-        <v>1.3223140495867722</v>
+        <v>3.1384615384615406</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3.1424025457438365</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="34"/>
-        <v>1.3819095477386982</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7673,38 +7673,38 @@
         <v>NO</v>
       </c>
       <c r="S39">
-        <v>240</v>
+        <v>240.55</v>
       </c>
       <c r="T39">
-        <v>241.4</v>
+        <v>243.7</v>
       </c>
       <c r="U39">
-        <v>236.2</v>
+        <v>240.05</v>
       </c>
       <c r="V39">
-        <v>238.8</v>
+        <v>242.2</v>
       </c>
       <c r="W39">
-        <v>1.9500000000000171</v>
+        <v>1.899999999999977</v>
       </c>
       <c r="X39">
-        <v>0.82330588980368047</v>
+        <v>0.79067831876819694</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="42"/>
-        <v>-0.49999999999999523</v>
+        <v>0.68592808147993234</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="43"/>
-        <v>0.49999999999999523</v>
+        <v>0.68592808147993234</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="44"/>
-        <v>0.5833333333333357</v>
+        <v>0.61932287365813377</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" si="45"/>
-        <v>1.0887772194304952</v>
+        <v>0.20785699438786112</v>
       </c>
       <c r="AC39" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7731,38 +7731,38 @@
         <v>NO</v>
       </c>
       <c r="AI39">
-        <v>235.4</v>
+        <v>241</v>
       </c>
       <c r="AJ39">
-        <v>239</v>
+        <v>244.35</v>
       </c>
       <c r="AK39">
-        <v>232.55</v>
+        <v>238.6</v>
       </c>
       <c r="AL39">
-        <v>236.85</v>
+        <v>240.3</v>
       </c>
       <c r="AM39">
-        <v>1.2999999999999829</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="AN39">
-        <v>0.55189980895775115</v>
+        <v>0.16673614005835999</v>
       </c>
       <c r="AO39" s="1">
         <f t="shared" si="52"/>
-        <v>0.61597281223448963</v>
+        <v>-0.29045643153526501</v>
       </c>
       <c r="AP39" s="1">
         <f t="shared" si="53"/>
-        <v>0.61597281223448963</v>
+        <v>0.29045643153526501</v>
       </c>
       <c r="AQ39" s="1">
         <f t="shared" si="54"/>
-        <v>0.9077475195271294</v>
+        <v>1.3900414937759313</v>
       </c>
       <c r="AR39" s="1">
         <f t="shared" si="55"/>
-        <v>1.210705182667797</v>
+        <v>0.70744902205577065</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="56"/>
@@ -7794,38 +7794,38 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>380.6</v>
+        <v>405.25</v>
       </c>
       <c r="C40">
-        <v>380.6</v>
+        <v>418.8</v>
       </c>
       <c r="D40">
-        <v>361.25</v>
+        <v>400</v>
       </c>
       <c r="E40">
-        <v>363.05</v>
+        <v>414.45</v>
       </c>
       <c r="F40">
-        <v>-16.199999999999989</v>
+        <v>20.449999999999989</v>
       </c>
       <c r="G40">
-        <v>-4.2715886618325616</v>
+        <v>5.1903553299492362</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="31"/>
-        <v>-4.6111403047819257</v>
+        <v>2.2702035780382452</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="32"/>
-        <v>4.6111403047819257</v>
+        <v>2.2702035780382452</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1.0495837857401431</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="34"/>
-        <v>0.49579947665611107</v>
+        <v>1.2954966070326959</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7856,38 +7856,38 @@
         <v>NO</v>
       </c>
       <c r="S40">
-        <v>380</v>
+        <v>386.1</v>
       </c>
       <c r="T40">
-        <v>387.15</v>
+        <v>397.35</v>
       </c>
       <c r="U40">
-        <v>377</v>
+        <v>382.5</v>
       </c>
       <c r="V40">
-        <v>379.25</v>
+        <v>394</v>
       </c>
       <c r="W40">
-        <v>0.1999999999999886</v>
+        <v>11.100000000000019</v>
       </c>
       <c r="X40">
-        <v>5.2763487666531772E-2</v>
+        <v>2.8989292243405651</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" si="42"/>
-        <v>-0.19736842105263158</v>
+        <v>2.0461020461020403</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" si="43"/>
-        <v>0.19736842105263158</v>
+        <v>2.0461020461020403</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="44"/>
-        <v>1.881578947368415</v>
+        <v>0.85025380710660481</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" si="45"/>
-        <v>0.59327620303230055</v>
+        <v>0.93240093240093835</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7914,38 +7914,38 @@
         <v>NO</v>
       </c>
       <c r="AI40">
-        <v>370.65</v>
+        <v>396.5</v>
       </c>
       <c r="AJ40">
-        <v>383.9</v>
+        <v>400.3</v>
       </c>
       <c r="AK40">
-        <v>370.65</v>
+        <v>381.3</v>
       </c>
       <c r="AL40">
-        <v>379.05</v>
+        <v>382.9</v>
       </c>
       <c r="AM40">
-        <v>-5.0000000000011369E-2</v>
+        <v>-6.8500000000000227</v>
       </c>
       <c r="AN40">
-        <v>-1.318913215510719E-2</v>
+        <v>-1.7575368826170681</v>
       </c>
       <c r="AO40" s="1">
         <f t="shared" si="52"/>
-        <v>2.2662889518413691</v>
+        <v>-3.4300126103404849</v>
       </c>
       <c r="AP40" s="1">
         <f t="shared" si="53"/>
-        <v>2.2662889518413691</v>
+        <v>3.4300126103404849</v>
       </c>
       <c r="AQ40" s="1">
         <f t="shared" si="54"/>
-        <v>1.2795145759134587</v>
+        <v>0.95838587641866624</v>
       </c>
       <c r="AR40" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.41786367197700858</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="56"/>
@@ -7977,38 +7977,38 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>19.399999999999999</v>
+        <v>21.45</v>
       </c>
       <c r="C41">
-        <v>19.5</v>
+        <v>21.8</v>
       </c>
       <c r="D41">
-        <v>18.850000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="E41">
-        <v>19.05</v>
+        <v>21.45</v>
       </c>
       <c r="F41">
-        <v>-0.39999999999999858</v>
+        <v>9.9999999999997868E-2</v>
       </c>
       <c r="G41">
-        <v>-2.056555269922872</v>
+        <v>0.46838407494144202</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="31"/>
-        <v>-1.8041237113401953</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="32"/>
-        <v>1.8041237113401953</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="33"/>
-        <v>0.51546391752578058</v>
+        <v>1.6317016317016386</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="34"/>
-        <v>1.0498687664041957</v>
+        <v>1.1655011655011656</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8039,38 +8039,38 @@
         <v>NO</v>
       </c>
       <c r="S41">
-        <v>19.7</v>
+        <v>20.85</v>
       </c>
       <c r="T41">
-        <v>19.850000000000001</v>
+        <v>22</v>
       </c>
       <c r="U41">
-        <v>19.3</v>
+        <v>20.65</v>
       </c>
       <c r="V41">
-        <v>19.45</v>
+        <v>21.35</v>
       </c>
       <c r="W41">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="X41">
-        <v>-1.2690355329949241</v>
+        <v>2.398081534772182</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" si="42"/>
-        <v>-1.2690355329949239</v>
+        <v>2.3980815347721824</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" si="43"/>
-        <v>1.2690355329949239</v>
+        <v>2.3980815347721824</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="44"/>
-        <v>0.76142131979696515</v>
+        <v>3.0444964871194311</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" si="45"/>
-        <v>0.77120822622107243</v>
+        <v>0.95923261390888659</v>
       </c>
       <c r="AC41" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8097,38 +8097,38 @@
         <v>NO</v>
       </c>
       <c r="AI41">
-        <v>19.850000000000001</v>
+        <v>20.7</v>
       </c>
       <c r="AJ41">
-        <v>20.100000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="AK41">
-        <v>19.25</v>
+        <v>20.7</v>
       </c>
       <c r="AL41">
-        <v>19.7</v>
+        <v>20.85</v>
       </c>
       <c r="AM41">
-        <v>-0.1500000000000021</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="AN41">
-        <v>-0.75566750629723989</v>
+        <v>1.459854014598543</v>
       </c>
       <c r="AO41" s="1">
         <f t="shared" si="52"/>
-        <v>-0.75566750629723989</v>
+        <v>0.72463768115943061</v>
       </c>
       <c r="AP41" s="1">
         <f t="shared" si="53"/>
-        <v>0.75566750629723989</v>
+        <v>0.72463768115943061</v>
       </c>
       <c r="AQ41" s="1">
         <f t="shared" si="54"/>
-        <v>1.2594458438287153</v>
+        <v>1.6786570743405171</v>
       </c>
       <c r="AR41" s="1">
         <f t="shared" si="55"/>
-        <v>2.2842639593908594</v>
+        <v>0</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="56"/>
@@ -8160,38 +8160,38 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>292</v>
+        <v>274.7</v>
       </c>
       <c r="C42">
-        <v>292.75</v>
+        <v>282.5</v>
       </c>
       <c r="D42">
-        <v>282.7</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="E42">
-        <v>287</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="F42">
-        <v>-6.1499999999999773</v>
+        <v>6.3500000000000227</v>
       </c>
       <c r="G42">
-        <v>-2.0979020979020899</v>
+        <v>2.3453370267774778</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="31"/>
-        <v>-1.7123287671232876</v>
+        <v>0.87368037859484304</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="32"/>
-        <v>1.7123287671232876</v>
+        <v>0.87368037859484304</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="33"/>
-        <v>0.25684931506849312</v>
+        <v>1.948754962107534</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="34"/>
-        <v>1.4982578397212585</v>
+        <v>0.58245358572987471</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8222,38 +8222,38 @@
         <v>NO</v>
       </c>
       <c r="S42">
-        <v>297</v>
+        <v>268.8</v>
       </c>
       <c r="T42">
-        <v>302.7</v>
+        <v>275</v>
       </c>
       <c r="U42">
-        <v>291.60000000000002</v>
+        <v>265.3</v>
       </c>
       <c r="V42">
-        <v>293.14999999999998</v>
+        <v>270.75</v>
       </c>
       <c r="W42">
-        <v>-0.55000000000001137</v>
+        <v>1.9499999999999891</v>
       </c>
       <c r="X42">
-        <v>-0.1872659176030001</v>
+        <v>0.72544642857142438</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" si="42"/>
-        <v>-1.2962962962963038</v>
+        <v>0.72544642857142438</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" si="43"/>
-        <v>1.2962962962963038</v>
+        <v>0.72544642857142438</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" si="44"/>
-        <v>1.9191919191919153</v>
+        <v>1.5697137580794089</v>
       </c>
       <c r="AB42" s="1">
         <f t="shared" si="45"/>
-        <v>0.5287395531297816</v>
+        <v>1.3020833333333333</v>
       </c>
       <c r="AC42" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8280,38 +8280,38 @@
         <v>NO</v>
       </c>
       <c r="AI42">
-        <v>290.2</v>
+        <v>263</v>
       </c>
       <c r="AJ42">
-        <v>297</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="AK42">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="AL42">
-        <v>293.7</v>
+        <v>268.8</v>
       </c>
       <c r="AM42">
-        <v>-0.1999999999999886</v>
+        <v>8.6999999999999886</v>
       </c>
       <c r="AN42">
-        <v>-6.805035726437178E-2</v>
+        <v>3.3448673587081852</v>
       </c>
       <c r="AO42" s="1">
         <f t="shared" si="52"/>
-        <v>1.2060647829083391</v>
+        <v>2.205323193916354</v>
       </c>
       <c r="AP42" s="1">
         <f t="shared" si="53"/>
-        <v>1.2060647829083391</v>
+        <v>2.205323193916354</v>
       </c>
       <c r="AQ42" s="1">
         <f t="shared" si="54"/>
-        <v>1.1235955056179814</v>
+        <v>1.3392857142857015</v>
       </c>
       <c r="AR42" s="1">
         <f t="shared" si="55"/>
-        <v>1.1026878015161918</v>
+        <v>0</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="56"/>
@@ -8343,38 +8343,38 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>50.95</v>
+        <v>51.7</v>
       </c>
       <c r="C43">
-        <v>52.7</v>
+        <v>54.15</v>
       </c>
       <c r="D43">
-        <v>49.25</v>
+        <v>51</v>
       </c>
       <c r="E43">
-        <v>51.45</v>
+        <v>53.35</v>
       </c>
       <c r="F43">
-        <v>0.30000000000000432</v>
+        <v>2.0500000000000038</v>
       </c>
       <c r="G43">
-        <v>0.58651026392962713</v>
+        <v>3.9961013645224259</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="31"/>
-        <v>0.98135426889106958</v>
+        <v>3.1914893617021245</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="32"/>
-        <v>0.98135426889106958</v>
+        <v>3.1914893617021245</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="33"/>
-        <v>2.4295432458697763</v>
+        <v>1.4995313964386077</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="34"/>
-        <v>3.3366045142296423</v>
+        <v>1.3539651837524231</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="P43" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q43" s="1" t="str">
         <f t="shared" si="40"/>
@@ -8405,38 +8405,38 @@
         <v>NO</v>
       </c>
       <c r="S43">
-        <v>50.05</v>
+        <v>51</v>
       </c>
       <c r="T43">
-        <v>52</v>
+        <v>52.4</v>
       </c>
       <c r="U43">
-        <v>49.5</v>
+        <v>50.6</v>
       </c>
       <c r="V43">
-        <v>51.15</v>
+        <v>51.3</v>
       </c>
       <c r="W43">
-        <v>1.100000000000001</v>
+        <v>0.34999999999999432</v>
       </c>
       <c r="X43">
-        <v>2.1978021978022011</v>
+        <v>0.68694798822373759</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="42"/>
-        <v>2.1978021978022007</v>
+        <v>0.58823529411764153</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="43"/>
-        <v>2.1978021978022007</v>
+        <v>0.58823529411764153</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="44"/>
-        <v>1.6617790811339226</v>
+        <v>2.1442495126705685</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="45"/>
-        <v>1.0989010989010932</v>
+        <v>0.78431372549019329</v>
       </c>
       <c r="AC43" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8463,38 +8463,38 @@
         <v>NO</v>
       </c>
       <c r="AI43">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ43">
-        <v>50.3</v>
+        <v>51.65</v>
       </c>
       <c r="AK43">
-        <v>49.45</v>
+        <v>50.6</v>
       </c>
       <c r="AL43">
-        <v>50.05</v>
+        <v>50.95</v>
       </c>
       <c r="AM43">
-        <v>-0.45000000000000279</v>
+        <v>0.45000000000000279</v>
       </c>
       <c r="AN43">
-        <v>-0.89108910891089677</v>
+        <v>0.89108910891089677</v>
       </c>
       <c r="AO43" s="1">
         <f t="shared" si="52"/>
-        <v>9.9999999999994316E-2</v>
+        <v>-9.803921568626893E-2</v>
       </c>
       <c r="AP43" s="1">
         <f t="shared" si="53"/>
-        <v>9.9999999999994316E-2</v>
+        <v>9.803921568626893E-2</v>
       </c>
       <c r="AQ43" s="1">
         <f t="shared" si="54"/>
-        <v>0.49950049950049952</v>
+        <v>1.2745098039215659</v>
       </c>
       <c r="AR43" s="1">
         <f t="shared" si="55"/>
-        <v>1.0999999999999943</v>
+        <v>0.68694798822375147</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="56"/>
@@ -8526,38 +8526,38 @@
         <v>92</v>
       </c>
       <c r="B44">
-        <v>427.7</v>
+        <v>686</v>
       </c>
       <c r="C44">
-        <v>429.5</v>
+        <v>702.7</v>
       </c>
       <c r="D44">
-        <v>415.5</v>
+        <v>655.25</v>
       </c>
       <c r="E44">
-        <v>422.25</v>
+        <v>674.2</v>
       </c>
       <c r="F44">
-        <v>-4.3999999999999773</v>
+        <v>-10.44999999999993</v>
       </c>
       <c r="G44">
-        <v>-1.031290284776744</v>
+        <v>-1.5263273205287271</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="31"/>
-        <v>-1.274257657236378</v>
+        <v>-1.720116618075795</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="32"/>
-        <v>1.274257657236378</v>
+        <v>1.720116618075795</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="33"/>
-        <v>0.42085574000467879</v>
+        <v>2.4344023323615227</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="34"/>
-        <v>1.5985790408525755</v>
+        <v>2.8107386532186358</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8588,38 +8588,38 @@
         <v>NO</v>
       </c>
       <c r="S44">
-        <v>426.1</v>
+        <v>609.95000000000005</v>
       </c>
       <c r="T44">
-        <v>434.8</v>
+        <v>692.9</v>
       </c>
       <c r="U44">
-        <v>421.1</v>
+        <v>609.1</v>
       </c>
       <c r="V44">
-        <v>426.65</v>
+        <v>684.65</v>
       </c>
       <c r="W44">
-        <v>4</v>
+        <v>76.549999999999955</v>
       </c>
       <c r="X44">
-        <v>0.94640955873654331</v>
+        <v>12.588390067423109</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" si="42"/>
-        <v>0.12907768129545985</v>
+        <v>12.246905484056059</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" si="43"/>
-        <v>0.12907768129545985</v>
+        <v>12.246905484056059</v>
       </c>
       <c r="AA44" s="1">
         <f t="shared" si="44"/>
-        <v>1.9102308683933047</v>
+        <v>1.2049952530490031</v>
       </c>
       <c r="AB44" s="1">
         <f t="shared" si="45"/>
-        <v>1.1734334663224595</v>
+        <v>0.13935568489220801</v>
       </c>
       <c r="AC44" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8646,38 +8646,38 @@
         <v>NO</v>
       </c>
       <c r="AI44">
-        <v>423</v>
+        <v>615.79999999999995</v>
       </c>
       <c r="AJ44">
-        <v>435</v>
+        <v>621.75</v>
       </c>
       <c r="AK44">
-        <v>420</v>
+        <v>605</v>
       </c>
       <c r="AL44">
-        <v>422.65</v>
+        <v>608.1</v>
       </c>
       <c r="AM44">
-        <v>-1.450000000000045</v>
+        <v>-1.549999999999955</v>
       </c>
       <c r="AN44">
-        <v>-0.3419004951662451</v>
+        <v>-0.25424423849749112</v>
       </c>
       <c r="AO44" s="1">
         <f t="shared" si="52"/>
-        <v>-8.2742316784875355E-2</v>
+        <v>-1.2504059759662118</v>
       </c>
       <c r="AP44" s="1">
         <f t="shared" si="53"/>
-        <v>8.2742316784875355E-2</v>
+        <v>1.2504059759662118</v>
       </c>
       <c r="AQ44" s="1">
         <f t="shared" si="54"/>
-        <v>2.8368794326241136</v>
+        <v>0.96622279961027047</v>
       </c>
       <c r="AR44" s="1">
         <f t="shared" si="55"/>
-        <v>0.62699633266295451</v>
+        <v>0.50978457490544693</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="56"/>
@@ -8709,38 +8709,38 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>182.75</v>
+        <v>275</v>
       </c>
       <c r="C45">
-        <v>184</v>
+        <v>301.75</v>
       </c>
       <c r="D45">
-        <v>174.1</v>
+        <v>275</v>
       </c>
       <c r="E45">
-        <v>181.3</v>
+        <v>286.85000000000002</v>
       </c>
       <c r="F45">
-        <v>-1.75</v>
+        <v>13.850000000000019</v>
       </c>
       <c r="G45">
-        <v>-0.95602294455066927</v>
+        <v>5.0732600732600819</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="31"/>
-        <v>-0.79343365253077347</v>
+        <v>4.3090909090909175</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="32"/>
-        <v>0.79343365253077347</v>
+        <v>4.3090909090909175</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="33"/>
-        <v>0.68399452804377558</v>
+        <v>5.194352449015156</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="34"/>
-        <v>3.9713182570325514</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="M45" t="str">
         <f t="shared" si="36"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="37"/>
@@ -8771,38 +8771,38 @@
         <v>NO</v>
       </c>
       <c r="S45">
-        <v>193</v>
+        <v>272.05</v>
       </c>
       <c r="T45">
-        <v>196.45</v>
+        <v>277.5</v>
       </c>
       <c r="U45">
-        <v>180.9</v>
+        <v>264.95</v>
       </c>
       <c r="V45">
-        <v>183.05</v>
+        <v>273</v>
       </c>
       <c r="W45">
-        <v>-9.6999999999999886</v>
+        <v>1.9499999999999891</v>
       </c>
       <c r="X45">
-        <v>-5.0324254215304736</v>
+        <v>0.71942446043165043</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" si="42"/>
-        <v>-5.1554404145077664</v>
+        <v>0.34920051461128049</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" si="43"/>
-        <v>5.1554404145077664</v>
+        <v>0.34920051461128049</v>
       </c>
       <c r="AA45" s="1">
         <f t="shared" si="44"/>
-        <v>1.7875647668393724</v>
+        <v>1.6483516483516485</v>
       </c>
       <c r="AB45" s="1">
         <f t="shared" si="45"/>
-        <v>1.1745424747336823</v>
+        <v>2.6098143723580307</v>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8829,38 +8829,38 @@
         <v>NO</v>
       </c>
       <c r="AI45">
-        <v>190.7</v>
+        <v>263</v>
       </c>
       <c r="AJ45">
-        <v>197.5</v>
+        <v>276.5</v>
       </c>
       <c r="AK45">
-        <v>185.1</v>
+        <v>262</v>
       </c>
       <c r="AL45">
-        <v>192.75</v>
+        <v>271.05</v>
       </c>
       <c r="AM45">
-        <v>2.3499999999999939</v>
+        <v>13.75</v>
       </c>
       <c r="AN45">
-        <v>1.234243697478989</v>
+        <v>5.3439564710454706</v>
       </c>
       <c r="AO45" s="1">
         <f t="shared" si="52"/>
-        <v>1.0749868904037816</v>
+        <v>3.0608365019011452</v>
       </c>
       <c r="AP45" s="1">
         <f t="shared" si="53"/>
-        <v>1.0749868904037816</v>
+        <v>3.0608365019011452</v>
       </c>
       <c r="AQ45" s="1">
         <f t="shared" si="54"/>
-        <v>2.4643320363164722</v>
+        <v>2.0106991330012871</v>
       </c>
       <c r="AR45" s="1">
         <f t="shared" si="55"/>
-        <v>2.9365495542737254</v>
+        <v>0.38022813688212925</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="56"/>
@@ -8892,38 +8892,38 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>35.450000000000003</v>
+        <v>30.95</v>
       </c>
       <c r="C46">
-        <v>36</v>
+        <v>31.85</v>
       </c>
       <c r="D46">
-        <v>33.5</v>
+        <v>30.85</v>
       </c>
       <c r="E46">
-        <v>35.65</v>
+        <v>31.3</v>
       </c>
       <c r="F46">
-        <v>0.14999999999999861</v>
+        <v>0.80000000000000071</v>
       </c>
       <c r="G46">
-        <v>0.42253521126760157</v>
+        <v>2.6229508196721341</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="31"/>
-        <v>0.56417489421719524</v>
+        <v>1.1308562197092131</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="32"/>
-        <v>0.56417489421719524</v>
+        <v>1.1308562197092131</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="33"/>
-        <v>0.98176718092567017</v>
+        <v>1.7571884984025583</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="34"/>
-        <v>5.5007052186177789</v>
+        <v>0.32310177705976695</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="M46" t="str">
         <f t="shared" si="36"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="37"/>
@@ -8954,38 +8954,38 @@
         <v>NO</v>
       </c>
       <c r="S46">
-        <v>35.6</v>
+        <v>31.15</v>
       </c>
       <c r="T46">
-        <v>36.950000000000003</v>
+        <v>31.2</v>
       </c>
       <c r="U46">
-        <v>35.35</v>
+        <v>30.3</v>
       </c>
       <c r="V46">
-        <v>35.5</v>
+        <v>30.5</v>
       </c>
       <c r="W46">
-        <v>-4.9999999999997158E-2</v>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="X46">
-        <v>-0.14064697609000609</v>
+        <v>-0.97402597402597624</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" si="42"/>
-        <v>-0.28089887640449834</v>
+        <v>-2.0866773675762396</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" si="43"/>
-        <v>0.28089887640449834</v>
+        <v>2.0866773675762396</v>
       </c>
       <c r="AA46" s="1">
         <f t="shared" si="44"/>
-        <v>3.792134831460678</v>
+        <v>0.16051364365971338</v>
       </c>
       <c r="AB46" s="1">
         <f t="shared" si="45"/>
-        <v>0.42253521126760163</v>
+        <v>0.65573770491803041</v>
       </c>
       <c r="AC46" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="AE46" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AF46" s="1" t="str">
         <f t="shared" si="49"/>
@@ -9012,38 +9012,38 @@
         <v>NO</v>
       </c>
       <c r="AI46">
-        <v>35.450000000000003</v>
+        <v>30</v>
       </c>
       <c r="AJ46">
-        <v>36.700000000000003</v>
+        <v>31.4</v>
       </c>
       <c r="AK46">
-        <v>35.1</v>
+        <v>30</v>
       </c>
       <c r="AL46">
-        <v>35.549999999999997</v>
+        <v>30.8</v>
       </c>
       <c r="AM46">
-        <v>-0.90000000000000568</v>
+        <v>1.25</v>
       </c>
       <c r="AN46">
-        <v>-2.4691358024691512</v>
+        <v>4.230118443316413</v>
       </c>
       <c r="AO46" s="1">
         <f t="shared" si="52"/>
-        <v>0.28208744710858763</v>
+        <v>2.6666666666666687</v>
       </c>
       <c r="AP46" s="1">
         <f t="shared" si="53"/>
-        <v>0.28208744710858763</v>
+        <v>2.6666666666666687</v>
       </c>
       <c r="AQ46" s="1">
         <f t="shared" si="54"/>
-        <v>3.2348804500703396</v>
+        <v>1.9480519480519412</v>
       </c>
       <c r="AR46" s="1">
         <f t="shared" si="55"/>
-        <v>0.98730606488011663</v>
+        <v>0</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="56"/>
@@ -9075,38 +9075,38 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>887.1</v>
+        <v>1305.2</v>
       </c>
       <c r="C47">
-        <v>910</v>
+        <v>1331</v>
       </c>
       <c r="D47">
-        <v>879.75</v>
+        <v>1272.25</v>
       </c>
       <c r="E47">
-        <v>898.35</v>
+        <v>1302.0999999999999</v>
       </c>
       <c r="F47">
-        <v>-2.6499999999999768</v>
+        <v>12.14999999999986</v>
       </c>
       <c r="G47">
-        <v>-0.29411764705882099</v>
+        <v>0.94189697275087125</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="31"/>
-        <v>1.2681772066283394</v>
+        <v>-0.2375114924915826</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="32"/>
-        <v>1.2681772066283394</v>
+        <v>0.2375114924915826</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="33"/>
-        <v>1.2968219513552599</v>
+        <v>1.9767085504137261</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="34"/>
-        <v>0.82854244166385094</v>
+        <v>2.2924506566315883</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="P47" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q47" s="1" t="str">
         <f t="shared" si="40"/>
@@ -9137,38 +9137,38 @@
         <v>NO</v>
       </c>
       <c r="S47">
-        <v>874</v>
+        <v>1273.7</v>
       </c>
       <c r="T47">
-        <v>917</v>
+        <v>1300</v>
       </c>
       <c r="U47">
-        <v>872.1</v>
+        <v>1261</v>
       </c>
       <c r="V47">
-        <v>901</v>
+        <v>1289.95</v>
       </c>
       <c r="W47">
-        <v>32.350000000000023</v>
+        <v>28.10000000000014</v>
       </c>
       <c r="X47">
-        <v>3.7241696885972519</v>
+        <v>2.2268890914134118</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" si="42"/>
-        <v>3.0892448512585813</v>
+        <v>1.27581063044673</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" si="43"/>
-        <v>3.0892448512585813</v>
+        <v>1.27581063044673</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="44"/>
-        <v>1.7758046614872365</v>
+        <v>0.77909996511492341</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" si="45"/>
-        <v>0.2173913043478235</v>
+        <v>0.99709507733375569</v>
       </c>
       <c r="AC47" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9195,38 +9195,38 @@
         <v>NO</v>
       </c>
       <c r="AI47">
-        <v>870</v>
+        <v>1229</v>
       </c>
       <c r="AJ47">
-        <v>881.65</v>
+        <v>1274.8</v>
       </c>
       <c r="AK47">
-        <v>863</v>
+        <v>1222.8</v>
       </c>
       <c r="AL47">
-        <v>868.65</v>
+        <v>1261.8499999999999</v>
       </c>
       <c r="AM47">
-        <v>-4.3999999999999773</v>
+        <v>40.25</v>
       </c>
       <c r="AN47">
-        <v>-0.5039802989519474</v>
+        <v>3.2948592010478062</v>
       </c>
       <c r="AO47" s="1">
         <f t="shared" si="52"/>
-        <v>-0.15517241379310606</v>
+        <v>2.6729048006509286</v>
       </c>
       <c r="AP47" s="1">
         <f t="shared" si="53"/>
-        <v>0.15517241379310606</v>
+        <v>2.6729048006509286</v>
       </c>
       <c r="AQ47" s="1">
         <f t="shared" si="54"/>
-        <v>1.3390804597701125</v>
+        <v>1.0262709513809127</v>
       </c>
       <c r="AR47" s="1">
         <f t="shared" si="55"/>
-        <v>0.65043458239797125</v>
+        <v>0.50447518307567496</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="56"/>
@@ -9258,38 +9258,38 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>30.4</v>
+        <v>34.4</v>
       </c>
       <c r="C48">
-        <v>30.4</v>
+        <v>35</v>
       </c>
       <c r="D48">
-        <v>29.35</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="E48">
-        <v>29.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="F48">
-        <v>-0.80000000000000071</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="G48">
-        <v>-2.6229508196721341</v>
+        <v>1.166180758017509</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="31"/>
-        <v>-2.3026315789473664</v>
+        <v>0.87209302325582638</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="32"/>
-        <v>2.3026315789473664</v>
+        <v>0.87209302325582638</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.8645533141210292</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="34"/>
-        <v>1.1784511784511713</v>
+        <v>0.29069767441860883</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9320,38 +9320,38 @@
         <v>NO</v>
       </c>
       <c r="S48">
-        <v>30.7</v>
+        <v>34.35</v>
       </c>
       <c r="T48">
-        <v>30.95</v>
+        <v>34.6</v>
       </c>
       <c r="U48">
-        <v>30</v>
+        <v>33.9</v>
       </c>
       <c r="V48">
-        <v>30.5</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="W48">
-        <v>0.30000000000000071</v>
+        <v>-5.0000000000004263E-2</v>
       </c>
       <c r="X48">
-        <v>0.99337748344371091</v>
+        <v>-0.14556040756915359</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="42"/>
-        <v>-0.65146579804560034</v>
+        <v>-0.14556040756915362</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="43"/>
-        <v>0.65146579804560034</v>
+        <v>0.14556040756915362</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="44"/>
-        <v>0.81433224755700329</v>
+        <v>0.72780203784570596</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="45"/>
-        <v>1.639344262295082</v>
+        <v>1.1661807580174888</v>
       </c>
       <c r="AC48" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9378,38 +9378,38 @@
         <v>NO</v>
       </c>
       <c r="AI48">
-        <v>29.2</v>
+        <v>34.65</v>
       </c>
       <c r="AJ48">
-        <v>30.95</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AK48">
-        <v>29.05</v>
+        <v>34.1</v>
       </c>
       <c r="AL48">
-        <v>30.2</v>
+        <v>34.35</v>
       </c>
       <c r="AM48">
-        <v>0.39999999999999858</v>
+        <v>-0.29999999999999721</v>
       </c>
       <c r="AN48">
-        <v>1.342281879194626</v>
+        <v>-0.86580086580085769</v>
       </c>
       <c r="AO48" s="1">
         <f t="shared" si="52"/>
-        <v>3.4246575342465753</v>
+        <v>-0.86580086580085769</v>
       </c>
       <c r="AP48" s="1">
         <f t="shared" si="53"/>
-        <v>3.4246575342465753</v>
+        <v>0.86580086580085769</v>
       </c>
       <c r="AQ48" s="1">
         <f t="shared" si="54"/>
-        <v>2.4834437086092715</v>
+        <v>1.5873015873015996</v>
       </c>
       <c r="AR48" s="1">
         <f t="shared" si="55"/>
-        <v>0.51369863013698147</v>
+        <v>0.72780203784570596</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="56"/>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="AV48" t="str">
         <f t="shared" si="59"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW48" t="str">
         <f t="shared" si="60"/>
@@ -9441,38 +9441,38 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>265.2</v>
+        <v>287.8</v>
       </c>
       <c r="C49">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="D49">
-        <v>260.35000000000002</v>
+        <v>286.3</v>
       </c>
       <c r="E49">
-        <v>264.75</v>
+        <v>323.14999999999998</v>
       </c>
       <c r="F49">
-        <v>-6.4499999999999886</v>
+        <v>40.25</v>
       </c>
       <c r="G49">
-        <v>-2.3783185840707919</v>
+        <v>14.22764227642277</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="31"/>
-        <v>-0.16968325791854774</v>
+        <v>12.282835302293247</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="32"/>
-        <v>0.16968325791854774</v>
+        <v>12.282835302293247</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="33"/>
-        <v>1.4328808446455548</v>
+        <v>2.4292124400433308</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="34"/>
-        <v>1.661945231350322</v>
+        <v>0.52119527449617786</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9503,38 +9503,38 @@
         <v>NO</v>
       </c>
       <c r="S49">
-        <v>268.5</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="T49">
-        <v>279.89999999999998</v>
+        <v>284.5</v>
       </c>
       <c r="U49">
-        <v>266.35000000000002</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="V49">
-        <v>271.2</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="W49">
-        <v>5.0500000000000114</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="X49">
-        <v>1.8974262633853141</v>
+        <v>0.15932023366967199</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" si="42"/>
-        <v>1.0055865921787668</v>
+        <v>-0.35223670306445937</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" si="43"/>
-        <v>1.0055865921787668</v>
+        <v>0.35223670306445937</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="44"/>
-        <v>3.2079646017699073</v>
+        <v>0.21134202183868364</v>
       </c>
       <c r="AB49" s="1">
         <f t="shared" si="45"/>
-        <v>0.80074487895716095</v>
+        <v>1.3432308236125681</v>
       </c>
       <c r="AC49" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9561,38 +9561,38 @@
         <v>NO</v>
       </c>
       <c r="AI49">
-        <v>260.75</v>
+        <v>279.8</v>
       </c>
       <c r="AJ49">
-        <v>269.89999999999998</v>
+        <v>290</v>
       </c>
       <c r="AK49">
-        <v>258.7</v>
+        <v>273.35000000000002</v>
       </c>
       <c r="AL49">
-        <v>266.14999999999998</v>
+        <v>282.45</v>
       </c>
       <c r="AM49">
-        <v>0.89999999999997726</v>
+        <v>9.25</v>
       </c>
       <c r="AN49">
-        <v>0.33930254476907717</v>
+        <v>3.38579795021962</v>
       </c>
       <c r="AO49" s="1">
         <f t="shared" si="52"/>
-        <v>2.0709491850431361</v>
+        <v>0.94710507505360153</v>
       </c>
       <c r="AP49" s="1">
         <f t="shared" si="53"/>
-        <v>2.0709491850431361</v>
+        <v>0.94710507505360153</v>
       </c>
       <c r="AQ49" s="1">
         <f t="shared" si="54"/>
-        <v>1.4089798985534474</v>
+        <v>2.6730394760134577</v>
       </c>
       <c r="AR49" s="1">
         <f t="shared" si="55"/>
-        <v>0.7861936720997168</v>
+        <v>2.3052180128663289</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="56"/>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="AV49" t="str">
         <f t="shared" si="59"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW49" t="str">
         <f t="shared" si="60"/>
@@ -9624,38 +9624,38 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>34.549999999999997</v>
+        <v>27.45</v>
       </c>
       <c r="C50">
-        <v>35.4</v>
+        <v>27.45</v>
       </c>
       <c r="D50">
-        <v>33.799999999999997</v>
+        <v>26.55</v>
       </c>
       <c r="E50">
-        <v>35</v>
+        <v>26.7</v>
       </c>
       <c r="F50">
-        <v>4.9999999999997158E-2</v>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="G50">
-        <v>0.14306151645206619</v>
+        <v>-1.111111111111114</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="31"/>
-        <v>1.3024602026049288</v>
+        <v>-2.7322404371584699</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="32"/>
-        <v>1.3024602026049288</v>
+        <v>2.7322404371584699</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="33"/>
-        <v>1.1428571428571388</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="34"/>
-        <v>2.1707670043415344</v>
+        <v>0.56179775280898347</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9686,38 +9686,38 @@
         <v>NO</v>
       </c>
       <c r="S50">
-        <v>34</v>
+        <v>27.3</v>
       </c>
       <c r="T50">
-        <v>35.1</v>
+        <v>27.7</v>
       </c>
       <c r="U50">
-        <v>33.049999999999997</v>
+        <v>26.55</v>
       </c>
       <c r="V50">
-        <v>34.950000000000003</v>
+        <v>27</v>
       </c>
       <c r="W50">
-        <v>1.5</v>
+        <v>-0.60000000000000142</v>
       </c>
       <c r="X50">
-        <v>4.4843049327354256</v>
+        <v>-2.1739130434782661</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" si="42"/>
-        <v>2.7941176470588318</v>
+        <v>-1.0989010989011014</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" si="43"/>
-        <v>2.7941176470588318</v>
+        <v>1.0989010989011014</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" si="44"/>
-        <v>0.42918454935621908</v>
+        <v>1.46520146520146</v>
       </c>
       <c r="AB50" s="1">
         <f t="shared" si="45"/>
-        <v>2.7941176470588318</v>
+        <v>1.6666666666666639</v>
       </c>
       <c r="AC50" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9744,38 +9744,38 @@
         <v>NO</v>
       </c>
       <c r="AI50">
-        <v>32.4</v>
+        <v>27.55</v>
       </c>
       <c r="AJ50">
-        <v>33.5</v>
+        <v>27.95</v>
       </c>
       <c r="AK50">
-        <v>31</v>
+        <v>27.5</v>
       </c>
       <c r="AL50">
-        <v>33.450000000000003</v>
+        <v>27.6</v>
       </c>
       <c r="AM50">
-        <v>1.500000000000004</v>
+        <v>0.20000000000000279</v>
       </c>
       <c r="AN50">
-        <v>4.6948356807511864</v>
+        <v>0.72992700729928051</v>
       </c>
       <c r="AO50" s="1">
         <f t="shared" si="52"/>
-        <v>3.2407407407407538</v>
+        <v>0.18148820326679024</v>
       </c>
       <c r="AP50" s="1">
         <f t="shared" si="53"/>
-        <v>3.2407407407407538</v>
+        <v>0.18148820326679024</v>
       </c>
       <c r="AQ50" s="1">
         <f t="shared" si="54"/>
-        <v>0.14947683109117235</v>
+        <v>1.2681159420289778</v>
       </c>
       <c r="AR50" s="1">
         <f t="shared" si="55"/>
-        <v>4.3209876543209829</v>
+        <v>0.18148820326679024</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="56"/>
@@ -9807,38 +9807,38 @@
         <v>99</v>
       </c>
       <c r="B51">
-        <v>287</v>
+        <v>292.64999999999998</v>
       </c>
       <c r="C51">
-        <v>296.39999999999998</v>
+        <v>296.35000000000002</v>
       </c>
       <c r="D51">
-        <v>286.5</v>
+        <v>289.25</v>
       </c>
       <c r="E51">
-        <v>291.7</v>
+        <v>291.25</v>
       </c>
       <c r="F51">
-        <v>6.25</v>
+        <v>0.1000000000000227</v>
       </c>
       <c r="G51">
-        <v>2.1895253109125941</v>
+        <v>3.4346556757692853E-2</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="31"/>
-        <v>1.637630662020902</v>
+        <v>-0.47838715188791303</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="32"/>
-        <v>1.637630662020902</v>
+        <v>0.47838715188791303</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="33"/>
-        <v>1.6112444292080867</v>
+        <v>1.2643089014180919</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="34"/>
-        <v>0.17421602787456447</v>
+        <v>0.68669527896995708</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9869,38 +9869,38 @@
         <v>NO</v>
       </c>
       <c r="S51">
-        <v>283.89999999999998</v>
+        <v>289</v>
       </c>
       <c r="T51">
-        <v>293.7</v>
+        <v>295</v>
       </c>
       <c r="U51">
-        <v>281.5</v>
+        <v>286.60000000000002</v>
       </c>
       <c r="V51">
-        <v>285.45</v>
+        <v>291.14999999999998</v>
       </c>
       <c r="W51">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X51">
-        <v>1.0621348911311741</v>
+        <v>1.1288641889544979</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" si="42"/>
-        <v>0.54596688974991603</v>
+        <v>0.74394463667819288</v>
       </c>
       <c r="Z51" s="1">
         <f t="shared" si="43"/>
-        <v>0.54596688974991603</v>
+        <v>0.74394463667819288</v>
       </c>
       <c r="AA51" s="1">
         <f t="shared" si="44"/>
-        <v>2.8901734104046244</v>
+        <v>1.3223424351708821</v>
       </c>
       <c r="AB51" s="1">
         <f t="shared" si="45"/>
-        <v>0.84536808735469449</v>
+        <v>0.83044982698961145</v>
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9927,38 +9927,38 @@
         <v>NO</v>
       </c>
       <c r="AI51">
-        <v>280</v>
+        <v>282.7</v>
       </c>
       <c r="AJ51">
-        <v>287.5</v>
+        <v>289.89999999999998</v>
       </c>
       <c r="AK51">
-        <v>275.5</v>
+        <v>282.10000000000002</v>
       </c>
       <c r="AL51">
-        <v>282.45</v>
+        <v>287.89999999999998</v>
       </c>
       <c r="AM51">
-        <v>-0.15000000000003411</v>
+        <v>6.6499999999999773</v>
       </c>
       <c r="AN51">
-        <v>-5.3078556263281708E-2</v>
+        <v>2.364444444444437</v>
       </c>
       <c r="AO51" s="1">
         <f t="shared" si="52"/>
-        <v>0.87499999999999589</v>
+        <v>1.8394057304563103</v>
       </c>
       <c r="AP51" s="1">
         <f t="shared" si="53"/>
-        <v>0.87499999999999589</v>
+        <v>1.8394057304563103</v>
       </c>
       <c r="AQ51" s="1">
         <f t="shared" si="54"/>
-        <v>1.7879270667374798</v>
+        <v>0.69468565474122967</v>
       </c>
       <c r="AR51" s="1">
         <f t="shared" si="55"/>
-        <v>1.607142857142857</v>
+        <v>0.21223912274494727</v>
       </c>
       <c r="AS51" t="str">
         <f t="shared" si="56"/>

--- a/techniqo/candlepattern/smallcap_50.xlsx
+++ b/techniqo/candlepattern/smallcap_50.xlsx
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AN10" sqref="AN10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,45 +840,45 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="C2">
-        <v>544.5</v>
+        <v>549.45000000000005</v>
       </c>
       <c r="D2">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="E2">
-        <v>535.35</v>
+        <v>526.79999999999995</v>
       </c>
       <c r="F2">
-        <v>63.450000000000053</v>
+        <v>-19.900000000000091</v>
       </c>
       <c r="G2">
-        <v>13.445645263827091</v>
+        <v>-3.6400219498811208</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H33" si="0">(E2-B2)/B2*100</f>
-        <v>10.381443298969078</v>
+        <v>-4.0437158469945436</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I33" si="1">ABS(H2)</f>
-        <v>10.381443298969078</v>
+        <v>4.0437158469945436</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J33" si="2">IF(H2&gt;=0,(C2-E2)/E2*100,(C2-B2)/B2*100)</f>
-        <v>1.7091622303166112</v>
+        <v>8.1967213114762377E-2</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K33" si="3">IF(H2&gt;=0,(B2-D2)/B2*100,(E2-D2)/E2*100)</f>
-        <v>0</v>
+        <v>0.34168564920272493</v>
       </c>
       <c r="L2" s="1" t="str">
         <f t="shared" ref="L2:L33" si="4">IF(AND((K2-J2)&gt;1.5,I2&lt;0.5),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M33" si="5">IF(AND((K2-J2)&gt;1.5,I2&lt;2,I2&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="M2:M33" si="5">IF(AND((K2-J2)&gt;1.5,I2&lt;2,I2&gt;0.5,H2&gt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="N2" t="str">
@@ -886,7 +886,7 @@
         <v>NO</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f t="shared" ref="O2:O33" si="7">IF(AND((J2-K2)&gt;1.5,I2&lt;2,I2&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="O2:O33" si="7">IF(AND((J2-K2)&gt;1.5,I2&lt;2,I2&gt;0.5,H2&lt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="P2" s="1" t="str">
@@ -902,38 +902,38 @@
         <v>NO</v>
       </c>
       <c r="S2">
-        <v>473.2</v>
+        <v>540.95000000000005</v>
       </c>
       <c r="T2">
-        <v>476.75</v>
+        <v>561.9</v>
       </c>
       <c r="U2">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="V2">
-        <v>471.9</v>
+        <v>546.70000000000005</v>
       </c>
       <c r="W2">
-        <v>-1.3000000000000109</v>
+        <v>11.350000000000019</v>
       </c>
       <c r="X2">
-        <v>-0.27472527472527708</v>
+        <v>2.1201083403381009</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ref="Y2:Y33" si="11">(V2-S2)/S2*100</f>
-        <v>-0.27472527472527714</v>
+        <v>1.0629448192993807</v>
       </c>
       <c r="Z2" s="1">
         <f t="shared" ref="Z2:Z33" si="12">ABS(Y2)</f>
-        <v>0.27472527472527714</v>
+        <v>1.0629448192993807</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA33" si="13">IF(Y2&gt;=0,(T2-V2)/V2*100,(T2-S2)/S2*100)</f>
-        <v>0.75021132713440652</v>
+        <v>2.780318273276007</v>
       </c>
       <c r="AB2" s="1">
         <f t="shared" ref="AB2:AB33" si="14">IF(Y2&gt;=0,(S2-U2)/S2*100,(V2-U2)/V2*100)</f>
-        <v>1.0383555838101246</v>
+        <v>0.73019687586653947</v>
       </c>
       <c r="AC2" s="1" t="str">
         <f t="shared" ref="AC2:AC33" si="15">IF(AND(I2&lt;Z2/2,S2&gt;E2,E2&gt;(S2+V2)/2,V2&lt;B2,B2&lt;(S2+V2)/2),"YES","NO")</f>
@@ -960,38 +960,38 @@
         <v>NO</v>
       </c>
       <c r="AI2">
-        <v>469.7</v>
+        <v>485</v>
       </c>
       <c r="AJ2">
-        <v>487.7</v>
+        <v>544.5</v>
       </c>
       <c r="AK2">
-        <v>467.05</v>
+        <v>485</v>
       </c>
       <c r="AL2">
-        <v>473.2</v>
+        <v>535.35</v>
       </c>
       <c r="AM2">
-        <v>9.3999999999999773</v>
+        <v>63.450000000000053</v>
       </c>
       <c r="AN2">
-        <v>2.026735661923238</v>
+        <v>13.445645263827091</v>
       </c>
       <c r="AO2" s="1">
         <f t="shared" ref="AO2:AO33" si="21">(AL2-AI2)/AI2*100</f>
-        <v>0.7451564828614009</v>
+        <v>10.381443298969078</v>
       </c>
       <c r="AP2" s="1">
         <f t="shared" ref="AP2:AP33" si="22">ABS(AO2)</f>
-        <v>0.7451564828614009</v>
+        <v>10.381443298969078</v>
       </c>
       <c r="AQ2" s="1">
         <f t="shared" ref="AQ2:AQ33" si="23">IF(AO2&gt;=0,(AJ2-AL2)/AL2*100,(AJ2-AI2)/AI2*100)</f>
-        <v>3.0642434488588335</v>
+        <v>1.7091622303166112</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" ref="AR2:AR33" si="24">IF(AO2&gt;=0,(AI2-AK2)/AI2*100,(AL2-AK2)/AL2*100)</f>
-        <v>0.56418990845219874</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="str">
         <f t="shared" ref="AS2:AS33" si="25">IF(AND(AO2&lt;0,AP2&gt;1.5,Y2&lt;0,Z2&gt;1.5,AL2&gt;S2,AL2&lt;E2,H2&gt;0,I2&gt;1.5),"YES","NO")</f>
@@ -1023,38 +1023,38 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>462.9</v>
+        <v>501.95</v>
       </c>
       <c r="C3">
-        <v>503.4</v>
+        <v>514.4</v>
       </c>
       <c r="D3">
-        <v>462.5</v>
+        <v>491.2</v>
       </c>
       <c r="E3">
-        <v>499.75</v>
+        <v>510.9</v>
       </c>
       <c r="F3">
-        <v>39.050000000000011</v>
+        <v>15.849999999999969</v>
       </c>
       <c r="G3">
-        <v>8.4762318211417433</v>
+        <v>3.2016967983031952</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>7.9606826528407924</v>
+        <v>1.7830461201314849</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>7.9606826528407924</v>
+        <v>1.7830461201314849</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>0.73036518259129113</v>
+        <v>0.68506557056175377</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="3"/>
-        <v>8.6411751998266853E-2</v>
+        <v>2.1416475744596077</v>
       </c>
       <c r="L3" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1085,38 +1085,38 @@
         <v>NO</v>
       </c>
       <c r="S3">
-        <v>460.05</v>
+        <v>500</v>
       </c>
       <c r="T3">
-        <v>468</v>
+        <v>506.7</v>
       </c>
       <c r="U3">
-        <v>453.1</v>
+        <v>490.9</v>
       </c>
       <c r="V3">
-        <v>460.7</v>
+        <v>495.05</v>
       </c>
       <c r="W3">
-        <v>2.1999999999999891</v>
+        <v>-4.6999999999999886</v>
       </c>
       <c r="X3">
-        <v>0.47982551799345441</v>
+        <v>-0.94047023511755656</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="11"/>
-        <v>0.14128899032713341</v>
+        <v>-0.98999999999999766</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="12"/>
-        <v>0.14128899032713341</v>
+        <v>0.98999999999999766</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="13"/>
-        <v>1.5845452572172805</v>
+        <v>1.3399999999999979</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="14"/>
-        <v>1.5107053581132461</v>
+        <v>0.83829916170084529</v>
       </c>
       <c r="AC3" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1143,38 +1143,38 @@
         <v>NO</v>
       </c>
       <c r="AI3">
-        <v>455</v>
+        <v>462.9</v>
       </c>
       <c r="AJ3">
-        <v>471.1</v>
+        <v>503.4</v>
       </c>
       <c r="AK3">
-        <v>454</v>
+        <v>462.5</v>
       </c>
       <c r="AL3">
-        <v>458.5</v>
+        <v>499.75</v>
       </c>
       <c r="AM3">
-        <v>6.8500000000000227</v>
+        <v>39.050000000000011</v>
       </c>
       <c r="AN3">
-        <v>1.5166611314070679</v>
+        <v>8.4762318211417433</v>
       </c>
       <c r="AO3" s="1">
         <f t="shared" si="21"/>
-        <v>0.76923076923076927</v>
+        <v>7.9606826528407924</v>
       </c>
       <c r="AP3" s="1">
         <f t="shared" si="22"/>
-        <v>0.76923076923076927</v>
+        <v>7.9606826528407924</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" si="23"/>
-        <v>2.7480916030534401</v>
+        <v>0.73036518259129113</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="24"/>
-        <v>0.21978021978021978</v>
+        <v>8.6411751998266853E-2</v>
       </c>
       <c r="AS3" t="str">
         <f t="shared" si="25"/>
@@ -1206,38 +1206,38 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="C4">
-        <v>439.6</v>
+        <v>459.5</v>
       </c>
       <c r="D4">
-        <v>400.8</v>
+        <v>425.3</v>
       </c>
       <c r="E4">
-        <v>425.75</v>
+        <v>450.55</v>
       </c>
       <c r="F4">
-        <v>34.300000000000011</v>
+        <v>16.25</v>
       </c>
       <c r="G4">
-        <v>8.7622940349980869</v>
+        <v>3.741653235090951</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>5.9079601990049753</v>
+        <v>4.7790697674418636</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>5.9079601990049753</v>
+        <v>4.7790697674418636</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
-        <v>3.2530827950675336</v>
+        <v>1.9864609921207386</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="3"/>
-        <v>0.29850746268656436</v>
+        <v>1.0930232558139508</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1268,38 +1268,38 @@
         <v>NO</v>
       </c>
       <c r="S4">
-        <v>382</v>
+        <v>428.95</v>
       </c>
       <c r="T4">
-        <v>392.9</v>
+        <v>439</v>
       </c>
       <c r="U4">
-        <v>379.4</v>
+        <v>417.75</v>
       </c>
       <c r="V4">
-        <v>391.45</v>
+        <v>434.3</v>
       </c>
       <c r="W4">
-        <v>10.899999999999981</v>
+        <v>8.5500000000000114</v>
       </c>
       <c r="X4">
-        <v>2.864275390881613</v>
+        <v>2.0082207868467439</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="11"/>
-        <v>2.4738219895287927</v>
+        <v>1.2472316120760047</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" si="12"/>
-        <v>2.4738219895287927</v>
+        <v>1.2472316120760047</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="13"/>
-        <v>0.37041767786434759</v>
+        <v>1.0822012433801493</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="14"/>
-        <v>0.68062827225131484</v>
+        <v>2.6110269262151742</v>
       </c>
       <c r="AC4" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1326,38 +1326,38 @@
         <v>NO</v>
       </c>
       <c r="AI4">
-        <v>372.8</v>
+        <v>402</v>
       </c>
       <c r="AJ4">
-        <v>383</v>
+        <v>439.6</v>
       </c>
       <c r="AK4">
-        <v>372.8</v>
+        <v>400.8</v>
       </c>
       <c r="AL4">
-        <v>380.55</v>
+        <v>425.75</v>
       </c>
       <c r="AM4">
-        <v>8.6999999999999886</v>
+        <v>34.300000000000011</v>
       </c>
       <c r="AN4">
-        <v>2.3396530859217388</v>
+        <v>8.7622940349980869</v>
       </c>
       <c r="AO4" s="1">
         <f t="shared" si="21"/>
-        <v>2.078862660944206</v>
+        <v>5.9079601990049753</v>
       </c>
       <c r="AP4" s="1">
         <f t="shared" si="22"/>
-        <v>2.078862660944206</v>
+        <v>5.9079601990049753</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" si="23"/>
-        <v>0.64380501905137</v>
+        <v>3.2530827950675336</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.29850746268656436</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="25"/>
@@ -1389,38 +1389,38 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>899</v>
+        <v>950</v>
       </c>
       <c r="C5">
-        <v>949.9</v>
+        <v>983.5</v>
       </c>
       <c r="D5">
-        <v>897</v>
+        <v>944</v>
       </c>
       <c r="E5">
-        <v>927.65</v>
+        <v>967.6</v>
       </c>
       <c r="F5">
-        <v>33.699999999999932</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>3.7697857822025762</v>
+        <v>2.870508186264086</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>3.1868743047830899</v>
+        <v>1.8526315789473706</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>3.1868743047830899</v>
+        <v>1.8526315789473706</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>2.39853392982267</v>
+        <v>1.6432410086812708</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>0.22246941045606228</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1451,38 +1451,38 @@
         <v>NO</v>
       </c>
       <c r="S5">
-        <v>909</v>
+        <v>930</v>
       </c>
       <c r="T5">
-        <v>922.85</v>
+        <v>968.25</v>
       </c>
       <c r="U5">
-        <v>888</v>
+        <v>930</v>
       </c>
       <c r="V5">
-        <v>893.95</v>
+        <v>940.6</v>
       </c>
       <c r="W5">
-        <v>-4.0499999999999554</v>
+        <v>12.950000000000051</v>
       </c>
       <c r="X5">
-        <v>-0.45100222717148719</v>
+        <v>1.3960006467956709</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="11"/>
-        <v>-1.6556655665566509</v>
+        <v>1.1397849462365617</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="12"/>
-        <v>1.6556655665566509</v>
+        <v>1.1397849462365617</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="13"/>
-        <v>1.5236523652365261</v>
+        <v>2.9396130129704421</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="14"/>
-        <v>0.66558532356396272</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1509,38 +1509,38 @@
         <v>NO</v>
       </c>
       <c r="AI5">
-        <v>883.9</v>
+        <v>899</v>
       </c>
       <c r="AJ5">
-        <v>899.9</v>
+        <v>949.9</v>
       </c>
       <c r="AK5">
-        <v>875</v>
+        <v>897</v>
       </c>
       <c r="AL5">
-        <v>898</v>
+        <v>927.65</v>
       </c>
       <c r="AM5">
-        <v>16.649999999999981</v>
+        <v>33.699999999999932</v>
       </c>
       <c r="AN5">
-        <v>1.8891473307993389</v>
+        <v>3.7697857822025762</v>
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="21"/>
-        <v>1.5952030772711874</v>
+        <v>3.1868743047830899</v>
       </c>
       <c r="AP5" s="1">
         <f t="shared" si="22"/>
-        <v>1.5952030772711874</v>
+        <v>3.1868743047830899</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="23"/>
-        <v>0.21158129175946294</v>
+        <v>2.39853392982267</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="24"/>
-        <v>1.0069012331711706</v>
+        <v>0.22246941045606228</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="25"/>
@@ -1572,38 +1572,38 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>167</v>
+        <v>184.35</v>
       </c>
       <c r="C6">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D6">
-        <v>164.55</v>
+        <v>177.45</v>
       </c>
       <c r="E6">
-        <v>180.7</v>
+        <v>181.55</v>
       </c>
       <c r="F6">
-        <v>19.649999999999981</v>
+        <v>-2.0499999999999829</v>
       </c>
       <c r="G6">
-        <v>12.201179757839171</v>
+        <v>-1.1165577342047841</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>8.20359281437125</v>
+        <v>-1.5188500135611516</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>8.20359281437125</v>
+        <v>1.5188500135611516</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>2.9330381848367524</v>
+        <v>0.3525901817195583</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>1.4670658682634663</v>
+        <v>2.2583310382814776</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1634,38 +1634,38 @@
         <v>NO</v>
       </c>
       <c r="S6">
-        <v>162.85</v>
+        <v>181.75</v>
       </c>
       <c r="T6">
-        <v>162.85</v>
+        <v>191.95</v>
       </c>
       <c r="U6">
-        <v>160.25</v>
+        <v>176.6</v>
       </c>
       <c r="V6">
-        <v>161.05000000000001</v>
+        <v>183.6</v>
       </c>
       <c r="W6">
-        <v>-0.94999999999998863</v>
+        <v>2.9000000000000061</v>
       </c>
       <c r="X6">
-        <v>-0.58641975308641281</v>
+        <v>1.6048699501936941</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="11"/>
-        <v>-1.1053116364752735</v>
+        <v>1.0178817056396117</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="12"/>
-        <v>1.1053116364752735</v>
+        <v>1.0178817056396117</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.5479302832243977</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="14"/>
-        <v>0.4967401428127981</v>
+        <v>2.8335625859697418</v>
       </c>
       <c r="AC6" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1692,38 +1692,38 @@
         <v>NO</v>
       </c>
       <c r="AI6">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AJ6">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="AK6">
-        <v>159</v>
+        <v>164.55</v>
       </c>
       <c r="AL6">
-        <v>162</v>
+        <v>180.7</v>
       </c>
       <c r="AM6">
-        <v>3.8000000000000109</v>
+        <v>19.649999999999981</v>
       </c>
       <c r="AN6">
-        <v>2.402022756005064</v>
+        <v>12.201179757839171</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="21"/>
-        <v>1.8867924528301887</v>
+        <v>8.20359281437125</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="22"/>
-        <v>1.8867924528301887</v>
+        <v>8.20359281437125</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="23"/>
-        <v>0.61728395061728392</v>
+        <v>2.9330381848367524</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.4670658682634663</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="25"/>
@@ -1755,38 +1755,38 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="C7">
-        <v>380.9</v>
+        <v>376.65</v>
       </c>
       <c r="D7">
-        <v>340.35</v>
+        <v>360.2</v>
       </c>
       <c r="E7">
-        <v>376</v>
+        <v>370.5</v>
       </c>
       <c r="F7">
-        <v>37.800000000000011</v>
+        <v>7.1999999999999886</v>
       </c>
       <c r="G7">
-        <v>11.17681845062094</v>
+        <v>1.9818331957060249</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>9.9415204678362574</v>
+        <v>0.9536784741144414</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>9.9415204678362574</v>
+        <v>0.9536784741144414</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>1.303191489361696</v>
+        <v>1.6599190283400747</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>0.48245614035087053</v>
+        <v>1.8528610354223465</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q7" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1817,42 +1817,42 @@
         <v>NO</v>
       </c>
       <c r="S7">
-        <v>337.5</v>
+        <v>374.35</v>
       </c>
       <c r="T7">
-        <v>343.4</v>
+        <v>376.95</v>
       </c>
       <c r="U7">
-        <v>334</v>
+        <v>359.1</v>
       </c>
       <c r="V7">
-        <v>338.2</v>
+        <v>363.3</v>
       </c>
       <c r="W7">
-        <v>0.75</v>
+        <v>-12.69999999999999</v>
       </c>
       <c r="X7">
-        <v>0.2222551489109498</v>
+        <v>-3.377659574468082</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="11"/>
-        <v>0.20740740740740402</v>
+        <v>-2.9517830906905331</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="12"/>
-        <v>0.20740740740740402</v>
+        <v>2.9517830906905331</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="13"/>
-        <v>1.5375517445298608</v>
+        <v>0.69453719780952738</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="14"/>
-        <v>1.037037037037037</v>
+        <v>1.1560693641618465</v>
       </c>
       <c r="AC7" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AD7" s="1" t="str">
         <f t="shared" si="16"/>
@@ -1875,38 +1875,38 @@
         <v>NO</v>
       </c>
       <c r="AI7">
-        <v>339.7</v>
+        <v>342</v>
       </c>
       <c r="AJ7">
-        <v>345</v>
+        <v>380.9</v>
       </c>
       <c r="AK7">
-        <v>330.05</v>
+        <v>340.35</v>
       </c>
       <c r="AL7">
-        <v>337.45</v>
+        <v>376</v>
       </c>
       <c r="AM7">
-        <v>1.149999999999977</v>
+        <v>37.800000000000011</v>
       </c>
       <c r="AN7">
-        <v>0.34195658638120052</v>
+        <v>11.17681845062094</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="21"/>
-        <v>-0.66234913158669417</v>
+        <v>9.9415204678362574</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="22"/>
-        <v>0.66234913158669417</v>
+        <v>9.9415204678362574</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="23"/>
-        <v>1.5602001766264384</v>
+        <v>1.303191489361696</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="24"/>
-        <v>2.1929174692546978</v>
+        <v>0.48245614035087053</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="25"/>
@@ -1938,38 +1938,38 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>145</v>
+        <v>148.25</v>
       </c>
       <c r="C8">
-        <v>149.35</v>
+        <v>155.25</v>
       </c>
       <c r="D8">
-        <v>145</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="E8">
-        <v>148.55000000000001</v>
+        <v>153.55000000000001</v>
       </c>
       <c r="F8">
-        <v>5.9000000000000057</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>4.1359971959341078</v>
+        <v>4.0664181633344629</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>2.4482758620689733</v>
+        <v>3.5750421585160277</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>2.4482758620689733</v>
+        <v>3.5750421585160277</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>0.53853921238639035</v>
+        <v>1.1071312276131478</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.70826306913997394</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2000,38 +2000,38 @@
         <v>NO</v>
       </c>
       <c r="S8">
-        <v>142.5</v>
+        <v>149.4</v>
       </c>
       <c r="T8">
-        <v>144.5</v>
+        <v>150.85</v>
       </c>
       <c r="U8">
-        <v>139.9</v>
+        <v>144.75</v>
       </c>
       <c r="V8">
-        <v>142.65</v>
+        <v>147.55000000000001</v>
       </c>
       <c r="W8">
-        <v>1.5500000000000109</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>1.0985116938341679</v>
+        <v>-0.67317401548300226</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="11"/>
-        <v>0.10526315789474083</v>
+        <v>-1.2382864792503308</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="12"/>
-        <v>0.10526315789474083</v>
+        <v>1.2382864792503308</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="13"/>
-        <v>1.2968804766911983</v>
+        <v>0.97054886211511948</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="14"/>
-        <v>1.8245614035087681</v>
+        <v>1.8976618095560904</v>
       </c>
       <c r="AC8" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2058,38 +2058,38 @@
         <v>NO</v>
       </c>
       <c r="AI8">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AJ8">
-        <v>141.75</v>
+        <v>149.35</v>
       </c>
       <c r="AK8">
-        <v>135.25</v>
+        <v>145</v>
       </c>
       <c r="AL8">
-        <v>141.1</v>
+        <v>148.55000000000001</v>
       </c>
       <c r="AM8">
-        <v>5.7999999999999829</v>
+        <v>5.9000000000000057</v>
       </c>
       <c r="AN8">
-        <v>4.286770140428664</v>
+        <v>4.1359971959341078</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="21"/>
-        <v>2.992700729927003</v>
+        <v>2.4482758620689733</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="22"/>
-        <v>2.992700729927003</v>
+        <v>2.4482758620689733</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="23"/>
-        <v>0.46066619418852284</v>
+        <v>0.53853921238639035</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="24"/>
-        <v>1.2773722627737227</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="25"/>
@@ -2121,38 +2121,38 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>332.1</v>
+        <v>344.7</v>
       </c>
       <c r="C9">
-        <v>339.7</v>
+        <v>349</v>
       </c>
       <c r="D9">
-        <v>332.1</v>
+        <v>341.75</v>
       </c>
       <c r="E9">
-        <v>336.05</v>
+        <v>348.15</v>
       </c>
       <c r="F9">
-        <v>7.6000000000000227</v>
+        <v>5.5</v>
       </c>
       <c r="G9">
-        <v>2.3138986147054421</v>
+        <v>1.605136436597111</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>1.1894007828967144</v>
+        <v>1.0008703220191439</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>1.1894007828967144</v>
+        <v>1.0008703220191439</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>1.0861478946585263</v>
+        <v>0.24414763751257296</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.85581665216129632</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2183,38 +2183,38 @@
         <v>NO</v>
       </c>
       <c r="S9">
-        <v>328.5</v>
+        <v>339</v>
       </c>
       <c r="T9">
-        <v>330.95</v>
+        <v>344.45</v>
       </c>
       <c r="U9">
-        <v>326.10000000000002</v>
+        <v>337.15</v>
       </c>
       <c r="V9">
-        <v>328.45</v>
+        <v>342.65</v>
       </c>
       <c r="W9">
-        <v>1.399999999999977</v>
+        <v>6.5999999999999659</v>
       </c>
       <c r="X9">
-        <v>0.42806910258369579</v>
+        <v>1.963993453355146</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="11"/>
-        <v>-1.5220700152210461E-2</v>
+        <v>1.0766961651917337</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" si="12"/>
-        <v>1.5220700152210461E-2</v>
+        <v>1.0766961651917337</v>
       </c>
       <c r="AA9" s="1">
         <f t="shared" si="13"/>
-        <v>0.74581430745813959</v>
+        <v>0.52531737924996691</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="14"/>
-        <v>0.71548180849443321</v>
+        <v>0.54572271386431348</v>
       </c>
       <c r="AC9" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2241,38 +2241,38 @@
         <v>NO</v>
       </c>
       <c r="AI9">
-        <v>331</v>
+        <v>332.1</v>
       </c>
       <c r="AJ9">
-        <v>331.45</v>
+        <v>339.7</v>
       </c>
       <c r="AK9">
-        <v>325.8</v>
+        <v>332.1</v>
       </c>
       <c r="AL9">
-        <v>327.05</v>
+        <v>336.05</v>
       </c>
       <c r="AM9">
-        <v>-2.8499999999999659</v>
+        <v>7.6000000000000227</v>
       </c>
       <c r="AN9">
-        <v>-0.86389815095482458</v>
+        <v>2.3138986147054421</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="21"/>
-        <v>-1.1933534743202383</v>
+        <v>1.1894007828967144</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="22"/>
-        <v>1.1933534743202383</v>
+        <v>1.1894007828967144</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="23"/>
-        <v>0.1359516616314165</v>
+        <v>1.0861478946585263</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="24"/>
-        <v>0.38220455587830604</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="25"/>
@@ -2304,38 +2304,38 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>381.15</v>
+        <v>416</v>
       </c>
       <c r="C10">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D10">
-        <v>381.15</v>
+        <v>412.45</v>
       </c>
       <c r="E10">
-        <v>403.7</v>
+        <v>418.2</v>
       </c>
       <c r="F10">
-        <v>26.199999999999989</v>
+        <v>5.25</v>
       </c>
       <c r="G10">
-        <v>6.9403973509933738</v>
+        <v>1.2713403559753</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>5.9163059163059195</v>
+        <v>0.52884615384615108</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>5.9163059163059195</v>
+        <v>0.52884615384615108</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>1.8082734703988139</v>
+        <v>0.66953610712577982</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.85336538461538736</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2366,38 +2366,38 @@
         <v>NO</v>
       </c>
       <c r="S10">
-        <v>393.5</v>
+        <v>408</v>
       </c>
       <c r="T10">
-        <v>393.5</v>
+        <v>415</v>
       </c>
       <c r="U10">
-        <v>372</v>
+        <v>406.55</v>
       </c>
       <c r="V10">
-        <v>377.5</v>
+        <v>412.95</v>
       </c>
       <c r="W10">
-        <v>-12.55000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="X10">
-        <v>-3.2175362133059902</v>
+        <v>2.2913054248204112</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="11"/>
-        <v>-4.066073697585769</v>
+        <v>1.2132352941176443</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="12"/>
-        <v>4.066073697585769</v>
+        <v>1.2132352941176443</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.4964281389998817</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="14"/>
-        <v>1.4569536423841061</v>
+        <v>0.35539215686274234</v>
       </c>
       <c r="AC10" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2424,38 +2424,38 @@
         <v>NO</v>
       </c>
       <c r="AI10">
-        <v>385</v>
+        <v>381.15</v>
       </c>
       <c r="AJ10">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="AK10">
-        <v>383.05</v>
+        <v>381.15</v>
       </c>
       <c r="AL10">
-        <v>390.05</v>
+        <v>403.7</v>
       </c>
       <c r="AM10">
-        <v>10.75</v>
+        <v>26.199999999999989</v>
       </c>
       <c r="AN10">
-        <v>2.8341682045873982</v>
+        <v>6.9403973509933738</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="21"/>
-        <v>1.3116883116883147</v>
+        <v>5.9163059163059195</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="22"/>
-        <v>1.3116883116883147</v>
+        <v>5.9163059163059195</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="23"/>
-        <v>1.0126906806819609</v>
+        <v>1.8082734703988139</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="24"/>
-        <v>0.50649350649350355</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="25"/>
@@ -2487,38 +2487,38 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>93.45</v>
       </c>
       <c r="C11">
-        <v>91.75</v>
+        <v>94.35</v>
       </c>
       <c r="D11">
-        <v>87</v>
+        <v>92.4</v>
       </c>
       <c r="E11">
-        <v>90.6</v>
+        <v>93.1</v>
       </c>
       <c r="F11">
-        <v>5.0999999999999943</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="G11">
-        <v>5.9649122807017481</v>
+        <v>0.48569886670263213</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>4.1379310344827527</v>
+        <v>-0.37453183520600164</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>4.1379310344827527</v>
+        <v>0.37453183520600164</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>1.2693156732891895</v>
+        <v>0.9630818619582574</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.75187969924810816</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2549,38 +2549,38 @@
         <v>NO</v>
       </c>
       <c r="S11">
-        <v>86.9</v>
+        <v>90.4</v>
       </c>
       <c r="T11">
-        <v>87.8</v>
+        <v>93.8</v>
       </c>
       <c r="U11">
-        <v>84.85</v>
+        <v>88.6</v>
       </c>
       <c r="V11">
-        <v>85.5</v>
+        <v>92.65</v>
       </c>
       <c r="W11">
-        <v>-1.0499999999999969</v>
+        <v>2.0500000000000109</v>
       </c>
       <c r="X11">
-        <v>-1.2131715771230469</v>
+        <v>2.2626931567329041</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="11"/>
-        <v>-1.6110471806674402</v>
+        <v>2.4889380530973448</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="12"/>
-        <v>1.6110471806674402</v>
+        <v>2.4889380530973448</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="13"/>
-        <v>1.0356731875719118</v>
+        <v>1.2412304371289709</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="14"/>
-        <v>0.76023391812866159</v>
+        <v>1.9911504424778885</v>
       </c>
       <c r="AC11" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2607,34 +2607,34 @@
         <v>NO</v>
       </c>
       <c r="AI11">
-        <v>85.9</v>
+        <v>87</v>
       </c>
       <c r="AJ11">
-        <v>88.45</v>
+        <v>91.75</v>
       </c>
       <c r="AK11">
-        <v>85.9</v>
+        <v>87</v>
       </c>
       <c r="AL11">
-        <v>86.55</v>
+        <v>90.6</v>
       </c>
       <c r="AM11">
-        <v>1.0499999999999969</v>
+        <v>5.0999999999999943</v>
       </c>
       <c r="AN11">
-        <v>1.228070175438593</v>
+        <v>5.9649122807017481</v>
       </c>
       <c r="AO11" s="1">
         <f t="shared" si="21"/>
-        <v>0.75669383003491442</v>
+        <v>4.1379310344827527</v>
       </c>
       <c r="AP11" s="1">
         <f t="shared" si="22"/>
-        <v>0.75669383003491442</v>
+        <v>4.1379310344827527</v>
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="23"/>
-        <v>2.1952628538417165</v>
+        <v>1.2693156732891895</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="24"/>
@@ -2670,38 +2670,38 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>347.45</v>
+        <v>367</v>
       </c>
       <c r="C12">
-        <v>361.65</v>
+        <v>369.8</v>
       </c>
       <c r="D12">
-        <v>347.05</v>
+        <v>360.55</v>
       </c>
       <c r="E12">
-        <v>357</v>
+        <v>364.6</v>
       </c>
       <c r="F12">
-        <v>12.44999999999999</v>
+        <v>-1.399999999999977</v>
       </c>
       <c r="G12">
-        <v>3.6134087940792301</v>
+        <v>-0.38251366120217961</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>2.7485969204202076</v>
+        <v>-0.65395095367846789</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>2.7485969204202076</v>
+        <v>0.65395095367846789</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>1.3025210084033549</v>
+        <v>0.76294277929155629</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>0.11512447834220096</v>
+        <v>1.1108063631376883</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2732,38 +2732,38 @@
         <v>NO</v>
       </c>
       <c r="S12">
-        <v>343.5</v>
+        <v>359.45</v>
       </c>
       <c r="T12">
-        <v>347.5</v>
+        <v>372.5</v>
       </c>
       <c r="U12">
-        <v>341.95</v>
+        <v>357</v>
       </c>
       <c r="V12">
-        <v>344.55</v>
+        <v>366</v>
       </c>
       <c r="W12">
-        <v>1.600000000000023</v>
+        <v>9</v>
       </c>
       <c r="X12">
-        <v>0.46654031199884027</v>
+        <v>2.521008403361344</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="11"/>
-        <v>0.30567685589519983</v>
+        <v>1.8222284045068888</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="12"/>
-        <v>0.30567685589519983</v>
+        <v>1.8222284045068888</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="13"/>
-        <v>0.85618923233202404</v>
+        <v>1.7759562841530054</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="14"/>
-        <v>0.45123726346434107</v>
+        <v>0.68159688412852659</v>
       </c>
       <c r="AC12" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2790,38 +2790,38 @@
         <v>NO</v>
       </c>
       <c r="AI12">
-        <v>343.7</v>
+        <v>347.45</v>
       </c>
       <c r="AJ12">
-        <v>346.7</v>
+        <v>361.65</v>
       </c>
       <c r="AK12">
-        <v>337.5</v>
+        <v>347.05</v>
       </c>
       <c r="AL12">
-        <v>342.95</v>
+        <v>357</v>
       </c>
       <c r="AM12">
-        <v>4.5999999999999659</v>
+        <v>12.44999999999999</v>
       </c>
       <c r="AN12">
-        <v>1.359538938968514</v>
+        <v>3.6134087940792301</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="21"/>
-        <v>-0.21821355833575792</v>
+        <v>2.7485969204202076</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="22"/>
-        <v>0.21821355833575792</v>
+        <v>2.7485969204202076</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="23"/>
-        <v>0.87285423334303169</v>
+        <v>1.3025210084033549</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="24"/>
-        <v>1.5891529377460238</v>
+        <v>0.11512447834220096</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="25"/>
@@ -2853,38 +2853,38 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>755</v>
+        <v>864.4</v>
       </c>
       <c r="C13">
-        <v>801.8</v>
+        <v>864.4</v>
       </c>
       <c r="D13">
-        <v>753.6</v>
+        <v>819</v>
       </c>
       <c r="E13">
-        <v>795.6</v>
+        <v>857.25</v>
       </c>
       <c r="F13">
-        <v>62.450000000000053</v>
+        <v>-4.9999999999954532E-2</v>
       </c>
       <c r="G13">
-        <v>8.5180386005592368</v>
+        <v>-5.8322640849124609E-3</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>5.3774834437086128</v>
+        <v>-0.82716335030078403</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>5.3774834437086128</v>
+        <v>0.82716335030078403</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>0.77928607340371192</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>0.18543046357615592</v>
+        <v>4.4619422572178475</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2915,38 +2915,38 @@
         <v>NO</v>
       </c>
       <c r="S13">
-        <v>757.85</v>
+        <v>804.8</v>
       </c>
       <c r="T13">
-        <v>769.75</v>
+        <v>866.35</v>
       </c>
       <c r="U13">
-        <v>727</v>
+        <v>792</v>
       </c>
       <c r="V13">
-        <v>733.15</v>
+        <v>857.3</v>
       </c>
       <c r="W13">
-        <v>-18.450000000000049</v>
+        <v>61.699999999999932</v>
       </c>
       <c r="X13">
-        <v>-2.4547631718999532</v>
+        <v>7.7551533433886286</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="11"/>
-        <v>-3.2592201623012533</v>
+        <v>6.5233598409542752</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="12"/>
-        <v>3.2592201623012533</v>
+        <v>6.5233598409542752</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="13"/>
-        <v>1.5702315761694237</v>
+        <v>1.0556397993701234</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="14"/>
-        <v>0.83884607515514931</v>
+        <v>1.5904572564612269</v>
       </c>
       <c r="AC13" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2973,38 +2973,38 @@
         <v>NO</v>
       </c>
       <c r="AI13">
-        <v>738.5</v>
+        <v>755</v>
       </c>
       <c r="AJ13">
-        <v>755.7</v>
+        <v>801.8</v>
       </c>
       <c r="AK13">
-        <v>736</v>
+        <v>753.6</v>
       </c>
       <c r="AL13">
-        <v>751.6</v>
+        <v>795.6</v>
       </c>
       <c r="AM13">
-        <v>20.850000000000019</v>
+        <v>62.450000000000053</v>
       </c>
       <c r="AN13">
-        <v>2.853232979815262</v>
+        <v>8.5180386005592368</v>
       </c>
       <c r="AO13" s="1">
         <f t="shared" si="21"/>
-        <v>1.7738659444820615</v>
+        <v>5.3774834437086128</v>
       </c>
       <c r="AP13" s="1">
         <f t="shared" si="22"/>
-        <v>1.7738659444820615</v>
+        <v>5.3774834437086128</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="23"/>
-        <v>0.54550292708888015</v>
+        <v>0.77928607340371192</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="24"/>
-        <v>0.33852403520649971</v>
+        <v>0.18543046357615592</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="25"/>
@@ -3036,38 +3036,38 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>107.3</v>
+        <v>112</v>
       </c>
       <c r="C14">
-        <v>111.9</v>
+        <v>113.7</v>
       </c>
       <c r="D14">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E14">
-        <v>110.5</v>
+        <v>111.1</v>
       </c>
       <c r="F14">
-        <v>4.2000000000000028</v>
+        <v>-0.40000000000000568</v>
       </c>
       <c r="G14">
-        <v>3.9510818438381961</v>
+        <v>-0.35874439461883922</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>2.9822926374650538</v>
+        <v>-0.80357142857143371</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>2.9822926374650538</v>
+        <v>0.80357142857143371</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>1.2669683257918605</v>
+        <v>1.5178571428571455</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>0.27958993476234595</v>
+        <v>0.99009900990098509</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3098,38 +3098,38 @@
         <v>NO</v>
       </c>
       <c r="S14">
-        <v>108.35</v>
+        <v>111.3</v>
       </c>
       <c r="T14">
-        <v>108.7</v>
+        <v>113</v>
       </c>
       <c r="U14">
-        <v>105.5</v>
+        <v>110.1</v>
       </c>
       <c r="V14">
-        <v>106.3</v>
+        <v>111.5</v>
       </c>
       <c r="W14">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>-1.3914656771799629</v>
+        <v>0.90497737556561098</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="11"/>
-        <v>-1.8920166128287932</v>
+        <v>0.1796945193171634</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="12"/>
-        <v>1.8920166128287932</v>
+        <v>0.1796945193171634</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="13"/>
-        <v>0.32302722658053395</v>
+        <v>1.3452914798206279</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="14"/>
-        <v>0.752587017873939</v>
+        <v>1.0781671159029675</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3156,38 +3156,38 @@
         <v>NO</v>
       </c>
       <c r="AI14">
-        <v>104.4</v>
+        <v>107.3</v>
       </c>
       <c r="AJ14">
-        <v>108.7</v>
+        <v>111.9</v>
       </c>
       <c r="AK14">
-        <v>104.4</v>
+        <v>107</v>
       </c>
       <c r="AL14">
-        <v>107.8</v>
+        <v>110.5</v>
       </c>
       <c r="AM14">
-        <v>3.399999999999991</v>
+        <v>4.2000000000000028</v>
       </c>
       <c r="AN14">
-        <v>3.2567049808429029</v>
+        <v>3.9510818438381961</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="21"/>
-        <v>3.2567049808429034</v>
+        <v>2.9822926374650538</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="22"/>
-        <v>3.2567049808429034</v>
+        <v>2.9822926374650538</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="23"/>
-        <v>0.83487940630798307</v>
+        <v>1.2669683257918605</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.27958993476234595</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="25"/>
@@ -3219,38 +3219,38 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>377.9</v>
+        <v>379.95</v>
       </c>
       <c r="C15">
-        <v>385</v>
+        <v>383.9</v>
       </c>
       <c r="D15">
-        <v>371.3</v>
+        <v>372.1</v>
       </c>
       <c r="E15">
-        <v>378.8</v>
+        <v>379.05</v>
       </c>
       <c r="F15">
-        <v>10.80000000000001</v>
+        <v>1.3000000000000109</v>
       </c>
       <c r="G15">
-        <v>2.934782608695655</v>
+        <v>0.3441429516876271</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>0.23815824292141682</v>
+        <v>-0.23687327279904655</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>0.23815824292141682</v>
+        <v>0.23687327279904655</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>1.6367476240760266</v>
+        <v>1.0396104750625053</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>1.7464937814236481</v>
+        <v>1.8335311964120797</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q15" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3281,38 +3281,38 @@
         <v>NO</v>
       </c>
       <c r="S15">
-        <v>375</v>
+        <v>380.85</v>
       </c>
       <c r="T15">
-        <v>375</v>
+        <v>387.5</v>
       </c>
       <c r="U15">
-        <v>367.05</v>
+        <v>376</v>
       </c>
       <c r="V15">
-        <v>368</v>
+        <v>377.75</v>
       </c>
       <c r="W15">
-        <v>-4.8000000000000114</v>
+        <v>-1.0500000000000109</v>
       </c>
       <c r="X15">
-        <v>-1.287553648068672</v>
+        <v>-0.2771911298838467</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="11"/>
-        <v>-1.8666666666666669</v>
+        <v>-0.81396875410267111</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="12"/>
-        <v>1.8666666666666669</v>
+        <v>0.81396875410267111</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.7460942628331304</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="14"/>
-        <v>0.25815217391304041</v>
+        <v>0.46326935804103242</v>
       </c>
       <c r="AC15" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3339,38 +3339,38 @@
         <v>NO</v>
       </c>
       <c r="AI15">
-        <v>386</v>
+        <v>377.9</v>
       </c>
       <c r="AJ15">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AK15">
-        <v>365.05</v>
+        <v>371.3</v>
       </c>
       <c r="AL15">
-        <v>372.8</v>
+        <v>378.8</v>
       </c>
       <c r="AM15">
-        <v>23.699999999999989</v>
+        <v>10.80000000000001</v>
       </c>
       <c r="AN15">
-        <v>6.7888857061014001</v>
+        <v>2.934782608695655</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" si="21"/>
-        <v>-3.4196891191709815</v>
+        <v>0.23815824292141682</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="22"/>
-        <v>3.4196891191709815</v>
+        <v>0.23815824292141682</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.6367476240760266</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="24"/>
-        <v>2.078862660944206</v>
+        <v>1.7464937814236481</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="25"/>
@@ -3402,38 +3402,38 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>9325</v>
+        <v>10000</v>
       </c>
       <c r="C16">
-        <v>10289.5</v>
+        <v>10199.9</v>
       </c>
       <c r="D16">
-        <v>9325</v>
+        <v>9852</v>
       </c>
       <c r="E16">
-        <v>9822.9</v>
+        <v>9986.2000000000007</v>
       </c>
       <c r="F16">
-        <v>582.89999999999964</v>
+        <v>-18.949999999998909</v>
       </c>
       <c r="G16">
-        <v>6.3084415584415554</v>
+        <v>-0.1894024577342559</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>5.3394101876675562</v>
+        <v>-0.13799999999999274</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>5.3394101876675562</v>
+        <v>0.13799999999999274</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>4.7501247085891176</v>
+        <v>1.9989999999999963</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3438545192365536</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3464,38 +3464,38 @@
         <v>NO</v>
       </c>
       <c r="S16">
-        <v>9425</v>
+        <v>9950</v>
       </c>
       <c r="T16">
-        <v>9480</v>
+        <v>10168.950000000001</v>
       </c>
       <c r="U16">
-        <v>9190</v>
+        <v>9843.5499999999993</v>
       </c>
       <c r="V16">
-        <v>9240</v>
+        <v>10005.15</v>
       </c>
       <c r="W16">
-        <v>-189.2000000000007</v>
+        <v>182.25</v>
       </c>
       <c r="X16">
-        <v>-2.00653289780682</v>
+        <v>1.8553583972146721</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="11"/>
-        <v>-1.9628647214854114</v>
+        <v>0.55427135678391592</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="12"/>
-        <v>1.9628647214854114</v>
+        <v>0.55427135678391592</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="13"/>
-        <v>0.58355437665782495</v>
+        <v>1.6371568642149403</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="14"/>
-        <v>0.54112554112554112</v>
+        <v>1.0698492462311631</v>
       </c>
       <c r="AC16" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3522,34 +3522,34 @@
         <v>NO</v>
       </c>
       <c r="AI16">
-        <v>9340</v>
+        <v>9325</v>
       </c>
       <c r="AJ16">
-        <v>9485.1</v>
+        <v>10289.5</v>
       </c>
       <c r="AK16">
-        <v>9340</v>
+        <v>9325</v>
       </c>
       <c r="AL16">
-        <v>9429.2000000000007</v>
+        <v>9822.9</v>
       </c>
       <c r="AM16">
-        <v>137.40000000000151</v>
+        <v>582.89999999999964</v>
       </c>
       <c r="AN16">
-        <v>1.4787231752728369</v>
+        <v>6.3084415584415554</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" si="21"/>
-        <v>0.95503211991435477</v>
+        <v>5.3394101876675562</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="22"/>
-        <v>0.95503211991435477</v>
+        <v>5.3394101876675562</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="23"/>
-        <v>0.59283926526109998</v>
+        <v>4.7501247085891176</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="24"/>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="AV16" t="str">
         <f t="shared" si="28"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AW16" t="str">
         <f t="shared" si="29"/>
@@ -3585,38 +3585,38 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>914</v>
+        <v>943.5</v>
       </c>
       <c r="C17">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D17">
-        <v>910.2</v>
+        <v>916</v>
       </c>
       <c r="E17">
-        <v>940.2</v>
+        <v>940.9</v>
       </c>
       <c r="F17">
-        <v>32.300000000000068</v>
+        <v>-3</v>
       </c>
       <c r="G17">
-        <v>3.557660535301252</v>
+        <v>-0.31783027863121088</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>2.8665207877461758</v>
+        <v>-0.27556968733439563</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>2.8665207877461758</v>
+        <v>0.27556968733439563</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>2.3186556051903802</v>
+        <v>1.5368309485956544</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>0.41575492341356179</v>
+        <v>2.6464023806993282</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q17" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3647,38 +3647,38 @@
         <v>NO</v>
       </c>
       <c r="S17">
-        <v>917.6</v>
+        <v>945</v>
       </c>
       <c r="T17">
-        <v>918.6</v>
+        <v>954.5</v>
       </c>
       <c r="U17">
-        <v>905.1</v>
+        <v>931.05</v>
       </c>
       <c r="V17">
-        <v>907.9</v>
+        <v>943.9</v>
       </c>
       <c r="W17">
-        <v>-5.3500000000000227</v>
+        <v>3.6999999999999318</v>
       </c>
       <c r="X17">
-        <v>-0.58581987407610425</v>
+        <v>0.39353329078918647</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="11"/>
-        <v>-1.0571054925893684</v>
+        <v>-0.1164021164021188</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="12"/>
-        <v>1.0571054925893684</v>
+        <v>0.1164021164021188</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" si="13"/>
-        <v>0.1089799476896251</v>
+        <v>1.0052910052910053</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="14"/>
-        <v>0.30840400925211525</v>
+        <v>1.3613730268036892</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3705,38 +3705,38 @@
         <v>NO</v>
       </c>
       <c r="AI17">
-        <v>917.95</v>
+        <v>914</v>
       </c>
       <c r="AJ17">
-        <v>924.75</v>
+        <v>962</v>
       </c>
       <c r="AK17">
-        <v>910</v>
+        <v>910.2</v>
       </c>
       <c r="AL17">
-        <v>913.25</v>
+        <v>940.2</v>
       </c>
       <c r="AM17">
-        <v>2.549999999999955</v>
+        <v>32.300000000000068</v>
       </c>
       <c r="AN17">
-        <v>0.28000439222575541</v>
+        <v>3.557660535301252</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" si="21"/>
-        <v>-0.51201045808595735</v>
+        <v>2.8665207877461758</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="22"/>
-        <v>0.51201045808595735</v>
+        <v>2.8665207877461758</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="23"/>
-        <v>0.74078108829456446</v>
+        <v>2.3186556051903802</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="24"/>
-        <v>0.35587188612099641</v>
+        <v>0.41575492341356179</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="25"/>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AV17" t="str">
         <f t="shared" si="28"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AW17" t="str">
         <f t="shared" si="29"/>
@@ -3768,38 +3768,38 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>353</v>
+        <v>371.15</v>
       </c>
       <c r="C18">
-        <v>375</v>
+        <v>374.8</v>
       </c>
       <c r="D18">
-        <v>351.6</v>
+        <v>365</v>
       </c>
       <c r="E18">
-        <v>371.4</v>
+        <v>367.55</v>
       </c>
       <c r="F18">
-        <v>27.099999999999969</v>
+        <v>-1.75</v>
       </c>
       <c r="G18">
-        <v>7.871042695323835</v>
+        <v>-0.47386948280530727</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>5.2124645892351209</v>
+        <v>-0.96995823790919189</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>5.2124645892351209</v>
+        <v>0.96995823790919189</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>0.96930533117932771</v>
+        <v>0.98342988010239385</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>0.39660056657223147</v>
+        <v>0.69378315875391405</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3830,38 +3830,38 @@
         <v>NO</v>
       </c>
       <c r="S18">
-        <v>365</v>
+        <v>377.7</v>
       </c>
       <c r="T18">
-        <v>372.85</v>
+        <v>379</v>
       </c>
       <c r="U18">
-        <v>341.35</v>
+        <v>361.65</v>
       </c>
       <c r="V18">
-        <v>344.3</v>
+        <v>369.3</v>
       </c>
       <c r="W18">
-        <v>-16.949999999999989</v>
+        <v>-2.0999999999999659</v>
       </c>
       <c r="X18">
-        <v>-4.6920415224913459</v>
+        <v>-0.56542810985459502</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="11"/>
-        <v>-5.6712328767123257</v>
+        <v>-2.2239872915011856</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" si="12"/>
-        <v>5.6712328767123257</v>
+        <v>2.2239872915011856</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" si="13"/>
-        <v>2.1506849315068557</v>
+        <v>0.34418850939899692</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" si="14"/>
-        <v>0.85681092070868103</v>
+        <v>2.0714865962632096</v>
       </c>
       <c r="AC18" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3888,38 +3888,38 @@
         <v>NO</v>
       </c>
       <c r="AI18">
-        <v>367.95</v>
+        <v>353</v>
       </c>
       <c r="AJ18">
-        <v>383.9</v>
+        <v>375</v>
       </c>
       <c r="AK18">
-        <v>358</v>
+        <v>351.6</v>
       </c>
       <c r="AL18">
-        <v>361.25</v>
+        <v>371.4</v>
       </c>
       <c r="AM18">
-        <v>-3.6999999999999891</v>
+        <v>27.099999999999969</v>
       </c>
       <c r="AN18">
-        <v>-1.013837511987941</v>
+        <v>7.871042695323835</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" si="21"/>
-        <v>-1.8208995787471094</v>
+        <v>5.2124645892351209</v>
       </c>
       <c r="AP18" s="1">
         <f t="shared" si="22"/>
-        <v>1.8208995787471094</v>
+        <v>5.2124645892351209</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="23"/>
-        <v>4.3348281016442423</v>
+        <v>0.96930533117932771</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="24"/>
-        <v>0.89965397923875445</v>
+        <v>0.39660056657223147</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="25"/>
@@ -3951,38 +3951,38 @@
         <v>67</v>
       </c>
       <c r="B19">
-        <v>188</v>
+        <v>186.3</v>
       </c>
       <c r="C19">
-        <v>192.8</v>
+        <v>190.7</v>
       </c>
       <c r="D19">
-        <v>185.7</v>
+        <v>185</v>
       </c>
       <c r="E19">
-        <v>186.85</v>
+        <v>186.15</v>
       </c>
       <c r="F19">
-        <v>4.1500000000000057</v>
+        <v>0.70000000000001705</v>
       </c>
       <c r="G19">
-        <v>2.271483305966068</v>
+        <v>0.37746023186843741</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>-0.61170212765957754</v>
+        <v>-8.0515297906605304E-2</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>0.61170212765957754</v>
+        <v>8.0515297906605304E-2</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="2"/>
-        <v>2.553191489361708</v>
+        <v>2.3617820719269869</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>0.61546695210061853</v>
+        <v>0.61778135911899312</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3994,11 +3994,11 @@
       </c>
       <c r="N19" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O19" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="8"/>
@@ -4013,38 +4013,38 @@
         <v>NO</v>
       </c>
       <c r="S19">
-        <v>180</v>
+        <v>187.8</v>
       </c>
       <c r="T19">
         <v>187.95</v>
       </c>
       <c r="U19">
-        <v>177.5</v>
+        <v>184.5</v>
       </c>
       <c r="V19">
-        <v>182.7</v>
+        <v>185.45</v>
       </c>
       <c r="W19">
-        <v>3.0499999999999829</v>
+        <v>-1.4000000000000059</v>
       </c>
       <c r="X19">
-        <v>1.6977456164764719</v>
+        <v>-0.74926411560075235</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="11"/>
-        <v>1.4999999999999938</v>
+        <v>-1.2513312034078927</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="12"/>
-        <v>1.4999999999999938</v>
+        <v>1.2513312034078927</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="13"/>
-        <v>2.8735632183908049</v>
+        <v>7.9872204472831332E-2</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="14"/>
-        <v>1.3888888888888888</v>
+        <v>0.51226745753571779</v>
       </c>
       <c r="AC19" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4071,38 +4071,38 @@
         <v>NO</v>
       </c>
       <c r="AI19">
-        <v>177.8</v>
+        <v>188</v>
       </c>
       <c r="AJ19">
-        <v>181.5</v>
+        <v>192.8</v>
       </c>
       <c r="AK19">
-        <v>177</v>
+        <v>185.7</v>
       </c>
       <c r="AL19">
-        <v>179.65</v>
+        <v>186.85</v>
       </c>
       <c r="AM19">
-        <v>3.4500000000000171</v>
+        <v>4.1500000000000057</v>
       </c>
       <c r="AN19">
-        <v>1.958002270147569</v>
+        <v>2.271483305966068</v>
       </c>
       <c r="AO19" s="1">
         <f t="shared" si="21"/>
-        <v>1.0404949381327302</v>
+        <v>-0.61170212765957754</v>
       </c>
       <c r="AP19" s="1">
         <f t="shared" si="22"/>
-        <v>1.0404949381327302</v>
+        <v>0.61170212765957754</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="23"/>
-        <v>1.0297801280267154</v>
+        <v>2.553191489361708</v>
       </c>
       <c r="AR19" s="1">
         <f t="shared" si="24"/>
-        <v>0.44994375703037759</v>
+        <v>0.61546695210061853</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="25"/>
@@ -4134,38 +4134,38 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>38</v>
+        <v>36.75</v>
       </c>
       <c r="C20">
-        <v>38.25</v>
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>36.5</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E20">
-        <v>37.15</v>
+        <v>36.35</v>
       </c>
       <c r="F20">
-        <v>-0.25</v>
+        <v>-0.54999999999999716</v>
       </c>
       <c r="G20">
-        <v>-0.66844919786096257</v>
+        <v>-1.4905149051490441</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>-2.2368421052631615</v>
+        <v>-1.088435374149656</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>2.2368421052631615</v>
+        <v>1.088435374149656</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>0.6578947368421052</v>
+        <v>0.68027210884353739</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>1.7496635262449494</v>
+        <v>0.41265474552956966</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4196,38 +4196,38 @@
         <v>NO</v>
       </c>
       <c r="S20">
-        <v>37.9</v>
+        <v>37.1</v>
       </c>
       <c r="T20">
-        <v>38</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="U20">
-        <v>37.1</v>
+        <v>36.75</v>
       </c>
       <c r="V20">
-        <v>37.4</v>
+        <v>36.9</v>
       </c>
       <c r="W20">
-        <v>2.100000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="X20">
-        <v>5.9490084985835736</v>
+        <v>-0.67294751009421261</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" si="11"/>
-        <v>-1.3192612137203166</v>
+        <v>-0.5390835579514901</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" si="12"/>
-        <v>1.3192612137203166</v>
+        <v>0.5390835579514901</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="13"/>
-        <v>0.2638522427440671</v>
+        <v>1.2129380053908241</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" si="14"/>
-        <v>0.80213903743314752</v>
+        <v>0.40650406504064657</v>
       </c>
       <c r="AC20" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4254,38 +4254,38 @@
         <v>NO</v>
       </c>
       <c r="AI20">
-        <v>34.9</v>
+        <v>38</v>
       </c>
       <c r="AJ20">
-        <v>35.9</v>
+        <v>38.25</v>
       </c>
       <c r="AK20">
-        <v>34.85</v>
+        <v>36.5</v>
       </c>
       <c r="AL20">
-        <v>35.299999999999997</v>
+        <v>37.15</v>
       </c>
       <c r="AM20">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="AN20">
-        <v>2.1707670043415339</v>
+        <v>-0.66844919786096257</v>
       </c>
       <c r="AO20" s="1">
         <f t="shared" si="21"/>
-        <v>1.1461318051575891</v>
+        <v>-2.2368421052631615</v>
       </c>
       <c r="AP20" s="1">
         <f t="shared" si="22"/>
-        <v>1.1461318051575891</v>
+        <v>2.2368421052631615</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="23"/>
-        <v>1.6997167138810241</v>
+        <v>0.6578947368421052</v>
       </c>
       <c r="AR20" s="1">
         <f t="shared" si="24"/>
-        <v>0.143266475644691</v>
+        <v>1.7496635262449494</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="25"/>
@@ -4317,38 +4317,38 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>28.4</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C21">
-        <v>30.05</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>28.35</v>
+        <v>32.65</v>
       </c>
       <c r="E21">
-        <v>29.65</v>
+        <v>33</v>
       </c>
       <c r="F21">
-        <v>1.4499999999999991</v>
+        <v>-1.0499999999999969</v>
       </c>
       <c r="G21">
-        <v>5.1418439716312037</v>
+        <v>-3.0837004405286259</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>4.4014084507042259</v>
+        <v>-2.0771513353115809</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>4.4014084507042259</v>
+        <v>2.0771513353115809</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>1.349072512647562</v>
+        <v>0.8902077151335227</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>0.17605633802815901</v>
+        <v>1.0606060606060648</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4379,38 +4379,38 @@
         <v>NO</v>
       </c>
       <c r="S21">
-        <v>28.5</v>
+        <v>29.95</v>
       </c>
       <c r="T21">
-        <v>28.65</v>
+        <v>34.75</v>
       </c>
       <c r="U21">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="V21">
-        <v>28.2</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="W21">
-        <v>-0.10000000000000139</v>
+        <v>4.3999999999999986</v>
       </c>
       <c r="X21">
-        <v>-0.35335689045936902</v>
+        <v>14.8397976391231</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="11"/>
-        <v>-1.052631578947371</v>
+        <v>13.689482470784634</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" si="12"/>
-        <v>1.052631578947371</v>
+        <v>13.689482470784634</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="13"/>
-        <v>0.5263157894736793</v>
+        <v>2.0558002936857651</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" si="14"/>
-        <v>1.0638297872340452</v>
+        <v>2.8380634390651012</v>
       </c>
       <c r="AC21" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4437,38 +4437,38 @@
         <v>NO</v>
       </c>
       <c r="AI21">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="AJ21">
-        <v>28.9</v>
+        <v>30.05</v>
       </c>
       <c r="AK21">
-        <v>27.7</v>
+        <v>28.35</v>
       </c>
       <c r="AL21">
-        <v>28.3</v>
+        <v>29.65</v>
       </c>
       <c r="AM21">
-        <v>0.25</v>
+        <v>1.4499999999999991</v>
       </c>
       <c r="AN21">
-        <v>0.89126559714795017</v>
+        <v>5.1418439716312037</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" si="21"/>
-        <v>0.71174377224199037</v>
+        <v>4.4014084507042259</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="22"/>
-        <v>0.71174377224199037</v>
+        <v>4.4014084507042259</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="23"/>
-        <v>2.1201413427561762</v>
+        <v>1.349072512647562</v>
       </c>
       <c r="AR21" s="1">
         <f t="shared" si="24"/>
-        <v>1.4234875444839934</v>
+        <v>0.17605633802815901</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="25"/>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="AV21" t="str">
         <f t="shared" si="28"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AW21" t="str">
         <f t="shared" si="29"/>
@@ -4500,38 +4500,38 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>136.9</v>
+        <v>130.55000000000001</v>
       </c>
       <c r="C22">
-        <v>136.9</v>
+        <v>132.94999999999999</v>
       </c>
       <c r="D22">
-        <v>133.15</v>
+        <v>128.5</v>
       </c>
       <c r="E22">
-        <v>134</v>
+        <v>131.44999999999999</v>
       </c>
       <c r="F22">
-        <v>-3</v>
+        <v>0.59999999999999432</v>
       </c>
       <c r="G22">
-        <v>-2.1897810218978102</v>
+        <v>0.45854031333587641</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>-2.1183345507669875</v>
+        <v>0.68939103791648959</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>2.1183345507669875</v>
+        <v>0.68939103791648959</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.1411182959300115</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>0.63432835820895106</v>
+        <v>1.5702795863653858</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4562,38 +4562,38 @@
         <v>NO</v>
       </c>
       <c r="S22">
-        <v>138.44999999999999</v>
+        <v>132</v>
       </c>
       <c r="T22">
-        <v>141</v>
+        <v>133.94999999999999</v>
       </c>
       <c r="U22">
-        <v>135.05000000000001</v>
+        <v>130</v>
       </c>
       <c r="V22">
-        <v>137</v>
+        <v>130.85</v>
       </c>
       <c r="W22">
-        <v>2.3000000000000109</v>
+        <v>-3.1500000000000061</v>
       </c>
       <c r="X22">
-        <v>1.7074981440237651</v>
+        <v>-2.35074626865672</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="11"/>
-        <v>-1.0473094980137152</v>
+        <v>-0.87121212121212543</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="12"/>
-        <v>1.0473094980137152</v>
+        <v>0.87121212121212543</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="13"/>
-        <v>1.8418201516793149</v>
+        <v>1.4772727272727186</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="14"/>
-        <v>1.4233576642335684</v>
+        <v>0.64959877722582682</v>
       </c>
       <c r="AC22" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4620,38 +4620,38 @@
         <v>NO</v>
       </c>
       <c r="AI22">
-        <v>120.55</v>
+        <v>136.9</v>
       </c>
       <c r="AJ22">
-        <v>136.80000000000001</v>
+        <v>136.9</v>
       </c>
       <c r="AK22">
-        <v>120.55</v>
+        <v>133.15</v>
       </c>
       <c r="AL22">
-        <v>134.69999999999999</v>
+        <v>134</v>
       </c>
       <c r="AM22">
-        <v>14.999999999999989</v>
+        <v>-3</v>
       </c>
       <c r="AN22">
-        <v>12.53132832080199</v>
+        <v>-2.1897810218978102</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="21"/>
-        <v>11.737868104520938</v>
+        <v>-2.1183345507669875</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="22"/>
-        <v>11.737868104520938</v>
+        <v>2.1183345507669875</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="23"/>
-        <v>1.559020044543447</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.63432835820895106</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="25"/>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="AV22" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW22" t="str">
         <f t="shared" si="29"/>
@@ -4683,38 +4683,38 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>61.35</v>
+        <v>60.75</v>
       </c>
       <c r="C23">
-        <v>65</v>
+        <v>61.55</v>
       </c>
       <c r="D23">
-        <v>60.15</v>
+        <v>60.1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>60.6</v>
       </c>
       <c r="F23">
-        <v>0.35000000000000142</v>
+        <v>-0.10000000000000139</v>
       </c>
       <c r="G23">
-        <v>0.57708161582852668</v>
+        <v>-0.16474464579901391</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>-0.57049714751426472</v>
+        <v>-0.24691358024691124</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>0.57049714751426472</v>
+        <v>0.24691358024691124</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>5.9494702526487346</v>
+        <v>1.3168724279835344</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>1.3934426229508219</v>
+        <v>0.82508250825082496</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="O23" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="8"/>
@@ -4745,38 +4745,38 @@
         <v>NO</v>
       </c>
       <c r="S23">
-        <v>58.6</v>
+        <v>61.7</v>
       </c>
       <c r="T23">
-        <v>61.7</v>
+        <v>62.1</v>
       </c>
       <c r="U23">
-        <v>58.4</v>
+        <v>60.4</v>
       </c>
       <c r="V23">
-        <v>60.65</v>
+        <v>60.7</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>-0.29999999999999721</v>
       </c>
       <c r="X23">
-        <v>3.4100596760443311</v>
+        <v>-0.49180327868851997</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="11"/>
-        <v>3.4982935153583568</v>
+        <v>-1.6207455429497568</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" si="12"/>
-        <v>3.4982935153583568</v>
+        <v>1.6207455429497568</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="13"/>
-        <v>1.7312448474855802</v>
+        <v>0.64829821717990033</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" si="14"/>
-        <v>0.34129692832764991</v>
+        <v>0.49423393739704158</v>
       </c>
       <c r="AC23" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4803,38 +4803,38 @@
         <v>NO</v>
       </c>
       <c r="AI23">
-        <v>59.05</v>
+        <v>61.35</v>
       </c>
       <c r="AJ23">
-        <v>61.75</v>
+        <v>65</v>
       </c>
       <c r="AK23">
-        <v>57.8</v>
+        <v>60.15</v>
       </c>
       <c r="AL23">
-        <v>58.65</v>
+        <v>61</v>
       </c>
       <c r="AM23">
-        <v>-0.10000000000000139</v>
+        <v>0.35000000000000142</v>
       </c>
       <c r="AN23">
-        <v>-0.17021276595744919</v>
+        <v>0.57708161582852668</v>
       </c>
       <c r="AO23" s="1">
         <f t="shared" si="21"/>
-        <v>-0.6773920406435201</v>
+        <v>-0.57049714751426472</v>
       </c>
       <c r="AP23" s="1">
         <f t="shared" si="22"/>
-        <v>0.6773920406435201</v>
+        <v>0.57049714751426472</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="23"/>
-        <v>4.5723962743437818</v>
+        <v>5.9494702526487346</v>
       </c>
       <c r="AR23" s="1">
         <f t="shared" si="24"/>
-        <v>1.449275362318843</v>
+        <v>1.3934426229508219</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="25"/>
@@ -4866,38 +4866,38 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>4826</v>
+        <v>5164.8</v>
       </c>
       <c r="C24">
-        <v>5099</v>
+        <v>5216.5</v>
       </c>
       <c r="D24">
-        <v>4810.05</v>
+        <v>4922.3500000000004</v>
       </c>
       <c r="E24">
-        <v>5019.95</v>
+        <v>5135.8</v>
       </c>
       <c r="F24">
-        <v>251.94999999999979</v>
+        <v>-3.75</v>
       </c>
       <c r="G24">
-        <v>5.284186241610735</v>
+        <v>-7.2963586306194123E-2</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>4.0188561956071238</v>
+        <v>-0.56149318463444864</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>4.0188561956071238</v>
+        <v>0.56149318463444864</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>1.5747168796501996</v>
+        <v>1.001006815365548</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>0.33050145047658142</v>
+        <v>4.1561197865960482</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4928,38 +4928,38 @@
         <v>NO</v>
       </c>
       <c r="S24">
-        <v>4741.8</v>
+        <v>5075</v>
       </c>
       <c r="T24">
-        <v>4875</v>
+        <v>5227</v>
       </c>
       <c r="U24">
-        <v>4695</v>
+        <v>5057</v>
       </c>
       <c r="V24">
-        <v>4768</v>
+        <v>5139.55</v>
       </c>
       <c r="W24">
-        <v>28.60000000000036</v>
+        <v>119.60000000000041</v>
       </c>
       <c r="X24">
-        <v>0.60345191374436358</v>
+        <v>2.3824938495403409</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="11"/>
-        <v>0.55253279345395878</v>
+        <v>1.2719211822660135</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="12"/>
-        <v>0.55253279345395878</v>
+        <v>1.2719211822660135</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="13"/>
-        <v>2.2441275167785233</v>
+        <v>1.7015108326604431</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" si="14"/>
-        <v>0.98696697456662397</v>
+        <v>0.35467980295566504</v>
       </c>
       <c r="AC24" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4986,38 +4986,38 @@
         <v>NO</v>
       </c>
       <c r="AI24">
-        <v>4619.95</v>
+        <v>4826</v>
       </c>
       <c r="AJ24">
-        <v>4800</v>
+        <v>5099</v>
       </c>
       <c r="AK24">
-        <v>4600</v>
+        <v>4810.05</v>
       </c>
       <c r="AL24">
-        <v>4739.3999999999996</v>
+        <v>5019.95</v>
       </c>
       <c r="AM24">
-        <v>211.5</v>
+        <v>251.94999999999979</v>
       </c>
       <c r="AN24">
-        <v>4.671039554760485</v>
+        <v>5.284186241610735</v>
       </c>
       <c r="AO24" s="1">
         <f t="shared" si="21"/>
-        <v>2.5855258173789721</v>
+        <v>4.0188561956071238</v>
       </c>
       <c r="AP24" s="1">
         <f t="shared" si="22"/>
-        <v>2.5855258173789721</v>
+        <v>4.0188561956071238</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="23"/>
-        <v>1.2786428661856009</v>
+        <v>1.5747168796501996</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" si="24"/>
-        <v>0.43182285522570202</v>
+        <v>0.33050145047658142</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="25"/>
@@ -5049,38 +5049,38 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>375.05</v>
+        <v>395.45</v>
       </c>
       <c r="C25">
-        <v>391.95</v>
+        <v>396.8</v>
       </c>
       <c r="D25">
-        <v>375.05</v>
+        <v>385.05</v>
       </c>
       <c r="E25">
-        <v>385.15</v>
+        <v>390.7</v>
       </c>
       <c r="F25">
-        <v>11.69999999999999</v>
+        <v>-5.6000000000000227</v>
       </c>
       <c r="G25">
-        <v>3.1329495247020991</v>
+        <v>-1.41307090587939</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>2.6929742700973112</v>
+        <v>-1.2011632317612846</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>2.6929742700973112</v>
+        <v>1.2011632317612846</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>1.7655458912112194</v>
+        <v>0.34138323429005507</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4461223445098483</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5111,38 +5111,38 @@
         <v>NO</v>
       </c>
       <c r="S25">
-        <v>361</v>
+        <v>385.15</v>
       </c>
       <c r="T25">
-        <v>376</v>
+        <v>399.3</v>
       </c>
       <c r="U25">
-        <v>359</v>
+        <v>381.05</v>
       </c>
       <c r="V25">
-        <v>373.45</v>
+        <v>396.3</v>
       </c>
       <c r="W25">
-        <v>7.6499999999999773</v>
+        <v>11.150000000000031</v>
       </c>
       <c r="X25">
-        <v>2.0913067249863251</v>
+        <v>2.894975983383107</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="11"/>
-        <v>3.4487534626038747</v>
+        <v>2.8949759833831066</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" si="12"/>
-        <v>3.4487534626038747</v>
+        <v>2.8949759833831066</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" si="13"/>
-        <v>0.6828223323068715</v>
+        <v>0.75700227100681305</v>
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="14"/>
-        <v>0.554016620498615</v>
+        <v>1.0645203167596953</v>
       </c>
       <c r="AC25" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="AD25" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AE25" s="1" t="str">
         <f t="shared" si="17"/>
@@ -5169,38 +5169,38 @@
         <v>NO</v>
       </c>
       <c r="AI25">
-        <v>376</v>
+        <v>375.05</v>
       </c>
       <c r="AJ25">
-        <v>376</v>
+        <v>391.95</v>
       </c>
       <c r="AK25">
-        <v>361</v>
+        <v>375.05</v>
       </c>
       <c r="AL25">
-        <v>365.8</v>
+        <v>385.15</v>
       </c>
       <c r="AM25">
-        <v>-1.8000000000000109</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="AN25">
-        <v>-0.48966267682263642</v>
+        <v>3.1329495247020991</v>
       </c>
       <c r="AO25" s="1">
         <f t="shared" si="21"/>
-        <v>-2.7127659574468055</v>
+        <v>2.6929742700973112</v>
       </c>
       <c r="AP25" s="1">
         <f t="shared" si="22"/>
-        <v>2.7127659574468055</v>
+        <v>2.6929742700973112</v>
       </c>
       <c r="AQ25" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.7655458912112194</v>
       </c>
       <c r="AR25" s="1">
         <f t="shared" si="24"/>
-        <v>1.3121924548933874</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="25"/>
@@ -5232,38 +5232,38 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>481.7</v>
+        <v>524</v>
       </c>
       <c r="C26">
-        <v>545</v>
+        <v>531.04999999999995</v>
       </c>
       <c r="D26">
-        <v>481</v>
+        <v>512.1</v>
       </c>
       <c r="E26">
-        <v>520.1</v>
+        <v>523.54999999999995</v>
       </c>
       <c r="F26">
-        <v>47.050000000000011</v>
+        <v>3.25</v>
       </c>
       <c r="G26">
-        <v>9.9460944931825406</v>
+        <v>0.62463963098212572</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>7.9717666597467378</v>
+        <v>-8.5877862595428525E-2</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>7.9717666597467378</v>
+        <v>8.5877862595428525E-2</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>4.7875408575273939</v>
+        <v>1.3454198473282357</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>0.14531866306829741</v>
+        <v>2.1869926463565914</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5294,38 +5294,38 @@
         <v>NO</v>
       </c>
       <c r="S26">
-        <v>443.85</v>
+        <v>523.9</v>
       </c>
       <c r="T26">
-        <v>475.5</v>
+        <v>537</v>
       </c>
       <c r="U26">
-        <v>440.1</v>
+        <v>501.95</v>
       </c>
       <c r="V26">
-        <v>473.05</v>
+        <v>520.29999999999995</v>
       </c>
       <c r="W26">
-        <v>31.199999999999989</v>
+        <v>0.19999999999993179</v>
       </c>
       <c r="X26">
-        <v>7.0612198709969416</v>
+        <v>3.8454143433941892E-2</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" si="11"/>
-        <v>6.5787991438549032</v>
+        <v>-0.68715403702997191</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" si="12"/>
-        <v>6.5787991438549032</v>
+        <v>0.68715403702997191</v>
       </c>
       <c r="AA26" s="1">
         <f t="shared" si="13"/>
-        <v>0.51791565373638915</v>
+        <v>2.5004771903034975</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" si="14"/>
-        <v>0.84488002703616072</v>
+        <v>3.5268114549298422</v>
       </c>
       <c r="AC26" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5352,38 +5352,38 @@
         <v>NO</v>
       </c>
       <c r="AI26">
-        <v>432</v>
+        <v>481.7</v>
       </c>
       <c r="AJ26">
-        <v>448.6</v>
+        <v>545</v>
       </c>
       <c r="AK26">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="AL26">
-        <v>441.85</v>
+        <v>520.1</v>
       </c>
       <c r="AM26">
-        <v>14.400000000000031</v>
+        <v>47.050000000000011</v>
       </c>
       <c r="AN26">
-        <v>3.368815066089609</v>
+        <v>9.9460944931825406</v>
       </c>
       <c r="AO26" s="1">
         <f t="shared" si="21"/>
-        <v>2.2800925925925979</v>
+        <v>7.9717666597467378</v>
       </c>
       <c r="AP26" s="1">
         <f t="shared" si="22"/>
-        <v>2.2800925925925979</v>
+        <v>7.9717666597467378</v>
       </c>
       <c r="AQ26" s="1">
         <f t="shared" si="23"/>
-        <v>1.5276677605522235</v>
+        <v>4.7875408575273939</v>
       </c>
       <c r="AR26" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.14531866306829741</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="25"/>
@@ -5415,38 +5415,38 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>37.5</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C27">
-        <v>37.700000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D27">
-        <v>36.75</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="E27">
-        <v>36.950000000000003</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.68119891008174382</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.466666666666659</v>
+        <v>-1.0752688172043163</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>1.466666666666659</v>
+        <v>1.0752688172043163</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>0.53333333333334099</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>0.54127198917456787</v>
+        <v>0.67934782608695654</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5477,38 +5477,38 @@
         <v>NO</v>
       </c>
       <c r="S27">
-        <v>37</v>
+        <v>37.35</v>
       </c>
       <c r="T27">
-        <v>37.25</v>
+        <v>37.35</v>
       </c>
       <c r="U27">
-        <v>36.299999999999997</v>
+        <v>36.65</v>
       </c>
       <c r="V27">
-        <v>36.700000000000003</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="W27">
-        <v>-0.25</v>
+        <v>-0.15000000000000571</v>
       </c>
       <c r="X27">
-        <v>-0.67658998646820023</v>
+        <v>-0.40595399188093551</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="11"/>
-        <v>-0.81081081081080308</v>
+        <v>-1.4725568942436527</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" si="12"/>
-        <v>0.81081081081080308</v>
+        <v>1.4725568942436527</v>
       </c>
       <c r="AA27" s="1">
         <f t="shared" si="13"/>
-        <v>0.67567567567567566</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" si="14"/>
-        <v>1.0899182561308056</v>
+        <v>0.40760869565217006</v>
       </c>
       <c r="AC27" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5535,38 +5535,38 @@
         <v>NO</v>
       </c>
       <c r="AI27">
-        <v>36.1</v>
+        <v>37.5</v>
       </c>
       <c r="AJ27">
-        <v>37.5</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="AK27">
-        <v>36.1</v>
+        <v>36.75</v>
       </c>
       <c r="AL27">
         <v>36.950000000000003</v>
       </c>
       <c r="AM27">
-        <v>0.95000000000000284</v>
+        <v>0.25</v>
       </c>
       <c r="AN27">
-        <v>2.6388888888888968</v>
+        <v>0.68119891008174382</v>
       </c>
       <c r="AO27" s="1">
         <f t="shared" si="21"/>
-        <v>2.3545706371191173</v>
+        <v>-1.466666666666659</v>
       </c>
       <c r="AP27" s="1">
         <f t="shared" si="22"/>
-        <v>2.3545706371191173</v>
+        <v>1.466666666666659</v>
       </c>
       <c r="AQ27" s="1">
         <f t="shared" si="23"/>
-        <v>1.4884979702300329</v>
+        <v>0.53333333333334099</v>
       </c>
       <c r="AR27" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.54127198917456787</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="25"/>
@@ -5598,38 +5598,38 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>325.8</v>
+        <v>353.5</v>
       </c>
       <c r="C28">
-        <v>351.5</v>
+        <v>353.5</v>
       </c>
       <c r="D28">
-        <v>325.8</v>
+        <v>344.15</v>
       </c>
       <c r="E28">
-        <v>349.5</v>
+        <v>346</v>
       </c>
       <c r="F28">
-        <v>24.850000000000019</v>
+        <v>-7.6499999999999773</v>
       </c>
       <c r="G28">
-        <v>7.6543970429693591</v>
+        <v>-2.1631556623780508</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>7.2744014732964972</v>
+        <v>-2.1216407355021216</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>7.2744014732964972</v>
+        <v>2.1216407355021216</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>0.57224606580829751</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.53468208092486202</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5660,38 +5660,38 @@
         <v>NO</v>
       </c>
       <c r="S28">
-        <v>324.3</v>
+        <v>353.7</v>
       </c>
       <c r="T28">
-        <v>328.85</v>
+        <v>359.5</v>
       </c>
       <c r="U28">
-        <v>322.14999999999998</v>
+        <v>350.05</v>
       </c>
       <c r="V28">
-        <v>324.64999999999998</v>
+        <v>353.65</v>
       </c>
       <c r="W28">
-        <v>-0.30000000000001142</v>
+        <v>4.1499999999999773</v>
       </c>
       <c r="X28">
-        <v>-9.2321895676261381E-2</v>
+        <v>1.1874105865522111</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="11"/>
-        <v>0.10792476102373291</v>
+        <v>-1.4136273678261625E-2</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" si="12"/>
-        <v>0.10792476102373291</v>
+        <v>1.4136273678261625E-2</v>
       </c>
       <c r="AA28" s="1">
         <f t="shared" si="13"/>
-        <v>1.2937009086708906</v>
+        <v>1.6398077466779788</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" si="14"/>
-        <v>0.66296638914586314</v>
+        <v>1.0179556058249586</v>
       </c>
       <c r="AC28" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5718,38 +5718,38 @@
         <v>NO</v>
       </c>
       <c r="AI28">
-        <v>324.89999999999998</v>
+        <v>325.8</v>
       </c>
       <c r="AJ28">
-        <v>327.7</v>
+        <v>351.5</v>
       </c>
       <c r="AK28">
-        <v>320.25</v>
+        <v>325.8</v>
       </c>
       <c r="AL28">
-        <v>324.95</v>
+        <v>349.5</v>
       </c>
       <c r="AM28">
-        <v>5.8000000000000114</v>
+        <v>24.850000000000019</v>
       </c>
       <c r="AN28">
-        <v>1.8173272755757519</v>
+        <v>7.6543970429693591</v>
       </c>
       <c r="AO28" s="1">
         <f t="shared" si="21"/>
-        <v>1.5389350569409472E-2</v>
+        <v>7.2744014732964972</v>
       </c>
       <c r="AP28" s="1">
         <f t="shared" si="22"/>
-        <v>1.5389350569409472E-2</v>
+        <v>7.2744014732964972</v>
       </c>
       <c r="AQ28" s="1">
         <f t="shared" si="23"/>
-        <v>0.84628404369903065</v>
+        <v>0.57224606580829751</v>
       </c>
       <c r="AR28" s="1">
         <f t="shared" si="24"/>
-        <v>1.4312096029547483</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="25"/>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="AV28" t="str">
         <f t="shared" si="28"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AW28" t="str">
         <f t="shared" si="29"/>
@@ -5781,38 +5781,38 @@
         <v>77</v>
       </c>
       <c r="B29">
-        <v>1282</v>
+        <v>1350</v>
       </c>
       <c r="C29">
-        <v>1353.5</v>
+        <v>1355</v>
       </c>
       <c r="D29">
-        <v>1281</v>
+        <v>1321</v>
       </c>
       <c r="E29">
-        <v>1330.1</v>
+        <v>1345.6</v>
       </c>
       <c r="F29">
-        <v>72.349999999999909</v>
+        <v>5.5999999999999091</v>
       </c>
       <c r="G29">
-        <v>5.7523355197773736</v>
+        <v>0.41791044776118719</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>3.7519500780031128</v>
+        <v>-0.32592592592593267</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>3.7519500780031128</v>
+        <v>0.32592592592593267</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>1.7592662205849252</v>
+        <v>0.37037037037037041</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>7.8003120124804995E-2</v>
+        <v>1.8281807372175916</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5843,38 +5843,38 @@
         <v>NO</v>
       </c>
       <c r="S29">
-        <v>1242.5</v>
+        <v>1349</v>
       </c>
       <c r="T29">
-        <v>1269</v>
+        <v>1370</v>
       </c>
       <c r="U29">
-        <v>1238</v>
+        <v>1323.45</v>
       </c>
       <c r="V29">
-        <v>1257.75</v>
+        <v>1340</v>
       </c>
       <c r="W29">
-        <v>21.5</v>
+        <v>9.9000000000000909</v>
       </c>
       <c r="X29">
-        <v>1.7391304347826091</v>
+        <v>0.74430493947824161</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" si="11"/>
-        <v>1.227364185110664</v>
+        <v>-0.66716085989621943</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" si="12"/>
-        <v>1.227364185110664</v>
+        <v>0.66716085989621943</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" si="13"/>
-        <v>0.89445438282647582</v>
+        <v>1.5567086730911788</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" si="14"/>
-        <v>0.3621730382293763</v>
+        <v>1.2350746268656683</v>
       </c>
       <c r="AC29" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5901,38 +5901,38 @@
         <v>NO</v>
       </c>
       <c r="AI29">
-        <v>1225</v>
+        <v>1282</v>
       </c>
       <c r="AJ29">
-        <v>1264.95</v>
+        <v>1353.5</v>
       </c>
       <c r="AK29">
-        <v>1223.0999999999999</v>
+        <v>1281</v>
       </c>
       <c r="AL29">
-        <v>1236.25</v>
+        <v>1330.1</v>
       </c>
       <c r="AM29">
-        <v>25.900000000000091</v>
+        <v>72.349999999999909</v>
       </c>
       <c r="AN29">
-        <v>2.1398768951129918</v>
+        <v>5.7523355197773736</v>
       </c>
       <c r="AO29" s="1">
         <f t="shared" si="21"/>
-        <v>0.91836734693877564</v>
+        <v>3.7519500780031128</v>
       </c>
       <c r="AP29" s="1">
         <f t="shared" si="22"/>
-        <v>0.91836734693877564</v>
+        <v>3.7519500780031128</v>
       </c>
       <c r="AQ29" s="1">
         <f t="shared" si="23"/>
-        <v>2.3215369059656257</v>
+        <v>1.7592662205849252</v>
       </c>
       <c r="AR29" s="1">
         <f t="shared" si="24"/>
-        <v>0.15510204081633394</v>
+        <v>7.8003120124804995E-2</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="25"/>
@@ -5964,38 +5964,38 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>707</v>
+        <v>741</v>
       </c>
       <c r="C30">
-        <v>765.3</v>
+        <v>838</v>
       </c>
       <c r="D30">
-        <v>707</v>
+        <v>735.6</v>
       </c>
       <c r="E30">
-        <v>719.95</v>
+        <v>814.6</v>
       </c>
       <c r="F30">
-        <v>14.100000000000019</v>
+        <v>82.850000000000023</v>
       </c>
       <c r="G30">
-        <v>1.997591556279666</v>
+        <v>11.322172873249061</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>1.8316831683168382</v>
+        <v>9.9325236167341462</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>1.8316831683168382</v>
+        <v>9.9325236167341462</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>6.2990485450378371</v>
+        <v>2.8725754971765256</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.72874493927125206</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="O30" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P30" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6026,38 +6026,38 @@
         <v>NO</v>
       </c>
       <c r="S30">
-        <v>708.75</v>
+        <v>729</v>
       </c>
       <c r="T30">
-        <v>717.3</v>
+        <v>750</v>
       </c>
       <c r="U30">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="V30">
-        <v>705.85</v>
+        <v>731.75</v>
       </c>
       <c r="W30">
-        <v>-2.8999999999999768</v>
+        <v>11.799999999999949</v>
       </c>
       <c r="X30">
-        <v>-0.40917107583773932</v>
+        <v>1.6390027085214189</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" si="11"/>
-        <v>-0.40917107583773932</v>
+        <v>0.37722908093278462</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" si="12"/>
-        <v>0.40917107583773932</v>
+        <v>0.37722908093278462</v>
       </c>
       <c r="AA30" s="1">
         <f t="shared" si="13"/>
-        <v>1.2063492063492001</v>
+        <v>2.4940211820977112</v>
       </c>
       <c r="AB30" s="1">
         <f t="shared" si="14"/>
-        <v>0.68711482609619934</v>
+        <v>1.2345679012345678</v>
       </c>
       <c r="AC30" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6084,38 +6084,38 @@
         <v>NO</v>
       </c>
       <c r="AI30">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="AJ30">
-        <v>729</v>
+        <v>765.3</v>
       </c>
       <c r="AK30">
-        <v>677.9</v>
+        <v>707</v>
       </c>
       <c r="AL30">
-        <v>708.75</v>
+        <v>719.95</v>
       </c>
       <c r="AM30">
-        <v>24.5</v>
+        <v>14.100000000000019</v>
       </c>
       <c r="AN30">
-        <v>3.5805626598465472</v>
+        <v>1.997591556279666</v>
       </c>
       <c r="AO30" s="1">
         <f t="shared" si="21"/>
-        <v>4.2279411764705888</v>
+        <v>1.8316831683168382</v>
       </c>
       <c r="AP30" s="1">
         <f t="shared" si="22"/>
-        <v>4.2279411764705888</v>
+        <v>1.8316831683168382</v>
       </c>
       <c r="AQ30" s="1">
         <f t="shared" si="23"/>
-        <v>2.8571428571428572</v>
+        <v>6.2990485450378371</v>
       </c>
       <c r="AR30" s="1">
         <f t="shared" si="24"/>
-        <v>0.30882352941176805</v>
+        <v>0</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="25"/>
@@ -6147,38 +6147,38 @@
         <v>79</v>
       </c>
       <c r="B31">
-        <v>144.80000000000001</v>
+        <v>148</v>
       </c>
       <c r="C31">
-        <v>150.69999999999999</v>
+        <v>150</v>
       </c>
       <c r="D31">
-        <v>143.69999999999999</v>
+        <v>146.55000000000001</v>
       </c>
       <c r="E31">
-        <v>148.80000000000001</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="F31">
-        <v>5.4000000000000057</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="G31">
-        <v>3.765690376569041</v>
+        <v>-0.90817356205852295</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>2.7624309392265194</v>
+        <v>-0.47297297297296526</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>2.7624309392265194</v>
+        <v>0.47297297297296526</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>1.2768817204300922</v>
+        <v>1.3513513513513513</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>0.75966850828730847</v>
+        <v>0.50916496945010181</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6209,38 +6209,38 @@
         <v>NO</v>
       </c>
       <c r="S31">
-        <v>145</v>
+        <v>149.1</v>
       </c>
       <c r="T31">
-        <v>146.19999999999999</v>
+        <v>152</v>
       </c>
       <c r="U31">
-        <v>143</v>
+        <v>146.1</v>
       </c>
       <c r="V31">
-        <v>143.4</v>
+        <v>148.65</v>
       </c>
       <c r="W31">
-        <v>-2</v>
+        <v>-0.15000000000000571</v>
       </c>
       <c r="X31">
-        <v>-1.3755158184319121</v>
+        <v>-0.10080645161290699</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="11"/>
-        <v>-1.103448275862065</v>
+        <v>-0.30181086519113925</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="12"/>
-        <v>1.103448275862065</v>
+        <v>0.30181086519113925</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="13"/>
-        <v>0.82758620689654394</v>
+        <v>1.9450033534540616</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="14"/>
-        <v>0.27894002789400674</v>
+        <v>1.7154389505550025</v>
       </c>
       <c r="AC31" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6267,38 +6267,38 @@
         <v>NO</v>
       </c>
       <c r="AI31">
-        <v>147.19999999999999</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="AJ31">
-        <v>149.05000000000001</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="AK31">
-        <v>143.6</v>
+        <v>143.69999999999999</v>
       </c>
       <c r="AL31">
-        <v>145.4</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="AM31">
-        <v>-2.1500000000000061</v>
+        <v>5.4000000000000057</v>
       </c>
       <c r="AN31">
-        <v>-1.4571331751948531</v>
+        <v>3.765690376569041</v>
       </c>
       <c r="AO31" s="1">
         <f t="shared" si="21"/>
-        <v>-1.2228260869565102</v>
+        <v>2.7624309392265194</v>
       </c>
       <c r="AP31" s="1">
         <f t="shared" si="22"/>
-        <v>1.2228260869565102</v>
+        <v>2.7624309392265194</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="23"/>
-        <v>1.2567934782608849</v>
+        <v>1.2768817204300922</v>
       </c>
       <c r="AR31" s="1">
         <f t="shared" si="24"/>
-        <v>1.2379642365887285</v>
+        <v>0.75966850828730847</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="25"/>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="AU31" t="str">
         <f t="shared" si="27"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AV31" t="str">
         <f t="shared" si="28"/>
@@ -6330,38 +6330,38 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>1795</v>
+        <v>2028.8</v>
       </c>
       <c r="C32">
-        <v>1955</v>
+        <v>2028.8</v>
       </c>
       <c r="D32">
-        <v>1761.3</v>
+        <v>1921</v>
       </c>
       <c r="E32">
-        <v>1916</v>
+        <v>1935.7</v>
       </c>
       <c r="F32">
-        <v>160.30000000000001</v>
+        <v>-85.099999999999909</v>
       </c>
       <c r="G32">
-        <v>9.1302614341857922</v>
+        <v>-4.2112034837688004</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>6.740947075208914</v>
+        <v>-4.588919558359617</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>6.740947075208914</v>
+        <v>4.588919558359617</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>2.0354906054279751</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>1.877437325905295</v>
+        <v>0.7594151986361547</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6392,38 +6392,38 @@
         <v>NO</v>
       </c>
       <c r="S32">
-        <v>1743.95</v>
+        <v>1918</v>
       </c>
       <c r="T32">
-        <v>1780</v>
+        <v>2040</v>
       </c>
       <c r="U32">
-        <v>1701.35</v>
+        <v>1916</v>
       </c>
       <c r="V32">
-        <v>1755.7</v>
+        <v>2020.8</v>
       </c>
       <c r="W32">
-        <v>11.75</v>
+        <v>104.8</v>
       </c>
       <c r="X32">
-        <v>0.67375784856217213</v>
+        <v>5.4697286012526076</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="11"/>
-        <v>0.67375784856217213</v>
+        <v>5.3597497393117806</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="12"/>
-        <v>0.67375784856217213</v>
+        <v>5.3597497393117806</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="13"/>
-        <v>1.3840633365609134</v>
+        <v>0.95011876484560798</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="14"/>
-        <v>2.4427305828722234</v>
+        <v>0.10427528675703858</v>
       </c>
       <c r="AC32" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6447,41 +6447,41 @@
       </c>
       <c r="AH32" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AI32">
-        <v>1783</v>
+        <v>1795</v>
       </c>
       <c r="AJ32">
-        <v>1797.95</v>
+        <v>1955</v>
       </c>
       <c r="AK32">
-        <v>1730.55</v>
+        <v>1761.3</v>
       </c>
       <c r="AL32">
-        <v>1743.95</v>
+        <v>1916</v>
       </c>
       <c r="AM32">
-        <v>-17.099999999999909</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="AN32">
-        <v>-0.97101161239033018</v>
+        <v>9.1302614341857922</v>
       </c>
       <c r="AO32" s="1">
         <f t="shared" si="21"/>
-        <v>-2.19012899607403</v>
+        <v>6.740947075208914</v>
       </c>
       <c r="AP32" s="1">
         <f t="shared" si="22"/>
-        <v>2.19012899607403</v>
+        <v>6.740947075208914</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="23"/>
-        <v>0.83847448121144397</v>
+        <v>2.0354906054279751</v>
       </c>
       <c r="AR32" s="1">
         <f t="shared" si="24"/>
-        <v>0.76837065282835459</v>
+        <v>1.877437325905295</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="25"/>
@@ -6513,38 +6513,38 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>1595</v>
+        <v>1711.8</v>
       </c>
       <c r="C33">
-        <v>1859</v>
+        <v>1738</v>
       </c>
       <c r="D33">
-        <v>1595</v>
+        <v>1675</v>
       </c>
       <c r="E33">
-        <v>1749.1</v>
+        <v>1685.95</v>
       </c>
       <c r="F33">
-        <v>194.25</v>
+        <v>-15.099999999999911</v>
       </c>
       <c r="G33">
-        <v>12.49316654339647</v>
+        <v>-0.88768701684253315</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>9.6614420062695867</v>
+        <v>-1.5101063208318677</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>9.6614420062695867</v>
+        <v>1.5101063208318677</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>6.2832313761363041</v>
+        <v>1.5305526346535838</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.64948545330526086</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6575,38 +6575,38 @@
         <v>NO</v>
       </c>
       <c r="S33">
-        <v>1543.7</v>
+        <v>1768.8</v>
       </c>
       <c r="T33">
-        <v>1566.3</v>
+        <v>1768.8</v>
       </c>
       <c r="U33">
-        <v>1535.1</v>
+        <v>1685.75</v>
       </c>
       <c r="V33">
-        <v>1554.85</v>
+        <v>1701.05</v>
       </c>
       <c r="W33">
-        <v>19.049999999999951</v>
+        <v>-48.049999999999947</v>
       </c>
       <c r="X33">
-        <v>1.240395884880841</v>
+        <v>-2.7471270939340209</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="11"/>
-        <v>0.72229060050527072</v>
+        <v>-3.8302804161013118</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" si="12"/>
-        <v>0.72229060050527072</v>
+        <v>3.8302804161013118</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="13"/>
-        <v>0.73640544103933148</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" si="14"/>
-        <v>0.55710306406686116</v>
+        <v>0.89944446077422491</v>
       </c>
       <c r="AC33" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6633,38 +6633,38 @@
         <v>NO</v>
       </c>
       <c r="AI33">
-        <v>1532</v>
+        <v>1595</v>
       </c>
       <c r="AJ33">
-        <v>1555</v>
+        <v>1859</v>
       </c>
       <c r="AK33">
-        <v>1521</v>
+        <v>1595</v>
       </c>
       <c r="AL33">
-        <v>1535.8</v>
+        <v>1749.1</v>
       </c>
       <c r="AM33">
-        <v>7.8999999999998636</v>
+        <v>194.25</v>
       </c>
       <c r="AN33">
-        <v>0.51704954512728996</v>
+        <v>12.49316654339647</v>
       </c>
       <c r="AO33" s="1">
         <f t="shared" si="21"/>
-        <v>0.24804177545691611</v>
+        <v>9.6614420062695867</v>
       </c>
       <c r="AP33" s="1">
         <f t="shared" si="22"/>
-        <v>0.24804177545691611</v>
+        <v>9.6614420062695867</v>
       </c>
       <c r="AQ33" s="1">
         <f t="shared" si="23"/>
-        <v>1.2501627816121921</v>
+        <v>6.2832313761363041</v>
       </c>
       <c r="AR33" s="1">
         <f t="shared" si="24"/>
-        <v>0.71801566579634468</v>
+        <v>0</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="25"/>
@@ -6696,45 +6696,45 @@
         <v>82</v>
       </c>
       <c r="B34">
+        <v>26.45</v>
+      </c>
+      <c r="C34">
+        <v>26.7</v>
+      </c>
+      <c r="D34">
+        <v>26.2</v>
+      </c>
+      <c r="E34">
         <v>26.5</v>
       </c>
-      <c r="C34">
-        <v>27.75</v>
-      </c>
-      <c r="D34">
-        <v>26.45</v>
-      </c>
-      <c r="E34">
-        <v>27.25</v>
-      </c>
       <c r="F34">
-        <v>1.1999999999999991</v>
+        <v>-5.0000000000000711E-2</v>
       </c>
       <c r="G34">
-        <v>4.6065259117082507</v>
+        <v>-0.18832391713747909</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ref="H34:H51" si="31">(E34-B34)/B34*100</f>
-        <v>2.8301886792452833</v>
+        <v>0.18903591682419929</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" ref="I34:I65" si="32">ABS(H34)</f>
-        <v>2.8301886792452833</v>
+        <v>0.18903591682419929</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ref="J34:J51" si="33">IF(H34&gt;=0,(C34-E34)/E34*100,(C34-B34)/B34*100)</f>
-        <v>1.834862385321101</v>
+        <v>0.75471698113207275</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ref="K34:K51" si="34">IF(H34&gt;=0,(B34-D34)/B34*100,(E34-D34)/E34*100)</f>
-        <v>0.18867924528302155</v>
+        <v>0.94517958412098302</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" ref="L34:L65" si="35">IF(AND((K34-J34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" ref="M34:M51" si="36">IF(AND((K34-J34)&gt;1.5,I34&lt;2,I34&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="M34:M51" si="36">IF(AND((K34-J34)&gt;1.5,I34&lt;2,I34&gt;0.5,H34&gt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="N34" t="str">
@@ -6742,7 +6742,7 @@
         <v>NO</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f t="shared" ref="O34:O51" si="38">IF(AND((J34-K34)&gt;1.5,I34&lt;2,I34&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="O34:O51" si="38">IF(AND((J34-K34)&gt;1.5,I34&lt;2,I34&gt;0.5,H34&lt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="P34" s="1" t="str">
@@ -6758,38 +6758,38 @@
         <v>NO</v>
       </c>
       <c r="S34">
-        <v>26.45</v>
+        <v>27</v>
       </c>
       <c r="T34">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="U34">
-        <v>25.65</v>
+        <v>26.05</v>
       </c>
       <c r="V34">
-        <v>26.05</v>
+        <v>26.55</v>
       </c>
       <c r="W34">
-        <v>-0.19999999999999929</v>
+        <v>-0.69999999999999929</v>
       </c>
       <c r="X34">
-        <v>-0.7619047619047592</v>
+        <v>-2.5688073394495392</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ref="Y34:Y51" si="42">(V34-S34)/S34*100</f>
-        <v>-1.5122873345935675</v>
+        <v>-1.6666666666666639</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" ref="Z34:Z65" si="43">ABS(Y34)</f>
-        <v>1.5122873345935675</v>
+        <v>1.6666666666666639</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" ref="AA34:AA51" si="44">IF(Y34&gt;=0,(T34-V34)/V34*100,(T34-S34)/S34*100)</f>
-        <v>0.56710775047259787</v>
+        <v>0.37037037037037562</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" ref="AB34:AB51" si="45">IF(Y34&gt;=0,(S34-U34)/S34*100,(V34-U34)/V34*100)</f>
-        <v>1.5355086372360927</v>
+        <v>1.8832391713747645</v>
       </c>
       <c r="AC34" s="1" t="str">
         <f t="shared" ref="AC34:AC51" si="46">IF(AND(I34&lt;Z34/2,S34&gt;E34,E34&gt;(S34+V34)/2,V34&lt;B34,B34&lt;(S34+V34)/2),"YES","NO")</f>
@@ -6816,38 +6816,38 @@
         <v>NO</v>
       </c>
       <c r="AI34">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="AJ34">
-        <v>26.55</v>
+        <v>27.75</v>
       </c>
       <c r="AK34">
-        <v>26</v>
+        <v>26.45</v>
       </c>
       <c r="AL34">
-        <v>26.25</v>
+        <v>27.25</v>
       </c>
       <c r="AM34">
-        <v>0.30000000000000071</v>
+        <v>1.1999999999999991</v>
       </c>
       <c r="AN34">
-        <v>1.156069364161852</v>
+        <v>4.6065259117082507</v>
       </c>
       <c r="AO34" s="1">
         <f t="shared" ref="AO34:AO51" si="52">(AL34-AI34)/AI34*100</f>
-        <v>0.96153846153846156</v>
+        <v>2.8301886792452833</v>
       </c>
       <c r="AP34" s="1">
         <f t="shared" ref="AP34:AP65" si="53">ABS(AO34)</f>
-        <v>0.96153846153846156</v>
+        <v>2.8301886792452833</v>
       </c>
       <c r="AQ34" s="1">
         <f t="shared" ref="AQ34:AQ51" si="54">IF(AO34&gt;=0,(AJ34-AL34)/AL34*100,(AJ34-AI34)/AI34*100)</f>
-        <v>1.1428571428571457</v>
+        <v>1.834862385321101</v>
       </c>
       <c r="AR34" s="1">
         <f t="shared" ref="AR34:AR51" si="55">IF(AO34&gt;=0,(AI34-AK34)/AI34*100,(AL34-AK34)/AL34*100)</f>
-        <v>0</v>
+        <v>0.18867924528302155</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" ref="AS34:AS51" si="56">IF(AND(AO34&lt;0,AP34&gt;1.5,Y34&lt;0,Z34&gt;1.5,AL34&gt;S34,AL34&lt;E34,H34&gt;0,I34&gt;1.5),"YES","NO")</f>
@@ -6879,38 +6879,38 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>1989</v>
+        <v>2225</v>
       </c>
       <c r="C35">
-        <v>2144</v>
+        <v>2250</v>
       </c>
       <c r="D35">
-        <v>1981.05</v>
+        <v>2145</v>
       </c>
       <c r="E35">
-        <v>2069.35</v>
+        <v>2160.1</v>
       </c>
       <c r="F35">
-        <v>111.89999999999991</v>
+        <v>-15.30000000000018</v>
       </c>
       <c r="G35">
-        <v>5.7166211142046981</v>
+        <v>-0.70331892985198963</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="31"/>
-        <v>4.0397184514831528</v>
+        <v>-2.9168539325842739</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="32"/>
-        <v>4.0397184514831528</v>
+        <v>2.9168539325842739</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="33"/>
-        <v>3.6074129557590595</v>
+        <v>1.1235955056179776</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="34"/>
-        <v>0.39969834087481376</v>
+        <v>0.6990417110318925</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="35"/>
@@ -6941,38 +6941,38 @@
         <v>NO</v>
       </c>
       <c r="S35">
-        <v>1969</v>
+        <v>2098</v>
       </c>
       <c r="T35">
-        <v>1978.2</v>
+        <v>2199</v>
       </c>
       <c r="U35">
-        <v>1949</v>
+        <v>2090</v>
       </c>
       <c r="V35">
-        <v>1957.45</v>
+        <v>2175.4</v>
       </c>
       <c r="W35">
-        <v>-11.89999999999986</v>
+        <v>106.0500000000002</v>
       </c>
       <c r="X35">
-        <v>-0.60426028892781192</v>
+        <v>5.1247976417715799</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="42"/>
-        <v>-0.58659217877094749</v>
+        <v>3.6892278360343229</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" si="43"/>
-        <v>0.58659217877094749</v>
+        <v>3.6892278360343229</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="44"/>
-        <v>0.46724225495175453</v>
+        <v>1.0848579571573</v>
       </c>
       <c r="AB35" s="1">
         <f t="shared" si="45"/>
-        <v>0.43168407877596082</v>
+        <v>0.38131553860819828</v>
       </c>
       <c r="AC35" s="1" t="str">
         <f t="shared" si="46"/>
@@ -6999,38 +6999,38 @@
         <v>NO</v>
       </c>
       <c r="AI35">
-        <v>1956</v>
+        <v>1989</v>
       </c>
       <c r="AJ35">
-        <v>1986.1</v>
+        <v>2144</v>
       </c>
       <c r="AK35">
-        <v>1943.7</v>
+        <v>1981.05</v>
       </c>
       <c r="AL35">
-        <v>1969.35</v>
+        <v>2069.35</v>
       </c>
       <c r="AM35">
-        <v>45.349999999999909</v>
+        <v>111.89999999999991</v>
       </c>
       <c r="AN35">
-        <v>2.357068607068602</v>
+        <v>5.7166211142046981</v>
       </c>
       <c r="AO35" s="1">
         <f t="shared" si="52"/>
-        <v>0.68251533742330828</v>
+        <v>4.0397184514831528</v>
       </c>
       <c r="AP35" s="1">
         <f t="shared" si="53"/>
-        <v>0.68251533742330828</v>
+        <v>4.0397184514831528</v>
       </c>
       <c r="AQ35" s="1">
         <f t="shared" si="54"/>
-        <v>0.8505344402975602</v>
+        <v>3.6074129557590595</v>
       </c>
       <c r="AR35" s="1">
         <f t="shared" si="55"/>
-        <v>0.62883435582821856</v>
+        <v>0.39969834087481376</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="56"/>
@@ -7062,38 +7062,38 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="C36">
-        <v>1320</v>
+        <v>1284.9000000000001</v>
       </c>
       <c r="D36">
-        <v>1261.4000000000001</v>
+        <v>1236.25</v>
       </c>
       <c r="E36">
-        <v>1309.5999999999999</v>
+        <v>1248.25</v>
       </c>
       <c r="F36">
-        <v>54.799999999999947</v>
+        <v>-16.5</v>
       </c>
       <c r="G36">
-        <v>4.3672298374242873</v>
+        <v>-1.3046056532911641</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="31"/>
-        <v>3.5256916996047361</v>
+        <v>-1.867138364779874</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="32"/>
-        <v>3.5256916996047361</v>
+        <v>1.867138364779874</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="33"/>
-        <v>0.79413561392792398</v>
+        <v>1.0141509433962337</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="34"/>
-        <v>0.28458498023714696</v>
+        <v>0.9613458842379331</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7124,38 +7124,38 @@
         <v>NO</v>
       </c>
       <c r="S36">
-        <v>1293.8499999999999</v>
+        <v>1300</v>
       </c>
       <c r="T36">
-        <v>1293.8499999999999</v>
+        <v>1329</v>
       </c>
       <c r="U36">
-        <v>1240.7</v>
+        <v>1257.8499999999999</v>
       </c>
       <c r="V36">
-        <v>1254.8</v>
+        <v>1264.75</v>
       </c>
       <c r="W36">
-        <v>-37.299999999999947</v>
+        <v>-44.849999999999909</v>
       </c>
       <c r="X36">
-        <v>-2.8867734695456981</v>
+        <v>-3.4247098350641352</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" si="42"/>
-        <v>-3.0181242029601543</v>
+        <v>-2.7115384615384612</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" si="43"/>
-        <v>3.0181242029601543</v>
+        <v>2.7115384615384612</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>2.2307692307692308</v>
       </c>
       <c r="AB36" s="1">
         <f t="shared" si="45"/>
-        <v>1.1236850494102575</v>
+        <v>0.54556236410358505</v>
       </c>
       <c r="AC36" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7182,38 +7182,38 @@
         <v>NO</v>
       </c>
       <c r="AI36">
-        <v>1313.25</v>
+        <v>1265</v>
       </c>
       <c r="AJ36">
-        <v>1323.9</v>
+        <v>1320</v>
       </c>
       <c r="AK36">
-        <v>1273.7</v>
+        <v>1261.4000000000001</v>
       </c>
       <c r="AL36">
-        <v>1292.0999999999999</v>
+        <v>1309.5999999999999</v>
       </c>
       <c r="AM36">
-        <v>-3.6500000000000909</v>
+        <v>54.799999999999947</v>
       </c>
       <c r="AN36">
-        <v>-0.28169014084507749</v>
+        <v>4.3672298374242873</v>
       </c>
       <c r="AO36" s="1">
         <f t="shared" si="52"/>
-        <v>-1.6105082809823028</v>
+        <v>3.5256916996047361</v>
       </c>
       <c r="AP36" s="1">
         <f t="shared" si="53"/>
-        <v>1.6105082809823028</v>
+        <v>3.5256916996047361</v>
       </c>
       <c r="AQ36" s="1">
         <f t="shared" si="54"/>
-        <v>0.81096516276414166</v>
+        <v>0.79413561392792398</v>
       </c>
       <c r="AR36" s="1">
         <f t="shared" si="55"/>
-        <v>1.4240383871217293</v>
+        <v>0.28458498023714696</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="56"/>
@@ -7245,38 +7245,38 @@
         <v>85</v>
       </c>
       <c r="B37">
-        <v>1025.9000000000001</v>
+        <v>1182</v>
       </c>
       <c r="C37">
-        <v>1187.95</v>
+        <v>1190</v>
       </c>
       <c r="D37">
-        <v>1025.9000000000001</v>
+        <v>1131.0999999999999</v>
       </c>
       <c r="E37">
-        <v>1154.0999999999999</v>
+        <v>1166.8499999999999</v>
       </c>
       <c r="F37">
-        <v>143.05000000000001</v>
+        <v>-1.75</v>
       </c>
       <c r="G37">
-        <v>14.14865733643242</v>
+        <v>-0.14975183980831769</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="31"/>
-        <v>12.496344672970055</v>
+        <v>-1.2817258883248808</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="32"/>
-        <v>12.496344672970055</v>
+        <v>1.2817258883248808</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="33"/>
-        <v>2.9330214019582477</v>
+        <v>0.67681895093062605</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3.0638042593306771</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7307,38 +7307,38 @@
         <v>NO</v>
       </c>
       <c r="S37">
-        <v>993.7</v>
+        <v>1168</v>
       </c>
       <c r="T37">
-        <v>1023.9</v>
+        <v>1240</v>
       </c>
       <c r="U37">
-        <v>991.5</v>
+        <v>1140.4000000000001</v>
       </c>
       <c r="V37">
-        <v>1011.05</v>
+        <v>1168.5999999999999</v>
       </c>
       <c r="W37">
-        <v>22.899999999999981</v>
+        <v>14.5</v>
       </c>
       <c r="X37">
-        <v>2.317461923796992</v>
+        <v>1.256390260809289</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="42"/>
-        <v>1.7459997987320026</v>
+        <v>5.1369863013690842E-2</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" si="43"/>
-        <v>1.7459997987320026</v>
+        <v>5.1369863013690842E-2</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="44"/>
-        <v>1.2709559368972874</v>
+        <v>6.1098750641793682</v>
       </c>
       <c r="AB37" s="1">
         <f t="shared" si="45"/>
-        <v>0.22139478715910693</v>
+        <v>2.3630136986301293</v>
       </c>
       <c r="AC37" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7365,34 +7365,34 @@
         <v>NO</v>
       </c>
       <c r="AI37">
-        <v>983</v>
+        <v>1025.9000000000001</v>
       </c>
       <c r="AJ37">
-        <v>1003.75</v>
+        <v>1187.95</v>
       </c>
       <c r="AK37">
-        <v>983</v>
+        <v>1025.9000000000001</v>
       </c>
       <c r="AL37">
-        <v>988.15</v>
+        <v>1154.0999999999999</v>
       </c>
       <c r="AM37">
-        <v>5.4499999999999318</v>
+        <v>143.05000000000001</v>
       </c>
       <c r="AN37">
-        <v>0.55459448458328398</v>
+        <v>14.14865733643242</v>
       </c>
       <c r="AO37" s="1">
         <f t="shared" si="52"/>
-        <v>0.52390640895218488</v>
+        <v>12.496344672970055</v>
       </c>
       <c r="AP37" s="1">
         <f t="shared" si="53"/>
-        <v>0.52390640895218488</v>
+        <v>12.496344672970055</v>
       </c>
       <c r="AQ37" s="1">
         <f t="shared" si="54"/>
-        <v>1.5787076860800509</v>
+        <v>2.9330214019582477</v>
       </c>
       <c r="AR37" s="1">
         <f t="shared" si="55"/>
@@ -7428,38 +7428,38 @@
         <v>86</v>
       </c>
       <c r="B38">
-        <v>4881</v>
+        <v>5665</v>
       </c>
       <c r="C38">
-        <v>5470</v>
+        <v>5665</v>
       </c>
       <c r="D38">
-        <v>4860</v>
+        <v>5325</v>
       </c>
       <c r="E38">
-        <v>5250.05</v>
+        <v>5424.8</v>
       </c>
       <c r="F38">
-        <v>357.15000000000049</v>
+        <v>-224.09999999999951</v>
       </c>
       <c r="G38">
-        <v>7.2993521224631719</v>
+        <v>-3.9671440457434102</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="31"/>
-        <v>7.5609506248719569</v>
+        <v>-4.240070609002645</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="32"/>
-        <v>7.5609506248719569</v>
+        <v>4.240070609002645</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="33"/>
-        <v>4.1894839096770466</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="34"/>
-        <v>0.43023970497848807</v>
+        <v>1.8396991594160188</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7490,38 +7490,38 @@
         <v>NO</v>
       </c>
       <c r="S38">
-        <v>4806.05</v>
+        <v>5299</v>
       </c>
       <c r="T38">
-        <v>4973.95</v>
+        <v>5685</v>
       </c>
       <c r="U38">
-        <v>4759.1000000000004</v>
+        <v>5262.35</v>
       </c>
       <c r="V38">
-        <v>4892.8999999999996</v>
+        <v>5648.9</v>
       </c>
       <c r="W38">
-        <v>-2.9000000000005461</v>
+        <v>398.84999999999951</v>
       </c>
       <c r="X38">
-        <v>-5.923444585155737E-2</v>
+        <v>7.5970705040904267</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="42"/>
-        <v>1.8070973044391849</v>
+        <v>6.6031326665408496</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" si="43"/>
-        <v>1.8070973044391849</v>
+        <v>6.6031326665408496</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" si="44"/>
-        <v>1.6564818410349729</v>
+        <v>0.63906247233975411</v>
       </c>
       <c r="AB38" s="1">
         <f t="shared" si="45"/>
-        <v>0.97689370689027</v>
+        <v>0.69163993206264651</v>
       </c>
       <c r="AC38" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7545,41 +7545,41 @@
       </c>
       <c r="AH38" s="1" t="str">
         <f t="shared" si="51"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AI38">
-        <v>4813</v>
+        <v>4881</v>
       </c>
       <c r="AJ38">
-        <v>4950</v>
+        <v>5470</v>
       </c>
       <c r="AK38">
-        <v>4781.3</v>
+        <v>4860</v>
       </c>
       <c r="AL38">
-        <v>4895.8</v>
+        <v>5250.05</v>
       </c>
       <c r="AM38">
-        <v>81.800000000000182</v>
+        <v>357.15000000000049</v>
       </c>
       <c r="AN38">
-        <v>1.6992106356460359</v>
+        <v>7.2993521224631719</v>
       </c>
       <c r="AO38" s="1">
         <f t="shared" si="52"/>
-        <v>1.7203407438188278</v>
+        <v>7.5609506248719569</v>
       </c>
       <c r="AP38" s="1">
         <f t="shared" si="53"/>
-        <v>1.7203407438188278</v>
+        <v>7.5609506248719569</v>
       </c>
       <c r="AQ38" s="1">
         <f t="shared" si="54"/>
-        <v>1.1070713672944119</v>
+        <v>4.1894839096770466</v>
       </c>
       <c r="AR38" s="1">
         <f t="shared" si="55"/>
-        <v>0.65863286931227538</v>
+        <v>0.43023970497848807</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" si="56"/>
@@ -7611,38 +7611,38 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>243.75</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="C39">
-        <v>259.3</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="D39">
-        <v>243.25</v>
+        <v>249.2</v>
       </c>
       <c r="E39">
-        <v>251.4</v>
+        <v>249.9</v>
       </c>
       <c r="F39">
-        <v>9.2000000000000171</v>
+        <v>-6.0499999999999829</v>
       </c>
       <c r="G39">
-        <v>3.7985136251032272</v>
+        <v>-2.3637429185387711</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="31"/>
-        <v>3.1384615384615406</v>
+        <v>-3.2894736842105159</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="32"/>
-        <v>3.1384615384615406</v>
+        <v>3.2894736842105159</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="33"/>
-        <v>3.1424025457438365</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="34"/>
-        <v>0.20512820512820512</v>
+        <v>0.280112044817934</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7673,38 +7673,38 @@
         <v>NO</v>
       </c>
       <c r="S39">
-        <v>240.55</v>
+        <v>255.5</v>
       </c>
       <c r="T39">
-        <v>243.7</v>
+        <v>256.95</v>
       </c>
       <c r="U39">
-        <v>240.05</v>
+        <v>253.5</v>
       </c>
       <c r="V39">
-        <v>242.2</v>
+        <v>255.95</v>
       </c>
       <c r="W39">
-        <v>1.899999999999977</v>
+        <v>4.5499999999999829</v>
       </c>
       <c r="X39">
-        <v>0.79067831876819694</v>
+        <v>1.809864757358784</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="42"/>
-        <v>0.68592808147993234</v>
+        <v>0.17612524461839085</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="43"/>
-        <v>0.68592808147993234</v>
+        <v>0.17612524461839085</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="44"/>
-        <v>0.61932287365813377</v>
+        <v>0.3907013088493847</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" si="45"/>
-        <v>0.20785699438786112</v>
+        <v>0.78277886497064575</v>
       </c>
       <c r="AC39" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7731,38 +7731,38 @@
         <v>NO</v>
       </c>
       <c r="AI39">
-        <v>241</v>
+        <v>243.75</v>
       </c>
       <c r="AJ39">
-        <v>244.35</v>
+        <v>259.3</v>
       </c>
       <c r="AK39">
-        <v>238.6</v>
+        <v>243.25</v>
       </c>
       <c r="AL39">
-        <v>240.3</v>
+        <v>251.4</v>
       </c>
       <c r="AM39">
-        <v>0.40000000000000568</v>
+        <v>9.2000000000000171</v>
       </c>
       <c r="AN39">
-        <v>0.16673614005835999</v>
+        <v>3.7985136251032272</v>
       </c>
       <c r="AO39" s="1">
         <f t="shared" si="52"/>
-        <v>-0.29045643153526501</v>
+        <v>3.1384615384615406</v>
       </c>
       <c r="AP39" s="1">
         <f t="shared" si="53"/>
-        <v>0.29045643153526501</v>
+        <v>3.1384615384615406</v>
       </c>
       <c r="AQ39" s="1">
         <f t="shared" si="54"/>
-        <v>1.3900414937759313</v>
+        <v>3.1424025457438365</v>
       </c>
       <c r="AR39" s="1">
         <f t="shared" si="55"/>
-        <v>0.70744902205577065</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="56"/>
@@ -7794,38 +7794,38 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>405.25</v>
+        <v>445.9</v>
       </c>
       <c r="C40">
-        <v>418.8</v>
+        <v>472</v>
       </c>
       <c r="D40">
-        <v>400</v>
+        <v>433.35</v>
       </c>
       <c r="E40">
-        <v>414.45</v>
+        <v>469.25</v>
       </c>
       <c r="F40">
-        <v>20.449999999999989</v>
+        <v>25.050000000000011</v>
       </c>
       <c r="G40">
-        <v>5.1903553299492362</v>
+        <v>5.6393516434038746</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="31"/>
-        <v>2.2702035780382452</v>
+        <v>5.2366001345593238</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="32"/>
-        <v>2.2702035780382452</v>
+        <v>5.2366001345593238</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="33"/>
-        <v>1.0495837857401431</v>
+        <v>0.58604155567394778</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="34"/>
-        <v>1.2954966070326959</v>
+        <v>2.814532406369131</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7856,38 +7856,38 @@
         <v>NO</v>
       </c>
       <c r="S40">
-        <v>386.1</v>
+        <v>416.5</v>
       </c>
       <c r="T40">
-        <v>397.35</v>
+        <v>447.4</v>
       </c>
       <c r="U40">
-        <v>382.5</v>
+        <v>415.55</v>
       </c>
       <c r="V40">
-        <v>394</v>
+        <v>444.2</v>
       </c>
       <c r="W40">
-        <v>11.100000000000019</v>
+        <v>29.75</v>
       </c>
       <c r="X40">
-        <v>2.8989292243405651</v>
+        <v>7.1781879599469178</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" si="42"/>
-        <v>2.0461020461020403</v>
+        <v>6.6506602641056398</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" si="43"/>
-        <v>2.0461020461020403</v>
+        <v>6.6506602641056398</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="44"/>
-        <v>0.85025380710660481</v>
+        <v>0.72039621791985342</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" si="45"/>
-        <v>0.93240093240093835</v>
+        <v>0.22809123649459509</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7914,38 +7914,38 @@
         <v>NO</v>
       </c>
       <c r="AI40">
-        <v>396.5</v>
+        <v>405.25</v>
       </c>
       <c r="AJ40">
-        <v>400.3</v>
+        <v>418.8</v>
       </c>
       <c r="AK40">
-        <v>381.3</v>
+        <v>400</v>
       </c>
       <c r="AL40">
-        <v>382.9</v>
+        <v>414.45</v>
       </c>
       <c r="AM40">
-        <v>-6.8500000000000227</v>
+        <v>20.449999999999989</v>
       </c>
       <c r="AN40">
-        <v>-1.7575368826170681</v>
+        <v>5.1903553299492362</v>
       </c>
       <c r="AO40" s="1">
         <f t="shared" si="52"/>
-        <v>-3.4300126103404849</v>
+        <v>2.2702035780382452</v>
       </c>
       <c r="AP40" s="1">
         <f t="shared" si="53"/>
-        <v>3.4300126103404849</v>
+        <v>2.2702035780382452</v>
       </c>
       <c r="AQ40" s="1">
         <f t="shared" si="54"/>
-        <v>0.95838587641866624</v>
+        <v>1.0495837857401431</v>
       </c>
       <c r="AR40" s="1">
         <f t="shared" si="55"/>
-        <v>0.41786367197700858</v>
+        <v>1.2954966070326959</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="56"/>
@@ -7977,38 +7977,38 @@
         <v>89</v>
       </c>
       <c r="B41">
+        <v>21.4</v>
+      </c>
+      <c r="C41">
         <v>21.45</v>
       </c>
-      <c r="C41">
-        <v>21.8</v>
-      </c>
       <c r="D41">
-        <v>21.2</v>
+        <v>21.05</v>
       </c>
       <c r="E41">
-        <v>21.45</v>
+        <v>21.1</v>
       </c>
       <c r="F41">
-        <v>9.9999999999997868E-2</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="G41">
-        <v>0.46838407494144202</v>
+        <v>-0.93896713615023131</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-1.4018691588784915</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1.4018691588784915</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="33"/>
-        <v>1.6317016317016386</v>
+        <v>0.23364485981308744</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="34"/>
-        <v>1.1655011655011656</v>
+        <v>0.23696682464455313</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8039,38 +8039,38 @@
         <v>NO</v>
       </c>
       <c r="S41">
-        <v>20.85</v>
+        <v>21.6</v>
       </c>
       <c r="T41">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="U41">
-        <v>20.65</v>
+        <v>21.2</v>
       </c>
       <c r="V41">
-        <v>21.35</v>
+        <v>21.3</v>
       </c>
       <c r="W41">
-        <v>0.5</v>
+        <v>-0.14999999999999861</v>
       </c>
       <c r="X41">
-        <v>2.398081534772182</v>
+        <v>-0.69930069930069272</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" si="42"/>
-        <v>2.3980815347721824</v>
+        <v>-1.3888888888888922</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" si="43"/>
-        <v>2.3980815347721824</v>
+        <v>1.3888888888888922</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="44"/>
-        <v>3.0444964871194311</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" si="45"/>
-        <v>0.95923261390888659</v>
+        <v>0.46948356807512404</v>
       </c>
       <c r="AC41" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8097,38 +8097,38 @@
         <v>NO</v>
       </c>
       <c r="AI41">
-        <v>20.7</v>
+        <v>21.45</v>
       </c>
       <c r="AJ41">
+        <v>21.8</v>
+      </c>
+      <c r="AK41">
         <v>21.2</v>
       </c>
-      <c r="AK41">
-        <v>20.7</v>
-      </c>
       <c r="AL41">
-        <v>20.85</v>
+        <v>21.45</v>
       </c>
       <c r="AM41">
-        <v>0.30000000000000071</v>
+        <v>9.9999999999997868E-2</v>
       </c>
       <c r="AN41">
-        <v>1.459854014598543</v>
+        <v>0.46838407494144202</v>
       </c>
       <c r="AO41" s="1">
         <f t="shared" si="52"/>
-        <v>0.72463768115943061</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="1">
         <f t="shared" si="53"/>
-        <v>0.72463768115943061</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
         <f t="shared" si="54"/>
-        <v>1.6786570743405171</v>
+        <v>1.6317016317016386</v>
       </c>
       <c r="AR41" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>1.1655011655011656</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="56"/>
@@ -8160,38 +8160,38 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>274.7</v>
+        <v>279.7</v>
       </c>
       <c r="C42">
-        <v>282.5</v>
+        <v>289.2</v>
       </c>
       <c r="D42">
-        <v>273.10000000000002</v>
+        <v>279.7</v>
       </c>
       <c r="E42">
-        <v>277.10000000000002</v>
+        <v>286.55</v>
       </c>
       <c r="F42">
-        <v>6.3500000000000227</v>
+        <v>8.6500000000000341</v>
       </c>
       <c r="G42">
-        <v>2.3453370267774778</v>
+        <v>3.112630442605266</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="31"/>
-        <v>0.87368037859484304</v>
+        <v>2.4490525563103405</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="32"/>
-        <v>0.87368037859484304</v>
+        <v>2.4490525563103405</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="33"/>
-        <v>1.948754962107534</v>
+        <v>0.92479497469899752</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="34"/>
-        <v>0.58245358572987471</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8222,38 +8222,38 @@
         <v>NO</v>
       </c>
       <c r="S42">
-        <v>268.8</v>
+        <v>275</v>
       </c>
       <c r="T42">
-        <v>275</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="U42">
-        <v>265.3</v>
+        <v>271.3</v>
       </c>
       <c r="V42">
-        <v>270.75</v>
+        <v>277.89999999999998</v>
       </c>
       <c r="W42">
-        <v>1.9499999999999891</v>
+        <v>0.79999999999995453</v>
       </c>
       <c r="X42">
-        <v>0.72544642857142438</v>
+        <v>0.2887044388307306</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" si="42"/>
-        <v>0.72544642857142438</v>
+        <v>1.0545454545454462</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" si="43"/>
-        <v>0.72544642857142438</v>
+        <v>1.0545454545454462</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" si="44"/>
-        <v>1.5697137580794089</v>
+        <v>1.1514933429291276</v>
       </c>
       <c r="AB42" s="1">
         <f t="shared" si="45"/>
-        <v>1.3020833333333333</v>
+        <v>1.3454545454545412</v>
       </c>
       <c r="AC42" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8280,38 +8280,38 @@
         <v>NO</v>
       </c>
       <c r="AI42">
-        <v>263</v>
+        <v>274.7</v>
       </c>
       <c r="AJ42">
-        <v>272.39999999999998</v>
+        <v>282.5</v>
       </c>
       <c r="AK42">
-        <v>263</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="AL42">
-        <v>268.8</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="AM42">
-        <v>8.6999999999999886</v>
+        <v>6.3500000000000227</v>
       </c>
       <c r="AN42">
-        <v>3.3448673587081852</v>
+        <v>2.3453370267774778</v>
       </c>
       <c r="AO42" s="1">
         <f t="shared" si="52"/>
-        <v>2.205323193916354</v>
+        <v>0.87368037859484304</v>
       </c>
       <c r="AP42" s="1">
         <f t="shared" si="53"/>
-        <v>2.205323193916354</v>
+        <v>0.87368037859484304</v>
       </c>
       <c r="AQ42" s="1">
         <f t="shared" si="54"/>
-        <v>1.3392857142857015</v>
+        <v>1.948754962107534</v>
       </c>
       <c r="AR42" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.58245358572987471</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="56"/>
@@ -8343,38 +8343,38 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>51.7</v>
+        <v>53.6</v>
       </c>
       <c r="C43">
-        <v>54.15</v>
+        <v>55</v>
       </c>
       <c r="D43">
-        <v>51</v>
+        <v>52.3</v>
       </c>
       <c r="E43">
-        <v>53.35</v>
+        <v>53.1</v>
       </c>
       <c r="F43">
-        <v>2.0500000000000038</v>
+        <v>-0.39999999999999858</v>
       </c>
       <c r="G43">
-        <v>3.9961013645224259</v>
+        <v>-0.74766355140186647</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="31"/>
-        <v>3.1914893617021245</v>
+        <v>-0.93283582089552231</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="32"/>
-        <v>3.1914893617021245</v>
+        <v>0.93283582089552231</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="33"/>
-        <v>1.4995313964386077</v>
+        <v>2.6119402985074598</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="34"/>
-        <v>1.3539651837524231</v>
+        <v>1.5065913370998196</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="P43" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q43" s="1" t="str">
         <f t="shared" si="40"/>
@@ -8405,38 +8405,38 @@
         <v>NO</v>
       </c>
       <c r="S43">
-        <v>51</v>
+        <v>54.15</v>
       </c>
       <c r="T43">
-        <v>52.4</v>
+        <v>54.25</v>
       </c>
       <c r="U43">
-        <v>50.6</v>
+        <v>52.65</v>
       </c>
       <c r="V43">
-        <v>51.3</v>
+        <v>53.5</v>
       </c>
       <c r="W43">
-        <v>0.34999999999999432</v>
+        <v>0.14999999999999861</v>
       </c>
       <c r="X43">
-        <v>0.68694798822373759</v>
+        <v>0.28116213683223718</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="42"/>
-        <v>0.58823529411764153</v>
+        <v>-1.2003693444136632</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="43"/>
-        <v>0.58823529411764153</v>
+        <v>1.2003693444136632</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="44"/>
-        <v>2.1442495126705685</v>
+        <v>0.1846722068328743</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="45"/>
-        <v>0.78431372549019329</v>
+        <v>1.5887850467289748</v>
       </c>
       <c r="AC43" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8463,38 +8463,38 @@
         <v>NO</v>
       </c>
       <c r="AI43">
+        <v>51.7</v>
+      </c>
+      <c r="AJ43">
+        <v>54.15</v>
+      </c>
+      <c r="AK43">
         <v>51</v>
       </c>
-      <c r="AJ43">
-        <v>51.65</v>
-      </c>
-      <c r="AK43">
-        <v>50.6</v>
-      </c>
       <c r="AL43">
-        <v>50.95</v>
+        <v>53.35</v>
       </c>
       <c r="AM43">
-        <v>0.45000000000000279</v>
+        <v>2.0500000000000038</v>
       </c>
       <c r="AN43">
-        <v>0.89108910891089677</v>
+        <v>3.9961013645224259</v>
       </c>
       <c r="AO43" s="1">
         <f t="shared" si="52"/>
-        <v>-9.803921568626893E-2</v>
+        <v>3.1914893617021245</v>
       </c>
       <c r="AP43" s="1">
         <f t="shared" si="53"/>
-        <v>9.803921568626893E-2</v>
+        <v>3.1914893617021245</v>
       </c>
       <c r="AQ43" s="1">
         <f t="shared" si="54"/>
-        <v>1.2745098039215659</v>
+        <v>1.4995313964386077</v>
       </c>
       <c r="AR43" s="1">
         <f t="shared" si="55"/>
-        <v>0.68694798822375147</v>
+        <v>1.3539651837524231</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="56"/>
@@ -8526,38 +8526,38 @@
         <v>92</v>
       </c>
       <c r="B44">
-        <v>686</v>
+        <v>678.65</v>
       </c>
       <c r="C44">
-        <v>702.7</v>
+        <v>724</v>
       </c>
       <c r="D44">
-        <v>655.25</v>
+        <v>676.1</v>
       </c>
       <c r="E44">
-        <v>674.2</v>
+        <v>700.85</v>
       </c>
       <c r="F44">
-        <v>-10.44999999999993</v>
+        <v>17.75</v>
       </c>
       <c r="G44">
-        <v>-1.5263273205287271</v>
+        <v>2.5984482506221638</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="31"/>
-        <v>-1.720116618075795</v>
+        <v>3.2712001768216377</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="32"/>
-        <v>1.720116618075795</v>
+        <v>3.2712001768216377</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="33"/>
-        <v>2.4344023323615227</v>
+        <v>3.3031319112506208</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="34"/>
-        <v>2.8107386532186358</v>
+        <v>0.375745966256532</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8588,38 +8588,38 @@
         <v>NO</v>
       </c>
       <c r="S44">
-        <v>609.95000000000005</v>
+        <v>680.2</v>
       </c>
       <c r="T44">
-        <v>692.9</v>
+        <v>696</v>
       </c>
       <c r="U44">
-        <v>609.1</v>
+        <v>668.65</v>
       </c>
       <c r="V44">
-        <v>684.65</v>
+        <v>683.1</v>
       </c>
       <c r="W44">
-        <v>76.549999999999955</v>
+        <v>8.8999999999999773</v>
       </c>
       <c r="X44">
-        <v>12.588390067423109</v>
+        <v>1.320083061406107</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" si="42"/>
-        <v>12.246905484056059</v>
+        <v>0.42634519259041115</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" si="43"/>
-        <v>12.246905484056059</v>
+        <v>0.42634519259041115</v>
       </c>
       <c r="AA44" s="1">
         <f t="shared" si="44"/>
-        <v>1.2049952530490031</v>
+        <v>1.8884497145366677</v>
       </c>
       <c r="AB44" s="1">
         <f t="shared" si="45"/>
-        <v>0.13935568489220801</v>
+        <v>1.6980299911790748</v>
       </c>
       <c r="AC44" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8646,38 +8646,38 @@
         <v>NO</v>
       </c>
       <c r="AI44">
-        <v>615.79999999999995</v>
+        <v>686</v>
       </c>
       <c r="AJ44">
-        <v>621.75</v>
+        <v>702.7</v>
       </c>
       <c r="AK44">
-        <v>605</v>
+        <v>655.25</v>
       </c>
       <c r="AL44">
-        <v>608.1</v>
+        <v>674.2</v>
       </c>
       <c r="AM44">
-        <v>-1.549999999999955</v>
+        <v>-10.44999999999993</v>
       </c>
       <c r="AN44">
-        <v>-0.25424423849749112</v>
+        <v>-1.5263273205287271</v>
       </c>
       <c r="AO44" s="1">
         <f t="shared" si="52"/>
-        <v>-1.2504059759662118</v>
+        <v>-1.720116618075795</v>
       </c>
       <c r="AP44" s="1">
         <f t="shared" si="53"/>
-        <v>1.2504059759662118</v>
+        <v>1.720116618075795</v>
       </c>
       <c r="AQ44" s="1">
         <f t="shared" si="54"/>
-        <v>0.96622279961027047</v>
+        <v>2.4344023323615227</v>
       </c>
       <c r="AR44" s="1">
         <f t="shared" si="55"/>
-        <v>0.50978457490544693</v>
+        <v>2.8107386532186358</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="56"/>
@@ -8709,38 +8709,38 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>275</v>
+        <v>279.45</v>
       </c>
       <c r="C45">
-        <v>301.75</v>
+        <v>297</v>
       </c>
       <c r="D45">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E45">
-        <v>286.85000000000002</v>
+        <v>290.89999999999998</v>
       </c>
       <c r="F45">
-        <v>13.850000000000019</v>
+        <v>10.349999999999969</v>
       </c>
       <c r="G45">
-        <v>5.0732600732600819</v>
+        <v>3.6891819639992751</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="31"/>
-        <v>4.3090909090909175</v>
+        <v>4.0973340490248669</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="32"/>
-        <v>4.3090909090909175</v>
+        <v>4.0973340490248669</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="33"/>
-        <v>5.194352449015156</v>
+        <v>2.0969405293915515</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.87672213276077604</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8771,38 +8771,38 @@
         <v>NO</v>
       </c>
       <c r="S45">
-        <v>272.05</v>
+        <v>288.75</v>
       </c>
       <c r="T45">
-        <v>277.5</v>
+        <v>307.45</v>
       </c>
       <c r="U45">
-        <v>264.95</v>
+        <v>276</v>
       </c>
       <c r="V45">
-        <v>273</v>
+        <v>280.55</v>
       </c>
       <c r="W45">
-        <v>1.9499999999999891</v>
+        <v>-6.3000000000000114</v>
       </c>
       <c r="X45">
-        <v>0.71942446043165043</v>
+        <v>-2.196269827435946</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" si="42"/>
-        <v>0.34920051461128049</v>
+        <v>-2.839826839826836</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" si="43"/>
-        <v>0.34920051461128049</v>
+        <v>2.839826839826836</v>
       </c>
       <c r="AA45" s="1">
         <f t="shared" si="44"/>
-        <v>1.6483516483516485</v>
+        <v>6.4761904761904727</v>
       </c>
       <c r="AB45" s="1">
         <f t="shared" si="45"/>
-        <v>2.6098143723580307</v>
+        <v>1.6218142933523476</v>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8829,38 +8829,38 @@
         <v>NO</v>
       </c>
       <c r="AI45">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AJ45">
-        <v>276.5</v>
+        <v>301.75</v>
       </c>
       <c r="AK45">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="AL45">
-        <v>271.05</v>
+        <v>286.85000000000002</v>
       </c>
       <c r="AM45">
-        <v>13.75</v>
+        <v>13.850000000000019</v>
       </c>
       <c r="AN45">
-        <v>5.3439564710454706</v>
+        <v>5.0732600732600819</v>
       </c>
       <c r="AO45" s="1">
         <f t="shared" si="52"/>
-        <v>3.0608365019011452</v>
+        <v>4.3090909090909175</v>
       </c>
       <c r="AP45" s="1">
         <f t="shared" si="53"/>
-        <v>3.0608365019011452</v>
+        <v>4.3090909090909175</v>
       </c>
       <c r="AQ45" s="1">
         <f t="shared" si="54"/>
-        <v>2.0106991330012871</v>
+        <v>5.194352449015156</v>
       </c>
       <c r="AR45" s="1">
         <f t="shared" si="55"/>
-        <v>0.38022813688212925</v>
+        <v>0</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="56"/>
@@ -8892,38 +8892,38 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>30.95</v>
+        <v>31.55</v>
       </c>
       <c r="C46">
-        <v>31.85</v>
+        <v>31.7</v>
       </c>
       <c r="D46">
-        <v>30.85</v>
+        <v>30.35</v>
       </c>
       <c r="E46">
-        <v>31.3</v>
+        <v>30.7</v>
       </c>
       <c r="F46">
-        <v>0.80000000000000071</v>
+        <v>-0.80000000000000071</v>
       </c>
       <c r="G46">
-        <v>2.6229508196721341</v>
+        <v>-2.5396825396825422</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="31"/>
-        <v>1.1308562197092131</v>
+        <v>-2.6941362916006386</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="32"/>
-        <v>1.1308562197092131</v>
+        <v>2.6941362916006386</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="33"/>
-        <v>1.7571884984025583</v>
+        <v>0.47543581616481323</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="34"/>
-        <v>0.32310177705976695</v>
+        <v>1.1400651465797975</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8954,38 +8954,38 @@
         <v>NO</v>
       </c>
       <c r="S46">
-        <v>31.15</v>
+        <v>31.5</v>
       </c>
       <c r="T46">
-        <v>31.2</v>
+        <v>31.85</v>
       </c>
       <c r="U46">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="V46">
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="W46">
-        <v>-0.30000000000000071</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="X46">
-        <v>-0.97402597402597624</v>
+        <v>0.63897763578274536</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" si="42"/>
-        <v>-2.0866773675762396</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" si="43"/>
-        <v>2.0866773675762396</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="1">
         <f t="shared" si="44"/>
-        <v>0.16051364365971338</v>
+        <v>1.1111111111111156</v>
       </c>
       <c r="AB46" s="1">
         <f t="shared" si="45"/>
-        <v>0.65573770491803041</v>
+        <v>3.4920634920634965</v>
       </c>
       <c r="AC46" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9012,38 +9012,38 @@
         <v>NO</v>
       </c>
       <c r="AI46">
-        <v>30</v>
+        <v>30.95</v>
       </c>
       <c r="AJ46">
-        <v>31.4</v>
+        <v>31.85</v>
       </c>
       <c r="AK46">
-        <v>30</v>
+        <v>30.85</v>
       </c>
       <c r="AL46">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="AM46">
-        <v>1.25</v>
+        <v>0.80000000000000071</v>
       </c>
       <c r="AN46">
-        <v>4.230118443316413</v>
+        <v>2.6229508196721341</v>
       </c>
       <c r="AO46" s="1">
         <f t="shared" si="52"/>
-        <v>2.6666666666666687</v>
+        <v>1.1308562197092131</v>
       </c>
       <c r="AP46" s="1">
         <f t="shared" si="53"/>
-        <v>2.6666666666666687</v>
+        <v>1.1308562197092131</v>
       </c>
       <c r="AQ46" s="1">
         <f t="shared" si="54"/>
-        <v>1.9480519480519412</v>
+        <v>1.7571884984025583</v>
       </c>
       <c r="AR46" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.32310177705976695</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="56"/>
@@ -9075,38 +9075,38 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>1305.2</v>
+        <v>1290</v>
       </c>
       <c r="C47">
-        <v>1331</v>
+        <v>1298.6500000000001</v>
       </c>
       <c r="D47">
-        <v>1272.25</v>
+        <v>1266</v>
       </c>
       <c r="E47">
-        <v>1302.0999999999999</v>
+        <v>1268.6500000000001</v>
       </c>
       <c r="F47">
-        <v>12.14999999999986</v>
+        <v>-17.39999999999986</v>
       </c>
       <c r="G47">
-        <v>0.94189697275087125</v>
+        <v>-1.352980055207796</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="31"/>
-        <v>-0.2375114924915826</v>
+        <v>-1.6550387596899154</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="32"/>
-        <v>0.2375114924915826</v>
+        <v>1.6550387596899154</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="33"/>
-        <v>1.9767085504137261</v>
+        <v>0.6705426356589218</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="34"/>
-        <v>2.2924506566315883</v>
+        <v>0.20888345879478901</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="P47" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q47" s="1" t="str">
         <f t="shared" si="40"/>
@@ -9137,38 +9137,38 @@
         <v>NO</v>
       </c>
       <c r="S47">
-        <v>1273.7</v>
+        <v>1327.6</v>
       </c>
       <c r="T47">
-        <v>1300</v>
+        <v>1328.15</v>
       </c>
       <c r="U47">
-        <v>1261</v>
+        <v>1272.3499999999999</v>
       </c>
       <c r="V47">
-        <v>1289.95</v>
+        <v>1286.05</v>
       </c>
       <c r="W47">
-        <v>28.10000000000014</v>
+        <v>-16.049999999999951</v>
       </c>
       <c r="X47">
-        <v>2.2268890914134118</v>
+        <v>-1.23262422240995</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" si="42"/>
-        <v>1.27581063044673</v>
+        <v>-3.1297077432961702</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" si="43"/>
-        <v>1.27581063044673</v>
+        <v>3.1297077432961702</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="44"/>
-        <v>0.77909996511492341</v>
+        <v>4.1428141006340916E-2</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" si="45"/>
-        <v>0.99709507733375569</v>
+        <v>1.0652773997900584</v>
       </c>
       <c r="AC47" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9195,38 +9195,38 @@
         <v>NO</v>
       </c>
       <c r="AI47">
-        <v>1229</v>
+        <v>1305.2</v>
       </c>
       <c r="AJ47">
-        <v>1274.8</v>
+        <v>1331</v>
       </c>
       <c r="AK47">
-        <v>1222.8</v>
+        <v>1272.25</v>
       </c>
       <c r="AL47">
-        <v>1261.8499999999999</v>
+        <v>1302.0999999999999</v>
       </c>
       <c r="AM47">
-        <v>40.25</v>
+        <v>12.14999999999986</v>
       </c>
       <c r="AN47">
-        <v>3.2948592010478062</v>
+        <v>0.94189697275087125</v>
       </c>
       <c r="AO47" s="1">
         <f t="shared" si="52"/>
-        <v>2.6729048006509286</v>
+        <v>-0.2375114924915826</v>
       </c>
       <c r="AP47" s="1">
         <f t="shared" si="53"/>
-        <v>2.6729048006509286</v>
+        <v>0.2375114924915826</v>
       </c>
       <c r="AQ47" s="1">
         <f t="shared" si="54"/>
-        <v>1.0262709513809127</v>
+        <v>1.9767085504137261</v>
       </c>
       <c r="AR47" s="1">
         <f t="shared" si="55"/>
-        <v>0.50447518307567496</v>
+        <v>2.2924506566315883</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="56"/>
@@ -9258,38 +9258,38 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>34.4</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C48">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="D48">
-        <v>34.299999999999997</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E48">
-        <v>34.700000000000003</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="F48">
-        <v>0.40000000000000568</v>
+        <v>-0.25</v>
       </c>
       <c r="G48">
-        <v>1.166180758017509</v>
+        <v>-0.73099415204678353</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="31"/>
-        <v>0.87209302325582638</v>
+        <v>-0.73099415204678353</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="32"/>
-        <v>0.87209302325582638</v>
+        <v>0.73099415204678353</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="33"/>
-        <v>0.8645533141210292</v>
+        <v>0.87719298245613198</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="34"/>
-        <v>0.29069767441860883</v>
+        <v>0.44182621502210806</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9320,38 +9320,38 @@
         <v>NO</v>
       </c>
       <c r="S48">
-        <v>34.35</v>
+        <v>35.15</v>
       </c>
       <c r="T48">
-        <v>34.6</v>
+        <v>35.15</v>
       </c>
       <c r="U48">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="V48">
-        <v>34.299999999999997</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="W48">
-        <v>-5.0000000000004263E-2</v>
+        <v>-0.5</v>
       </c>
       <c r="X48">
-        <v>-0.14556040756915359</v>
+        <v>-1.4409221902017291</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="42"/>
-        <v>-0.14556040756915362</v>
+        <v>-2.7027027027026906</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="43"/>
-        <v>0.14556040756915362</v>
+        <v>2.7027027027026906</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="44"/>
-        <v>0.72780203784570596</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="45"/>
-        <v>1.1661807580174888</v>
+        <v>0.58479532163743519</v>
       </c>
       <c r="AC48" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9378,38 +9378,38 @@
         <v>NO</v>
       </c>
       <c r="AI48">
-        <v>34.65</v>
+        <v>34.4</v>
       </c>
       <c r="AJ48">
-        <v>35.200000000000003</v>
+        <v>35</v>
       </c>
       <c r="AK48">
-        <v>34.1</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="AL48">
-        <v>34.35</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AM48">
-        <v>-0.29999999999999721</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="AN48">
-        <v>-0.86580086580085769</v>
+        <v>1.166180758017509</v>
       </c>
       <c r="AO48" s="1">
         <f t="shared" si="52"/>
-        <v>-0.86580086580085769</v>
+        <v>0.87209302325582638</v>
       </c>
       <c r="AP48" s="1">
         <f t="shared" si="53"/>
-        <v>0.86580086580085769</v>
+        <v>0.87209302325582638</v>
       </c>
       <c r="AQ48" s="1">
         <f t="shared" si="54"/>
-        <v>1.5873015873015996</v>
+        <v>0.8645533141210292</v>
       </c>
       <c r="AR48" s="1">
         <f t="shared" si="55"/>
-        <v>0.72780203784570596</v>
+        <v>0.29069767441860883</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="56"/>
@@ -9441,38 +9441,38 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>287.8</v>
+        <v>314.95</v>
       </c>
       <c r="C49">
-        <v>331</v>
+        <v>328.5</v>
       </c>
       <c r="D49">
-        <v>286.3</v>
+        <v>311.05</v>
       </c>
       <c r="E49">
-        <v>323.14999999999998</v>
+        <v>325.75</v>
       </c>
       <c r="F49">
-        <v>40.25</v>
+        <v>12.100000000000019</v>
       </c>
       <c r="G49">
-        <v>14.22764227642277</v>
+        <v>3.857803283915199</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="31"/>
-        <v>12.282835302293247</v>
+        <v>3.4291157326559811</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="32"/>
-        <v>12.282835302293247</v>
+        <v>3.4291157326559811</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="33"/>
-        <v>2.4292124400433308</v>
+        <v>0.84420567920184197</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="34"/>
-        <v>0.52119527449617786</v>
+        <v>1.2382917923479846</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9503,38 +9503,38 @@
         <v>NO</v>
       </c>
       <c r="S49">
-        <v>283.89999999999998</v>
+        <v>323</v>
       </c>
       <c r="T49">
-        <v>284.5</v>
+        <v>323</v>
       </c>
       <c r="U49">
-        <v>279.10000000000002</v>
+        <v>310</v>
       </c>
       <c r="V49">
-        <v>282.89999999999998</v>
+        <v>313.64999999999998</v>
       </c>
       <c r="W49">
-        <v>0.44999999999998858</v>
+        <v>-9.5</v>
       </c>
       <c r="X49">
-        <v>0.15932023366967199</v>
+        <v>-2.9398112331734492</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" si="42"/>
-        <v>-0.35223670306445937</v>
+        <v>-2.8947368421052699</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" si="43"/>
-        <v>0.35223670306445937</v>
+        <v>2.8947368421052699</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="44"/>
-        <v>0.21134202183868364</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="1">
         <f t="shared" si="45"/>
-        <v>1.3432308236125681</v>
+        <v>1.1637175195281293</v>
       </c>
       <c r="AC49" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9561,38 +9561,38 @@
         <v>NO</v>
       </c>
       <c r="AI49">
-        <v>279.8</v>
+        <v>287.8</v>
       </c>
       <c r="AJ49">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="AK49">
-        <v>273.35000000000002</v>
+        <v>286.3</v>
       </c>
       <c r="AL49">
-        <v>282.45</v>
+        <v>323.14999999999998</v>
       </c>
       <c r="AM49">
-        <v>9.25</v>
+        <v>40.25</v>
       </c>
       <c r="AN49">
-        <v>3.38579795021962</v>
+        <v>14.22764227642277</v>
       </c>
       <c r="AO49" s="1">
         <f t="shared" si="52"/>
-        <v>0.94710507505360153</v>
+        <v>12.282835302293247</v>
       </c>
       <c r="AP49" s="1">
         <f t="shared" si="53"/>
-        <v>0.94710507505360153</v>
+        <v>12.282835302293247</v>
       </c>
       <c r="AQ49" s="1">
         <f t="shared" si="54"/>
-        <v>2.6730394760134577</v>
+        <v>2.4292124400433308</v>
       </c>
       <c r="AR49" s="1">
         <f t="shared" si="55"/>
-        <v>2.3052180128663289</v>
+        <v>0.52119527449617786</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="56"/>
@@ -9624,38 +9624,38 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>27.45</v>
+        <v>26.8</v>
       </c>
       <c r="C50">
-        <v>27.45</v>
+        <v>27.05</v>
       </c>
       <c r="D50">
-        <v>26.55</v>
+        <v>26.1</v>
       </c>
       <c r="E50">
-        <v>26.7</v>
+        <v>26.25</v>
       </c>
       <c r="F50">
-        <v>-0.30000000000000071</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="G50">
-        <v>-1.111111111111114</v>
+        <v>-0.75614366729678373</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="31"/>
-        <v>-2.7322404371584699</v>
+        <v>-2.0522388059701515</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="32"/>
-        <v>2.7322404371584699</v>
+        <v>2.0522388059701515</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.93283582089552231</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="34"/>
-        <v>0.56179775280898347</v>
+        <v>0.57142857142856607</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9686,38 +9686,38 @@
         <v>NO</v>
       </c>
       <c r="S50">
-        <v>27.3</v>
+        <v>26.75</v>
       </c>
       <c r="T50">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="U50">
-        <v>26.55</v>
+        <v>26.25</v>
       </c>
       <c r="V50">
-        <v>27</v>
+        <v>26.45</v>
       </c>
       <c r="W50">
-        <v>-0.60000000000000142</v>
+        <v>-0.25</v>
       </c>
       <c r="X50">
-        <v>-2.1739130434782661</v>
+        <v>-0.93632958801498134</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" si="42"/>
-        <v>-1.0989010989011014</v>
+        <v>-1.1214953271028065</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" si="43"/>
-        <v>1.0989010989011014</v>
+        <v>1.1214953271028065</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" si="44"/>
-        <v>1.46520146520146</v>
+        <v>1.3084112149532763</v>
       </c>
       <c r="AB50" s="1">
         <f t="shared" si="45"/>
-        <v>1.6666666666666639</v>
+        <v>0.75614366729678373</v>
       </c>
       <c r="AC50" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9744,38 +9744,38 @@
         <v>NO</v>
       </c>
       <c r="AI50">
-        <v>27.55</v>
+        <v>27.45</v>
       </c>
       <c r="AJ50">
-        <v>27.95</v>
+        <v>27.45</v>
       </c>
       <c r="AK50">
-        <v>27.5</v>
+        <v>26.55</v>
       </c>
       <c r="AL50">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="AM50">
-        <v>0.20000000000000279</v>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="AN50">
-        <v>0.72992700729928051</v>
+        <v>-1.111111111111114</v>
       </c>
       <c r="AO50" s="1">
         <f t="shared" si="52"/>
-        <v>0.18148820326679024</v>
+        <v>-2.7322404371584699</v>
       </c>
       <c r="AP50" s="1">
         <f t="shared" si="53"/>
-        <v>0.18148820326679024</v>
+        <v>2.7322404371584699</v>
       </c>
       <c r="AQ50" s="1">
         <f t="shared" si="54"/>
-        <v>1.2681159420289778</v>
+        <v>0</v>
       </c>
       <c r="AR50" s="1">
         <f t="shared" si="55"/>
-        <v>0.18148820326679024</v>
+        <v>0.56179775280898347</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="56"/>
@@ -9807,38 +9807,38 @@
         <v>99</v>
       </c>
       <c r="B51">
-        <v>292.64999999999998</v>
+        <v>298.45</v>
       </c>
       <c r="C51">
-        <v>296.35000000000002</v>
+        <v>304.5</v>
       </c>
       <c r="D51">
-        <v>289.25</v>
+        <v>297</v>
       </c>
       <c r="E51">
-        <v>291.25</v>
+        <v>299.05</v>
       </c>
       <c r="F51">
-        <v>0.1000000000000227</v>
+        <v>2.1000000000000232</v>
       </c>
       <c r="G51">
-        <v>3.4346556757692853E-2</v>
+        <v>0.70718976258630162</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="31"/>
-        <v>-0.47838715188791303</v>
+        <v>0.20103869994974793</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="32"/>
-        <v>0.47838715188791303</v>
+        <v>0.20103869994974793</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="33"/>
-        <v>1.2643089014180919</v>
+        <v>1.8224377194449051</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="34"/>
-        <v>0.68669527896995708</v>
+        <v>0.48584352487853527</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9869,38 +9869,38 @@
         <v>NO</v>
       </c>
       <c r="S51">
-        <v>289</v>
+        <v>292.75</v>
       </c>
       <c r="T51">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="U51">
-        <v>286.60000000000002</v>
+        <v>291.25</v>
       </c>
       <c r="V51">
-        <v>291.14999999999998</v>
+        <v>296.95</v>
       </c>
       <c r="W51">
-        <v>3.25</v>
+        <v>5.6999999999999886</v>
       </c>
       <c r="X51">
-        <v>1.1288641889544979</v>
+        <v>1.9570815450643739</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" si="42"/>
-        <v>0.74394463667819288</v>
+        <v>1.434671221178476</v>
       </c>
       <c r="Z51" s="1">
         <f t="shared" si="43"/>
-        <v>0.74394463667819288</v>
+        <v>1.434671221178476</v>
       </c>
       <c r="AA51" s="1">
         <f t="shared" si="44"/>
-        <v>1.3223424351708821</v>
+        <v>2.374137060111134</v>
       </c>
       <c r="AB51" s="1">
         <f t="shared" si="45"/>
-        <v>0.83044982698961145</v>
+        <v>0.51238257899231432</v>
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9927,38 +9927,38 @@
         <v>NO</v>
       </c>
       <c r="AI51">
-        <v>282.7</v>
+        <v>292.64999999999998</v>
       </c>
       <c r="AJ51">
-        <v>289.89999999999998</v>
+        <v>296.35000000000002</v>
       </c>
       <c r="AK51">
-        <v>282.10000000000002</v>
+        <v>289.25</v>
       </c>
       <c r="AL51">
-        <v>287.89999999999998</v>
+        <v>291.25</v>
       </c>
       <c r="AM51">
-        <v>6.6499999999999773</v>
+        <v>0.1000000000000227</v>
       </c>
       <c r="AN51">
-        <v>2.364444444444437</v>
+        <v>3.4346556757692853E-2</v>
       </c>
       <c r="AO51" s="1">
         <f t="shared" si="52"/>
-        <v>1.8394057304563103</v>
+        <v>-0.47838715188791303</v>
       </c>
       <c r="AP51" s="1">
         <f t="shared" si="53"/>
-        <v>1.8394057304563103</v>
+        <v>0.47838715188791303</v>
       </c>
       <c r="AQ51" s="1">
         <f t="shared" si="54"/>
-        <v>0.69468565474122967</v>
+        <v>1.2643089014180919</v>
       </c>
       <c r="AR51" s="1">
         <f t="shared" si="55"/>
-        <v>0.21223912274494727</v>
+        <v>0.68669527896995708</v>
       </c>
       <c r="AS51" t="str">
         <f t="shared" si="56"/>

--- a/techniqo/candlepattern/smallcap_50.xlsx
+++ b/techniqo/candlepattern/smallcap_50.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,38 +840,38 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>549</v>
+        <v>528.70000000000005</v>
       </c>
       <c r="C2">
-        <v>549.45000000000005</v>
+        <v>532.45000000000005</v>
       </c>
       <c r="D2">
-        <v>525</v>
+        <v>516.04999999999995</v>
       </c>
       <c r="E2">
-        <v>526.79999999999995</v>
+        <v>520.20000000000005</v>
       </c>
       <c r="F2">
-        <v>-19.900000000000091</v>
+        <v>-6</v>
       </c>
       <c r="G2">
-        <v>-3.6400219498811208</v>
+        <v>-1.140250855188141</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H33" si="0">(E2-B2)/B2*100</f>
-        <v>-4.0437158469945436</v>
+        <v>-1.607717041800643</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I33" si="1">ABS(H2)</f>
-        <v>4.0437158469945436</v>
+        <v>1.607717041800643</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J33" si="2">IF(H2&gt;=0,(C2-E2)/E2*100,(C2-B2)/B2*100)</f>
-        <v>8.1967213114762377E-2</v>
+        <v>0.70928693020616607</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K33" si="3">IF(H2&gt;=0,(B2-D2)/B2*100,(E2-D2)/E2*100)</f>
-        <v>0.34168564920272493</v>
+        <v>0.79777008842754527</v>
       </c>
       <c r="L2" s="1" t="str">
         <f t="shared" ref="L2:L33" si="4">IF(AND((K2-J2)&gt;1.5,I2&lt;0.5),"YES","NO")</f>
@@ -902,38 +902,38 @@
         <v>NO</v>
       </c>
       <c r="S2">
-        <v>540.95000000000005</v>
+        <v>524.9</v>
       </c>
       <c r="T2">
-        <v>561.9</v>
+        <v>534</v>
       </c>
       <c r="U2">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="V2">
-        <v>546.70000000000005</v>
+        <v>526.20000000000005</v>
       </c>
       <c r="W2">
-        <v>11.350000000000019</v>
+        <v>-0.59999999999990905</v>
       </c>
       <c r="X2">
-        <v>2.1201083403381009</v>
+        <v>-0.11389521640089389</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ref="Y2:Y33" si="11">(V2-S2)/S2*100</f>
-        <v>1.0629448192993807</v>
+        <v>0.24766622213756301</v>
       </c>
       <c r="Z2" s="1">
         <f t="shared" ref="Z2:Z33" si="12">ABS(Y2)</f>
-        <v>1.0629448192993807</v>
+        <v>0.24766622213756301</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA33" si="13">IF(Y2&gt;=0,(T2-V2)/V2*100,(T2-S2)/S2*100)</f>
-        <v>2.780318273276007</v>
+        <v>1.482326111744575</v>
       </c>
       <c r="AB2" s="1">
         <f t="shared" ref="AB2:AB33" si="14">IF(Y2&gt;=0,(S2-U2)/S2*100,(V2-U2)/V2*100)</f>
-        <v>0.73019687586653947</v>
+        <v>0.93351114497999199</v>
       </c>
       <c r="AC2" s="1" t="str">
         <f t="shared" ref="AC2:AC33" si="15">IF(AND(I2&lt;Z2/2,S2&gt;E2,E2&gt;(S2+V2)/2,V2&lt;B2,B2&lt;(S2+V2)/2),"YES","NO")</f>
@@ -960,38 +960,38 @@
         <v>NO</v>
       </c>
       <c r="AI2">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="AJ2">
-        <v>544.5</v>
+        <v>549.45000000000005</v>
       </c>
       <c r="AK2">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="AL2">
-        <v>535.35</v>
+        <v>526.79999999999995</v>
       </c>
       <c r="AM2">
-        <v>63.450000000000053</v>
+        <v>-19.900000000000091</v>
       </c>
       <c r="AN2">
-        <v>13.445645263827091</v>
+        <v>-3.6400219498811208</v>
       </c>
       <c r="AO2" s="1">
         <f t="shared" ref="AO2:AO33" si="21">(AL2-AI2)/AI2*100</f>
-        <v>10.381443298969078</v>
+        <v>-4.0437158469945436</v>
       </c>
       <c r="AP2" s="1">
         <f t="shared" ref="AP2:AP33" si="22">ABS(AO2)</f>
-        <v>10.381443298969078</v>
+        <v>4.0437158469945436</v>
       </c>
       <c r="AQ2" s="1">
         <f t="shared" ref="AQ2:AQ33" si="23">IF(AO2&gt;=0,(AJ2-AL2)/AL2*100,(AJ2-AI2)/AI2*100)</f>
-        <v>1.7091622303166112</v>
+        <v>8.1967213114762377E-2</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" ref="AR2:AR33" si="24">IF(AO2&gt;=0,(AI2-AK2)/AI2*100,(AL2-AK2)/AL2*100)</f>
-        <v>0</v>
+        <v>0.34168564920272493</v>
       </c>
       <c r="AS2" t="str">
         <f t="shared" ref="AS2:AS33" si="25">IF(AND(AO2&lt;0,AP2&gt;1.5,Y2&lt;0,Z2&gt;1.5,AL2&gt;S2,AL2&lt;E2,H2&gt;0,I2&gt;1.5),"YES","NO")</f>
@@ -1023,38 +1023,38 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>501.95</v>
+        <v>508.95</v>
       </c>
       <c r="C3">
-        <v>514.4</v>
+        <v>514.70000000000005</v>
       </c>
       <c r="D3">
-        <v>491.2</v>
+        <v>488.25</v>
       </c>
       <c r="E3">
-        <v>510.9</v>
+        <v>493.9</v>
       </c>
       <c r="F3">
-        <v>15.849999999999969</v>
+        <v>-13.150000000000031</v>
       </c>
       <c r="G3">
-        <v>3.2016967983031952</v>
+        <v>-2.5934326003352788</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>1.7830461201314849</v>
+        <v>-2.9570684743098559</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>1.7830461201314849</v>
+        <v>2.9570684743098559</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>0.68506557056175377</v>
+        <v>1.1297769918459686</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="3"/>
-        <v>2.1416475744596077</v>
+        <v>1.1439562664506939</v>
       </c>
       <c r="L3" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1085,38 +1085,38 @@
         <v>NO</v>
       </c>
       <c r="S3">
-        <v>500</v>
+        <v>508.9</v>
       </c>
       <c r="T3">
-        <v>506.7</v>
+        <v>520.4</v>
       </c>
       <c r="U3">
-        <v>490.9</v>
+        <v>498</v>
       </c>
       <c r="V3">
-        <v>495.05</v>
+        <v>507.05</v>
       </c>
       <c r="W3">
-        <v>-4.6999999999999886</v>
+        <v>-3.8499999999999659</v>
       </c>
       <c r="X3">
-        <v>-0.94047023511755656</v>
+        <v>-0.75357212761792247</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="11"/>
-        <v>-0.98999999999999766</v>
+        <v>-0.36352918058557004</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="12"/>
-        <v>0.98999999999999766</v>
+        <v>0.36352918058557004</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="13"/>
-        <v>1.3399999999999979</v>
+        <v>2.2597759874238554</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="14"/>
-        <v>0.83829916170084529</v>
+        <v>1.7848338428162924</v>
       </c>
       <c r="AC3" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1143,38 +1143,38 @@
         <v>NO</v>
       </c>
       <c r="AI3">
-        <v>462.9</v>
+        <v>501.95</v>
       </c>
       <c r="AJ3">
-        <v>503.4</v>
+        <v>514.4</v>
       </c>
       <c r="AK3">
-        <v>462.5</v>
+        <v>491.2</v>
       </c>
       <c r="AL3">
-        <v>499.75</v>
+        <v>510.9</v>
       </c>
       <c r="AM3">
-        <v>39.050000000000011</v>
+        <v>15.849999999999969</v>
       </c>
       <c r="AN3">
-        <v>8.4762318211417433</v>
+        <v>3.2016967983031952</v>
       </c>
       <c r="AO3" s="1">
         <f t="shared" si="21"/>
-        <v>7.9606826528407924</v>
+        <v>1.7830461201314849</v>
       </c>
       <c r="AP3" s="1">
         <f t="shared" si="22"/>
-        <v>7.9606826528407924</v>
+        <v>1.7830461201314849</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" si="23"/>
-        <v>0.73036518259129113</v>
+        <v>0.68506557056175377</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="24"/>
-        <v>8.6411751998266853E-2</v>
+        <v>2.1416475744596077</v>
       </c>
       <c r="AS3" t="str">
         <f t="shared" si="25"/>
@@ -1206,38 +1206,38 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>430</v>
+        <v>438.6</v>
       </c>
       <c r="C4">
-        <v>459.5</v>
+        <v>440.95</v>
       </c>
       <c r="D4">
-        <v>425.3</v>
+        <v>416</v>
       </c>
       <c r="E4">
-        <v>450.55</v>
+        <v>420.5</v>
       </c>
       <c r="F4">
-        <v>16.25</v>
+        <v>-14.350000000000019</v>
       </c>
       <c r="G4">
-        <v>3.741653235090951</v>
+        <v>-3.299988501782229</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>4.7790697674418636</v>
+        <v>-4.1267669858641183</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>4.7790697674418636</v>
+        <v>4.1267669858641183</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
-        <v>1.9864609921207386</v>
+        <v>0.53579571363428313</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="3"/>
-        <v>1.0930232558139508</v>
+        <v>1.070154577883472</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1268,38 +1268,38 @@
         <v>NO</v>
       </c>
       <c r="S4">
-        <v>428.95</v>
+        <v>448</v>
       </c>
       <c r="T4">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="U4">
-        <v>417.75</v>
+        <v>430.3</v>
       </c>
       <c r="V4">
-        <v>434.3</v>
+        <v>434.85</v>
       </c>
       <c r="W4">
-        <v>8.5500000000000114</v>
+        <v>-15.69999999999999</v>
       </c>
       <c r="X4">
-        <v>2.0082207868467439</v>
+        <v>-3.4846298967928062</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="11"/>
-        <v>1.2472316120760047</v>
+        <v>-2.9352678571428519</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" si="12"/>
-        <v>1.2472316120760047</v>
+        <v>2.9352678571428519</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="13"/>
-        <v>1.0822012433801493</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="14"/>
-        <v>2.6110269262151742</v>
+        <v>1.0463378176382687</v>
       </c>
       <c r="AC4" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1326,38 +1326,38 @@
         <v>NO</v>
       </c>
       <c r="AI4">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="AJ4">
-        <v>439.6</v>
+        <v>459.5</v>
       </c>
       <c r="AK4">
-        <v>400.8</v>
+        <v>425.3</v>
       </c>
       <c r="AL4">
-        <v>425.75</v>
+        <v>450.55</v>
       </c>
       <c r="AM4">
-        <v>34.300000000000011</v>
+        <v>16.25</v>
       </c>
       <c r="AN4">
-        <v>8.7622940349980869</v>
+        <v>3.741653235090951</v>
       </c>
       <c r="AO4" s="1">
         <f t="shared" si="21"/>
-        <v>5.9079601990049753</v>
+        <v>4.7790697674418636</v>
       </c>
       <c r="AP4" s="1">
         <f t="shared" si="22"/>
-        <v>5.9079601990049753</v>
+        <v>4.7790697674418636</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" si="23"/>
-        <v>3.2530827950675336</v>
+        <v>1.9864609921207386</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" si="24"/>
-        <v>0.29850746268656436</v>
+        <v>1.0930232558139508</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="25"/>
@@ -1389,38 +1389,38 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="C5">
-        <v>983.5</v>
+        <v>970</v>
       </c>
       <c r="D5">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="E5">
-        <v>967.6</v>
+        <v>959.4</v>
       </c>
       <c r="F5">
-        <v>27</v>
+        <v>8.8500000000000227</v>
       </c>
       <c r="G5">
-        <v>2.870508186264086</v>
+        <v>0.93103992425438153</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>1.8526315789473706</v>
+        <v>-6.2500000000002359E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>1.8526315789473706</v>
+        <v>6.2500000000002359E-2</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>1.6432410086812708</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>0.63157894736842102</v>
+        <v>0.66708359391285987</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1451,38 +1451,38 @@
         <v>NO</v>
       </c>
       <c r="S5">
-        <v>930</v>
+        <v>963</v>
       </c>
       <c r="T5">
-        <v>968.25</v>
+        <v>968</v>
       </c>
       <c r="U5">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="V5">
-        <v>940.6</v>
+        <v>950.55</v>
       </c>
       <c r="W5">
-        <v>12.950000000000051</v>
+        <v>-17.050000000000072</v>
       </c>
       <c r="X5">
-        <v>1.3960006467956709</v>
+        <v>-1.762091773460114</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="11"/>
-        <v>1.1397849462365617</v>
+        <v>-1.2928348909657368</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="12"/>
-        <v>1.1397849462365617</v>
+        <v>1.2928348909657368</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="13"/>
-        <v>2.9396130129704421</v>
+        <v>0.51921079958463134</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.58387249487138548</v>
       </c>
       <c r="AC5" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1509,38 +1509,38 @@
         <v>NO</v>
       </c>
       <c r="AI5">
-        <v>899</v>
+        <v>950</v>
       </c>
       <c r="AJ5">
-        <v>949.9</v>
+        <v>983.5</v>
       </c>
       <c r="AK5">
-        <v>897</v>
+        <v>944</v>
       </c>
       <c r="AL5">
-        <v>927.65</v>
+        <v>967.6</v>
       </c>
       <c r="AM5">
-        <v>33.699999999999932</v>
+        <v>27</v>
       </c>
       <c r="AN5">
-        <v>3.7697857822025762</v>
+        <v>2.870508186264086</v>
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="21"/>
-        <v>3.1868743047830899</v>
+        <v>1.8526315789473706</v>
       </c>
       <c r="AP5" s="1">
         <f t="shared" si="22"/>
-        <v>3.1868743047830899</v>
+        <v>1.8526315789473706</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="23"/>
-        <v>2.39853392982267</v>
+        <v>1.6432410086812708</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="24"/>
-        <v>0.22246941045606228</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="25"/>
@@ -1572,38 +1572,38 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>184.35</v>
+        <v>184.2</v>
       </c>
       <c r="C6">
-        <v>185</v>
+        <v>186.75</v>
       </c>
       <c r="D6">
-        <v>177.45</v>
+        <v>180.05</v>
       </c>
       <c r="E6">
-        <v>181.55</v>
+        <v>183.6</v>
       </c>
       <c r="F6">
-        <v>-2.0499999999999829</v>
+        <v>-0.59999999999999432</v>
       </c>
       <c r="G6">
-        <v>-1.1165577342047841</v>
+        <v>-0.32573289902279817</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>-1.5188500135611516</v>
+        <v>-0.32573289902279823</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>1.5188500135611516</v>
+        <v>0.32573289902279823</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>0.3525901817195583</v>
+        <v>1.3843648208469119</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>2.2583310382814776</v>
+        <v>1.9335511982570714</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1634,38 +1634,38 @@
         <v>NO</v>
       </c>
       <c r="S6">
-        <v>181.75</v>
+        <v>180</v>
       </c>
       <c r="T6">
-        <v>191.95</v>
+        <v>185.6</v>
       </c>
       <c r="U6">
-        <v>176.6</v>
+        <v>178.3</v>
       </c>
       <c r="V6">
-        <v>183.6</v>
+        <v>184.2</v>
       </c>
       <c r="W6">
-        <v>2.9000000000000061</v>
+        <v>2.6499999999999768</v>
       </c>
       <c r="X6">
-        <v>1.6048699501936941</v>
+        <v>1.45965298815752</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="11"/>
-        <v>1.0178817056396117</v>
+        <v>2.3333333333333268</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="12"/>
-        <v>1.0178817056396117</v>
+        <v>2.3333333333333268</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="13"/>
-        <v>4.5479302832243977</v>
+        <v>0.76004343105320615</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="14"/>
-        <v>2.8335625859697418</v>
+        <v>0.9444444444444382</v>
       </c>
       <c r="AC6" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1692,38 +1692,38 @@
         <v>NO</v>
       </c>
       <c r="AI6">
-        <v>167</v>
+        <v>184.35</v>
       </c>
       <c r="AJ6">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK6">
-        <v>164.55</v>
+        <v>177.45</v>
       </c>
       <c r="AL6">
-        <v>180.7</v>
+        <v>181.55</v>
       </c>
       <c r="AM6">
-        <v>19.649999999999981</v>
+        <v>-2.0499999999999829</v>
       </c>
       <c r="AN6">
-        <v>12.201179757839171</v>
+        <v>-1.1165577342047841</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="21"/>
-        <v>8.20359281437125</v>
+        <v>-1.5188500135611516</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="22"/>
-        <v>8.20359281437125</v>
+        <v>1.5188500135611516</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="23"/>
-        <v>2.9330381848367524</v>
+        <v>0.3525901817195583</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="24"/>
-        <v>1.4670658682634663</v>
+        <v>2.2583310382814776</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="25"/>
@@ -1755,38 +1755,38 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>367</v>
+        <v>364.65</v>
       </c>
       <c r="C7">
-        <v>376.65</v>
+        <v>376</v>
       </c>
       <c r="D7">
-        <v>360.2</v>
+        <v>364.1</v>
       </c>
       <c r="E7">
-        <v>370.5</v>
+        <v>369.95</v>
       </c>
       <c r="F7">
-        <v>7.1999999999999886</v>
+        <v>6.8499999999999659</v>
       </c>
       <c r="G7">
-        <v>1.9818331957060249</v>
+        <v>1.886532635637556</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>0.9536784741144414</v>
+        <v>1.4534485122720449</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>0.9536784741144414</v>
+        <v>1.4534485122720449</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>1.6599190283400747</v>
+        <v>1.6353561292066527</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>1.8528610354223465</v>
+        <v>0.15082956259425601</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q7" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1817,42 +1817,42 @@
         <v>NO</v>
       </c>
       <c r="S7">
-        <v>374.35</v>
+        <v>365.1</v>
       </c>
       <c r="T7">
-        <v>376.95</v>
+        <v>369.8</v>
       </c>
       <c r="U7">
-        <v>359.1</v>
+        <v>361.1</v>
       </c>
       <c r="V7">
-        <v>363.3</v>
+        <v>363.1</v>
       </c>
       <c r="W7">
-        <v>-12.69999999999999</v>
+        <v>-7.3999999999999773</v>
       </c>
       <c r="X7">
-        <v>-3.377659574468082</v>
+        <v>-1.997300944669359</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="11"/>
-        <v>-2.9517830906905331</v>
+        <v>-0.54779512462339086</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="12"/>
-        <v>2.9517830906905331</v>
+        <v>0.54779512462339086</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="13"/>
-        <v>0.69453719780952738</v>
+        <v>1.2873185428649654</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="14"/>
-        <v>1.1560693641618465</v>
+        <v>0.55081244836133292</v>
       </c>
       <c r="AC7" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AD7" s="1" t="str">
         <f t="shared" si="16"/>
@@ -1875,38 +1875,38 @@
         <v>NO</v>
       </c>
       <c r="AI7">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="AJ7">
-        <v>380.9</v>
+        <v>376.65</v>
       </c>
       <c r="AK7">
-        <v>340.35</v>
+        <v>360.2</v>
       </c>
       <c r="AL7">
-        <v>376</v>
+        <v>370.5</v>
       </c>
       <c r="AM7">
-        <v>37.800000000000011</v>
+        <v>7.1999999999999886</v>
       </c>
       <c r="AN7">
-        <v>11.17681845062094</v>
+        <v>1.9818331957060249</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="21"/>
-        <v>9.9415204678362574</v>
+        <v>0.9536784741144414</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="22"/>
-        <v>9.9415204678362574</v>
+        <v>0.9536784741144414</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="23"/>
-        <v>1.303191489361696</v>
+        <v>1.6599190283400747</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="24"/>
-        <v>0.48245614035087053</v>
+        <v>1.8528610354223465</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="25"/>
@@ -1938,38 +1938,38 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>148.25</v>
+        <v>154</v>
       </c>
       <c r="C8">
-        <v>155.25</v>
+        <v>157.94999999999999</v>
       </c>
       <c r="D8">
-        <v>147.19999999999999</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="E8">
-        <v>153.55000000000001</v>
+        <v>156.75</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>3.5500000000000109</v>
       </c>
       <c r="G8">
-        <v>4.0664181633344629</v>
+        <v>2.31723237597912</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>3.5750421585160277</v>
+        <v>1.7857142857142856</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>3.5750421585160277</v>
+        <v>1.7857142857142856</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>1.1071312276131478</v>
+        <v>0.76555023923444254</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>0.70826306913997394</v>
+        <v>0.1298701298701225</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2000,38 +2000,38 @@
         <v>NO</v>
       </c>
       <c r="S8">
-        <v>149.4</v>
+        <v>153.75</v>
       </c>
       <c r="T8">
-        <v>150.85</v>
+        <v>154.9</v>
       </c>
       <c r="U8">
-        <v>144.75</v>
+        <v>152.25</v>
       </c>
       <c r="V8">
-        <v>147.55000000000001</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>-0.35000000000002268</v>
       </c>
       <c r="X8">
-        <v>-0.67317401548300226</v>
+        <v>-0.2279387821556644</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="11"/>
-        <v>-1.2382864792503308</v>
+        <v>-0.3577235772357798</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="12"/>
-        <v>1.2382864792503308</v>
+        <v>0.3577235772357798</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="13"/>
-        <v>0.97054886211511948</v>
+        <v>0.74796747967480048</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="14"/>
-        <v>1.8976618095560904</v>
+        <v>0.62010443864229026</v>
       </c>
       <c r="AC8" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2058,38 +2058,38 @@
         <v>NO</v>
       </c>
       <c r="AI8">
-        <v>145</v>
+        <v>148.25</v>
       </c>
       <c r="AJ8">
-        <v>149.35</v>
+        <v>155.25</v>
       </c>
       <c r="AK8">
-        <v>145</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="AL8">
-        <v>148.55000000000001</v>
+        <v>153.55000000000001</v>
       </c>
       <c r="AM8">
-        <v>5.9000000000000057</v>
+        <v>6</v>
       </c>
       <c r="AN8">
-        <v>4.1359971959341078</v>
+        <v>4.0664181633344629</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="21"/>
-        <v>2.4482758620689733</v>
+        <v>3.5750421585160277</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="22"/>
-        <v>2.4482758620689733</v>
+        <v>3.5750421585160277</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="23"/>
-        <v>0.53853921238639035</v>
+        <v>1.1071312276131478</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.70826306913997394</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="25"/>
@@ -2121,38 +2121,38 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>344.7</v>
+        <v>349.4</v>
       </c>
       <c r="C9">
-        <v>349</v>
+        <v>350.45</v>
       </c>
       <c r="D9">
-        <v>341.75</v>
+        <v>343.05</v>
       </c>
       <c r="E9">
-        <v>348.15</v>
+        <v>344.35</v>
       </c>
       <c r="F9">
-        <v>5.5</v>
+        <v>-3.1999999999999891</v>
       </c>
       <c r="G9">
-        <v>1.605136436597111</v>
+        <v>-0.92073083009638568</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>1.0008703220191439</v>
+        <v>-1.445334859759575</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>1.0008703220191439</v>
+        <v>1.445334859759575</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>0.24414763751257296</v>
+        <v>0.30051516886090768</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>0.85581665216129632</v>
+        <v>0.37752286917380901</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2183,38 +2183,38 @@
         <v>NO</v>
       </c>
       <c r="S9">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="T9">
-        <v>344.45</v>
+        <v>350</v>
       </c>
       <c r="U9">
-        <v>337.15</v>
+        <v>344.25</v>
       </c>
       <c r="V9">
-        <v>342.65</v>
+        <v>347.55</v>
       </c>
       <c r="W9">
-        <v>6.5999999999999659</v>
+        <v>-0.59999999999996589</v>
       </c>
       <c r="X9">
-        <v>1.963993453355146</v>
+        <v>-0.17233950883238999</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="11"/>
-        <v>1.0766961651917337</v>
+        <v>-0.69999999999999674</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" si="12"/>
-        <v>1.0766961651917337</v>
+        <v>0.69999999999999674</v>
       </c>
       <c r="AA9" s="1">
         <f t="shared" si="13"/>
-        <v>0.52531737924996691</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="14"/>
-        <v>0.54572271386431348</v>
+        <v>0.94950366853690449</v>
       </c>
       <c r="AC9" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2241,38 +2241,38 @@
         <v>NO</v>
       </c>
       <c r="AI9">
-        <v>332.1</v>
+        <v>344.7</v>
       </c>
       <c r="AJ9">
-        <v>339.7</v>
+        <v>349</v>
       </c>
       <c r="AK9">
-        <v>332.1</v>
+        <v>341.75</v>
       </c>
       <c r="AL9">
-        <v>336.05</v>
+        <v>348.15</v>
       </c>
       <c r="AM9">
-        <v>7.6000000000000227</v>
+        <v>5.5</v>
       </c>
       <c r="AN9">
-        <v>2.3138986147054421</v>
+        <v>1.605136436597111</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="21"/>
-        <v>1.1894007828967144</v>
+        <v>1.0008703220191439</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="22"/>
-        <v>1.1894007828967144</v>
+        <v>1.0008703220191439</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="23"/>
-        <v>1.0861478946585263</v>
+        <v>0.24414763751257296</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.85581665216129632</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="25"/>
@@ -2304,38 +2304,38 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>416</v>
+        <v>421.8</v>
       </c>
       <c r="C10">
-        <v>421</v>
+        <v>428.95</v>
       </c>
       <c r="D10">
-        <v>412.45</v>
+        <v>415</v>
       </c>
       <c r="E10">
-        <v>418.2</v>
+        <v>422.45</v>
       </c>
       <c r="F10">
-        <v>5.25</v>
+        <v>4.5500000000000114</v>
       </c>
       <c r="G10">
-        <v>1.2713403559753</v>
+        <v>1.088777219430489</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>0.52884615384615108</v>
+        <v>0.15410146989093818</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>0.52884615384615108</v>
+        <v>0.15410146989093818</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>0.66953610712577982</v>
+        <v>1.5386436264646703</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>0.85336538461538736</v>
+        <v>1.6121384542437203</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q10" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2366,38 +2366,38 @@
         <v>NO</v>
       </c>
       <c r="S10">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="T10">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="U10">
-        <v>406.55</v>
+        <v>411</v>
       </c>
       <c r="V10">
-        <v>412.95</v>
+        <v>417.9</v>
       </c>
       <c r="W10">
-        <v>9.25</v>
+        <v>-0.30000000000001142</v>
       </c>
       <c r="X10">
-        <v>2.2913054248204112</v>
+        <v>-7.1736011477764566E-2</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="11"/>
-        <v>1.2132352941176443</v>
+        <v>0.69879518072288616</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="12"/>
-        <v>1.2132352941176443</v>
+        <v>0.69879518072288616</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="13"/>
-        <v>0.4964281389998817</v>
+        <v>1.9382627422828484</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="14"/>
-        <v>0.35539215686274234</v>
+        <v>0.96385542168674709</v>
       </c>
       <c r="AC10" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2424,38 +2424,38 @@
         <v>NO</v>
       </c>
       <c r="AI10">
-        <v>381.15</v>
+        <v>416</v>
       </c>
       <c r="AJ10">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="AK10">
-        <v>381.15</v>
+        <v>412.45</v>
       </c>
       <c r="AL10">
-        <v>403.7</v>
+        <v>418.2</v>
       </c>
       <c r="AM10">
-        <v>26.199999999999989</v>
+        <v>5.25</v>
       </c>
       <c r="AN10">
-        <v>6.9403973509933738</v>
+        <v>1.2713403559753</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="21"/>
-        <v>5.9163059163059195</v>
+        <v>0.52884615384615108</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="22"/>
-        <v>5.9163059163059195</v>
+        <v>0.52884615384615108</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="23"/>
-        <v>1.8082734703988139</v>
+        <v>0.66953610712577982</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.85336538461538736</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="25"/>
@@ -2487,38 +2487,38 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>93.45</v>
+        <v>92.2</v>
       </c>
       <c r="C11">
-        <v>94.35</v>
+        <v>93.5</v>
       </c>
       <c r="D11">
-        <v>92.4</v>
+        <v>89.5</v>
       </c>
       <c r="E11">
-        <v>93.1</v>
+        <v>92.75</v>
       </c>
       <c r="F11">
-        <v>0.44999999999998858</v>
+        <v>0.34999999999999432</v>
       </c>
       <c r="G11">
-        <v>0.48569886670263213</v>
+        <v>0.37878787878787262</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>-0.37453183520600164</v>
+        <v>0.59652928416485584</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>0.37453183520600164</v>
+        <v>0.59652928416485584</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>0.9630818619582574</v>
+        <v>0.80862533692722371</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>0.75187969924810816</v>
+        <v>2.92841648590022</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="6"/>
@@ -2549,38 +2549,38 @@
         <v>NO</v>
       </c>
       <c r="S11">
-        <v>90.4</v>
+        <v>92</v>
       </c>
       <c r="T11">
-        <v>93.8</v>
+        <v>93.65</v>
       </c>
       <c r="U11">
-        <v>88.6</v>
+        <v>91.5</v>
       </c>
       <c r="V11">
-        <v>92.65</v>
+        <v>92.4</v>
       </c>
       <c r="W11">
-        <v>2.0500000000000109</v>
+        <v>-0.69999999999998863</v>
       </c>
       <c r="X11">
-        <v>2.2626931567329041</v>
+        <v>-0.75187969924810816</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="11"/>
-        <v>2.4889380530973448</v>
+        <v>0.43478260869565832</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="12"/>
-        <v>2.4889380530973448</v>
+        <v>0.43478260869565832</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="13"/>
-        <v>1.2412304371289709</v>
+        <v>1.3528138528138527</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="14"/>
-        <v>1.9911504424778885</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="AC11" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2607,38 +2607,38 @@
         <v>NO</v>
       </c>
       <c r="AI11">
-        <v>87</v>
+        <v>93.45</v>
       </c>
       <c r="AJ11">
-        <v>91.75</v>
+        <v>94.35</v>
       </c>
       <c r="AK11">
-        <v>87</v>
+        <v>92.4</v>
       </c>
       <c r="AL11">
-        <v>90.6</v>
+        <v>93.1</v>
       </c>
       <c r="AM11">
-        <v>5.0999999999999943</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="AN11">
-        <v>5.9649122807017481</v>
+        <v>0.48569886670263213</v>
       </c>
       <c r="AO11" s="1">
         <f t="shared" si="21"/>
-        <v>4.1379310344827527</v>
+        <v>-0.37453183520600164</v>
       </c>
       <c r="AP11" s="1">
         <f t="shared" si="22"/>
-        <v>4.1379310344827527</v>
+        <v>0.37453183520600164</v>
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="23"/>
-        <v>1.2693156732891895</v>
+        <v>0.9630818619582574</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.75187969924810816</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="25"/>
@@ -2670,38 +2670,38 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>367</v>
+        <v>384.95</v>
       </c>
       <c r="C12">
-        <v>369.8</v>
+        <v>393</v>
       </c>
       <c r="D12">
-        <v>360.55</v>
+        <v>376</v>
       </c>
       <c r="E12">
-        <v>364.6</v>
+        <v>390</v>
       </c>
       <c r="F12">
-        <v>-1.399999999999977</v>
+        <v>9.75</v>
       </c>
       <c r="G12">
-        <v>-0.38251366120217961</v>
+        <v>2.5641025641025639</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>-0.65395095367846789</v>
+        <v>1.3118586829458401</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>0.65395095367846789</v>
+        <v>1.3118586829458401</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>0.76294277929155629</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>1.1108063631376883</v>
+        <v>2.3249772697752928</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="6"/>
@@ -2732,38 +2732,38 @@
         <v>NO</v>
       </c>
       <c r="S12">
-        <v>359.45</v>
+        <v>369.85</v>
       </c>
       <c r="T12">
-        <v>372.5</v>
+        <v>385</v>
       </c>
       <c r="U12">
-        <v>357</v>
+        <v>369.85</v>
       </c>
       <c r="V12">
-        <v>366</v>
+        <v>380.25</v>
       </c>
       <c r="W12">
-        <v>9</v>
+        <v>15.649999999999981</v>
       </c>
       <c r="X12">
-        <v>2.521008403361344</v>
+        <v>4.2923752057048761</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="11"/>
-        <v>1.8222284045068888</v>
+        <v>2.8119507908611534</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="12"/>
-        <v>1.8222284045068888</v>
+        <v>2.8119507908611534</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="13"/>
-        <v>1.7759562841530054</v>
+        <v>1.2491781722550954</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="14"/>
-        <v>0.68159688412852659</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2790,38 +2790,38 @@
         <v>NO</v>
       </c>
       <c r="AI12">
-        <v>347.45</v>
+        <v>367</v>
       </c>
       <c r="AJ12">
-        <v>361.65</v>
+        <v>369.8</v>
       </c>
       <c r="AK12">
-        <v>347.05</v>
+        <v>360.55</v>
       </c>
       <c r="AL12">
-        <v>357</v>
+        <v>364.6</v>
       </c>
       <c r="AM12">
-        <v>12.44999999999999</v>
+        <v>-1.399999999999977</v>
       </c>
       <c r="AN12">
-        <v>3.6134087940792301</v>
+        <v>-0.38251366120217961</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="21"/>
-        <v>2.7485969204202076</v>
+        <v>-0.65395095367846789</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="22"/>
-        <v>2.7485969204202076</v>
+        <v>0.65395095367846789</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="23"/>
-        <v>1.3025210084033549</v>
+        <v>0.76294277929155629</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="24"/>
-        <v>0.11512447834220096</v>
+        <v>1.1108063631376883</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="25"/>
@@ -2853,38 +2853,38 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>864.4</v>
+        <v>851</v>
       </c>
       <c r="C13">
-        <v>864.4</v>
+        <v>888</v>
       </c>
       <c r="D13">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E13">
-        <v>857.25</v>
+        <v>853.85</v>
       </c>
       <c r="F13">
-        <v>-4.9999999999954532E-2</v>
+        <v>6.4500000000000446</v>
       </c>
       <c r="G13">
-        <v>-5.8322640849124609E-3</v>
+        <v>0.76115175831957116</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>-0.82716335030078403</v>
+        <v>0.33490011750881582</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>0.82716335030078403</v>
+        <v>0.33490011750881582</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.9995315336417376</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>4.4619422572178475</v>
+        <v>4.1128084606345476</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q13" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2915,38 +2915,38 @@
         <v>NO</v>
       </c>
       <c r="S13">
-        <v>804.8</v>
+        <v>853</v>
       </c>
       <c r="T13">
-        <v>866.35</v>
+        <v>871</v>
       </c>
       <c r="U13">
-        <v>792</v>
+        <v>840.45</v>
       </c>
       <c r="V13">
-        <v>857.3</v>
+        <v>847.4</v>
       </c>
       <c r="W13">
-        <v>61.699999999999932</v>
+        <v>-9.8500000000000227</v>
       </c>
       <c r="X13">
-        <v>7.7551533433886286</v>
+        <v>-1.149023038786821</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="11"/>
-        <v>6.5233598409542752</v>
+        <v>-0.65650644783118672</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="12"/>
-        <v>6.5233598409542752</v>
+        <v>0.65650644783118672</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="13"/>
-        <v>1.0556397993701234</v>
+        <v>2.1101992966002343</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="14"/>
-        <v>1.5904572564612269</v>
+        <v>0.8201557705923922</v>
       </c>
       <c r="AC13" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2973,38 +2973,38 @@
         <v>NO</v>
       </c>
       <c r="AI13">
-        <v>755</v>
+        <v>864.4</v>
       </c>
       <c r="AJ13">
-        <v>801.8</v>
+        <v>864.4</v>
       </c>
       <c r="AK13">
-        <v>753.6</v>
+        <v>819</v>
       </c>
       <c r="AL13">
-        <v>795.6</v>
+        <v>857.25</v>
       </c>
       <c r="AM13">
-        <v>62.450000000000053</v>
+        <v>-4.9999999999954532E-2</v>
       </c>
       <c r="AN13">
-        <v>8.5180386005592368</v>
+        <v>-5.8322640849124609E-3</v>
       </c>
       <c r="AO13" s="1">
         <f t="shared" si="21"/>
-        <v>5.3774834437086128</v>
+        <v>-0.82716335030078403</v>
       </c>
       <c r="AP13" s="1">
         <f t="shared" si="22"/>
-        <v>5.3774834437086128</v>
+        <v>0.82716335030078403</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="23"/>
-        <v>0.77928607340371192</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="24"/>
-        <v>0.18543046357615592</v>
+        <v>4.4619422572178475</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="25"/>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="AU13" t="str">
         <f t="shared" si="27"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV13" t="str">
         <f t="shared" si="28"/>
@@ -3036,38 +3036,38 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14">
-        <v>113.7</v>
+        <v>118.75</v>
       </c>
       <c r="D14">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14">
-        <v>111.1</v>
+        <v>114.05</v>
       </c>
       <c r="F14">
-        <v>-0.40000000000000568</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>-0.35874439461883922</v>
+        <v>5.5529847292919943</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>-0.80357142857143371</v>
+        <v>3.681818181818179</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>0.80357142857143371</v>
+        <v>3.681818181818179</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>1.5178571428571455</v>
+        <v>4.1209995615957933</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>0.99009900990098509</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3098,38 +3098,38 @@
         <v>NO</v>
       </c>
       <c r="S14">
-        <v>111.3</v>
+        <v>107.5</v>
       </c>
       <c r="T14">
-        <v>113</v>
+        <v>110.6</v>
       </c>
       <c r="U14">
-        <v>110.1</v>
+        <v>107.1</v>
       </c>
       <c r="V14">
-        <v>111.5</v>
+        <v>108.05</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>-3.0499999999999972</v>
       </c>
       <c r="X14">
-        <v>0.90497737556561098</v>
+        <v>-2.745274527452743</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="11"/>
-        <v>0.1796945193171634</v>
+        <v>0.51162790697674154</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="12"/>
-        <v>0.1796945193171634</v>
+        <v>0.51162790697674154</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="13"/>
-        <v>1.3452914798206279</v>
+        <v>2.3600185099490951</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="14"/>
-        <v>1.0781671159029675</v>
+        <v>0.37209302325581922</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3156,38 +3156,38 @@
         <v>NO</v>
       </c>
       <c r="AI14">
-        <v>107.3</v>
+        <v>112</v>
       </c>
       <c r="AJ14">
-        <v>111.9</v>
+        <v>113.7</v>
       </c>
       <c r="AK14">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AL14">
-        <v>110.5</v>
+        <v>111.1</v>
       </c>
       <c r="AM14">
-        <v>4.2000000000000028</v>
+        <v>-0.40000000000000568</v>
       </c>
       <c r="AN14">
-        <v>3.9510818438381961</v>
+        <v>-0.35874439461883922</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="21"/>
-        <v>2.9822926374650538</v>
+        <v>-0.80357142857143371</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="22"/>
-        <v>2.9822926374650538</v>
+        <v>0.80357142857143371</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="23"/>
-        <v>1.2669683257918605</v>
+        <v>1.5178571428571455</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="24"/>
-        <v>0.27958993476234595</v>
+        <v>0.99009900990098509</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="25"/>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="AU14" t="str">
         <f t="shared" si="27"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV14" t="str">
         <f t="shared" si="28"/>
@@ -3219,38 +3219,38 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>379.95</v>
+        <v>376</v>
       </c>
       <c r="C15">
-        <v>383.9</v>
+        <v>377.65</v>
       </c>
       <c r="D15">
-        <v>372.1</v>
+        <v>354.1</v>
       </c>
       <c r="E15">
-        <v>379.05</v>
+        <v>357.8</v>
       </c>
       <c r="F15">
-        <v>1.3000000000000109</v>
+        <v>-17.099999999999969</v>
       </c>
       <c r="G15">
-        <v>0.3441429516876271</v>
+        <v>-4.5612163243531523</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>-0.23687327279904655</v>
+        <v>-4.8404255319148906</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>0.23687327279904655</v>
+        <v>4.8404255319148906</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>1.0396104750625053</v>
+        <v>0.43882978723403648</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>1.8335311964120797</v>
+        <v>1.0340972610396837</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3281,38 +3281,38 @@
         <v>NO</v>
       </c>
       <c r="S15">
-        <v>380.85</v>
+        <v>374</v>
       </c>
       <c r="T15">
-        <v>387.5</v>
+        <v>378.9</v>
       </c>
       <c r="U15">
-        <v>376</v>
+        <v>370.9</v>
       </c>
       <c r="V15">
-        <v>377.75</v>
+        <v>374.9</v>
       </c>
       <c r="W15">
-        <v>-1.0500000000000109</v>
+        <v>-4.1500000000000341</v>
       </c>
       <c r="X15">
-        <v>-0.2771911298838467</v>
+        <v>-1.0948423690806051</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="11"/>
-        <v>-0.81396875410267111</v>
+        <v>0.24064171122994044</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="12"/>
-        <v>0.81396875410267111</v>
+        <v>0.24064171122994044</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="13"/>
-        <v>1.7460942628331304</v>
+        <v>1.0669511869831956</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="14"/>
-        <v>0.46326935804103242</v>
+        <v>0.82887700534759967</v>
       </c>
       <c r="AC15" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3339,38 +3339,38 @@
         <v>NO</v>
       </c>
       <c r="AI15">
-        <v>377.9</v>
+        <v>379.95</v>
       </c>
       <c r="AJ15">
-        <v>385</v>
+        <v>383.9</v>
       </c>
       <c r="AK15">
-        <v>371.3</v>
+        <v>372.1</v>
       </c>
       <c r="AL15">
-        <v>378.8</v>
+        <v>379.05</v>
       </c>
       <c r="AM15">
-        <v>10.80000000000001</v>
+        <v>1.3000000000000109</v>
       </c>
       <c r="AN15">
-        <v>2.934782608695655</v>
+        <v>0.3441429516876271</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" si="21"/>
-        <v>0.23815824292141682</v>
+        <v>-0.23687327279904655</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="22"/>
-        <v>0.23815824292141682</v>
+        <v>0.23687327279904655</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="23"/>
-        <v>1.6367476240760266</v>
+        <v>1.0396104750625053</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="24"/>
-        <v>1.7464937814236481</v>
+        <v>1.8335311964120797</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="25"/>
@@ -3402,38 +3402,38 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="C16">
-        <v>10199.9</v>
+        <v>9945</v>
       </c>
       <c r="D16">
-        <v>9852</v>
+        <v>9306.0499999999993</v>
       </c>
       <c r="E16">
-        <v>9986.2000000000007</v>
+        <v>9400.5499999999993</v>
       </c>
       <c r="F16">
-        <v>-18.949999999998909</v>
+        <v>-342.15000000000151</v>
       </c>
       <c r="G16">
-        <v>-0.1894024577342559</v>
+        <v>-3.5118601619674372</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>-0.13799999999999274</v>
+        <v>-4.0760204081632727</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>0.13799999999999274</v>
+        <v>4.0760204081632727</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>1.9989999999999963</v>
+        <v>1.4795918367346939</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>1.3438545192365536</v>
+        <v>1.0052603305125765</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3464,38 +3464,38 @@
         <v>NO</v>
       </c>
       <c r="S16">
-        <v>9950</v>
+        <v>9937</v>
       </c>
       <c r="T16">
-        <v>10168.950000000001</v>
+        <v>9995</v>
       </c>
       <c r="U16">
-        <v>9843.5499999999993</v>
+        <v>9706.0499999999993</v>
       </c>
       <c r="V16">
-        <v>10005.15</v>
+        <v>9742.7000000000007</v>
       </c>
       <c r="W16">
-        <v>182.25</v>
+        <v>-243.5</v>
       </c>
       <c r="X16">
-        <v>1.8553583972146721</v>
+        <v>-2.438364943622199</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="11"/>
-        <v>0.55427135678391592</v>
+        <v>-1.9553185065915195</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="12"/>
-        <v>0.55427135678391592</v>
+        <v>1.9553185065915195</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="13"/>
-        <v>1.6371568642149403</v>
+        <v>0.58367716614672438</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="14"/>
-        <v>1.0698492462311631</v>
+        <v>0.3761790879325182</v>
       </c>
       <c r="AC16" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3522,38 +3522,38 @@
         <v>NO</v>
       </c>
       <c r="AI16">
-        <v>9325</v>
+        <v>10000</v>
       </c>
       <c r="AJ16">
-        <v>10289.5</v>
+        <v>10199.9</v>
       </c>
       <c r="AK16">
-        <v>9325</v>
+        <v>9852</v>
       </c>
       <c r="AL16">
-        <v>9822.9</v>
+        <v>9986.2000000000007</v>
       </c>
       <c r="AM16">
-        <v>582.89999999999964</v>
+        <v>-18.949999999998909</v>
       </c>
       <c r="AN16">
-        <v>6.3084415584415554</v>
+        <v>-0.1894024577342559</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" si="21"/>
-        <v>5.3394101876675562</v>
+        <v>-0.13799999999999274</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="22"/>
-        <v>5.3394101876675562</v>
+        <v>0.13799999999999274</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="23"/>
-        <v>4.7501247085891176</v>
+        <v>1.9989999999999963</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.3438545192365536</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="25"/>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="AV16" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW16" t="str">
         <f t="shared" si="29"/>
@@ -3585,38 +3585,38 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>943.5</v>
+        <v>950.05</v>
       </c>
       <c r="C17">
-        <v>958</v>
+        <v>954.7</v>
       </c>
       <c r="D17">
-        <v>916</v>
+        <v>940.25</v>
       </c>
       <c r="E17">
-        <v>940.9</v>
+        <v>948.9</v>
       </c>
       <c r="F17">
-        <v>-3</v>
+        <v>2.299999999999955</v>
       </c>
       <c r="G17">
-        <v>-0.31783027863121088</v>
+        <v>0.24297485738431801</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>-0.27556968733439563</v>
+        <v>-0.12104626072311744</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>0.27556968733439563</v>
+        <v>0.12104626072311744</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>1.5368309485956544</v>
+        <v>0.48944792379349417</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>2.6464023806993282</v>
+        <v>0.91158183159447548</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q17" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3647,38 +3647,38 @@
         <v>NO</v>
       </c>
       <c r="S17">
-        <v>945</v>
+        <v>931.65</v>
       </c>
       <c r="T17">
-        <v>954.5</v>
+        <v>952</v>
       </c>
       <c r="U17">
-        <v>931.05</v>
+        <v>925</v>
       </c>
       <c r="V17">
-        <v>943.9</v>
+        <v>946.6</v>
       </c>
       <c r="W17">
-        <v>3.6999999999999318</v>
+        <v>5.7000000000000446</v>
       </c>
       <c r="X17">
-        <v>0.39353329078918647</v>
+        <v>0.60580295461792388</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="11"/>
-        <v>-0.1164021164021188</v>
+        <v>1.6046798690495407</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="12"/>
-        <v>0.1164021164021188</v>
+        <v>1.6046798690495407</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" si="13"/>
-        <v>1.0052910052910053</v>
+        <v>0.57046270864145121</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="14"/>
-        <v>1.3613730268036892</v>
+        <v>0.71378736650029273</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3705,38 +3705,38 @@
         <v>NO</v>
       </c>
       <c r="AI17">
-        <v>914</v>
+        <v>943.5</v>
       </c>
       <c r="AJ17">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AK17">
-        <v>910.2</v>
+        <v>916</v>
       </c>
       <c r="AL17">
-        <v>940.2</v>
+        <v>940.9</v>
       </c>
       <c r="AM17">
-        <v>32.300000000000068</v>
+        <v>-3</v>
       </c>
       <c r="AN17">
-        <v>3.557660535301252</v>
+        <v>-0.31783027863121088</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" si="21"/>
-        <v>2.8665207877461758</v>
+        <v>-0.27556968733439563</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="22"/>
-        <v>2.8665207877461758</v>
+        <v>0.27556968733439563</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="23"/>
-        <v>2.3186556051903802</v>
+        <v>1.5368309485956544</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="24"/>
-        <v>0.41575492341356179</v>
+        <v>2.6464023806993282</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="25"/>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AV17" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW17" t="str">
         <f t="shared" si="29"/>
@@ -3768,38 +3768,38 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>371.15</v>
+        <v>366.2</v>
       </c>
       <c r="C18">
-        <v>374.8</v>
+        <v>385</v>
       </c>
       <c r="D18">
-        <v>365</v>
+        <v>356.1</v>
       </c>
       <c r="E18">
-        <v>367.55</v>
+        <v>365.15</v>
       </c>
       <c r="F18">
-        <v>-1.75</v>
+        <v>0.79999999999995453</v>
       </c>
       <c r="G18">
-        <v>-0.47386948280530727</v>
+        <v>0.21956909564977481</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>-0.96995823790919189</v>
+        <v>-0.28672856362643673</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>0.96995823790919189</v>
+        <v>0.28672856362643673</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>0.98342988010239385</v>
+        <v>5.1338066630256725</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>0.69378315875391405</v>
+        <v>2.4784335204710271</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="N18" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O18" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q18" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3830,38 +3830,38 @@
         <v>NO</v>
       </c>
       <c r="S18">
-        <v>377.7</v>
+        <v>366.7</v>
       </c>
       <c r="T18">
-        <v>379</v>
+        <v>373.9</v>
       </c>
       <c r="U18">
-        <v>361.65</v>
+        <v>362</v>
       </c>
       <c r="V18">
-        <v>369.3</v>
+        <v>364.35</v>
       </c>
       <c r="W18">
-        <v>-2.0999999999999659</v>
+        <v>-3.1999999999999891</v>
       </c>
       <c r="X18">
-        <v>-0.56542810985459502</v>
+        <v>-0.87062984627941464</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="11"/>
-        <v>-2.2239872915011856</v>
+        <v>-0.64085083174255952</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" si="12"/>
-        <v>2.2239872915011856</v>
+        <v>0.64085083174255952</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" si="13"/>
-        <v>0.34418850939899692</v>
+        <v>1.963457867466591</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" si="14"/>
-        <v>2.0714865962632096</v>
+        <v>0.64498421847125642</v>
       </c>
       <c r="AC18" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3888,38 +3888,38 @@
         <v>NO</v>
       </c>
       <c r="AI18">
-        <v>353</v>
+        <v>371.15</v>
       </c>
       <c r="AJ18">
-        <v>375</v>
+        <v>374.8</v>
       </c>
       <c r="AK18">
-        <v>351.6</v>
+        <v>365</v>
       </c>
       <c r="AL18">
-        <v>371.4</v>
+        <v>367.55</v>
       </c>
       <c r="AM18">
-        <v>27.099999999999969</v>
+        <v>-1.75</v>
       </c>
       <c r="AN18">
-        <v>7.871042695323835</v>
+        <v>-0.47386948280530727</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" si="21"/>
-        <v>5.2124645892351209</v>
+        <v>-0.96995823790919189</v>
       </c>
       <c r="AP18" s="1">
         <f t="shared" si="22"/>
-        <v>5.2124645892351209</v>
+        <v>0.96995823790919189</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="23"/>
-        <v>0.96930533117932771</v>
+        <v>0.98342988010239385</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="24"/>
-        <v>0.39660056657223147</v>
+        <v>0.69378315875391405</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="25"/>
@@ -3951,38 +3951,38 @@
         <v>67</v>
       </c>
       <c r="B19">
-        <v>186.3</v>
+        <v>182</v>
       </c>
       <c r="C19">
-        <v>190.7</v>
+        <v>186.9</v>
       </c>
       <c r="D19">
-        <v>185</v>
+        <v>178.85</v>
       </c>
       <c r="E19">
-        <v>186.15</v>
+        <v>182.15</v>
       </c>
       <c r="F19">
-        <v>0.70000000000001705</v>
+        <v>-0.69999999999998863</v>
       </c>
       <c r="G19">
-        <v>0.37746023186843741</v>
+        <v>-0.38282745419742342</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>-8.0515297906605304E-2</v>
+        <v>8.2417582417585539E-2</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>8.0515297906605304E-2</v>
+        <v>8.2417582417585539E-2</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="2"/>
-        <v>2.3617820719269869</v>
+        <v>2.6077408729069447</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>0.61778135911899312</v>
+        <v>1.7307692307692339</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="N19" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O19" s="1" t="str">
         <f t="shared" si="7"/>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q19" s="1" t="str">
         <f t="shared" si="9"/>
@@ -4013,38 +4013,38 @@
         <v>NO</v>
       </c>
       <c r="S19">
-        <v>187.8</v>
+        <v>185.4</v>
       </c>
       <c r="T19">
-        <v>187.95</v>
+        <v>187.4</v>
       </c>
       <c r="U19">
-        <v>184.5</v>
+        <v>181</v>
       </c>
       <c r="V19">
-        <v>185.45</v>
+        <v>182.85</v>
       </c>
       <c r="W19">
-        <v>-1.4000000000000059</v>
+        <v>-3.3000000000000109</v>
       </c>
       <c r="X19">
-        <v>-0.74926411560075235</v>
+        <v>-1.7727639000805859</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="11"/>
-        <v>-1.2513312034078927</v>
+        <v>-1.3754045307443425</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="12"/>
-        <v>1.2513312034078927</v>
+        <v>1.3754045307443425</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="13"/>
-        <v>7.9872204472831332E-2</v>
+        <v>1.0787486515641855</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="14"/>
-        <v>0.51226745753571779</v>
+        <v>1.0117582718074896</v>
       </c>
       <c r="AC19" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4071,38 +4071,38 @@
         <v>NO</v>
       </c>
       <c r="AI19">
-        <v>188</v>
+        <v>186.3</v>
       </c>
       <c r="AJ19">
-        <v>192.8</v>
+        <v>190.7</v>
       </c>
       <c r="AK19">
-        <v>185.7</v>
+        <v>185</v>
       </c>
       <c r="AL19">
-        <v>186.85</v>
+        <v>186.15</v>
       </c>
       <c r="AM19">
-        <v>4.1500000000000057</v>
+        <v>0.70000000000001705</v>
       </c>
       <c r="AN19">
-        <v>2.271483305966068</v>
+        <v>0.37746023186843741</v>
       </c>
       <c r="AO19" s="1">
         <f t="shared" si="21"/>
-        <v>-0.61170212765957754</v>
+        <v>-8.0515297906605304E-2</v>
       </c>
       <c r="AP19" s="1">
         <f t="shared" si="22"/>
-        <v>0.61170212765957754</v>
+        <v>8.0515297906605304E-2</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="23"/>
-        <v>2.553191489361708</v>
+        <v>2.3617820719269869</v>
       </c>
       <c r="AR19" s="1">
         <f t="shared" si="24"/>
-        <v>0.61546695210061853</v>
+        <v>0.61778135911899312</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="25"/>
@@ -4134,38 +4134,38 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>36.75</v>
+        <v>37.75</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="D20">
         <v>36.200000000000003</v>
       </c>
       <c r="E20">
-        <v>36.35</v>
+        <v>36.5</v>
       </c>
       <c r="F20">
-        <v>-0.54999999999999716</v>
+        <v>-0.75</v>
       </c>
       <c r="G20">
-        <v>-1.4905149051490441</v>
+        <v>-2.0134228187919461</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>-1.088435374149656</v>
+        <v>-3.3112582781456954</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>1.088435374149656</v>
+        <v>3.3112582781456954</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>0.68027210884353739</v>
+        <v>0.52980132450331885</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>0.41265474552956966</v>
+        <v>0.82191780821917038</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4196,38 +4196,38 @@
         <v>NO</v>
       </c>
       <c r="S20">
-        <v>37.1</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="T20">
-        <v>37.549999999999997</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="U20">
-        <v>36.75</v>
+        <v>36</v>
       </c>
       <c r="V20">
-        <v>36.9</v>
+        <v>37.25</v>
       </c>
       <c r="W20">
-        <v>-0.25</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="X20">
-        <v>-0.67294751009421261</v>
+        <v>2.4759284731774378</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" si="11"/>
-        <v>-0.5390835579514901</v>
+        <v>2.6170798898071705</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" si="12"/>
-        <v>0.5390835579514901</v>
+        <v>2.6170798898071705</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="13"/>
-        <v>1.2129380053908241</v>
+        <v>3.2214765100671214</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" si="14"/>
-        <v>0.40650406504064657</v>
+        <v>0.82644628099172779</v>
       </c>
       <c r="AC20" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4254,38 +4254,38 @@
         <v>NO</v>
       </c>
       <c r="AI20">
-        <v>38</v>
+        <v>36.75</v>
       </c>
       <c r="AJ20">
-        <v>38.25</v>
+        <v>37</v>
       </c>
       <c r="AK20">
-        <v>36.5</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="AL20">
-        <v>37.15</v>
+        <v>36.35</v>
       </c>
       <c r="AM20">
-        <v>-0.25</v>
+        <v>-0.54999999999999716</v>
       </c>
       <c r="AN20">
-        <v>-0.66844919786096257</v>
+        <v>-1.4905149051490441</v>
       </c>
       <c r="AO20" s="1">
         <f t="shared" si="21"/>
-        <v>-2.2368421052631615</v>
+        <v>-1.088435374149656</v>
       </c>
       <c r="AP20" s="1">
         <f t="shared" si="22"/>
-        <v>2.2368421052631615</v>
+        <v>1.088435374149656</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="23"/>
-        <v>0.6578947368421052</v>
+        <v>0.68027210884353739</v>
       </c>
       <c r="AR20" s="1">
         <f t="shared" si="24"/>
-        <v>1.7496635262449494</v>
+        <v>0.41265474552956966</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="25"/>
@@ -4317,38 +4317,38 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>33.700000000000003</v>
+        <v>32.85</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="D21">
-        <v>32.65</v>
+        <v>31.25</v>
       </c>
       <c r="E21">
-        <v>33</v>
+        <v>32.25</v>
       </c>
       <c r="F21">
-        <v>-1.0499999999999969</v>
+        <v>-0.25</v>
       </c>
       <c r="G21">
-        <v>-3.0837004405286259</v>
+        <v>-0.76923076923076927</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0771513353115809</v>
+        <v>-1.8264840182648445</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>2.0771513353115809</v>
+        <v>1.8264840182648445</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>0.8902077151335227</v>
+        <v>1.369863013698617</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>1.0606060606060648</v>
+        <v>3.1007751937984498</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4379,38 +4379,38 @@
         <v>NO</v>
       </c>
       <c r="S21">
-        <v>29.95</v>
+        <v>32.5</v>
       </c>
       <c r="T21">
-        <v>34.75</v>
+        <v>34</v>
       </c>
       <c r="U21">
-        <v>29.1</v>
+        <v>32.1</v>
       </c>
       <c r="V21">
-        <v>34.049999999999997</v>
+        <v>32.5</v>
       </c>
       <c r="W21">
-        <v>4.3999999999999986</v>
+        <v>-0.5</v>
       </c>
       <c r="X21">
-        <v>14.8397976391231</v>
+        <v>-1.5151515151515149</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="11"/>
-        <v>13.689482470784634</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" si="12"/>
-        <v>13.689482470784634</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="13"/>
-        <v>2.0558002936857651</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" si="14"/>
-        <v>2.8380634390651012</v>
+        <v>1.2307692307692264</v>
       </c>
       <c r="AC21" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4437,38 +4437,38 @@
         <v>NO</v>
       </c>
       <c r="AI21">
-        <v>28.4</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="AJ21">
-        <v>30.05</v>
+        <v>34</v>
       </c>
       <c r="AK21">
-        <v>28.35</v>
+        <v>32.65</v>
       </c>
       <c r="AL21">
-        <v>29.65</v>
+        <v>33</v>
       </c>
       <c r="AM21">
-        <v>1.4499999999999991</v>
+        <v>-1.0499999999999969</v>
       </c>
       <c r="AN21">
-        <v>5.1418439716312037</v>
+        <v>-3.0837004405286259</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" si="21"/>
-        <v>4.4014084507042259</v>
+        <v>-2.0771513353115809</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="22"/>
-        <v>4.4014084507042259</v>
+        <v>2.0771513353115809</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="23"/>
-        <v>1.349072512647562</v>
+        <v>0.8902077151335227</v>
       </c>
       <c r="AR21" s="1">
         <f t="shared" si="24"/>
-        <v>0.17605633802815901</v>
+        <v>1.0606060606060648</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="25"/>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="AV21" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW21" t="str">
         <f t="shared" si="29"/>
@@ -4500,38 +4500,38 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>130.55000000000001</v>
+        <v>130.25</v>
       </c>
       <c r="C22">
-        <v>132.94999999999999</v>
+        <v>133.1</v>
       </c>
       <c r="D22">
-        <v>128.5</v>
+        <v>128.25</v>
       </c>
       <c r="E22">
-        <v>131.44999999999999</v>
+        <v>130.4</v>
       </c>
       <c r="F22">
-        <v>0.59999999999999432</v>
+        <v>0.15000000000000571</v>
       </c>
       <c r="G22">
-        <v>0.45854031333587641</v>
+        <v>0.1151631477927107</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0.68939103791648959</v>
+        <v>0.1151631477927107</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>0.68939103791648959</v>
+        <v>0.1151631477927107</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>1.1411182959300115</v>
+        <v>2.0705521472392552</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>1.5702795863653858</v>
+        <v>1.5355086372360844</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q22" s="1" t="str">
         <f t="shared" si="9"/>
@@ -4562,38 +4562,38 @@
         <v>NO</v>
       </c>
       <c r="S22">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T22">
-        <v>133.94999999999999</v>
+        <v>133.5</v>
       </c>
       <c r="U22">
-        <v>130</v>
+        <v>129.1</v>
       </c>
       <c r="V22">
-        <v>130.85</v>
+        <v>130.25</v>
       </c>
       <c r="W22">
-        <v>-3.1500000000000061</v>
+        <v>-1.1999999999999891</v>
       </c>
       <c r="X22">
-        <v>-2.35074626865672</v>
+        <v>-0.91289463674400062</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="11"/>
-        <v>-0.87121212121212543</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="12"/>
-        <v>0.87121212121212543</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="13"/>
-        <v>1.4772727272727186</v>
+        <v>2.4952015355086372</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="14"/>
-        <v>0.64959877722582682</v>
+        <v>0.69230769230769662</v>
       </c>
       <c r="AC22" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4620,38 +4620,38 @@
         <v>NO</v>
       </c>
       <c r="AI22">
-        <v>136.9</v>
+        <v>130.55000000000001</v>
       </c>
       <c r="AJ22">
-        <v>136.9</v>
+        <v>132.94999999999999</v>
       </c>
       <c r="AK22">
-        <v>133.15</v>
+        <v>128.5</v>
       </c>
       <c r="AL22">
-        <v>134</v>
+        <v>131.44999999999999</v>
       </c>
       <c r="AM22">
-        <v>-3</v>
+        <v>0.59999999999999432</v>
       </c>
       <c r="AN22">
-        <v>-2.1897810218978102</v>
+        <v>0.45854031333587641</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="21"/>
-        <v>-2.1183345507669875</v>
+        <v>0.68939103791648959</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="22"/>
-        <v>2.1183345507669875</v>
+        <v>0.68939103791648959</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.1411182959300115</v>
       </c>
       <c r="AR22" s="1">
         <f t="shared" si="24"/>
-        <v>0.63432835820895106</v>
+        <v>1.5702795863653858</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="25"/>
@@ -4683,38 +4683,38 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>60.75</v>
+        <v>59.3</v>
       </c>
       <c r="C23">
-        <v>61.55</v>
+        <v>61.6</v>
       </c>
       <c r="D23">
-        <v>60.1</v>
+        <v>58.25</v>
       </c>
       <c r="E23">
-        <v>60.6</v>
+        <v>60.4</v>
       </c>
       <c r="F23">
-        <v>-0.10000000000000139</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="G23">
-        <v>-0.16474464579901391</v>
+        <v>2.7210884353741518</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>-0.24691358024691124</v>
+        <v>1.8549747048903904</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>0.24691358024691124</v>
+        <v>1.8549747048903904</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>1.3168724279835344</v>
+        <v>1.9867549668874218</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>0.82508250825082496</v>
+        <v>1.770657672849911</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4745,38 +4745,38 @@
         <v>NO</v>
       </c>
       <c r="S23">
-        <v>61.7</v>
+        <v>60</v>
       </c>
       <c r="T23">
-        <v>62.1</v>
+        <v>60.85</v>
       </c>
       <c r="U23">
-        <v>60.4</v>
+        <v>58</v>
       </c>
       <c r="V23">
-        <v>60.7</v>
+        <v>58.8</v>
       </c>
       <c r="W23">
-        <v>-0.29999999999999721</v>
+        <v>-1.800000000000004</v>
       </c>
       <c r="X23">
-        <v>-0.49180327868851997</v>
+        <v>-2.9702970297029769</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="11"/>
-        <v>-1.6207455429497568</v>
+        <v>-2.0000000000000049</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" si="12"/>
-        <v>1.6207455429497568</v>
+        <v>2.0000000000000049</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="13"/>
-        <v>0.64829821717990033</v>
+        <v>1.416666666666669</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" si="14"/>
-        <v>0.49423393739704158</v>
+        <v>1.3605442176870701</v>
       </c>
       <c r="AC23" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4803,38 +4803,38 @@
         <v>NO</v>
       </c>
       <c r="AI23">
-        <v>61.35</v>
+        <v>60.75</v>
       </c>
       <c r="AJ23">
-        <v>65</v>
+        <v>61.55</v>
       </c>
       <c r="AK23">
-        <v>60.15</v>
+        <v>60.1</v>
       </c>
       <c r="AL23">
-        <v>61</v>
+        <v>60.6</v>
       </c>
       <c r="AM23">
-        <v>0.35000000000000142</v>
+        <v>-0.10000000000000139</v>
       </c>
       <c r="AN23">
-        <v>0.57708161582852668</v>
+        <v>-0.16474464579901391</v>
       </c>
       <c r="AO23" s="1">
         <f t="shared" si="21"/>
-        <v>-0.57049714751426472</v>
+        <v>-0.24691358024691124</v>
       </c>
       <c r="AP23" s="1">
         <f t="shared" si="22"/>
-        <v>0.57049714751426472</v>
+        <v>0.24691358024691124</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="23"/>
-        <v>5.9494702526487346</v>
+        <v>1.3168724279835344</v>
       </c>
       <c r="AR23" s="1">
         <f t="shared" si="24"/>
-        <v>1.3934426229508219</v>
+        <v>0.82508250825082496</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="25"/>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="AU23" t="str">
         <f t="shared" si="27"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV23" t="str">
         <f t="shared" si="28"/>
@@ -4866,38 +4866,38 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>5164.8</v>
+        <v>5017.3999999999996</v>
       </c>
       <c r="C24">
-        <v>5216.5</v>
+        <v>5100</v>
       </c>
       <c r="D24">
-        <v>4922.3500000000004</v>
+        <v>4945</v>
       </c>
       <c r="E24">
-        <v>5135.8</v>
+        <v>5005</v>
       </c>
       <c r="F24">
-        <v>-3.75</v>
+        <v>39</v>
       </c>
       <c r="G24">
-        <v>-7.2963586306194123E-2</v>
+        <v>0.78534031413612559</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>-0.56149318463444864</v>
+        <v>-0.24713995296367913</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>0.56149318463444864</v>
+        <v>0.24713995296367913</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>1.001006815365548</v>
+        <v>1.6462709770000472</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>4.1561197865960482</v>
+        <v>1.1988011988011988</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4928,38 +4928,38 @@
         <v>NO</v>
       </c>
       <c r="S24">
-        <v>5075</v>
+        <v>5150</v>
       </c>
       <c r="T24">
-        <v>5227</v>
+        <v>5161.5</v>
       </c>
       <c r="U24">
-        <v>5057</v>
+        <v>4921</v>
       </c>
       <c r="V24">
-        <v>5139.55</v>
+        <v>4966</v>
       </c>
       <c r="W24">
-        <v>119.60000000000041</v>
+        <v>-169.80000000000021</v>
       </c>
       <c r="X24">
-        <v>2.3824938495403409</v>
+        <v>-3.306203512597846</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="11"/>
-        <v>1.2719211822660135</v>
+        <v>-3.5728155339805827</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="12"/>
-        <v>1.2719211822660135</v>
+        <v>3.5728155339805827</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="13"/>
-        <v>1.7015108326604431</v>
+        <v>0.22330097087378642</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" si="14"/>
-        <v>0.35467980295566504</v>
+        <v>0.90616190092629878</v>
       </c>
       <c r="AC24" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4986,38 +4986,38 @@
         <v>NO</v>
       </c>
       <c r="AI24">
-        <v>4826</v>
+        <v>5164.8</v>
       </c>
       <c r="AJ24">
-        <v>5099</v>
+        <v>5216.5</v>
       </c>
       <c r="AK24">
-        <v>4810.05</v>
+        <v>4922.3500000000004</v>
       </c>
       <c r="AL24">
-        <v>5019.95</v>
+        <v>5135.8</v>
       </c>
       <c r="AM24">
-        <v>251.94999999999979</v>
+        <v>-3.75</v>
       </c>
       <c r="AN24">
-        <v>5.284186241610735</v>
+        <v>-7.2963586306194123E-2</v>
       </c>
       <c r="AO24" s="1">
         <f t="shared" si="21"/>
-        <v>4.0188561956071238</v>
+        <v>-0.56149318463444864</v>
       </c>
       <c r="AP24" s="1">
         <f t="shared" si="22"/>
-        <v>4.0188561956071238</v>
+        <v>0.56149318463444864</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="23"/>
-        <v>1.5747168796501996</v>
+        <v>1.001006815365548</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" si="24"/>
-        <v>0.33050145047658142</v>
+        <v>4.1561197865960482</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="25"/>
@@ -5049,38 +5049,38 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>395.45</v>
+        <v>384.8</v>
       </c>
       <c r="C25">
-        <v>396.8</v>
+        <v>389</v>
       </c>
       <c r="D25">
-        <v>385.05</v>
+        <v>375.5</v>
       </c>
       <c r="E25">
-        <v>390.7</v>
+        <v>378.85</v>
       </c>
       <c r="F25">
-        <v>-5.6000000000000227</v>
+        <v>-7.5499999999999554</v>
       </c>
       <c r="G25">
-        <v>-1.41307090587939</v>
+        <v>-1.9539337474119971</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2011632317612846</v>
+        <v>-1.5462577962577932</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>1.2011632317612846</v>
+        <v>1.5462577962577932</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>0.34138323429005507</v>
+        <v>1.0914760914760884</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>1.4461223445098483</v>
+        <v>0.88425498218292797</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5111,38 +5111,38 @@
         <v>NO</v>
       </c>
       <c r="S25">
-        <v>385.15</v>
+        <v>385.1</v>
       </c>
       <c r="T25">
-        <v>399.3</v>
+        <v>393.2</v>
       </c>
       <c r="U25">
-        <v>381.05</v>
+        <v>380.15</v>
       </c>
       <c r="V25">
-        <v>396.3</v>
+        <v>386.4</v>
       </c>
       <c r="W25">
-        <v>11.150000000000031</v>
+        <v>-4.3000000000000114</v>
       </c>
       <c r="X25">
-        <v>2.894975983383107</v>
+        <v>-1.100588686972104</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="11"/>
-        <v>2.8949759833831066</v>
+        <v>0.33757465593351194</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" si="12"/>
-        <v>2.8949759833831066</v>
+        <v>0.33757465593351194</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" si="13"/>
-        <v>0.75700227100681305</v>
+        <v>1.759834368530024</v>
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="14"/>
-        <v>1.0645203167596953</v>
+        <v>1.2853804206699677</v>
       </c>
       <c r="AC25" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="AD25" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AE25" s="1" t="str">
         <f t="shared" si="17"/>
@@ -5169,38 +5169,38 @@
         <v>NO</v>
       </c>
       <c r="AI25">
-        <v>375.05</v>
+        <v>395.45</v>
       </c>
       <c r="AJ25">
-        <v>391.95</v>
+        <v>396.8</v>
       </c>
       <c r="AK25">
-        <v>375.05</v>
+        <v>385.05</v>
       </c>
       <c r="AL25">
-        <v>385.15</v>
+        <v>390.7</v>
       </c>
       <c r="AM25">
-        <v>11.69999999999999</v>
+        <v>-5.6000000000000227</v>
       </c>
       <c r="AN25">
-        <v>3.1329495247020991</v>
+        <v>-1.41307090587939</v>
       </c>
       <c r="AO25" s="1">
         <f t="shared" si="21"/>
-        <v>2.6929742700973112</v>
+        <v>-1.2011632317612846</v>
       </c>
       <c r="AP25" s="1">
         <f t="shared" si="22"/>
-        <v>2.6929742700973112</v>
+        <v>1.2011632317612846</v>
       </c>
       <c r="AQ25" s="1">
         <f t="shared" si="23"/>
-        <v>1.7655458912112194</v>
+        <v>0.34138323429005507</v>
       </c>
       <c r="AR25" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.4461223445098483</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="25"/>
@@ -5232,38 +5232,38 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>524</v>
+        <v>524.15</v>
       </c>
       <c r="C26">
-        <v>531.04999999999995</v>
+        <v>534.85</v>
       </c>
       <c r="D26">
-        <v>512.1</v>
+        <v>502.75</v>
       </c>
       <c r="E26">
-        <v>523.54999999999995</v>
+        <v>515.15</v>
       </c>
       <c r="F26">
-        <v>3.25</v>
+        <v>-6.1499999999999773</v>
       </c>
       <c r="G26">
-        <v>0.62463963098212572</v>
+        <v>-1.179742950316512</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>-8.5877862595428525E-2</v>
+        <v>-1.7170657254602693</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>8.5877862595428525E-2</v>
+        <v>1.7170657254602693</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>1.3454198473282357</v>
+        <v>2.0414003624916619</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>2.1869926463565914</v>
+        <v>2.4070659031350048</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5294,38 +5294,38 @@
         <v>NO</v>
       </c>
       <c r="S26">
-        <v>523.9</v>
+        <v>520</v>
       </c>
       <c r="T26">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="U26">
-        <v>501.95</v>
+        <v>511</v>
       </c>
       <c r="V26">
-        <v>520.29999999999995</v>
+        <v>521.29999999999995</v>
       </c>
       <c r="W26">
-        <v>0.19999999999993179</v>
+        <v>-2.25</v>
       </c>
       <c r="X26">
-        <v>3.8454143433941892E-2</v>
+        <v>-0.42975838028841568</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" si="11"/>
-        <v>-0.68715403702997191</v>
+        <v>0.24999999999999126</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" si="12"/>
-        <v>0.68715403702997191</v>
+        <v>0.24999999999999126</v>
       </c>
       <c r="AA26" s="1">
         <f t="shared" si="13"/>
-        <v>2.5004771903034975</v>
+        <v>0.70976405140994547</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" si="14"/>
-        <v>3.5268114549298422</v>
+        <v>1.7307692307692308</v>
       </c>
       <c r="AC26" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5352,38 +5352,38 @@
         <v>NO</v>
       </c>
       <c r="AI26">
-        <v>481.7</v>
+        <v>524</v>
       </c>
       <c r="AJ26">
-        <v>545</v>
+        <v>531.04999999999995</v>
       </c>
       <c r="AK26">
-        <v>481</v>
+        <v>512.1</v>
       </c>
       <c r="AL26">
-        <v>520.1</v>
+        <v>523.54999999999995</v>
       </c>
       <c r="AM26">
-        <v>47.050000000000011</v>
+        <v>3.25</v>
       </c>
       <c r="AN26">
-        <v>9.9460944931825406</v>
+        <v>0.62463963098212572</v>
       </c>
       <c r="AO26" s="1">
         <f t="shared" si="21"/>
-        <v>7.9717666597467378</v>
+        <v>-8.5877862595428525E-2</v>
       </c>
       <c r="AP26" s="1">
         <f t="shared" si="22"/>
-        <v>7.9717666597467378</v>
+        <v>8.5877862595428525E-2</v>
       </c>
       <c r="AQ26" s="1">
         <f t="shared" si="23"/>
-        <v>4.7875408575273939</v>
+        <v>1.3454198473282357</v>
       </c>
       <c r="AR26" s="1">
         <f t="shared" si="24"/>
-        <v>0.14531866306829741</v>
+        <v>2.1869926463565914</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="25"/>
@@ -5415,16 +5415,16 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>37.200000000000003</v>
+        <v>36</v>
       </c>
       <c r="C27">
-        <v>37.200000000000003</v>
+        <v>36.6</v>
       </c>
       <c r="D27">
-        <v>36.549999999999997</v>
+        <v>34.9</v>
       </c>
       <c r="E27">
-        <v>36.799999999999997</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -5434,19 +5434,19 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0752688172043163</v>
+        <v>-0.55555555555556346</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>1.0752688172043163</v>
+        <v>0.55555555555556346</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.6666666666666705</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>0.67934782608695654</v>
+        <v>2.5139664804469235</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q27" s="1" t="str">
         <f t="shared" si="9"/>
@@ -5477,38 +5477,38 @@
         <v>NO</v>
       </c>
       <c r="S27">
-        <v>37.35</v>
+        <v>35.85</v>
       </c>
       <c r="T27">
-        <v>37.35</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="U27">
-        <v>36.65</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="V27">
-        <v>36.799999999999997</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="W27">
-        <v>-0.15000000000000571</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-0.40595399188093551</v>
+        <v>-2.7173913043478262</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="11"/>
-        <v>-1.4725568942436527</v>
+        <v>-0.13947001394701328</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" si="12"/>
-        <v>1.4725568942436527</v>
+        <v>0.13947001394701328</v>
       </c>
       <c r="AA27" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3.765690376569041</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" si="14"/>
-        <v>0.40760869565217006</v>
+        <v>0.97765363128490046</v>
       </c>
       <c r="AC27" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5535,38 +5535,38 @@
         <v>NO</v>
       </c>
       <c r="AI27">
-        <v>37.5</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="AJ27">
-        <v>37.700000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="AK27">
-        <v>36.75</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="AL27">
-        <v>36.950000000000003</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="AM27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>0.68119891008174382</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="1">
         <f t="shared" si="21"/>
-        <v>-1.466666666666659</v>
+        <v>-1.0752688172043163</v>
       </c>
       <c r="AP27" s="1">
         <f t="shared" si="22"/>
-        <v>1.466666666666659</v>
+        <v>1.0752688172043163</v>
       </c>
       <c r="AQ27" s="1">
         <f t="shared" si="23"/>
-        <v>0.53333333333334099</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="1">
         <f t="shared" si="24"/>
-        <v>0.54127198917456787</v>
+        <v>0.67934782608695654</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="25"/>
@@ -5598,38 +5598,38 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>353.5</v>
+        <v>350.5</v>
       </c>
       <c r="C28">
-        <v>353.5</v>
+        <v>354.7</v>
       </c>
       <c r="D28">
-        <v>344.15</v>
+        <v>333.4</v>
       </c>
       <c r="E28">
-        <v>346</v>
+        <v>337.85</v>
       </c>
       <c r="F28">
-        <v>-7.6499999999999773</v>
+        <v>-9.3999999999999773</v>
       </c>
       <c r="G28">
-        <v>-2.1631556623780508</v>
+        <v>-2.706983441324688</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>-2.1216407355021216</v>
+        <v>-3.6091298145506356</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>2.1216407355021216</v>
+        <v>3.6091298145506356</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.1982881597717514</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>0.53468208092486202</v>
+        <v>1.3171525825070431</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5660,38 +5660,38 @@
         <v>NO</v>
       </c>
       <c r="S28">
-        <v>353.7</v>
+        <v>341</v>
       </c>
       <c r="T28">
-        <v>359.5</v>
+        <v>354.7</v>
       </c>
       <c r="U28">
-        <v>350.05</v>
+        <v>341</v>
       </c>
       <c r="V28">
-        <v>353.65</v>
+        <v>347.25</v>
       </c>
       <c r="W28">
-        <v>4.1499999999999773</v>
+        <v>1.25</v>
       </c>
       <c r="X28">
-        <v>1.1874105865522111</v>
+        <v>0.36127167630057799</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="11"/>
-        <v>-1.4136273678261625E-2</v>
+        <v>1.8328445747800588</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" si="12"/>
-        <v>1.4136273678261625E-2</v>
+        <v>1.8328445747800588</v>
       </c>
       <c r="AA28" s="1">
         <f t="shared" si="13"/>
-        <v>1.6398077466779788</v>
+        <v>2.1454283657307385</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" si="14"/>
-        <v>1.0179556058249586</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5718,38 +5718,38 @@
         <v>NO</v>
       </c>
       <c r="AI28">
-        <v>325.8</v>
+        <v>353.5</v>
       </c>
       <c r="AJ28">
-        <v>351.5</v>
+        <v>353.5</v>
       </c>
       <c r="AK28">
-        <v>325.8</v>
+        <v>344.15</v>
       </c>
       <c r="AL28">
-        <v>349.5</v>
+        <v>346</v>
       </c>
       <c r="AM28">
-        <v>24.850000000000019</v>
+        <v>-7.6499999999999773</v>
       </c>
       <c r="AN28">
-        <v>7.6543970429693591</v>
+        <v>-2.1631556623780508</v>
       </c>
       <c r="AO28" s="1">
         <f t="shared" si="21"/>
-        <v>7.2744014732964972</v>
+        <v>-2.1216407355021216</v>
       </c>
       <c r="AP28" s="1">
         <f t="shared" si="22"/>
-        <v>7.2744014732964972</v>
+        <v>2.1216407355021216</v>
       </c>
       <c r="AQ28" s="1">
         <f t="shared" si="23"/>
-        <v>0.57224606580829751</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.53468208092486202</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="25"/>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="AV28" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW28" t="str">
         <f t="shared" si="29"/>
@@ -5781,38 +5781,38 @@
         <v>77</v>
       </c>
       <c r="B29">
-        <v>1350</v>
+        <v>1448</v>
       </c>
       <c r="C29">
-        <v>1355</v>
+        <v>1520</v>
       </c>
       <c r="D29">
-        <v>1321</v>
+        <v>1440</v>
       </c>
       <c r="E29">
-        <v>1345.6</v>
+        <v>1493.5</v>
       </c>
       <c r="F29">
-        <v>5.5999999999999091</v>
+        <v>91.799999999999955</v>
       </c>
       <c r="G29">
-        <v>0.41791044776118719</v>
+        <v>6.5491902689591184</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>-0.32592592592593267</v>
+        <v>3.1422651933701662</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>0.32592592592593267</v>
+        <v>3.1422651933701662</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>0.37037037037037041</v>
+        <v>1.7743555406762639</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>1.8281807372175916</v>
+        <v>0.55248618784530379</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5843,38 +5843,38 @@
         <v>NO</v>
       </c>
       <c r="S29">
-        <v>1349</v>
+        <v>1349.4</v>
       </c>
       <c r="T29">
-        <v>1370</v>
+        <v>1425</v>
       </c>
       <c r="U29">
-        <v>1323.45</v>
+        <v>1341.05</v>
       </c>
       <c r="V29">
-        <v>1340</v>
+        <v>1401.7</v>
       </c>
       <c r="W29">
-        <v>9.9000000000000909</v>
+        <v>56.100000000000144</v>
       </c>
       <c r="X29">
-        <v>0.74430493947824161</v>
+        <v>4.1691438763377038</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" si="11"/>
-        <v>-0.66716085989621943</v>
+        <v>3.8757966503631205</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" si="12"/>
-        <v>0.66716085989621943</v>
+        <v>3.8757966503631205</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" si="13"/>
-        <v>1.5567086730911788</v>
+        <v>1.6622672469144575</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" si="14"/>
-        <v>1.2350746268656683</v>
+        <v>0.6187935378686924</v>
       </c>
       <c r="AC29" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5901,38 +5901,38 @@
         <v>NO</v>
       </c>
       <c r="AI29">
-        <v>1282</v>
+        <v>1350</v>
       </c>
       <c r="AJ29">
-        <v>1353.5</v>
+        <v>1355</v>
       </c>
       <c r="AK29">
-        <v>1281</v>
+        <v>1321</v>
       </c>
       <c r="AL29">
-        <v>1330.1</v>
+        <v>1345.6</v>
       </c>
       <c r="AM29">
-        <v>72.349999999999909</v>
+        <v>5.5999999999999091</v>
       </c>
       <c r="AN29">
-        <v>5.7523355197773736</v>
+        <v>0.41791044776118719</v>
       </c>
       <c r="AO29" s="1">
         <f t="shared" si="21"/>
-        <v>3.7519500780031128</v>
+        <v>-0.32592592592593267</v>
       </c>
       <c r="AP29" s="1">
         <f t="shared" si="22"/>
-        <v>3.7519500780031128</v>
+        <v>0.32592592592593267</v>
       </c>
       <c r="AQ29" s="1">
         <f t="shared" si="23"/>
-        <v>1.7592662205849252</v>
+        <v>0.37037037037037041</v>
       </c>
       <c r="AR29" s="1">
         <f t="shared" si="24"/>
-        <v>7.8003120124804995E-2</v>
+        <v>1.8281807372175916</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="25"/>
@@ -5964,38 +5964,38 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>741</v>
+        <v>837.8</v>
       </c>
       <c r="C30">
-        <v>838</v>
+        <v>848.5</v>
       </c>
       <c r="D30">
-        <v>735.6</v>
+        <v>785.65</v>
       </c>
       <c r="E30">
-        <v>814.6</v>
+        <v>818.7</v>
       </c>
       <c r="F30">
-        <v>82.850000000000023</v>
+        <v>-12.049999999999949</v>
       </c>
       <c r="G30">
-        <v>11.322172873249061</v>
+        <v>-1.4504965392717371</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>9.9325236167341462</v>
+        <v>-2.2797803771783136</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>9.9325236167341462</v>
+        <v>2.2797803771783136</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>2.8725754971765256</v>
+        <v>1.2771544521365537</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>0.72874493927125206</v>
+        <v>4.0368877488701678</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6026,38 +6026,38 @@
         <v>NO</v>
       </c>
       <c r="S30">
-        <v>729</v>
+        <v>819</v>
       </c>
       <c r="T30">
-        <v>750</v>
+        <v>860</v>
       </c>
       <c r="U30">
-        <v>720</v>
+        <v>819</v>
       </c>
       <c r="V30">
-        <v>731.75</v>
+        <v>830.75</v>
       </c>
       <c r="W30">
-        <v>11.799999999999949</v>
+        <v>16.149999999999981</v>
       </c>
       <c r="X30">
-        <v>1.6390027085214189</v>
+        <v>1.982568131598327</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" si="11"/>
-        <v>0.37722908093278462</v>
+        <v>1.4346764346764347</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" si="12"/>
-        <v>0.37722908093278462</v>
+        <v>1.4346764346764347</v>
       </c>
       <c r="AA30" s="1">
         <f t="shared" si="13"/>
-        <v>2.4940211820977112</v>
+        <v>3.5209148359915741</v>
       </c>
       <c r="AB30" s="1">
         <f t="shared" si="14"/>
-        <v>1.2345679012345678</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6084,38 +6084,38 @@
         <v>NO</v>
       </c>
       <c r="AI30">
-        <v>707</v>
+        <v>741</v>
       </c>
       <c r="AJ30">
-        <v>765.3</v>
+        <v>838</v>
       </c>
       <c r="AK30">
-        <v>707</v>
+        <v>735.6</v>
       </c>
       <c r="AL30">
-        <v>719.95</v>
+        <v>814.6</v>
       </c>
       <c r="AM30">
-        <v>14.100000000000019</v>
+        <v>82.850000000000023</v>
       </c>
       <c r="AN30">
-        <v>1.997591556279666</v>
+        <v>11.322172873249061</v>
       </c>
       <c r="AO30" s="1">
         <f t="shared" si="21"/>
-        <v>1.8316831683168382</v>
+        <v>9.9325236167341462</v>
       </c>
       <c r="AP30" s="1">
         <f t="shared" si="22"/>
-        <v>1.8316831683168382</v>
+        <v>9.9325236167341462</v>
       </c>
       <c r="AQ30" s="1">
         <f t="shared" si="23"/>
-        <v>6.2990485450378371</v>
+        <v>2.8725754971765256</v>
       </c>
       <c r="AR30" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.72874493927125206</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="25"/>
@@ -6150,35 +6150,35 @@
         <v>148</v>
       </c>
       <c r="C31">
-        <v>150</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="D31">
-        <v>146.55000000000001</v>
+        <v>146.05000000000001</v>
       </c>
       <c r="E31">
-        <v>147.30000000000001</v>
+        <v>148.35</v>
       </c>
       <c r="F31">
-        <v>-1.3499999999999941</v>
+        <v>0.34999999999999432</v>
       </c>
       <c r="G31">
-        <v>-0.90817356205852295</v>
+        <v>0.2364864864864826</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>-0.47297297297296526</v>
+        <v>0.23648648648648263</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>0.47297297297296526</v>
+        <v>0.23648648648648263</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>1.3513513513513513</v>
+        <v>0.91001011122345421</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>0.50916496945010181</v>
+        <v>1.3175675675675598</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6209,38 +6209,38 @@
         <v>NO</v>
       </c>
       <c r="S31">
-        <v>149.1</v>
+        <v>146.5</v>
       </c>
       <c r="T31">
-        <v>152</v>
+        <v>149.9</v>
       </c>
       <c r="U31">
-        <v>146.1</v>
+        <v>145.1</v>
       </c>
       <c r="V31">
-        <v>148.65</v>
+        <v>148</v>
       </c>
       <c r="W31">
-        <v>-0.15000000000000571</v>
+        <v>0.69999999999998863</v>
       </c>
       <c r="X31">
-        <v>-0.10080645161290699</v>
+        <v>0.47522063815342058</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="11"/>
-        <v>-0.30181086519113925</v>
+        <v>1.0238907849829351</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="12"/>
-        <v>0.30181086519113925</v>
+        <v>1.0238907849829351</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="13"/>
-        <v>1.9450033534540616</v>
+        <v>1.2837837837837878</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="14"/>
-        <v>1.7154389505550025</v>
+        <v>0.95563139931741004</v>
       </c>
       <c r="AC31" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6267,38 +6267,38 @@
         <v>NO</v>
       </c>
       <c r="AI31">
-        <v>144.80000000000001</v>
+        <v>148</v>
       </c>
       <c r="AJ31">
-        <v>150.69999999999999</v>
+        <v>150</v>
       </c>
       <c r="AK31">
-        <v>143.69999999999999</v>
+        <v>146.55000000000001</v>
       </c>
       <c r="AL31">
-        <v>148.80000000000001</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="AM31">
-        <v>5.4000000000000057</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="AN31">
-        <v>3.765690376569041</v>
+        <v>-0.90817356205852295</v>
       </c>
       <c r="AO31" s="1">
         <f t="shared" si="21"/>
-        <v>2.7624309392265194</v>
+        <v>-0.47297297297296526</v>
       </c>
       <c r="AP31" s="1">
         <f t="shared" si="22"/>
-        <v>2.7624309392265194</v>
+        <v>0.47297297297296526</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="23"/>
-        <v>1.2768817204300922</v>
+        <v>1.3513513513513513</v>
       </c>
       <c r="AR31" s="1">
         <f t="shared" si="24"/>
-        <v>0.75966850828730847</v>
+        <v>0.50916496945010181</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="25"/>
@@ -6330,38 +6330,38 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>2028.8</v>
+        <v>1930</v>
       </c>
       <c r="C32">
-        <v>2028.8</v>
+        <v>1969.35</v>
       </c>
       <c r="D32">
-        <v>1921</v>
+        <v>1849.2</v>
       </c>
       <c r="E32">
-        <v>1935.7</v>
+        <v>1868</v>
       </c>
       <c r="F32">
-        <v>-85.099999999999909</v>
+        <v>-58.299999999999947</v>
       </c>
       <c r="G32">
-        <v>-4.2112034837688004</v>
+        <v>-3.026527539843221</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>-4.588919558359617</v>
+        <v>-3.2124352331606216</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>4.588919558359617</v>
+        <v>3.2124352331606216</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0388601036269383</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>0.7594151986361547</v>
+        <v>1.0064239828693766</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6392,38 +6392,38 @@
         <v>NO</v>
       </c>
       <c r="S32">
-        <v>1918</v>
+        <v>1950</v>
       </c>
       <c r="T32">
-        <v>2040</v>
+        <v>1988</v>
       </c>
       <c r="U32">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="V32">
-        <v>2020.8</v>
+        <v>1926.3</v>
       </c>
       <c r="W32">
-        <v>104.8</v>
+        <v>-9.4000000000000909</v>
       </c>
       <c r="X32">
-        <v>5.4697286012526076</v>
+        <v>-0.48561243994421088</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="11"/>
-        <v>5.3597497393117806</v>
+        <v>-1.2153846153846177</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="12"/>
-        <v>5.3597497393117806</v>
+        <v>1.2153846153846177</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="13"/>
-        <v>0.95011876484560798</v>
+        <v>1.9487179487179489</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="14"/>
-        <v>0.10427528675703858</v>
+        <v>0.32705186108082618</v>
       </c>
       <c r="AC32" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6447,41 +6447,41 @@
       </c>
       <c r="AH32" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AI32">
-        <v>1795</v>
+        <v>2028.8</v>
       </c>
       <c r="AJ32">
-        <v>1955</v>
+        <v>2028.8</v>
       </c>
       <c r="AK32">
-        <v>1761.3</v>
+        <v>1921</v>
       </c>
       <c r="AL32">
-        <v>1916</v>
+        <v>1935.7</v>
       </c>
       <c r="AM32">
-        <v>160.30000000000001</v>
+        <v>-85.099999999999909</v>
       </c>
       <c r="AN32">
-        <v>9.1302614341857922</v>
+        <v>-4.2112034837688004</v>
       </c>
       <c r="AO32" s="1">
         <f t="shared" si="21"/>
-        <v>6.740947075208914</v>
+        <v>-4.588919558359617</v>
       </c>
       <c r="AP32" s="1">
         <f t="shared" si="22"/>
-        <v>6.740947075208914</v>
+        <v>4.588919558359617</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="23"/>
-        <v>2.0354906054279751</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="1">
         <f t="shared" si="24"/>
-        <v>1.877437325905295</v>
+        <v>0.7594151986361547</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="25"/>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="AX32" t="str">
         <f t="shared" si="30"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
@@ -6513,38 +6513,38 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>1711.8</v>
+        <v>1768</v>
       </c>
       <c r="C33">
-        <v>1738</v>
+        <v>1783.45</v>
       </c>
       <c r="D33">
-        <v>1675</v>
+        <v>1723</v>
       </c>
       <c r="E33">
-        <v>1685.95</v>
+        <v>1743.55</v>
       </c>
       <c r="F33">
-        <v>-15.099999999999911</v>
+        <v>-16.799999999999951</v>
       </c>
       <c r="G33">
-        <v>-0.88768701684253315</v>
+        <v>-0.95435566790694781</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>-1.5101063208318677</v>
+        <v>-1.3829185520362017</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>1.5101063208318677</v>
+        <v>1.3829185520362017</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>1.5305526346535838</v>
+        <v>0.87386877828054565</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>0.64948545330526086</v>
+        <v>1.1786298070029513</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6575,38 +6575,38 @@
         <v>NO</v>
       </c>
       <c r="S33">
-        <v>1768.8</v>
+        <v>1675</v>
       </c>
       <c r="T33">
-        <v>1768.8</v>
+        <v>1790</v>
       </c>
       <c r="U33">
-        <v>1685.75</v>
+        <v>1651</v>
       </c>
       <c r="V33">
-        <v>1701.05</v>
+        <v>1760.35</v>
       </c>
       <c r="W33">
-        <v>-48.049999999999947</v>
+        <v>74.399999999999864</v>
       </c>
       <c r="X33">
-        <v>-2.7471270939340209</v>
+        <v>4.4129422580740751</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="11"/>
-        <v>-3.8302804161013118</v>
+        <v>5.0955223880596954</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" si="12"/>
-        <v>3.8302804161013118</v>
+        <v>5.0955223880596954</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.6843241400857836</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" si="14"/>
-        <v>0.89944446077422491</v>
+        <v>1.4328358208955223</v>
       </c>
       <c r="AC33" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6633,38 +6633,38 @@
         <v>NO</v>
       </c>
       <c r="AI33">
-        <v>1595</v>
+        <v>1711.8</v>
       </c>
       <c r="AJ33">
-        <v>1859</v>
+        <v>1738</v>
       </c>
       <c r="AK33">
-        <v>1595</v>
+        <v>1675</v>
       </c>
       <c r="AL33">
-        <v>1749.1</v>
+        <v>1685.95</v>
       </c>
       <c r="AM33">
-        <v>194.25</v>
+        <v>-15.099999999999911</v>
       </c>
       <c r="AN33">
-        <v>12.49316654339647</v>
+        <v>-0.88768701684253315</v>
       </c>
       <c r="AO33" s="1">
         <f t="shared" si="21"/>
-        <v>9.6614420062695867</v>
+        <v>-1.5101063208318677</v>
       </c>
       <c r="AP33" s="1">
         <f t="shared" si="22"/>
-        <v>9.6614420062695867</v>
+        <v>1.5101063208318677</v>
       </c>
       <c r="AQ33" s="1">
         <f t="shared" si="23"/>
-        <v>6.2832313761363041</v>
+        <v>1.5305526346535838</v>
       </c>
       <c r="AR33" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.64948545330526086</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="25"/>
@@ -6696,38 +6696,38 @@
         <v>82</v>
       </c>
       <c r="B34">
-        <v>26.45</v>
+        <v>25.85</v>
       </c>
       <c r="C34">
-        <v>26.7</v>
+        <v>26.35</v>
       </c>
       <c r="D34">
-        <v>26.2</v>
+        <v>25.65</v>
       </c>
       <c r="E34">
-        <v>26.5</v>
+        <v>25.75</v>
       </c>
       <c r="F34">
-        <v>-5.0000000000000711E-2</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="G34">
-        <v>-0.18832391713747909</v>
+        <v>-0.77071290944123039</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ref="H34:H51" si="31">(E34-B34)/B34*100</f>
-        <v>0.18903591682419929</v>
+        <v>-0.38684719535783912</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" ref="I34:I65" si="32">ABS(H34)</f>
-        <v>0.18903591682419929</v>
+        <v>0.38684719535783912</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ref="J34:J51" si="33">IF(H34&gt;=0,(C34-E34)/E34*100,(C34-B34)/B34*100)</f>
-        <v>0.75471698113207275</v>
+        <v>1.9342359767891681</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ref="K34:K51" si="34">IF(H34&gt;=0,(B34-D34)/B34*100,(E34-D34)/E34*100)</f>
-        <v>0.94517958412098302</v>
+        <v>0.38834951456311234</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" ref="L34:L65" si="35">IF(AND((K34-J34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="N34" t="str">
         <f t="shared" ref="N34:N51" si="37">IF(AND((J34-K34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O34" s="1" t="str">
         <f t="shared" ref="O34:O51" si="38">IF(AND((J34-K34)&gt;1.5,I34&lt;2,I34&gt;0.5,H34&lt;0),"YES","NO")</f>
@@ -6758,38 +6758,38 @@
         <v>NO</v>
       </c>
       <c r="S34">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="T34">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="U34">
-        <v>26.05</v>
+        <v>25.8</v>
       </c>
       <c r="V34">
-        <v>26.55</v>
+        <v>25.95</v>
       </c>
       <c r="W34">
-        <v>-0.69999999999999929</v>
+        <v>-0.55000000000000071</v>
       </c>
       <c r="X34">
-        <v>-2.5688073394495392</v>
+        <v>-2.0754716981132102</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ref="Y34:Y51" si="42">(V34-S34)/S34*100</f>
-        <v>-1.6666666666666639</v>
+        <v>-1.3307984790874579</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" ref="Z34:Z65" si="43">ABS(Y34)</f>
-        <v>1.6666666666666639</v>
+        <v>1.3307984790874579</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" ref="AA34:AA51" si="44">IF(Y34&gt;=0,(T34-V34)/V34*100,(T34-S34)/S34*100)</f>
-        <v>0.37037037037037562</v>
+        <v>0.76045627376425584</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" ref="AB34:AB51" si="45">IF(Y34&gt;=0,(S34-U34)/S34*100,(V34-U34)/V34*100)</f>
-        <v>1.8832391713747645</v>
+        <v>0.57803468208091935</v>
       </c>
       <c r="AC34" s="1" t="str">
         <f t="shared" ref="AC34:AC51" si="46">IF(AND(I34&lt;Z34/2,S34&gt;E34,E34&gt;(S34+V34)/2,V34&lt;B34,B34&lt;(S34+V34)/2),"YES","NO")</f>
@@ -6816,38 +6816,38 @@
         <v>NO</v>
       </c>
       <c r="AI34">
+        <v>26.45</v>
+      </c>
+      <c r="AJ34">
+        <v>26.7</v>
+      </c>
+      <c r="AK34">
+        <v>26.2</v>
+      </c>
+      <c r="AL34">
         <v>26.5</v>
       </c>
-      <c r="AJ34">
-        <v>27.75</v>
-      </c>
-      <c r="AK34">
-        <v>26.45</v>
-      </c>
-      <c r="AL34">
-        <v>27.25</v>
-      </c>
       <c r="AM34">
-        <v>1.1999999999999991</v>
+        <v>-5.0000000000000711E-2</v>
       </c>
       <c r="AN34">
-        <v>4.6065259117082507</v>
+        <v>-0.18832391713747909</v>
       </c>
       <c r="AO34" s="1">
         <f t="shared" ref="AO34:AO51" si="52">(AL34-AI34)/AI34*100</f>
-        <v>2.8301886792452833</v>
+        <v>0.18903591682419929</v>
       </c>
       <c r="AP34" s="1">
         <f t="shared" ref="AP34:AP65" si="53">ABS(AO34)</f>
-        <v>2.8301886792452833</v>
+        <v>0.18903591682419929</v>
       </c>
       <c r="AQ34" s="1">
         <f t="shared" ref="AQ34:AQ51" si="54">IF(AO34&gt;=0,(AJ34-AL34)/AL34*100,(AJ34-AI34)/AI34*100)</f>
-        <v>1.834862385321101</v>
+        <v>0.75471698113207275</v>
       </c>
       <c r="AR34" s="1">
         <f t="shared" ref="AR34:AR51" si="55">IF(AO34&gt;=0,(AI34-AK34)/AI34*100,(AL34-AK34)/AL34*100)</f>
-        <v>0.18867924528302155</v>
+        <v>0.94517958412098302</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" ref="AS34:AS51" si="56">IF(AND(AO34&lt;0,AP34&gt;1.5,Y34&lt;0,Z34&gt;1.5,AL34&gt;S34,AL34&lt;E34,H34&gt;0,I34&gt;1.5),"YES","NO")</f>
@@ -6879,38 +6879,38 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>2225</v>
+        <v>2128</v>
       </c>
       <c r="C35">
-        <v>2250</v>
+        <v>2145.4499999999998</v>
       </c>
       <c r="D35">
-        <v>2145</v>
+        <v>2031.65</v>
       </c>
       <c r="E35">
-        <v>2160.1</v>
+        <v>2048</v>
       </c>
       <c r="F35">
-        <v>-15.30000000000018</v>
+        <v>-67.650000000000091</v>
       </c>
       <c r="G35">
-        <v>-0.70331892985198963</v>
+        <v>-3.197598846690147</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="31"/>
-        <v>-2.9168539325842739</v>
+        <v>-3.7593984962406015</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="32"/>
-        <v>2.9168539325842739</v>
+        <v>3.7593984962406015</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="33"/>
-        <v>1.1235955056179776</v>
+        <v>0.82001879699247271</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="34"/>
-        <v>0.6990417110318925</v>
+        <v>0.79833984374999556</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="35"/>
@@ -6941,38 +6941,38 @@
         <v>NO</v>
       </c>
       <c r="S35">
-        <v>2098</v>
+        <v>2183.9499999999998</v>
       </c>
       <c r="T35">
-        <v>2199</v>
+        <v>2183.9499999999998</v>
       </c>
       <c r="U35">
-        <v>2090</v>
+        <v>2110</v>
       </c>
       <c r="V35">
-        <v>2175.4</v>
+        <v>2115.65</v>
       </c>
       <c r="W35">
-        <v>106.0500000000002</v>
+        <v>-44.449999999999818</v>
       </c>
       <c r="X35">
-        <v>5.1247976417715799</v>
+        <v>-2.0577751030044822</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="42"/>
-        <v>3.6892278360343229</v>
+        <v>-3.1273609743812694</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" si="43"/>
-        <v>3.6892278360343229</v>
+        <v>3.1273609743812694</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="44"/>
-        <v>1.0848579571573</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="1">
         <f t="shared" si="45"/>
-        <v>0.38131553860819828</v>
+        <v>0.2670574055254929</v>
       </c>
       <c r="AC35" s="1" t="str">
         <f t="shared" si="46"/>
@@ -6999,38 +6999,38 @@
         <v>NO</v>
       </c>
       <c r="AI35">
-        <v>1989</v>
+        <v>2225</v>
       </c>
       <c r="AJ35">
-        <v>2144</v>
+        <v>2250</v>
       </c>
       <c r="AK35">
-        <v>1981.05</v>
+        <v>2145</v>
       </c>
       <c r="AL35">
-        <v>2069.35</v>
+        <v>2160.1</v>
       </c>
       <c r="AM35">
-        <v>111.89999999999991</v>
+        <v>-15.30000000000018</v>
       </c>
       <c r="AN35">
-        <v>5.7166211142046981</v>
+        <v>-0.70331892985198963</v>
       </c>
       <c r="AO35" s="1">
         <f t="shared" si="52"/>
-        <v>4.0397184514831528</v>
+        <v>-2.9168539325842739</v>
       </c>
       <c r="AP35" s="1">
         <f t="shared" si="53"/>
-        <v>4.0397184514831528</v>
+        <v>2.9168539325842739</v>
       </c>
       <c r="AQ35" s="1">
         <f t="shared" si="54"/>
-        <v>3.6074129557590595</v>
+        <v>1.1235955056179776</v>
       </c>
       <c r="AR35" s="1">
         <f t="shared" si="55"/>
-        <v>0.39969834087481376</v>
+        <v>0.6990417110318925</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="56"/>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="AX35" t="str">
         <f t="shared" si="61"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
@@ -7062,38 +7062,38 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>1272</v>
+        <v>1233.4000000000001</v>
       </c>
       <c r="C36">
-        <v>1284.9000000000001</v>
+        <v>1242</v>
       </c>
       <c r="D36">
-        <v>1236.25</v>
+        <v>1200</v>
       </c>
       <c r="E36">
-        <v>1248.25</v>
+        <v>1203.9000000000001</v>
       </c>
       <c r="F36">
-        <v>-16.5</v>
+        <v>-18.39999999999986</v>
       </c>
       <c r="G36">
-        <v>-1.3046056532911641</v>
+        <v>-1.505358749897723</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="31"/>
-        <v>-1.867138364779874</v>
+        <v>-2.3917626074266254</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="32"/>
-        <v>1.867138364779874</v>
+        <v>2.3917626074266254</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="33"/>
-        <v>1.0141509433962337</v>
+        <v>0.69725960758877159</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="34"/>
-        <v>0.9613458842379331</v>
+        <v>0.32394717169200854</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7124,38 +7124,38 @@
         <v>NO</v>
       </c>
       <c r="S36">
-        <v>1300</v>
+        <v>1252</v>
       </c>
       <c r="T36">
-        <v>1329</v>
+        <v>1263</v>
       </c>
       <c r="U36">
-        <v>1257.8499999999999</v>
+        <v>1213.8</v>
       </c>
       <c r="V36">
-        <v>1264.75</v>
+        <v>1222.3</v>
       </c>
       <c r="W36">
-        <v>-44.849999999999909</v>
+        <v>-25.950000000000049</v>
       </c>
       <c r="X36">
-        <v>-3.4247098350641352</v>
+        <v>-2.0789104746645339</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" si="42"/>
-        <v>-2.7115384615384612</v>
+        <v>-2.3722044728434541</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" si="43"/>
-        <v>2.7115384615384612</v>
+        <v>2.3722044728434541</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="44"/>
-        <v>2.2307692307692308</v>
+        <v>0.87859424920127793</v>
       </c>
       <c r="AB36" s="1">
         <f t="shared" si="45"/>
-        <v>0.54556236410358505</v>
+        <v>0.69541029207232274</v>
       </c>
       <c r="AC36" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7182,38 +7182,38 @@
         <v>NO</v>
       </c>
       <c r="AI36">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="AJ36">
-        <v>1320</v>
+        <v>1284.9000000000001</v>
       </c>
       <c r="AK36">
-        <v>1261.4000000000001</v>
+        <v>1236.25</v>
       </c>
       <c r="AL36">
-        <v>1309.5999999999999</v>
+        <v>1248.25</v>
       </c>
       <c r="AM36">
-        <v>54.799999999999947</v>
+        <v>-16.5</v>
       </c>
       <c r="AN36">
-        <v>4.3672298374242873</v>
+        <v>-1.3046056532911641</v>
       </c>
       <c r="AO36" s="1">
         <f t="shared" si="52"/>
-        <v>3.5256916996047361</v>
+        <v>-1.867138364779874</v>
       </c>
       <c r="AP36" s="1">
         <f t="shared" si="53"/>
-        <v>3.5256916996047361</v>
+        <v>1.867138364779874</v>
       </c>
       <c r="AQ36" s="1">
         <f t="shared" si="54"/>
-        <v>0.79413561392792398</v>
+        <v>1.0141509433962337</v>
       </c>
       <c r="AR36" s="1">
         <f t="shared" si="55"/>
-        <v>0.28458498023714696</v>
+        <v>0.9613458842379331</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="56"/>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="AX36" t="str">
         <f t="shared" si="61"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
@@ -7245,38 +7245,38 @@
         <v>85</v>
       </c>
       <c r="B37">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C37">
-        <v>1190</v>
+        <v>1200</v>
       </c>
       <c r="D37">
-        <v>1131.0999999999999</v>
+        <v>1157.25</v>
       </c>
       <c r="E37">
-        <v>1166.8499999999999</v>
+        <v>1191.1500000000001</v>
       </c>
       <c r="F37">
-        <v>-1.75</v>
+        <v>19.400000000000091</v>
       </c>
       <c r="G37">
-        <v>-0.14975183980831769</v>
+        <v>1.6556432686153271</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="31"/>
-        <v>-1.2817258883248808</v>
+        <v>0.94491525423729583</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="32"/>
-        <v>1.2817258883248808</v>
+        <v>0.94491525423729583</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="33"/>
-        <v>0.67681895093062605</v>
+        <v>0.74297947361792449</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="34"/>
-        <v>3.0638042593306771</v>
+        <v>1.9279661016949154</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7307,38 +7307,38 @@
         <v>NO</v>
       </c>
       <c r="S37">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="T37">
-        <v>1240</v>
+        <v>1183</v>
       </c>
       <c r="U37">
-        <v>1140.4000000000001</v>
+        <v>1142.3499999999999</v>
       </c>
       <c r="V37">
-        <v>1168.5999999999999</v>
+        <v>1171.75</v>
       </c>
       <c r="W37">
-        <v>14.5</v>
+        <v>4.9000000000000909</v>
       </c>
       <c r="X37">
-        <v>1.256390260809289</v>
+        <v>0.41993401036980688</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="42"/>
-        <v>5.1369863013690842E-2</v>
+        <v>1.0129310344827585</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" si="43"/>
-        <v>5.1369863013690842E-2</v>
+        <v>1.0129310344827585</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="44"/>
-        <v>6.1098750641793682</v>
+        <v>0.96010241092383197</v>
       </c>
       <c r="AB37" s="1">
         <f t="shared" si="45"/>
-        <v>2.3630136986301293</v>
+        <v>1.5215517241379388</v>
       </c>
       <c r="AC37" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7365,38 +7365,38 @@
         <v>NO</v>
       </c>
       <c r="AI37">
-        <v>1025.9000000000001</v>
+        <v>1182</v>
       </c>
       <c r="AJ37">
-        <v>1187.95</v>
+        <v>1190</v>
       </c>
       <c r="AK37">
-        <v>1025.9000000000001</v>
+        <v>1131.0999999999999</v>
       </c>
       <c r="AL37">
-        <v>1154.0999999999999</v>
+        <v>1166.8499999999999</v>
       </c>
       <c r="AM37">
-        <v>143.05000000000001</v>
+        <v>-1.75</v>
       </c>
       <c r="AN37">
-        <v>14.14865733643242</v>
+        <v>-0.14975183980831769</v>
       </c>
       <c r="AO37" s="1">
         <f t="shared" si="52"/>
-        <v>12.496344672970055</v>
+        <v>-1.2817258883248808</v>
       </c>
       <c r="AP37" s="1">
         <f t="shared" si="53"/>
-        <v>12.496344672970055</v>
+        <v>1.2817258883248808</v>
       </c>
       <c r="AQ37" s="1">
         <f t="shared" si="54"/>
-        <v>2.9330214019582477</v>
+        <v>0.67681895093062605</v>
       </c>
       <c r="AR37" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>3.0638042593306771</v>
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="56"/>
@@ -7428,38 +7428,38 @@
         <v>86</v>
       </c>
       <c r="B38">
-        <v>5665</v>
+        <v>5390</v>
       </c>
       <c r="C38">
-        <v>5665</v>
+        <v>5477</v>
       </c>
       <c r="D38">
-        <v>5325</v>
+        <v>5249.85</v>
       </c>
       <c r="E38">
-        <v>5424.8</v>
+        <v>5273.1</v>
       </c>
       <c r="F38">
-        <v>-224.09999999999951</v>
+        <v>-114.14999999999959</v>
       </c>
       <c r="G38">
-        <v>-3.9671440457434102</v>
+        <v>-2.118891827927043</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="31"/>
-        <v>-4.240070609002645</v>
+        <v>-2.1688311688311623</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="32"/>
-        <v>4.240070609002645</v>
+        <v>2.1688311688311623</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1.6141001855287569</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="34"/>
-        <v>1.8396991594160188</v>
+        <v>0.44091710758377423</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7490,38 +7490,38 @@
         <v>NO</v>
       </c>
       <c r="S38">
-        <v>5299</v>
+        <v>5425</v>
       </c>
       <c r="T38">
-        <v>5685</v>
+        <v>5537</v>
       </c>
       <c r="U38">
-        <v>5262.35</v>
+        <v>5307.4</v>
       </c>
       <c r="V38">
-        <v>5648.9</v>
+        <v>5387.25</v>
       </c>
       <c r="W38">
-        <v>398.84999999999951</v>
+        <v>-37.550000000000182</v>
       </c>
       <c r="X38">
-        <v>7.5970705040904267</v>
+        <v>-0.69219141719510724</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="42"/>
-        <v>6.6031326665408496</v>
+        <v>-0.69585253456221197</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" si="43"/>
-        <v>6.6031326665408496</v>
+        <v>0.69585253456221197</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" si="44"/>
-        <v>0.63906247233975411</v>
+        <v>2.064516129032258</v>
       </c>
       <c r="AB38" s="1">
         <f t="shared" si="45"/>
-        <v>0.69163993206264651</v>
+        <v>1.4822033505035104</v>
       </c>
       <c r="AC38" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7545,41 +7545,41 @@
       </c>
       <c r="AH38" s="1" t="str">
         <f t="shared" si="51"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AI38">
-        <v>4881</v>
+        <v>5665</v>
       </c>
       <c r="AJ38">
-        <v>5470</v>
+        <v>5665</v>
       </c>
       <c r="AK38">
-        <v>4860</v>
+        <v>5325</v>
       </c>
       <c r="AL38">
-        <v>5250.05</v>
+        <v>5424.8</v>
       </c>
       <c r="AM38">
-        <v>357.15000000000049</v>
+        <v>-224.09999999999951</v>
       </c>
       <c r="AN38">
-        <v>7.2993521224631719</v>
+        <v>-3.9671440457434102</v>
       </c>
       <c r="AO38" s="1">
         <f t="shared" si="52"/>
-        <v>7.5609506248719569</v>
+        <v>-4.240070609002645</v>
       </c>
       <c r="AP38" s="1">
         <f t="shared" si="53"/>
-        <v>7.5609506248719569</v>
+        <v>4.240070609002645</v>
       </c>
       <c r="AQ38" s="1">
         <f t="shared" si="54"/>
-        <v>4.1894839096770466</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="1">
         <f t="shared" si="55"/>
-        <v>0.43023970497848807</v>
+        <v>1.8396991594160188</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" si="56"/>
@@ -7611,38 +7611,38 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>258.39999999999998</v>
+        <v>257</v>
       </c>
       <c r="C39">
-        <v>258.39999999999998</v>
+        <v>258.8</v>
       </c>
       <c r="D39">
-        <v>249.2</v>
+        <v>251.55</v>
       </c>
       <c r="E39">
-        <v>249.9</v>
+        <v>255.4</v>
       </c>
       <c r="F39">
-        <v>-6.0499999999999829</v>
+        <v>2.4000000000000061</v>
       </c>
       <c r="G39">
-        <v>-2.3637429185387711</v>
+        <v>0.94861660079051613</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="31"/>
-        <v>-3.2894736842105159</v>
+        <v>-0.6225680933852118</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="32"/>
-        <v>3.2894736842105159</v>
+        <v>0.6225680933852118</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.70038910505837015</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="34"/>
-        <v>0.280112044817934</v>
+        <v>1.5074393108848843</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7673,38 +7673,38 @@
         <v>NO</v>
       </c>
       <c r="S39">
-        <v>255.5</v>
+        <v>248.4</v>
       </c>
       <c r="T39">
-        <v>256.95</v>
+        <v>254.5</v>
       </c>
       <c r="U39">
-        <v>253.5</v>
+        <v>248.4</v>
       </c>
       <c r="V39">
-        <v>255.95</v>
+        <v>253</v>
       </c>
       <c r="W39">
-        <v>4.5499999999999829</v>
+        <v>3.0999999999999939</v>
       </c>
       <c r="X39">
-        <v>1.809864757358784</v>
+        <v>1.240496198479389</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="42"/>
-        <v>0.17612524461839085</v>
+        <v>1.8518518518518496</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="43"/>
-        <v>0.17612524461839085</v>
+        <v>1.8518518518518496</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="44"/>
-        <v>0.3907013088493847</v>
+        <v>0.59288537549407105</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" si="45"/>
-        <v>0.78277886497064575</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7731,38 +7731,38 @@
         <v>NO</v>
       </c>
       <c r="AI39">
-        <v>243.75</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="AJ39">
-        <v>259.3</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="AK39">
-        <v>243.25</v>
+        <v>249.2</v>
       </c>
       <c r="AL39">
-        <v>251.4</v>
+        <v>249.9</v>
       </c>
       <c r="AM39">
-        <v>9.2000000000000171</v>
+        <v>-6.0499999999999829</v>
       </c>
       <c r="AN39">
-        <v>3.7985136251032272</v>
+        <v>-2.3637429185387711</v>
       </c>
       <c r="AO39" s="1">
         <f t="shared" si="52"/>
-        <v>3.1384615384615406</v>
+        <v>-3.2894736842105159</v>
       </c>
       <c r="AP39" s="1">
         <f t="shared" si="53"/>
-        <v>3.1384615384615406</v>
+        <v>3.2894736842105159</v>
       </c>
       <c r="AQ39" s="1">
         <f t="shared" si="54"/>
-        <v>3.1424025457438365</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="1">
         <f t="shared" si="55"/>
-        <v>0.20512820512820512</v>
+        <v>0.280112044817934</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="56"/>
@@ -7794,38 +7794,38 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>445.9</v>
+        <v>461.7</v>
       </c>
       <c r="C40">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D40">
-        <v>433.35</v>
+        <v>451</v>
       </c>
       <c r="E40">
-        <v>469.25</v>
+        <v>452.15</v>
       </c>
       <c r="F40">
-        <v>25.050000000000011</v>
+        <v>-5.4000000000000341</v>
       </c>
       <c r="G40">
-        <v>5.6393516434038746</v>
+        <v>-1.180198885367727</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="31"/>
-        <v>5.2366001345593238</v>
+        <v>-2.0684427117175681</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="32"/>
-        <v>5.2366001345593238</v>
+        <v>2.0684427117175681</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="33"/>
-        <v>0.58604155567394778</v>
+        <v>0.28156811782543023</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="34"/>
-        <v>2.814532406369131</v>
+        <v>0.25434037376976165</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7856,38 +7856,38 @@
         <v>NO</v>
       </c>
       <c r="S40">
-        <v>416.5</v>
+        <v>460</v>
       </c>
       <c r="T40">
-        <v>447.4</v>
+        <v>462.95</v>
       </c>
       <c r="U40">
-        <v>415.55</v>
+        <v>445</v>
       </c>
       <c r="V40">
-        <v>444.2</v>
+        <v>457.55</v>
       </c>
       <c r="W40">
-        <v>29.75</v>
+        <v>-11.69999999999999</v>
       </c>
       <c r="X40">
-        <v>7.1781879599469178</v>
+        <v>-2.4933404368673391</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" si="42"/>
-        <v>6.6506602641056398</v>
+        <v>-0.53260869565217139</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" si="43"/>
-        <v>6.6506602641056398</v>
+        <v>0.53260869565217139</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="44"/>
-        <v>0.72039621791985342</v>
+        <v>0.64130434782608448</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" si="45"/>
-        <v>0.22809123649459509</v>
+        <v>2.7428696317342389</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7914,38 +7914,38 @@
         <v>NO</v>
       </c>
       <c r="AI40">
-        <v>405.25</v>
+        <v>445.9</v>
       </c>
       <c r="AJ40">
-        <v>418.8</v>
+        <v>472</v>
       </c>
       <c r="AK40">
-        <v>400</v>
+        <v>433.35</v>
       </c>
       <c r="AL40">
-        <v>414.45</v>
+        <v>469.25</v>
       </c>
       <c r="AM40">
-        <v>20.449999999999989</v>
+        <v>25.050000000000011</v>
       </c>
       <c r="AN40">
-        <v>5.1903553299492362</v>
+        <v>5.6393516434038746</v>
       </c>
       <c r="AO40" s="1">
         <f t="shared" si="52"/>
-        <v>2.2702035780382452</v>
+        <v>5.2366001345593238</v>
       </c>
       <c r="AP40" s="1">
         <f t="shared" si="53"/>
-        <v>2.2702035780382452</v>
+        <v>5.2366001345593238</v>
       </c>
       <c r="AQ40" s="1">
         <f t="shared" si="54"/>
-        <v>1.0495837857401431</v>
+        <v>0.58604155567394778</v>
       </c>
       <c r="AR40" s="1">
         <f t="shared" si="55"/>
-        <v>1.2954966070326959</v>
+        <v>2.814532406369131</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="56"/>
@@ -7977,38 +7977,38 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>21.4</v>
+        <v>20.95</v>
       </c>
       <c r="C41">
-        <v>21.45</v>
+        <v>21.6</v>
       </c>
       <c r="D41">
-        <v>21.05</v>
+        <v>20.8</v>
       </c>
       <c r="E41">
-        <v>21.1</v>
+        <v>21.35</v>
       </c>
       <c r="F41">
-        <v>-0.19999999999999929</v>
+        <v>0.5</v>
       </c>
       <c r="G41">
-        <v>-0.93896713615023131</v>
+        <v>2.398081534772182</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="31"/>
-        <v>-1.4018691588784915</v>
+        <v>1.9093078758949982</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="32"/>
-        <v>1.4018691588784915</v>
+        <v>1.9093078758949982</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="33"/>
-        <v>0.23364485981308744</v>
+        <v>1.1709601873536299</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="34"/>
-        <v>0.23696682464455313</v>
+        <v>0.71599045346061374</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8039,38 +8039,38 @@
         <v>NO</v>
       </c>
       <c r="S41">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
       <c r="T41">
-        <v>21.6</v>
+        <v>21.15</v>
       </c>
       <c r="U41">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="V41">
-        <v>21.3</v>
+        <v>20.85</v>
       </c>
       <c r="W41">
-        <v>-0.14999999999999861</v>
+        <v>-0.25</v>
       </c>
       <c r="X41">
-        <v>-0.69930069930069272</v>
+        <v>-1.1848341232227491</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" si="42"/>
-        <v>-1.3888888888888922</v>
+        <v>-1.1848341232227488</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" si="43"/>
-        <v>1.3888888888888922</v>
+        <v>1.1848341232227488</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.23696682464453631</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" si="45"/>
-        <v>0.46948356807512404</v>
+        <v>0.23980815347722165</v>
       </c>
       <c r="AC41" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8097,38 +8097,38 @@
         <v>NO</v>
       </c>
       <c r="AI41">
+        <v>21.4</v>
+      </c>
+      <c r="AJ41">
         <v>21.45</v>
       </c>
-      <c r="AJ41">
-        <v>21.8</v>
-      </c>
       <c r="AK41">
-        <v>21.2</v>
+        <v>21.05</v>
       </c>
       <c r="AL41">
-        <v>21.45</v>
+        <v>21.1</v>
       </c>
       <c r="AM41">
-        <v>9.9999999999997868E-2</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="AN41">
-        <v>0.46838407494144202</v>
+        <v>-0.93896713615023131</v>
       </c>
       <c r="AO41" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>-1.4018691588784915</v>
       </c>
       <c r="AP41" s="1">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1.4018691588784915</v>
       </c>
       <c r="AQ41" s="1">
         <f t="shared" si="54"/>
-        <v>1.6317016317016386</v>
+        <v>0.23364485981308744</v>
       </c>
       <c r="AR41" s="1">
         <f t="shared" si="55"/>
-        <v>1.1655011655011656</v>
+        <v>0.23696682464455313</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="56"/>
@@ -8160,38 +8160,38 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>279.7</v>
+        <v>285.45</v>
       </c>
       <c r="C42">
-        <v>289.2</v>
+        <v>288</v>
       </c>
       <c r="D42">
-        <v>279.7</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="E42">
-        <v>286.55</v>
+        <v>282.75</v>
       </c>
       <c r="F42">
-        <v>8.6500000000000341</v>
+        <v>-0.94999999999998863</v>
       </c>
       <c r="G42">
-        <v>3.112630442605266</v>
+        <v>-0.33486076841733831</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="31"/>
-        <v>2.4490525563103405</v>
+        <v>-0.94587493431423675</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="32"/>
-        <v>2.4490525563103405</v>
+        <v>0.94587493431423675</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="33"/>
-        <v>0.92479497469899752</v>
+        <v>0.89332632685234248</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1.2908930150309381</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8222,38 +8222,38 @@
         <v>NO</v>
       </c>
       <c r="S42">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="T42">
-        <v>281.10000000000002</v>
+        <v>290.8</v>
       </c>
       <c r="U42">
-        <v>271.3</v>
+        <v>282.45</v>
       </c>
       <c r="V42">
-        <v>277.89999999999998</v>
+        <v>283.7</v>
       </c>
       <c r="W42">
-        <v>0.79999999999995453</v>
+        <v>-2.8500000000000232</v>
       </c>
       <c r="X42">
-        <v>0.2887044388307306</v>
+        <v>-0.99459082184610803</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" si="42"/>
-        <v>1.0545454545454462</v>
+        <v>-0.45614035087719695</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" si="43"/>
-        <v>1.0545454545454462</v>
+        <v>0.45614035087719695</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" si="44"/>
-        <v>1.1514933429291276</v>
+        <v>2.0350877192982493</v>
       </c>
       <c r="AB42" s="1">
         <f t="shared" si="45"/>
-        <v>1.3454545454545412</v>
+        <v>0.44060627423334514</v>
       </c>
       <c r="AC42" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8280,38 +8280,38 @@
         <v>NO</v>
       </c>
       <c r="AI42">
-        <v>274.7</v>
+        <v>279.7</v>
       </c>
       <c r="AJ42">
-        <v>282.5</v>
+        <v>289.2</v>
       </c>
       <c r="AK42">
-        <v>273.10000000000002</v>
+        <v>279.7</v>
       </c>
       <c r="AL42">
-        <v>277.10000000000002</v>
+        <v>286.55</v>
       </c>
       <c r="AM42">
-        <v>6.3500000000000227</v>
+        <v>8.6500000000000341</v>
       </c>
       <c r="AN42">
-        <v>2.3453370267774778</v>
+        <v>3.112630442605266</v>
       </c>
       <c r="AO42" s="1">
         <f t="shared" si="52"/>
-        <v>0.87368037859484304</v>
+        <v>2.4490525563103405</v>
       </c>
       <c r="AP42" s="1">
         <f t="shared" si="53"/>
-        <v>0.87368037859484304</v>
+        <v>2.4490525563103405</v>
       </c>
       <c r="AQ42" s="1">
         <f t="shared" si="54"/>
-        <v>1.948754962107534</v>
+        <v>0.92479497469899752</v>
       </c>
       <c r="AR42" s="1">
         <f t="shared" si="55"/>
-        <v>0.58245358572987471</v>
+        <v>0</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="56"/>
@@ -8343,38 +8343,38 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>53.6</v>
+        <v>52.3</v>
       </c>
       <c r="C43">
-        <v>55</v>
+        <v>52.75</v>
       </c>
       <c r="D43">
-        <v>52.3</v>
+        <v>51.3</v>
       </c>
       <c r="E43">
-        <v>53.1</v>
+        <v>51.5</v>
       </c>
       <c r="F43">
-        <v>-0.39999999999999858</v>
+        <v>-0.54999999999999716</v>
       </c>
       <c r="G43">
-        <v>-0.74766355140186647</v>
+        <v>-1.056676272814596</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="31"/>
-        <v>-0.93283582089552231</v>
+        <v>-1.5296367112810654</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="32"/>
-        <v>0.93283582089552231</v>
+        <v>1.5296367112810654</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="33"/>
-        <v>2.6119402985074598</v>
+        <v>0.86042065009560786</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="34"/>
-        <v>1.5065913370998196</v>
+        <v>0.38834951456311234</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="P43" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q43" s="1" t="str">
         <f t="shared" si="40"/>
@@ -8405,38 +8405,38 @@
         <v>NO</v>
       </c>
       <c r="S43">
-        <v>54.15</v>
+        <v>53.1</v>
       </c>
       <c r="T43">
-        <v>54.25</v>
+        <v>53.6</v>
       </c>
       <c r="U43">
-        <v>52.65</v>
+        <v>51.95</v>
       </c>
       <c r="V43">
-        <v>53.5</v>
+        <v>52.05</v>
       </c>
       <c r="W43">
-        <v>0.14999999999999861</v>
+        <v>-1.050000000000004</v>
       </c>
       <c r="X43">
-        <v>0.28116213683223718</v>
+        <v>-1.977401129943511</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="42"/>
-        <v>-1.2003693444136632</v>
+        <v>-1.977401129943511</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="43"/>
-        <v>1.2003693444136632</v>
+        <v>1.977401129943511</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="44"/>
-        <v>0.1846722068328743</v>
+        <v>0.94161958568738224</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="45"/>
-        <v>1.5887850467289748</v>
+        <v>0.19212295869355298</v>
       </c>
       <c r="AC43" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8463,38 +8463,38 @@
         <v>NO</v>
       </c>
       <c r="AI43">
-        <v>51.7</v>
+        <v>53.6</v>
       </c>
       <c r="AJ43">
-        <v>54.15</v>
+        <v>55</v>
       </c>
       <c r="AK43">
-        <v>51</v>
+        <v>52.3</v>
       </c>
       <c r="AL43">
-        <v>53.35</v>
+        <v>53.1</v>
       </c>
       <c r="AM43">
-        <v>2.0500000000000038</v>
+        <v>-0.39999999999999858</v>
       </c>
       <c r="AN43">
-        <v>3.9961013645224259</v>
+        <v>-0.74766355140186647</v>
       </c>
       <c r="AO43" s="1">
         <f t="shared" si="52"/>
-        <v>3.1914893617021245</v>
+        <v>-0.93283582089552231</v>
       </c>
       <c r="AP43" s="1">
         <f t="shared" si="53"/>
-        <v>3.1914893617021245</v>
+        <v>0.93283582089552231</v>
       </c>
       <c r="AQ43" s="1">
         <f t="shared" si="54"/>
-        <v>1.4995313964386077</v>
+        <v>2.6119402985074598</v>
       </c>
       <c r="AR43" s="1">
         <f t="shared" si="55"/>
-        <v>1.3539651837524231</v>
+        <v>1.5065913370998196</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="56"/>
@@ -8526,38 +8526,38 @@
         <v>92</v>
       </c>
       <c r="B44">
-        <v>678.65</v>
+        <v>728</v>
       </c>
       <c r="C44">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="D44">
-        <v>676.1</v>
+        <v>702.1</v>
       </c>
       <c r="E44">
-        <v>700.85</v>
+        <v>712.65</v>
       </c>
       <c r="F44">
-        <v>17.75</v>
+        <v>-13.100000000000019</v>
       </c>
       <c r="G44">
-        <v>2.5984482506221638</v>
+        <v>-1.8050292800551191</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="31"/>
-        <v>3.2712001768216377</v>
+        <v>-2.1085164835164867</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="32"/>
-        <v>3.2712001768216377</v>
+        <v>2.1085164835164867</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="33"/>
-        <v>3.3031319112506208</v>
+        <v>2.3351648351648353</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="34"/>
-        <v>0.375745966256532</v>
+        <v>1.480390093313682</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8588,38 +8588,38 @@
         <v>NO</v>
       </c>
       <c r="S44">
-        <v>680.2</v>
+        <v>696.4</v>
       </c>
       <c r="T44">
-        <v>696</v>
+        <v>731.65</v>
       </c>
       <c r="U44">
-        <v>668.65</v>
+        <v>686</v>
       </c>
       <c r="V44">
-        <v>683.1</v>
+        <v>725.75</v>
       </c>
       <c r="W44">
-        <v>8.8999999999999773</v>
+        <v>24.899999999999981</v>
       </c>
       <c r="X44">
-        <v>1.320083061406107</v>
+        <v>3.5528287079974281</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" si="42"/>
-        <v>0.42634519259041115</v>
+        <v>4.2145318782309049</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" si="43"/>
-        <v>0.42634519259041115</v>
+        <v>4.2145318782309049</v>
       </c>
       <c r="AA44" s="1">
         <f t="shared" si="44"/>
-        <v>1.8884497145366677</v>
+        <v>0.81295211849810223</v>
       </c>
       <c r="AB44" s="1">
         <f t="shared" si="45"/>
-        <v>1.6980299911790748</v>
+        <v>1.4933946008041323</v>
       </c>
       <c r="AC44" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8646,38 +8646,38 @@
         <v>NO</v>
       </c>
       <c r="AI44">
-        <v>686</v>
+        <v>678.65</v>
       </c>
       <c r="AJ44">
-        <v>702.7</v>
+        <v>724</v>
       </c>
       <c r="AK44">
-        <v>655.25</v>
+        <v>676.1</v>
       </c>
       <c r="AL44">
-        <v>674.2</v>
+        <v>700.85</v>
       </c>
       <c r="AM44">
-        <v>-10.44999999999993</v>
+        <v>17.75</v>
       </c>
       <c r="AN44">
-        <v>-1.5263273205287271</v>
+        <v>2.5984482506221638</v>
       </c>
       <c r="AO44" s="1">
         <f t="shared" si="52"/>
-        <v>-1.720116618075795</v>
+        <v>3.2712001768216377</v>
       </c>
       <c r="AP44" s="1">
         <f t="shared" si="53"/>
-        <v>1.720116618075795</v>
+        <v>3.2712001768216377</v>
       </c>
       <c r="AQ44" s="1">
         <f t="shared" si="54"/>
-        <v>2.4344023323615227</v>
+        <v>3.3031319112506208</v>
       </c>
       <c r="AR44" s="1">
         <f t="shared" si="55"/>
-        <v>2.8107386532186358</v>
+        <v>0.375745966256532</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="56"/>
@@ -8709,38 +8709,38 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>279.45</v>
+        <v>282.8</v>
       </c>
       <c r="C45">
         <v>297</v>
       </c>
       <c r="D45">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E45">
-        <v>290.89999999999998</v>
+        <v>285.05</v>
       </c>
       <c r="F45">
-        <v>10.349999999999969</v>
+        <v>2.3500000000000232</v>
       </c>
       <c r="G45">
-        <v>3.6891819639992751</v>
+        <v>0.83126989741776536</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="31"/>
-        <v>4.0973340490248669</v>
+        <v>0.7956152758132955</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="32"/>
-        <v>4.0973340490248669</v>
+        <v>0.7956152758132955</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="33"/>
-        <v>2.0969405293915515</v>
+        <v>4.1922469742150454</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="34"/>
-        <v>0.87672213276077604</v>
+        <v>0.99009900990099409</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8771,38 +8771,38 @@
         <v>NO</v>
       </c>
       <c r="S45">
-        <v>288.75</v>
+        <v>286</v>
       </c>
       <c r="T45">
-        <v>307.45</v>
+        <v>294.75</v>
       </c>
       <c r="U45">
-        <v>276</v>
+        <v>279.7</v>
       </c>
       <c r="V45">
-        <v>280.55</v>
+        <v>282.7</v>
       </c>
       <c r="W45">
-        <v>-6.3000000000000114</v>
+        <v>-8.1999999999999886</v>
       </c>
       <c r="X45">
-        <v>-2.196269827435946</v>
+        <v>-2.818838088690268</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" si="42"/>
-        <v>-2.839826839826836</v>
+        <v>-1.153846153846158</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" si="43"/>
-        <v>2.839826839826836</v>
+        <v>1.153846153846158</v>
       </c>
       <c r="AA45" s="1">
         <f t="shared" si="44"/>
-        <v>6.4761904761904727</v>
+        <v>3.0594405594405596</v>
       </c>
       <c r="AB45" s="1">
         <f t="shared" si="45"/>
-        <v>1.6218142933523476</v>
+        <v>1.0611956137247966</v>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8829,38 +8829,38 @@
         <v>NO</v>
       </c>
       <c r="AI45">
-        <v>275</v>
+        <v>279.45</v>
       </c>
       <c r="AJ45">
-        <v>301.75</v>
+        <v>297</v>
       </c>
       <c r="AK45">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL45">
-        <v>286.85000000000002</v>
+        <v>290.89999999999998</v>
       </c>
       <c r="AM45">
-        <v>13.850000000000019</v>
+        <v>10.349999999999969</v>
       </c>
       <c r="AN45">
-        <v>5.0732600732600819</v>
+        <v>3.6891819639992751</v>
       </c>
       <c r="AO45" s="1">
         <f t="shared" si="52"/>
-        <v>4.3090909090909175</v>
+        <v>4.0973340490248669</v>
       </c>
       <c r="AP45" s="1">
         <f t="shared" si="53"/>
-        <v>4.3090909090909175</v>
+        <v>4.0973340490248669</v>
       </c>
       <c r="AQ45" s="1">
         <f t="shared" si="54"/>
-        <v>5.194352449015156</v>
+        <v>2.0969405293915515</v>
       </c>
       <c r="AR45" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.87672213276077604</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="56"/>
@@ -8892,38 +8892,38 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>31.55</v>
+        <v>32.6</v>
       </c>
       <c r="C46">
-        <v>31.7</v>
+        <v>33.15</v>
       </c>
       <c r="D46">
-        <v>30.35</v>
+        <v>31.6</v>
       </c>
       <c r="E46">
-        <v>30.7</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F46">
-        <v>-0.80000000000000071</v>
+        <v>0.10000000000000139</v>
       </c>
       <c r="G46">
-        <v>-2.5396825396825422</v>
+        <v>0.31152647975078318</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="31"/>
-        <v>-2.6941362916006386</v>
+        <v>-1.2269938650306704</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="32"/>
-        <v>2.6941362916006386</v>
+        <v>1.2269938650306704</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="33"/>
-        <v>0.47543581616481323</v>
+        <v>1.6871165644171693</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="34"/>
-        <v>1.1400651465797975</v>
+        <v>1.8633540372670849</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8954,38 +8954,38 @@
         <v>NO</v>
       </c>
       <c r="S46">
-        <v>31.5</v>
+        <v>30.3</v>
       </c>
       <c r="T46">
-        <v>31.85</v>
+        <v>32.5</v>
       </c>
       <c r="U46">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="V46">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="W46">
-        <v>0.19999999999999929</v>
+        <v>1.4000000000000019</v>
       </c>
       <c r="X46">
-        <v>0.63897763578274536</v>
+        <v>4.5602605863192247</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>5.9405940594059432</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>5.9405940594059432</v>
       </c>
       <c r="AA46" s="1">
         <f t="shared" si="44"/>
-        <v>1.1111111111111156</v>
+        <v>1.2461059190031107</v>
       </c>
       <c r="AB46" s="1">
         <f t="shared" si="45"/>
-        <v>3.4920634920634965</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9012,38 +9012,38 @@
         <v>NO</v>
       </c>
       <c r="AI46">
-        <v>30.95</v>
+        <v>31.55</v>
       </c>
       <c r="AJ46">
-        <v>31.85</v>
+        <v>31.7</v>
       </c>
       <c r="AK46">
-        <v>30.85</v>
+        <v>30.35</v>
       </c>
       <c r="AL46">
-        <v>31.3</v>
+        <v>30.7</v>
       </c>
       <c r="AM46">
-        <v>0.80000000000000071</v>
+        <v>-0.80000000000000071</v>
       </c>
       <c r="AN46">
-        <v>2.6229508196721341</v>
+        <v>-2.5396825396825422</v>
       </c>
       <c r="AO46" s="1">
         <f t="shared" si="52"/>
-        <v>1.1308562197092131</v>
+        <v>-2.6941362916006386</v>
       </c>
       <c r="AP46" s="1">
         <f t="shared" si="53"/>
-        <v>1.1308562197092131</v>
+        <v>2.6941362916006386</v>
       </c>
       <c r="AQ46" s="1">
         <f t="shared" si="54"/>
-        <v>1.7571884984025583</v>
+        <v>0.47543581616481323</v>
       </c>
       <c r="AR46" s="1">
         <f t="shared" si="55"/>
-        <v>0.32310177705976695</v>
+        <v>1.1400651465797975</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="56"/>
@@ -9075,38 +9075,38 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C47">
-        <v>1298.6500000000001</v>
+        <v>1305.4000000000001</v>
       </c>
       <c r="D47">
-        <v>1266</v>
+        <v>1250.5</v>
       </c>
       <c r="E47">
-        <v>1268.6500000000001</v>
+        <v>1273.4000000000001</v>
       </c>
       <c r="F47">
-        <v>-17.39999999999986</v>
+        <v>-10.25</v>
       </c>
       <c r="G47">
-        <v>-1.352980055207796</v>
+        <v>-0.79850426518131878</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="31"/>
-        <v>-1.6550387596899154</v>
+        <v>-0.97978227060652479</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="32"/>
-        <v>1.6550387596899154</v>
+        <v>0.97978227060652479</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="33"/>
-        <v>0.6705426356589218</v>
+        <v>1.5085536547433975</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="34"/>
-        <v>0.20888345879478901</v>
+        <v>1.7983351656981381</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="P47" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q47" s="1" t="str">
         <f t="shared" si="40"/>
@@ -9137,38 +9137,38 @@
         <v>NO</v>
       </c>
       <c r="S47">
-        <v>1327.6</v>
+        <v>1270</v>
       </c>
       <c r="T47">
-        <v>1328.15</v>
+        <v>1291.3</v>
       </c>
       <c r="U47">
-        <v>1272.3499999999999</v>
+        <v>1257</v>
       </c>
       <c r="V47">
-        <v>1286.05</v>
+        <v>1283.6500000000001</v>
       </c>
       <c r="W47">
-        <v>-16.049999999999951</v>
+        <v>15</v>
       </c>
       <c r="X47">
-        <v>-1.23262422240995</v>
+        <v>1.18235920072518</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" si="42"/>
-        <v>-3.1297077432961702</v>
+        <v>1.0748031496063064</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" si="43"/>
-        <v>3.1297077432961702</v>
+        <v>1.0748031496063064</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="44"/>
-        <v>4.1428141006340916E-2</v>
+        <v>0.59595684181824193</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" si="45"/>
-        <v>1.0652773997900584</v>
+        <v>1.0236220472440944</v>
       </c>
       <c r="AC47" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9195,38 +9195,38 @@
         <v>NO</v>
       </c>
       <c r="AI47">
-        <v>1305.2</v>
+        <v>1290</v>
       </c>
       <c r="AJ47">
-        <v>1331</v>
+        <v>1298.6500000000001</v>
       </c>
       <c r="AK47">
-        <v>1272.25</v>
+        <v>1266</v>
       </c>
       <c r="AL47">
-        <v>1302.0999999999999</v>
+        <v>1268.6500000000001</v>
       </c>
       <c r="AM47">
-        <v>12.14999999999986</v>
+        <v>-17.39999999999986</v>
       </c>
       <c r="AN47">
-        <v>0.94189697275087125</v>
+        <v>-1.352980055207796</v>
       </c>
       <c r="AO47" s="1">
         <f t="shared" si="52"/>
-        <v>-0.2375114924915826</v>
+        <v>-1.6550387596899154</v>
       </c>
       <c r="AP47" s="1">
         <f t="shared" si="53"/>
-        <v>0.2375114924915826</v>
+        <v>1.6550387596899154</v>
       </c>
       <c r="AQ47" s="1">
         <f t="shared" si="54"/>
-        <v>1.9767085504137261</v>
+        <v>0.6705426356589218</v>
       </c>
       <c r="AR47" s="1">
         <f t="shared" si="55"/>
-        <v>2.2924506566315883</v>
+        <v>0.20888345879478901</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="56"/>
@@ -9258,38 +9258,38 @@
         <v>96</v>
       </c>
       <c r="B48">
+        <v>33.9</v>
+      </c>
+      <c r="C48">
+        <v>35</v>
+      </c>
+      <c r="D48">
+        <v>33.6</v>
+      </c>
+      <c r="E48">
         <v>34.200000000000003</v>
       </c>
-      <c r="C48">
-        <v>34.5</v>
-      </c>
-      <c r="D48">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E48">
-        <v>33.950000000000003</v>
-      </c>
       <c r="F48">
-        <v>-0.25</v>
+        <v>0.30000000000000432</v>
       </c>
       <c r="G48">
-        <v>-0.73099415204678353</v>
+        <v>0.88495575221240208</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="31"/>
-        <v>-0.73099415204678353</v>
+        <v>0.88495575221240208</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="32"/>
-        <v>0.73099415204678353</v>
+        <v>0.88495575221240208</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="33"/>
-        <v>0.87719298245613198</v>
+        <v>2.339181286549699</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="34"/>
-        <v>0.44182621502210806</v>
+        <v>0.88495575221238099</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9320,38 +9320,38 @@
         <v>NO</v>
       </c>
       <c r="S48">
-        <v>35.15</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="T48">
-        <v>35.15</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="U48">
-        <v>34</v>
+        <v>33.6</v>
       </c>
       <c r="V48">
-        <v>34.200000000000003</v>
+        <v>33.9</v>
       </c>
       <c r="W48">
-        <v>-0.5</v>
+        <v>-5.0000000000004263E-2</v>
       </c>
       <c r="X48">
-        <v>-1.4409221902017291</v>
+        <v>-0.14727540500737629</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="42"/>
-        <v>-2.7027027027026906</v>
+        <v>0.2958579881656847</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="43"/>
-        <v>2.7027027027026906</v>
+        <v>0.2958579881656847</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.88495575221240208</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="45"/>
-        <v>0.58479532163743519</v>
+        <v>0.59171597633134831</v>
       </c>
       <c r="AC48" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9378,38 +9378,38 @@
         <v>NO</v>
       </c>
       <c r="AI48">
-        <v>34.4</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="AJ48">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="AK48">
-        <v>34.299999999999997</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="AL48">
-        <v>34.700000000000003</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="AM48">
-        <v>0.40000000000000568</v>
+        <v>-0.25</v>
       </c>
       <c r="AN48">
-        <v>1.166180758017509</v>
+        <v>-0.73099415204678353</v>
       </c>
       <c r="AO48" s="1">
         <f t="shared" si="52"/>
-        <v>0.87209302325582638</v>
+        <v>-0.73099415204678353</v>
       </c>
       <c r="AP48" s="1">
         <f t="shared" si="53"/>
-        <v>0.87209302325582638</v>
+        <v>0.73099415204678353</v>
       </c>
       <c r="AQ48" s="1">
         <f t="shared" si="54"/>
-        <v>0.8645533141210292</v>
+        <v>0.87719298245613198</v>
       </c>
       <c r="AR48" s="1">
         <f t="shared" si="55"/>
-        <v>0.29069767441860883</v>
+        <v>0.44182621502210806</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="56"/>
@@ -9441,38 +9441,38 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>314.95</v>
+        <v>319.5</v>
       </c>
       <c r="C49">
-        <v>328.5</v>
+        <v>333.9</v>
       </c>
       <c r="D49">
-        <v>311.05</v>
+        <v>316.5</v>
       </c>
       <c r="E49">
-        <v>325.75</v>
+        <v>328.05</v>
       </c>
       <c r="F49">
-        <v>12.100000000000019</v>
+        <v>10.350000000000019</v>
       </c>
       <c r="G49">
-        <v>3.857803283915199</v>
+        <v>3.2577903682719618</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="31"/>
-        <v>3.4291157326559811</v>
+        <v>2.6760563380281726</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="32"/>
-        <v>3.4291157326559811</v>
+        <v>2.6760563380281726</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="33"/>
-        <v>0.84420567920184197</v>
+        <v>1.7832647462276987</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="34"/>
-        <v>1.2382917923479846</v>
+        <v>0.93896713615023475</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9503,38 +9503,38 @@
         <v>NO</v>
       </c>
       <c r="S49">
-        <v>323</v>
+        <v>320.25</v>
       </c>
       <c r="T49">
-        <v>323</v>
+        <v>325.7</v>
       </c>
       <c r="U49">
-        <v>310</v>
+        <v>316.7</v>
       </c>
       <c r="V49">
-        <v>313.64999999999998</v>
+        <v>317.7</v>
       </c>
       <c r="W49">
-        <v>-9.5</v>
+        <v>-8.0500000000000114</v>
       </c>
       <c r="X49">
-        <v>-2.9398112331734492</v>
+        <v>-2.4712202609363039</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" si="42"/>
-        <v>-2.8947368421052699</v>
+        <v>-0.79625292740047193</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" si="43"/>
-        <v>2.8947368421052699</v>
+        <v>0.79625292740047193</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1.7017954722872721</v>
       </c>
       <c r="AB49" s="1">
         <f t="shared" si="45"/>
-        <v>1.1637175195281293</v>
+        <v>0.31476235442241113</v>
       </c>
       <c r="AC49" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9561,38 +9561,38 @@
         <v>NO</v>
       </c>
       <c r="AI49">
-        <v>287.8</v>
+        <v>314.95</v>
       </c>
       <c r="AJ49">
-        <v>331</v>
+        <v>328.5</v>
       </c>
       <c r="AK49">
-        <v>286.3</v>
+        <v>311.05</v>
       </c>
       <c r="AL49">
-        <v>323.14999999999998</v>
+        <v>325.75</v>
       </c>
       <c r="AM49">
-        <v>40.25</v>
+        <v>12.100000000000019</v>
       </c>
       <c r="AN49">
-        <v>14.22764227642277</v>
+        <v>3.857803283915199</v>
       </c>
       <c r="AO49" s="1">
         <f t="shared" si="52"/>
-        <v>12.282835302293247</v>
+        <v>3.4291157326559811</v>
       </c>
       <c r="AP49" s="1">
         <f t="shared" si="53"/>
-        <v>12.282835302293247</v>
+        <v>3.4291157326559811</v>
       </c>
       <c r="AQ49" s="1">
         <f t="shared" si="54"/>
-        <v>2.4292124400433308</v>
+        <v>0.84420567920184197</v>
       </c>
       <c r="AR49" s="1">
         <f t="shared" si="55"/>
-        <v>0.52119527449617786</v>
+        <v>1.2382917923479846</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="56"/>
@@ -9624,38 +9624,38 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>26.8</v>
+        <v>26.45</v>
       </c>
       <c r="C50">
-        <v>27.05</v>
+        <v>27.45</v>
       </c>
       <c r="D50">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E50">
-        <v>26.25</v>
+        <v>27</v>
       </c>
       <c r="F50">
-        <v>-0.19999999999999929</v>
+        <v>0.69999999999999929</v>
       </c>
       <c r="G50">
-        <v>-0.75614366729678373</v>
+        <v>2.6615969581749019</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="31"/>
-        <v>-2.0522388059701515</v>
+        <v>2.0793950850661655</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="32"/>
-        <v>2.0522388059701515</v>
+        <v>2.0793950850661655</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="33"/>
-        <v>0.93283582089552231</v>
+        <v>1.6666666666666639</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="34"/>
-        <v>0.57142857142856607</v>
+        <v>0.56710775047258444</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9686,38 +9686,38 @@
         <v>NO</v>
       </c>
       <c r="S50">
-        <v>26.75</v>
+        <v>26.3</v>
       </c>
       <c r="T50">
-        <v>27.1</v>
+        <v>26.65</v>
       </c>
       <c r="U50">
-        <v>26.25</v>
+        <v>26.1</v>
       </c>
       <c r="V50">
-        <v>26.45</v>
+        <v>26.3</v>
       </c>
       <c r="W50">
-        <v>-0.25</v>
+        <v>5.0000000000000711E-2</v>
       </c>
       <c r="X50">
-        <v>-0.93632958801498134</v>
+        <v>0.19047619047619321</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" si="42"/>
-        <v>-1.1214953271028065</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" si="43"/>
-        <v>1.1214953271028065</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" si="44"/>
-        <v>1.3084112149532763</v>
+        <v>1.3307984790874443</v>
       </c>
       <c r="AB50" s="1">
         <f t="shared" si="45"/>
-        <v>0.75614366729678373</v>
+        <v>0.76045627376425584</v>
       </c>
       <c r="AC50" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9744,38 +9744,38 @@
         <v>NO</v>
       </c>
       <c r="AI50">
-        <v>27.45</v>
+        <v>26.8</v>
       </c>
       <c r="AJ50">
-        <v>27.45</v>
+        <v>27.05</v>
       </c>
       <c r="AK50">
-        <v>26.55</v>
+        <v>26.1</v>
       </c>
       <c r="AL50">
-        <v>26.7</v>
+        <v>26.25</v>
       </c>
       <c r="AM50">
-        <v>-0.30000000000000071</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="AN50">
-        <v>-1.111111111111114</v>
+        <v>-0.75614366729678373</v>
       </c>
       <c r="AO50" s="1">
         <f t="shared" si="52"/>
-        <v>-2.7322404371584699</v>
+        <v>-2.0522388059701515</v>
       </c>
       <c r="AP50" s="1">
         <f t="shared" si="53"/>
-        <v>2.7322404371584699</v>
+        <v>2.0522388059701515</v>
       </c>
       <c r="AQ50" s="1">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.93283582089552231</v>
       </c>
       <c r="AR50" s="1">
         <f t="shared" si="55"/>
-        <v>0.56179775280898347</v>
+        <v>0.57142857142856607</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="56"/>
@@ -9807,38 +9807,38 @@
         <v>99</v>
       </c>
       <c r="B51">
-        <v>298.45</v>
+        <v>297.64999999999998</v>
       </c>
       <c r="C51">
-        <v>304.5</v>
+        <v>310.95</v>
       </c>
       <c r="D51">
-        <v>297</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="E51">
-        <v>299.05</v>
+        <v>305.7</v>
       </c>
       <c r="F51">
-        <v>2.1000000000000232</v>
+        <v>9.5500000000000114</v>
       </c>
       <c r="G51">
-        <v>0.70718976258630162</v>
+        <v>3.2247172041195382</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="31"/>
-        <v>0.20103869994974793</v>
+        <v>2.7045187300520785</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="32"/>
-        <v>0.20103869994974793</v>
+        <v>2.7045187300520785</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="33"/>
-        <v>1.8224377194449051</v>
+        <v>1.7173699705593719</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="34"/>
-        <v>0.48584352487853527</v>
+        <v>1.6798252981674627E-2</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9869,38 +9869,38 @@
         <v>NO</v>
       </c>
       <c r="S51">
-        <v>292.75</v>
+        <v>296.60000000000002</v>
       </c>
       <c r="T51">
-        <v>304</v>
+        <v>301.05</v>
       </c>
       <c r="U51">
-        <v>291.25</v>
+        <v>295</v>
       </c>
       <c r="V51">
-        <v>296.95</v>
+        <v>296.14999999999998</v>
       </c>
       <c r="W51">
-        <v>5.6999999999999886</v>
+        <v>-2.9000000000000341</v>
       </c>
       <c r="X51">
-        <v>1.9570815450643739</v>
+        <v>-0.9697375020899629</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" si="42"/>
-        <v>1.434671221178476</v>
+        <v>-0.1517194875253019</v>
       </c>
       <c r="Z51" s="1">
         <f t="shared" si="43"/>
-        <v>1.434671221178476</v>
+        <v>0.1517194875253019</v>
       </c>
       <c r="AA51" s="1">
         <f t="shared" si="44"/>
-        <v>2.374137060111134</v>
+        <v>1.5003371544167188</v>
       </c>
       <c r="AB51" s="1">
         <f t="shared" si="45"/>
-        <v>0.51238257899231432</v>
+        <v>0.38831673138611428</v>
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9927,38 +9927,38 @@
         <v>NO</v>
       </c>
       <c r="AI51">
-        <v>292.64999999999998</v>
+        <v>298.45</v>
       </c>
       <c r="AJ51">
-        <v>296.35000000000002</v>
+        <v>304.5</v>
       </c>
       <c r="AK51">
-        <v>289.25</v>
+        <v>297</v>
       </c>
       <c r="AL51">
-        <v>291.25</v>
+        <v>299.05</v>
       </c>
       <c r="AM51">
-        <v>0.1000000000000227</v>
+        <v>2.1000000000000232</v>
       </c>
       <c r="AN51">
-        <v>3.4346556757692853E-2</v>
+        <v>0.70718976258630162</v>
       </c>
       <c r="AO51" s="1">
         <f t="shared" si="52"/>
-        <v>-0.47838715188791303</v>
+        <v>0.20103869994974793</v>
       </c>
       <c r="AP51" s="1">
         <f t="shared" si="53"/>
-        <v>0.47838715188791303</v>
+        <v>0.20103869994974793</v>
       </c>
       <c r="AQ51" s="1">
         <f t="shared" si="54"/>
-        <v>1.2643089014180919</v>
+        <v>1.8224377194449051</v>
       </c>
       <c r="AR51" s="1">
         <f t="shared" si="55"/>
-        <v>0.68669527896995708</v>
+        <v>0.48584352487853527</v>
       </c>
       <c r="AS51" t="str">
         <f t="shared" si="56"/>
